--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6170357</v>
+        <v>6170358</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>44951.5</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="L43">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M43">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="N43">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q43">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
         <v>1.8</v>
       </c>
-      <c r="S43">
-        <v>2</v>
-      </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W43">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
         <v>0.8</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6170358</v>
+        <v>6170357</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,73 +4372,73 @@
         <v>44951.5</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="L44">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="N44">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O44">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6170365</v>
+        <v>6170364</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,61 +4906,61 @@
         <v>44954.5</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M50">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="N50">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P50">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U50">
+        <v>1.875</v>
+      </c>
+      <c r="V50">
         <v>1.925</v>
       </c>
-      <c r="V50">
-        <v>1.875</v>
-      </c>
       <c r="W50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y50">
         <v>-1</v>
@@ -4972,10 +4972,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6170364</v>
+        <v>6170365</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,61 +4995,61 @@
         <v>44954.5</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L51">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="N51">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="O51">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
+        <v>1.925</v>
+      </c>
+      <c r="V51">
         <v>1.875</v>
       </c>
-      <c r="V51">
-        <v>1.925</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X51">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5061,10 +5061,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6170371</v>
+        <v>6170370</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>44955.6875</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
+        <v>1.85</v>
+      </c>
+      <c r="L56">
+        <v>3.25</v>
+      </c>
+      <c r="M56">
+        <v>3.75</v>
+      </c>
+      <c r="N56">
+        <v>2.2</v>
+      </c>
+      <c r="O56">
         <v>2.875</v>
       </c>
-      <c r="L56">
-        <v>3</v>
-      </c>
-      <c r="M56">
-        <v>2.3</v>
-      </c>
-      <c r="N56">
-        <v>2.45</v>
-      </c>
-      <c r="O56">
-        <v>2.55</v>
-      </c>
       <c r="P56">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U56">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V56">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y56">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>1.1</v>
+        <v>0.425</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC56">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6170370</v>
+        <v>6170371</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>44955.6875</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L57">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N57">
+        <v>2.45</v>
+      </c>
+      <c r="O57">
+        <v>2.55</v>
+      </c>
+      <c r="P57">
+        <v>3.2</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1.7</v>
+      </c>
+      <c r="S57">
+        <v>2.1</v>
+      </c>
+      <c r="T57">
+        <v>1.5</v>
+      </c>
+      <c r="U57">
+        <v>1.775</v>
+      </c>
+      <c r="V57">
+        <v>2.025</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
         <v>2.2</v>
       </c>
-      <c r="O57">
-        <v>2.875</v>
-      </c>
-      <c r="P57">
-        <v>3.3</v>
-      </c>
-      <c r="Q57">
-        <v>-0.25</v>
-      </c>
-      <c r="R57">
-        <v>1.95</v>
-      </c>
-      <c r="S57">
-        <v>1.85</v>
-      </c>
-      <c r="T57">
-        <v>1.75</v>
-      </c>
-      <c r="U57">
-        <v>1.75</v>
-      </c>
-      <c r="V57">
-        <v>2.05</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>1.875</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.425</v>
+        <v>1.1</v>
       </c>
       <c r="AB57">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6472142</v>
+        <v>6472151</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L91">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="N91">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O91">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P91">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X91">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6472143</v>
+        <v>6472142</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L92">
         <v>2.75</v>
       </c>
       <c r="M92">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O92">
         <v>2.75</v>
       </c>
       <c r="P92">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y92">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>0.7</v>
+        <v>0.4375</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6472151</v>
+        <v>6472143</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M93">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N93">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O93">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P93">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S93">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="T93">
         <v>2</v>
       </c>
       <c r="U93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W93">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6472144</v>
+        <v>6472145</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L94">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M94">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N94">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O94">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P94">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
         <v>1.75</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6472145</v>
+        <v>6472144</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L95">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N95">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P95">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T95">
         <v>1.75</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y95">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
+        <v>0.375</v>
+      </c>
+      <c r="AB95">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB95">
-        <v>-1</v>
-      </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6472148</v>
+        <v>6472149</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,46 +9178,46 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L98">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="M98">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N98">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O98">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="P98">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T98">
         <v>1.75</v>
@@ -9229,25 +9229,25 @@
         <v>1.825</v>
       </c>
       <c r="W98">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6472149</v>
+        <v>6472148</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,46 +9445,46 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L101">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="M101">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O101">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="P101">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>1.75</v>
@@ -9496,25 +9496,25 @@
         <v>1.825</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X101">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6504364</v>
+        <v>6504363</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N108">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6504363</v>
+        <v>6504362</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K109">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M109">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="N109">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O109">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P109">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>1.75</v>
+      </c>
+      <c r="S109">
+        <v>2.05</v>
+      </c>
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109">
+        <v>2</v>
+      </c>
+      <c r="V109">
+        <v>1.8</v>
+      </c>
+      <c r="W109">
+        <v>1.45</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
         <v>0.75</v>
       </c>
-      <c r="R109">
-        <v>1.9</v>
-      </c>
-      <c r="S109">
-        <v>1.9</v>
-      </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
-      <c r="U109">
-        <v>1.75</v>
-      </c>
-      <c r="V109">
-        <v>2.05</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
-      <c r="Y109">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="Z109">
-        <v>-0.5</v>
-      </c>
       <c r="AA109">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6504362</v>
+        <v>6504364</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K110">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L110">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N110">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O110">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6507527</v>
+        <v>6517498</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,58 +10335,58 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>49</v>
       </c>
       <c r="K111">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M111">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P111">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U111">
+        <v>1.775</v>
+      </c>
+      <c r="V111">
         <v>2.025</v>
       </c>
-      <c r="V111">
-        <v>1.775</v>
-      </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,13 +10395,13 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6517498</v>
+        <v>6507526</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,40 +10424,40 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K112">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L112">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="M112">
+        <v>2.7</v>
+      </c>
+      <c r="N112">
+        <v>2.7</v>
+      </c>
+      <c r="O112">
         <v>2.75</v>
       </c>
-      <c r="N112">
-        <v>2.3</v>
-      </c>
-      <c r="O112">
+      <c r="P112">
         <v>2.625</v>
       </c>
-      <c r="P112">
-        <v>3.3</v>
-      </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
         <v>2</v>
@@ -10466,31 +10466,31 @@
         <v>1.8</v>
       </c>
       <c r="T112">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U112">
+        <v>2.025</v>
+      </c>
+      <c r="V112">
         <v>1.775</v>
       </c>
-      <c r="V112">
-        <v>2.025</v>
-      </c>
       <c r="W112">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB112">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6507526</v>
+        <v>6507527</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,49 +10513,49 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L113">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O113">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
         <v>2.025</v>
@@ -10564,19 +10564,19 @@
         <v>1.775</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
         <v>1.025</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6540263</v>
+        <v>6540264</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,73 +10602,73 @@
         <v>45035.79166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K114">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P114">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
+        <v>1.875</v>
+      </c>
+      <c r="S114">
+        <v>1.925</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="S114">
-        <v>1.975</v>
-      </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
-        <v>1.75</v>
-      </c>
-      <c r="V114">
-        <v>2.05</v>
-      </c>
       <c r="W114">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB114">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6540264</v>
+        <v>6540263</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,73 +10691,73 @@
         <v>45035.79166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
+        <v>1.444</v>
+      </c>
+      <c r="L115">
+        <v>3.5</v>
+      </c>
+      <c r="M115">
+        <v>7.5</v>
+      </c>
+      <c r="N115">
+        <v>1.615</v>
+      </c>
+      <c r="O115">
+        <v>3.3</v>
+      </c>
+      <c r="P115">
+        <v>5.25</v>
+      </c>
+      <c r="Q115">
+        <v>-0.75</v>
+      </c>
+      <c r="R115">
+        <v>1.825</v>
+      </c>
+      <c r="S115">
+        <v>1.975</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.75</v>
+      </c>
+      <c r="V115">
         <v>2.05</v>
       </c>
-      <c r="L115">
-        <v>2.875</v>
-      </c>
-      <c r="M115">
-        <v>3.6</v>
-      </c>
-      <c r="N115">
-        <v>2.2</v>
-      </c>
-      <c r="O115">
-        <v>2.625</v>
-      </c>
-      <c r="P115">
-        <v>3.75</v>
-      </c>
-      <c r="Q115">
-        <v>-0.25</v>
-      </c>
-      <c r="R115">
-        <v>1.875</v>
-      </c>
-      <c r="S115">
-        <v>1.925</v>
-      </c>
-      <c r="T115">
-        <v>2</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X115">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA115">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6543367</v>
+        <v>6543366</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,34 +10869,34 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L117">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M117">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N117">
         <v>2.1</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P117">
         <v>3.25</v>
@@ -10905,40 +10905,40 @@
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC117">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6543368</v>
+        <v>6543367</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,76 +10958,76 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>48</v>
       </c>
       <c r="K118">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L118">
+        <v>2.9</v>
+      </c>
+      <c r="M118">
+        <v>2.3</v>
+      </c>
+      <c r="N118">
+        <v>2.1</v>
+      </c>
+      <c r="O118">
         <v>3.1</v>
       </c>
-      <c r="M118">
-        <v>3.75</v>
-      </c>
-      <c r="N118">
-        <v>1.75</v>
-      </c>
-      <c r="O118">
+      <c r="P118">
         <v>3.25</v>
       </c>
-      <c r="P118">
-        <v>4.5</v>
-      </c>
       <c r="Q118">
+        <v>-0.25</v>
+      </c>
+      <c r="R118">
+        <v>1.875</v>
+      </c>
+      <c r="S118">
+        <v>1.925</v>
+      </c>
+      <c r="T118">
+        <v>2.25</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
+        <v>1.8</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>2.1</v>
+      </c>
+      <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
         <v>-0.5</v>
       </c>
-      <c r="R118">
-        <v>1.8</v>
-      </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>1.75</v>
-      </c>
-      <c r="U118">
-        <v>1.775</v>
-      </c>
-      <c r="V118">
-        <v>2.025</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>2.25</v>
-      </c>
-      <c r="Y118">
-        <v>-1</v>
-      </c>
-      <c r="Z118">
-        <v>-1</v>
-      </c>
       <c r="AA118">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6543366</v>
+        <v>6543368</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,40 +11047,40 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N119">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
         <v>1.8</v>
@@ -11089,34 +11089,34 @@
         <v>2</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U119">
+        <v>1.775</v>
+      </c>
+      <c r="V119">
         <v>2.025</v>
       </c>
-      <c r="V119">
-        <v>1.775</v>
-      </c>
       <c r="W119">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>1.025</v>
-      </c>
-      <c r="AC119">
-        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6557108</v>
+        <v>6562344</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,73 +11848,73 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K128">
+        <v>1.5</v>
+      </c>
+      <c r="L128">
+        <v>3.6</v>
+      </c>
+      <c r="M128">
+        <v>6</v>
+      </c>
+      <c r="N128">
+        <v>1.5</v>
+      </c>
+      <c r="O128">
+        <v>3.75</v>
+      </c>
+      <c r="P128">
         <v>5.5</v>
       </c>
-      <c r="L128">
-        <v>3.25</v>
-      </c>
-      <c r="M128">
-        <v>1.6</v>
-      </c>
-      <c r="N128">
-        <v>7.5</v>
-      </c>
-      <c r="O128">
-        <v>3.3</v>
-      </c>
-      <c r="P128">
-        <v>1.533</v>
-      </c>
       <c r="Q128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R128">
+        <v>2.025</v>
+      </c>
+      <c r="S128">
         <v>1.775</v>
       </c>
-      <c r="S128">
-        <v>2.025</v>
-      </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
         <v>1.825</v>
       </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6562344</v>
+        <v>6557108</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,73 +11937,73 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="N129">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R129">
+        <v>1.775</v>
+      </c>
+      <c r="S129">
         <v>2.025</v>
       </c>
-      <c r="S129">
-        <v>1.775</v>
-      </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="V129">
-        <v>1.825</v>
-      </c>
       <c r="W129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6728746</v>
+        <v>6728745</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N147">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O147">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X147">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6728807</v>
+        <v>6728746</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>2.6</v>
+      </c>
+      <c r="N148">
         <v>3.2</v>
       </c>
-      <c r="M148">
-        <v>3.6</v>
-      </c>
-      <c r="N148">
-        <v>1.833</v>
-      </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P148">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
         <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6728809</v>
+        <v>6728807</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,10 +13717,10 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13732,19 +13732,19 @@
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N149">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O149">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
         <v>3.5</v>
@@ -13753,22 +13753,22 @@
         <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S149">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
         <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
-        <v>0.909</v>
+        <v>0.833</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6728806</v>
+        <v>6728809</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,58 +13806,58 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>49</v>
       </c>
       <c r="K150">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L150">
+        <v>3.4</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
+        <v>1.909</v>
+      </c>
+      <c r="O150">
+        <v>3.2</v>
+      </c>
+      <c r="P150">
         <v>3.5</v>
       </c>
-      <c r="M150">
-        <v>4.333</v>
-      </c>
-      <c r="N150">
-        <v>1.5</v>
-      </c>
-      <c r="O150">
-        <v>3.5</v>
-      </c>
-      <c r="P150">
-        <v>6.5</v>
-      </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,16 +13866,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC150">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6728810</v>
+        <v>6728806</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,13 +13895,13 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13910,43 +13910,43 @@
         <v>49</v>
       </c>
       <c r="K151">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L151">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N151">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O151">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
         <v>2</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13955,16 +13955,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB151">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6728811</v>
+        <v>6728810</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,73 +13984,73 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L152">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M152">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N152">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O152">
         <v>2.9</v>
       </c>
       <c r="P152">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T152">
         <v>2</v>
       </c>
       <c r="U152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6728745</v>
+        <v>6728811</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,73 +14073,73 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
         <v>3</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K153">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M153">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N153">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O153">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P153">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R153">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
         <v>2</v>
       </c>
       <c r="U153">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z153">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB153">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6786816</v>
+        <v>6786815</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,10 +14162,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14177,43 +14177,43 @@
         <v>49</v>
       </c>
       <c r="K154">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="L154">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M154">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="N154">
-        <v>1.285</v>
+        <v>2.9</v>
       </c>
       <c r="O154">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P154">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W154">
-        <v>0.2849999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14222,13 +14222,13 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6786815</v>
+        <v>6786816</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,10 +14251,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14266,43 +14266,43 @@
         <v>49</v>
       </c>
       <c r="K155">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="L155">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="M155">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="N155">
-        <v>2.9</v>
+        <v>1.285</v>
       </c>
       <c r="O155">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P155">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T155">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V155">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W155">
-        <v>1.9</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14311,13 +14311,13 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6786812</v>
+        <v>6786810</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,55 +14429,55 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>48</v>
       </c>
       <c r="K157">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L157">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N157">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O157">
         <v>3</v>
       </c>
       <c r="P157">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
         <v>2</v>
       </c>
       <c r="U157">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V157">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14489,16 +14489,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6786810</v>
+        <v>6786812</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,55 +14607,55 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>48</v>
       </c>
       <c r="K159">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L159">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M159">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N159">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O159">
         <v>3</v>
       </c>
       <c r="P159">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
         <v>2</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14667,16 +14667,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6786823</v>
+        <v>6786822</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,58 +15052,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J164" t="s">
         <v>49</v>
       </c>
       <c r="K164">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L164">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="M164">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N164">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="O164">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P164">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q164">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
-        <v>0.333</v>
+        <v>1.25</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15112,13 +15112,13 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA164">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6786822</v>
+        <v>6786823</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,58 +15497,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H169">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
         <v>49</v>
       </c>
       <c r="K169">
+        <v>1.666</v>
+      </c>
+      <c r="L169">
+        <v>3.3</v>
+      </c>
+      <c r="M169">
+        <v>5</v>
+      </c>
+      <c r="N169">
+        <v>1.333</v>
+      </c>
+      <c r="O169">
+        <v>4.2</v>
+      </c>
+      <c r="P169">
+        <v>8</v>
+      </c>
+      <c r="Q169">
+        <v>-1.5</v>
+      </c>
+      <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
+        <v>1.825</v>
+      </c>
+      <c r="T169">
         <v>3</v>
       </c>
-      <c r="L169">
-        <v>2.75</v>
-      </c>
-      <c r="M169">
-        <v>2.4</v>
-      </c>
-      <c r="N169">
-        <v>2.25</v>
-      </c>
-      <c r="O169">
-        <v>2.9</v>
-      </c>
-      <c r="P169">
-        <v>3.1</v>
-      </c>
-      <c r="Q169">
-        <v>-0.25</v>
-      </c>
-      <c r="R169">
-        <v>2</v>
-      </c>
-      <c r="S169">
-        <v>1.8</v>
-      </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W169">
-        <v>1.25</v>
+        <v>0.333</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15557,13 +15557,13 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB169">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7287222</v>
+        <v>7287211</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45207.59375</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>49</v>
       </c>
       <c r="K215">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L215">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N215">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P215">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,13 +19651,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7287211</v>
+        <v>7287222</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45207.59375</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>3</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L216">
+        <v>2.9</v>
+      </c>
+      <c r="M216">
+        <v>2.3</v>
+      </c>
+      <c r="N216">
         <v>3.6</v>
       </c>
-      <c r="M216">
-        <v>6</v>
-      </c>
-      <c r="N216">
-        <v>1.3</v>
-      </c>
       <c r="O216">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P216">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,13 +19740,13 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7627126</v>
+        <v>7627031</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,10 +24486,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G270" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H270">
         <v>2</v>
@@ -24501,43 +24501,43 @@
         <v>49</v>
       </c>
       <c r="K270">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L270">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M270">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N270">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O270">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P270">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q270">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R270">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S270">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T270">
         <v>1.75</v>
       </c>
       <c r="U270">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V270">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W270">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="X270">
         <v>-1</v>
@@ -24546,13 +24546,13 @@
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7627031</v>
+        <v>7627126</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,10 +24575,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G271" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H271">
         <v>2</v>
@@ -24590,43 +24590,43 @@
         <v>49</v>
       </c>
       <c r="K271">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L271">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M271">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N271">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O271">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P271">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q271">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R271">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S271">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T271">
         <v>1.75</v>
       </c>
       <c r="U271">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V271">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24635,13 +24635,13 @@
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24919,7 +24919,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7641575</v>
+        <v>7641574</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24931,76 +24931,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G275" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K275">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L275">
         <v>3</v>
       </c>
       <c r="M275">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N275">
         <v>1.95</v>
       </c>
       <c r="O275">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P275">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
+        <v>1.925</v>
+      </c>
+      <c r="S275">
+        <v>1.875</v>
+      </c>
+      <c r="T275">
+        <v>2</v>
+      </c>
+      <c r="U275">
+        <v>1.85</v>
+      </c>
+      <c r="V275">
         <v>1.95</v>
       </c>
-      <c r="S275">
-        <v>1.85</v>
-      </c>
-      <c r="T275">
-        <v>2</v>
-      </c>
-      <c r="U275">
-        <v>2.025</v>
-      </c>
-      <c r="V275">
-        <v>1.775</v>
-      </c>
       <c r="W275">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB275">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC275">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25008,7 +25008,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7641574</v>
+        <v>7641575</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25020,76 +25020,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G276" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K276">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L276">
         <v>3</v>
       </c>
       <c r="M276">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N276">
         <v>1.95</v>
       </c>
       <c r="O276">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P276">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q276">
         <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S276">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T276">
         <v>2</v>
       </c>
       <c r="U276">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V276">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X276">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA276">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC276">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25186,7 +25186,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7641577</v>
+        <v>7641558</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25198,73 +25198,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G278" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K278">
+        <v>1.444</v>
+      </c>
+      <c r="L278">
+        <v>3.75</v>
+      </c>
+      <c r="M278">
+        <v>6.5</v>
+      </c>
+      <c r="N278">
+        <v>1.444</v>
+      </c>
+      <c r="O278">
+        <v>4</v>
+      </c>
+      <c r="P278">
+        <v>5.75</v>
+      </c>
+      <c r="Q278">
+        <v>-1</v>
+      </c>
+      <c r="R278">
+        <v>1.8</v>
+      </c>
+      <c r="S278">
+        <v>2</v>
+      </c>
+      <c r="T278">
         <v>2.25</v>
       </c>
-      <c r="L278">
-        <v>3</v>
-      </c>
-      <c r="M278">
-        <v>3</v>
-      </c>
-      <c r="N278">
-        <v>2.3</v>
-      </c>
-      <c r="O278">
-        <v>2.9</v>
-      </c>
-      <c r="P278">
-        <v>2.9</v>
-      </c>
-      <c r="Q278">
-        <v>-0.25</v>
-      </c>
-      <c r="R278">
-        <v>2</v>
-      </c>
-      <c r="S278">
-        <v>1.8</v>
-      </c>
-      <c r="T278">
-        <v>2</v>
-      </c>
       <c r="U278">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V278">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA278">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25275,7 +25275,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7641558</v>
+        <v>7641577</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25287,73 +25287,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F279" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>2</v>
+      </c>
+      <c r="J279" t="s">
+        <v>47</v>
+      </c>
+      <c r="K279">
+        <v>2.25</v>
+      </c>
+      <c r="L279">
         <v>3</v>
       </c>
-      <c r="I279">
-        <v>1</v>
-      </c>
-      <c r="J279" t="s">
-        <v>49</v>
-      </c>
-      <c r="K279">
-        <v>1.444</v>
-      </c>
-      <c r="L279">
-        <v>3.75</v>
-      </c>
       <c r="M279">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N279">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O279">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P279">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q279">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R279">
+        <v>2</v>
+      </c>
+      <c r="S279">
         <v>1.8</v>
       </c>
-      <c r="S279">
-        <v>2</v>
-      </c>
       <c r="T279">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U279">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V279">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W279">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z279">
+        <v>-1</v>
+      </c>
+      <c r="AA279">
         <v>0.8</v>
       </c>
-      <c r="AA279">
-        <v>-1</v>
-      </c>
       <c r="AB279">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -26343,7 +26343,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7781916</v>
+        <v>7781931</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26355,73 +26355,73 @@
         <v>45329.5</v>
       </c>
       <c r="F291" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G291" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K291">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L291">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M291">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N291">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O291">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P291">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q291">
         <v>0</v>
       </c>
       <c r="R291">
+        <v>2.075</v>
+      </c>
+      <c r="S291">
         <v>1.725</v>
       </c>
-      <c r="S291">
-        <v>2.075</v>
-      </c>
       <c r="T291">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U291">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V291">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA291">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26432,7 +26432,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7781931</v>
+        <v>7781916</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26444,73 +26444,73 @@
         <v>45329.5</v>
       </c>
       <c r="F292" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G292" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J292" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K292">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L292">
+        <v>3.1</v>
+      </c>
+      <c r="M292">
+        <v>3.4</v>
+      </c>
+      <c r="N292">
+        <v>2.4</v>
+      </c>
+      <c r="O292">
+        <v>3</v>
+      </c>
+      <c r="P292">
         <v>2.9</v>
       </c>
-      <c r="M292">
-        <v>2.2</v>
-      </c>
-      <c r="N292">
-        <v>2.9</v>
-      </c>
-      <c r="O292">
-        <v>2.75</v>
-      </c>
-      <c r="P292">
-        <v>2.45</v>
-      </c>
       <c r="Q292">
         <v>0</v>
       </c>
       <c r="R292">
+        <v>1.725</v>
+      </c>
+      <c r="S292">
         <v>2.075</v>
       </c>
-      <c r="S292">
-        <v>1.725</v>
-      </c>
       <c r="T292">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U292">
+        <v>1.8</v>
+      </c>
+      <c r="V292">
+        <v>2</v>
+      </c>
+      <c r="W292">
+        <v>-1</v>
+      </c>
+      <c r="X292">
+        <v>-1</v>
+      </c>
+      <c r="Y292">
         <v>1.9</v>
       </c>
-      <c r="V292">
-        <v>1.9</v>
-      </c>
-      <c r="W292">
-        <v>1.9</v>
-      </c>
-      <c r="X292">
-        <v>-1</v>
-      </c>
-      <c r="Y292">
-        <v>-1</v>
-      </c>
       <c r="Z292">
+        <v>-1</v>
+      </c>
+      <c r="AA292">
         <v>1.075</v>
       </c>
-      <c r="AA292">
-        <v>-1</v>
-      </c>
       <c r="AB292">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26521,7 +26521,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7781919</v>
+        <v>7781918</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26533,73 +26533,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G293" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K293">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L293">
         <v>3</v>
       </c>
       <c r="M293">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N293">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O293">
         <v>2.75</v>
       </c>
       <c r="P293">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R293">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S293">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T293">
         <v>1.75</v>
       </c>
       <c r="U293">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V293">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y293">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA293">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB293">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AC293">
         <v>-0.5</v>
@@ -26610,7 +26610,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7781918</v>
+        <v>7781919</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26622,73 +26622,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G294" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K294">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L294">
         <v>3</v>
       </c>
       <c r="M294">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N294">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O294">
         <v>2.75</v>
       </c>
       <c r="P294">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q294">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S294">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T294">
         <v>1.75</v>
       </c>
       <c r="U294">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V294">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W294">
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB294">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AC294">
         <v>-0.5</v>
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7781922</v>
+        <v>7781923</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,73 +27067,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G299" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K299">
+        <v>1.95</v>
+      </c>
+      <c r="L299">
         <v>3</v>
       </c>
-      <c r="L299">
-        <v>2.875</v>
-      </c>
       <c r="M299">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N299">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O299">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P299">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q299">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S299">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T299">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U299">
+        <v>1.775</v>
+      </c>
+      <c r="V299">
         <v>2.025</v>
       </c>
-      <c r="V299">
-        <v>1.775</v>
-      </c>
       <c r="W299">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA299">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC299">
         <v>-1</v>
@@ -27144,7 +27144,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7781923</v>
+        <v>7781922</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27156,73 +27156,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G300" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K300">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L300">
+        <v>2.875</v>
+      </c>
+      <c r="M300">
+        <v>2.45</v>
+      </c>
+      <c r="N300">
+        <v>2.7</v>
+      </c>
+      <c r="O300">
+        <v>2.5</v>
+      </c>
+      <c r="P300">
         <v>3</v>
       </c>
-      <c r="M300">
-        <v>4.333</v>
-      </c>
-      <c r="N300">
-        <v>2.05</v>
-      </c>
-      <c r="O300">
-        <v>3</v>
-      </c>
-      <c r="P300">
-        <v>3.8</v>
-      </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S300">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T300">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U300">
+        <v>2.025</v>
+      </c>
+      <c r="V300">
         <v>1.775</v>
       </c>
-      <c r="V300">
-        <v>2.025</v>
-      </c>
       <c r="W300">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z300">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB300">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC300">
         <v>-1</v>
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7781934</v>
+        <v>7781925</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45333.5</v>
       </c>
       <c r="F302" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G302" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302">
         <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K302">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="L302">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M302">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N302">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O302">
+        <v>3</v>
+      </c>
+      <c r="P302">
         <v>3.2</v>
       </c>
-      <c r="P302">
-        <v>1.833</v>
-      </c>
       <c r="Q302">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S302">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T302">
         <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V302">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y302">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA302">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC302">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7781925</v>
+        <v>7781934</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,76 +27423,76 @@
         <v>45333.5</v>
       </c>
       <c r="F303" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G303" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303">
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K303">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="L303">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M303">
+        <v>1.85</v>
+      </c>
+      <c r="N303">
         <v>4.2</v>
       </c>
-      <c r="N303">
-        <v>2.2</v>
-      </c>
       <c r="O303">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P303">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R303">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S303">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T303">
         <v>2.25</v>
       </c>
       <c r="U303">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V303">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W303">
         <v>-1</v>
       </c>
       <c r="X303">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27856,7 +27856,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7812522</v>
+        <v>7812521</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27868,76 +27868,76 @@
         <v>45336.5</v>
       </c>
       <c r="F308" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G308" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H308">
         <v>0</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K308">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="L308">
         <v>3.5</v>
       </c>
       <c r="M308">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="N308">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O308">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P308">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="Q308">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R308">
+        <v>1.825</v>
+      </c>
+      <c r="S308">
         <v>1.975</v>
       </c>
-      <c r="S308">
-        <v>1.825</v>
-      </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
+        <v>1.85</v>
+      </c>
+      <c r="V308">
         <v>1.95</v>
       </c>
-      <c r="V308">
-        <v>1.85</v>
-      </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y308">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB308">
         <v>-1</v>
       </c>
       <c r="AC308">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27945,7 +27945,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7812521</v>
+        <v>7812522</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27957,76 +27957,76 @@
         <v>45336.5</v>
       </c>
       <c r="F309" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G309" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H309">
         <v>0</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K309">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="L309">
         <v>3.5</v>
       </c>
       <c r="M309">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="N309">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O309">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P309">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="Q309">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R309">
+        <v>1.975</v>
+      </c>
+      <c r="S309">
         <v>1.825</v>
       </c>
-      <c r="S309">
-        <v>1.975</v>
-      </c>
       <c r="T309">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U309">
+        <v>1.95</v>
+      </c>
+      <c r="V309">
         <v>1.85</v>
       </c>
-      <c r="V309">
-        <v>1.95</v>
-      </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA309">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28509,28 +28509,28 @@
         <v>1.666</v>
       </c>
       <c r="O315">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P315">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q315">
         <v>-0.75</v>
       </c>
       <c r="R315">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S315">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T315">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U315">
+        <v>1.775</v>
+      </c>
+      <c r="V315">
         <v>2.025</v>
-      </c>
-      <c r="V315">
-        <v>1.775</v>
       </c>
       <c r="W315">
         <v>0</v>
@@ -28580,31 +28580,31 @@
         <v>3.8</v>
       </c>
       <c r="N316">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O316">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P316">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q316">
         <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S316">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T316">
         <v>2</v>
       </c>
       <c r="U316">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V316">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W316">
         <v>0</v>
@@ -28660,16 +28660,16 @@
         <v>2.9</v>
       </c>
       <c r="P317">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
+        <v>1.75</v>
+      </c>
+      <c r="S317">
         <v>2.05</v>
-      </c>
-      <c r="S317">
-        <v>1.75</v>
       </c>
       <c r="T317">
         <v>2</v>
@@ -28728,31 +28728,31 @@
         <v>1.666</v>
       </c>
       <c r="N318">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="O318">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P318">
-        <v>1.333</v>
+        <v>1.45</v>
       </c>
       <c r="Q318">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R318">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S318">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T318">
         <v>2.25</v>
       </c>
       <c r="U318">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V318">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W318">
         <v>0</v>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC321"/>
+  <dimension ref="A1:AC317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6170358</v>
+        <v>6170357</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>44951.5</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="L43">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M43">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="N43">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O43">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6170357</v>
+        <v>6170358</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,73 +4372,73 @@
         <v>44951.5</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M44">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="N44">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P44">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q44">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
         <v>1.8</v>
       </c>
-      <c r="S44">
-        <v>2</v>
-      </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W44">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z44">
+        <v>-1</v>
+      </c>
+      <c r="AA44">
         <v>0.8</v>
       </c>
-      <c r="AA44">
-        <v>-1</v>
-      </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6170364</v>
+        <v>6170365</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,61 +4906,61 @@
         <v>44954.5</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L50">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="N50">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="O50">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P50">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
+        <v>1.925</v>
+      </c>
+      <c r="V50">
         <v>1.875</v>
       </c>
-      <c r="V50">
-        <v>1.925</v>
-      </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X50">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
@@ -4972,10 +4972,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6170365</v>
+        <v>6170364</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,61 +4995,61 @@
         <v>44954.5</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M51">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="N51">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
         <v>1.925</v>
       </c>
-      <c r="V51">
-        <v>1.875</v>
-      </c>
       <c r="W51">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5061,10 +5061,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6170370</v>
+        <v>6170371</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>44955.6875</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N56">
+        <v>2.45</v>
+      </c>
+      <c r="O56">
+        <v>2.55</v>
+      </c>
+      <c r="P56">
+        <v>3.2</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>1.7</v>
+      </c>
+      <c r="S56">
+        <v>2.1</v>
+      </c>
+      <c r="T56">
+        <v>1.5</v>
+      </c>
+      <c r="U56">
+        <v>1.775</v>
+      </c>
+      <c r="V56">
+        <v>2.025</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
         <v>2.2</v>
       </c>
-      <c r="O56">
-        <v>2.875</v>
-      </c>
-      <c r="P56">
-        <v>3.3</v>
-      </c>
-      <c r="Q56">
-        <v>-0.25</v>
-      </c>
-      <c r="R56">
-        <v>1.95</v>
-      </c>
-      <c r="S56">
-        <v>1.85</v>
-      </c>
-      <c r="T56">
-        <v>1.75</v>
-      </c>
-      <c r="U56">
-        <v>1.75</v>
-      </c>
-      <c r="V56">
-        <v>2.05</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
-      <c r="X56">
-        <v>1.875</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.425</v>
+        <v>1.1</v>
       </c>
       <c r="AB56">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6170371</v>
+        <v>6170370</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>44955.6875</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57">
+        <v>1.85</v>
+      </c>
+      <c r="L57">
+        <v>3.25</v>
+      </c>
+      <c r="M57">
+        <v>3.75</v>
+      </c>
+      <c r="N57">
+        <v>2.2</v>
+      </c>
+      <c r="O57">
         <v>2.875</v>
       </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="M57">
-        <v>2.3</v>
-      </c>
-      <c r="N57">
-        <v>2.45</v>
-      </c>
-      <c r="O57">
-        <v>2.55</v>
-      </c>
       <c r="P57">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U57">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V57">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>1.1</v>
+        <v>0.425</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC57">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6472151</v>
+        <v>6472143</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M91">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S91">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="T91">
         <v>2</v>
       </c>
       <c r="U91">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6472143</v>
+        <v>6472151</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L93">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
+        <v>1.6</v>
+      </c>
+      <c r="N93">
+        <v>3.4</v>
+      </c>
+      <c r="O93">
         <v>2.875</v>
       </c>
-      <c r="N93">
-        <v>3</v>
-      </c>
-      <c r="O93">
-        <v>2.75</v>
-      </c>
       <c r="P93">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
         <v>2</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V93">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA93">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6472145</v>
+        <v>6472144</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L94">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N94">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P94">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T94">
         <v>1.75</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y94">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
+        <v>0.375</v>
+      </c>
+      <c r="AB94">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6472144</v>
+        <v>6472145</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M95">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O95">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P95">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
         <v>1.75</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6484614</v>
+        <v>6472148</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="M100">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O100">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="P100">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
         <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>1.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6472148</v>
+        <v>6484614</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K101">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L101">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N101">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O101">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q101">
         <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
         <v>1.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
+        <v>0.925</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
-      <c r="AB101">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC101">
-        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6504363</v>
+        <v>6504364</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N108">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6504362</v>
+        <v>6504363</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K109">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N109">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O109">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P109">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
+        <v>1.9</v>
+      </c>
+      <c r="S109">
+        <v>1.9</v>
+      </c>
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109">
         <v>1.75</v>
       </c>
-      <c r="S109">
+      <c r="V109">
         <v>2.05</v>
       </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
-      <c r="U109">
-        <v>2</v>
-      </c>
-      <c r="V109">
-        <v>1.8</v>
-      </c>
       <c r="W109">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z109">
+        <v>-0.5</v>
+      </c>
+      <c r="AA109">
+        <v>0.45</v>
+      </c>
+      <c r="AB109">
         <v>0.75</v>
       </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
       <c r="AC109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6504364</v>
+        <v>6504362</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K110">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M110">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N110">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O110">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P110">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S110">
+        <v>2.05</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
         <v>1.8</v>
       </c>
-      <c r="T110">
-        <v>2.25</v>
-      </c>
-      <c r="U110">
-        <v>1.975</v>
-      </c>
-      <c r="V110">
-        <v>1.825</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X110">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6517498</v>
+        <v>6507527</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,58 +10335,58 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
         <v>49</v>
       </c>
       <c r="K111">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L111">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N111">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
+        <v>2.025</v>
+      </c>
+      <c r="V111">
         <v>1.775</v>
       </c>
-      <c r="V111">
-        <v>2.025</v>
-      </c>
       <c r="W111">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,13 +10395,13 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6507526</v>
+        <v>6517498</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,40 +10424,40 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L112">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="M112">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N112">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O112">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P112">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
         <v>2</v>
@@ -10466,31 +10466,31 @@
         <v>1.8</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U112">
+        <v>1.775</v>
+      </c>
+      <c r="V112">
         <v>2.025</v>
       </c>
-      <c r="V112">
-        <v>1.775</v>
-      </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA112">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6507527</v>
+        <v>6507526</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,49 +10513,49 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N113">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P113">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U113">
         <v>2.025</v>
@@ -10564,19 +10564,19 @@
         <v>1.775</v>
       </c>
       <c r="W113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
         <v>1.025</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6543366</v>
+        <v>6543367</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,34 +10869,34 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M117">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N117">
         <v>2.1</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
         <v>3.25</v>
@@ -10905,40 +10905,40 @@
         <v>-0.25</v>
       </c>
       <c r="R117">
+        <v>1.875</v>
+      </c>
+      <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
       </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>2.025</v>
-      </c>
-      <c r="V117">
-        <v>1.775</v>
-      </c>
       <c r="W117">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6543367</v>
+        <v>6543368</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,76 +10958,76 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>48</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L118">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N118">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O118">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P118">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T118">
+        <v>1.75</v>
+      </c>
+      <c r="U118">
+        <v>1.775</v>
+      </c>
+      <c r="V118">
+        <v>2.025</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
         <v>2.25</v>
       </c>
-      <c r="U118">
-        <v>2</v>
-      </c>
-      <c r="V118">
-        <v>1.8</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>2.1</v>
-      </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6543368</v>
+        <v>6543366</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,40 +11047,40 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M119">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N119">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O119">
+        <v>3</v>
+      </c>
+      <c r="P119">
         <v>3.25</v>
       </c>
-      <c r="P119">
-        <v>4.5</v>
-      </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
         <v>1.8</v>
@@ -11089,34 +11089,34 @@
         <v>2</v>
       </c>
       <c r="T119">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U119">
+        <v>2.025</v>
+      </c>
+      <c r="V119">
         <v>1.775</v>
       </c>
-      <c r="V119">
-        <v>2.025</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X119">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6562344</v>
+        <v>6557108</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,73 +11848,73 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="L128">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="N128">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P128">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R128">
+        <v>1.775</v>
+      </c>
+      <c r="S128">
         <v>2.025</v>
       </c>
-      <c r="S128">
-        <v>1.775</v>
-      </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
       <c r="W128">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB128">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6557108</v>
+        <v>6562344</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,73 +11937,73 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K129">
+        <v>1.5</v>
+      </c>
+      <c r="L129">
+        <v>3.6</v>
+      </c>
+      <c r="M129">
+        <v>6</v>
+      </c>
+      <c r="N129">
+        <v>1.5</v>
+      </c>
+      <c r="O129">
+        <v>3.75</v>
+      </c>
+      <c r="P129">
         <v>5.5</v>
       </c>
-      <c r="L129">
-        <v>3.25</v>
-      </c>
-      <c r="M129">
-        <v>1.6</v>
-      </c>
-      <c r="N129">
-        <v>7.5</v>
-      </c>
-      <c r="O129">
-        <v>3.3</v>
-      </c>
-      <c r="P129">
-        <v>1.533</v>
-      </c>
       <c r="Q129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R129">
+        <v>2.025</v>
+      </c>
+      <c r="S129">
         <v>1.775</v>
       </c>
-      <c r="S129">
-        <v>2.025</v>
-      </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
+        <v>1.975</v>
+      </c>
+      <c r="V129">
         <v>1.825</v>
       </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6761305</v>
+        <v>6760261</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,76 +12738,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K138">
+        <v>2.25</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
         <v>2.5</v>
       </c>
-      <c r="L138">
-        <v>2.75</v>
-      </c>
-      <c r="M138">
-        <v>2.875</v>
-      </c>
-      <c r="N138">
-        <v>1.666</v>
-      </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="P138">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S138">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z138">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6760261</v>
+        <v>6761305</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M139">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N139">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O139">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
         <v>2</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA139">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6728744</v>
+        <v>6756722</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="N141">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Q141">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X141">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6760260</v>
+        <v>6757667</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L142">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M142">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N142">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O142">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P142">
+        <v>4.5</v>
+      </c>
+      <c r="Q142">
+        <v>-0.5</v>
+      </c>
+      <c r="R142">
+        <v>1.875</v>
+      </c>
+      <c r="S142">
+        <v>1.925</v>
+      </c>
+      <c r="T142">
+        <v>2</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
         <v>1.8</v>
       </c>
-      <c r="Q142">
-        <v>0.5</v>
-      </c>
-      <c r="R142">
-        <v>1.975</v>
-      </c>
-      <c r="S142">
-        <v>1.825</v>
-      </c>
-      <c r="T142">
-        <v>2</v>
-      </c>
-      <c r="U142">
-        <v>1.975</v>
-      </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X142">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6756722</v>
+        <v>6728744</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
+        <v>4.5</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>1.8</v>
+      </c>
+      <c r="N144">
+        <v>6.5</v>
+      </c>
+      <c r="O144">
+        <v>3.5</v>
+      </c>
+      <c r="P144">
         <v>1.5</v>
       </c>
-      <c r="L144">
-        <v>3.2</v>
-      </c>
-      <c r="M144">
-        <v>7.5</v>
-      </c>
-      <c r="N144">
-        <v>1.285</v>
-      </c>
-      <c r="O144">
-        <v>4.2</v>
-      </c>
-      <c r="P144">
-        <v>10</v>
-      </c>
       <c r="Q144">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
+        <v>1.85</v>
+      </c>
+      <c r="V144">
         <v>1.95</v>
       </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
-      <c r="T144">
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
         <v>2.5</v>
       </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6757667</v>
+        <v>6760260</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145" t="s">
+        <v>48</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
         <v>3</v>
       </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145" t="s">
-        <v>49</v>
-      </c>
-      <c r="K145">
-        <v>3</v>
-      </c>
-      <c r="L145">
-        <v>2.8</v>
-      </c>
       <c r="M145">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N145">
+        <v>4</v>
+      </c>
+      <c r="O145">
+        <v>3.25</v>
+      </c>
+      <c r="P145">
         <v>1.8</v>
       </c>
-      <c r="O145">
-        <v>2.875</v>
-      </c>
-      <c r="P145">
-        <v>4.5</v>
-      </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
         <v>2</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6728745</v>
+        <v>6728746</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>48</v>
+      </c>
+      <c r="K147">
+        <v>2.5</v>
+      </c>
+      <c r="L147">
         <v>3</v>
       </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-      <c r="J147" t="s">
-        <v>49</v>
-      </c>
-      <c r="K147">
-        <v>1.571</v>
-      </c>
-      <c r="L147">
-        <v>3.6</v>
-      </c>
       <c r="M147">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N147">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6728746</v>
+        <v>6728807</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M148">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N148">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="O148">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X148">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6728807</v>
+        <v>6728809</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,10 +13717,10 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13732,19 +13732,19 @@
         <v>49</v>
       </c>
       <c r="K149">
+        <v>1.615</v>
+      </c>
+      <c r="L149">
+        <v>3.4</v>
+      </c>
+      <c r="M149">
+        <v>5</v>
+      </c>
+      <c r="N149">
         <v>1.909</v>
       </c>
-      <c r="L149">
+      <c r="O149">
         <v>3.2</v>
-      </c>
-      <c r="M149">
-        <v>3.6</v>
-      </c>
-      <c r="N149">
-        <v>1.833</v>
-      </c>
-      <c r="O149">
-        <v>3.5</v>
       </c>
       <c r="P149">
         <v>3.5</v>
@@ -13753,22 +13753,22 @@
         <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
         <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>0.833</v>
+        <v>0.909</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6728809</v>
+        <v>6728806</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,58 +13806,58 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>49</v>
       </c>
       <c r="K150">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N150">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O150">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W150">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,16 +13866,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6728806</v>
+        <v>6728810</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,13 +13895,13 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13910,43 +13910,43 @@
         <v>49</v>
       </c>
       <c r="K151">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L151">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M151">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N151">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O151">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P151">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T151">
         <v>2</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13955,16 +13955,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA151">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC151">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6728810</v>
+        <v>6728811</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,73 +13984,73 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
         <v>3</v>
       </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L152">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M152">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N152">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O152">
         <v>2.9</v>
       </c>
       <c r="P152">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
         <v>2</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6728811</v>
+        <v>6728745</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,73 +14073,73 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L153">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N153">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O153">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P153">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
         <v>2</v>
       </c>
       <c r="U153">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6786815</v>
+        <v>6786816</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,10 +14162,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14177,43 +14177,43 @@
         <v>49</v>
       </c>
       <c r="K154">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="L154">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="M154">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="N154">
-        <v>2.9</v>
+        <v>1.285</v>
       </c>
       <c r="O154">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P154">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T154">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V154">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W154">
-        <v>1.9</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14222,13 +14222,13 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6786816</v>
+        <v>6786815</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,10 +14251,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14266,43 +14266,43 @@
         <v>49</v>
       </c>
       <c r="K155">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="L155">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M155">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="N155">
-        <v>1.285</v>
+        <v>2.9</v>
       </c>
       <c r="O155">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P155">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="Q155">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U155">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W155">
-        <v>0.2849999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14311,13 +14311,13 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6786810</v>
+        <v>6786813</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,46 +14429,46 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K157">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="N157">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O157">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P157">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S157">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T157">
         <v>2</v>
@@ -14480,19 +14480,19 @@
         <v>1.75</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X157">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6786813</v>
+        <v>6786812</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K158">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L158">
+        <v>2.875</v>
+      </c>
+      <c r="M158">
+        <v>3.4</v>
+      </c>
+      <c r="N158">
+        <v>2.25</v>
+      </c>
+      <c r="O158">
         <v>3</v>
       </c>
-      <c r="M158">
-        <v>2.375</v>
-      </c>
-      <c r="N158">
-        <v>2.3</v>
-      </c>
-      <c r="O158">
-        <v>2.9</v>
-      </c>
       <c r="P158">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q158">
         <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
         <v>2</v>
       </c>
       <c r="U158">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V158">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W158">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6786812</v>
+        <v>6786810</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,55 +14607,55 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>48</v>
       </c>
       <c r="K159">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L159">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M159">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N159">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O159">
         <v>3</v>
       </c>
       <c r="P159">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q159">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S159">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T159">
         <v>2</v>
       </c>
       <c r="U159">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V159">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14667,16 +14667,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6786822</v>
+        <v>6786823</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,58 +15052,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
         <v>49</v>
       </c>
       <c r="K164">
+        <v>1.666</v>
+      </c>
+      <c r="L164">
+        <v>3.3</v>
+      </c>
+      <c r="M164">
+        <v>5</v>
+      </c>
+      <c r="N164">
+        <v>1.333</v>
+      </c>
+      <c r="O164">
+        <v>4.2</v>
+      </c>
+      <c r="P164">
+        <v>8</v>
+      </c>
+      <c r="Q164">
+        <v>-1.5</v>
+      </c>
+      <c r="R164">
+        <v>1.975</v>
+      </c>
+      <c r="S164">
+        <v>1.825</v>
+      </c>
+      <c r="T164">
         <v>3</v>
       </c>
-      <c r="L164">
-        <v>2.75</v>
-      </c>
-      <c r="M164">
-        <v>2.4</v>
-      </c>
-      <c r="N164">
-        <v>2.25</v>
-      </c>
-      <c r="O164">
-        <v>2.9</v>
-      </c>
-      <c r="P164">
-        <v>3.1</v>
-      </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>2</v>
-      </c>
-      <c r="S164">
-        <v>1.8</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W164">
-        <v>1.25</v>
+        <v>0.333</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15112,13 +15112,13 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB164">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6786818</v>
+        <v>6786822</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,73 +15408,73 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I168">
+        <v>4</v>
+      </c>
+      <c r="J168" t="s">
+        <v>49</v>
+      </c>
+      <c r="K168">
         <v>3</v>
       </c>
-      <c r="J168" t="s">
-        <v>47</v>
-      </c>
-      <c r="K168">
-        <v>9</v>
-      </c>
       <c r="L168">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="M168">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="N168">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="O168">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P168">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q168">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
+        <v>1.85</v>
+      </c>
+      <c r="V168">
         <v>1.95</v>
       </c>
-      <c r="V168">
-        <v>1.85</v>
-      </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6786823</v>
+        <v>6786818</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,73 +15497,73 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169">
         <v>3</v>
       </c>
-      <c r="I169">
-        <v>2</v>
-      </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="L169">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M169">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="N169">
+        <v>8</v>
+      </c>
+      <c r="O169">
+        <v>4</v>
+      </c>
+      <c r="P169">
         <v>1.333</v>
       </c>
-      <c r="O169">
-        <v>4.2</v>
-      </c>
-      <c r="P169">
-        <v>8</v>
-      </c>
       <c r="Q169">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T169">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
         <v>0.333</v>
       </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB169">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7287211</v>
+        <v>7287222</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45207.59375</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>49</v>
       </c>
       <c r="K215">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L215">
+        <v>2.9</v>
+      </c>
+      <c r="M215">
+        <v>2.3</v>
+      </c>
+      <c r="N215">
         <v>3.6</v>
       </c>
-      <c r="M215">
-        <v>6</v>
-      </c>
-      <c r="N215">
-        <v>1.3</v>
-      </c>
       <c r="O215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P215">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W215">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,13 +19651,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7287222</v>
+        <v>7287211</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45207.59375</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H216">
         <v>3</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L216">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M216">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N216">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P216">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S216">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,13 +19740,13 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7627121</v>
+        <v>7627122</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45288.5</v>
       </c>
       <c r="F265" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G265" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I265">
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K265">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L265">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M265">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N265">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O265">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P265">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q265">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R265">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S265">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T265">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U265">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V265">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X265">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA265">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7627122</v>
+        <v>7627121</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,76 +24130,76 @@
         <v>45288.5</v>
       </c>
       <c r="F266" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G266" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266" t="s">
+        <v>48</v>
+      </c>
+      <c r="K266">
+        <v>1.5</v>
+      </c>
+      <c r="L266">
+        <v>3.5</v>
+      </c>
+      <c r="M266">
         <v>6</v>
       </c>
-      <c r="I266">
-        <v>1</v>
-      </c>
-      <c r="J266" t="s">
-        <v>49</v>
-      </c>
-      <c r="K266">
-        <v>1.333</v>
-      </c>
-      <c r="L266">
-        <v>4.2</v>
-      </c>
-      <c r="M266">
+      <c r="N266">
+        <v>1.444</v>
+      </c>
+      <c r="O266">
+        <v>3.6</v>
+      </c>
+      <c r="P266">
         <v>8</v>
       </c>
-      <c r="N266">
-        <v>1.363</v>
-      </c>
-      <c r="O266">
-        <v>3.75</v>
-      </c>
-      <c r="P266">
-        <v>9</v>
-      </c>
       <c r="Q266">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R266">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S266">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T266">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U266">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V266">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W266">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB266">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7627031</v>
+        <v>7627126</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,10 +24486,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G270" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H270">
         <v>2</v>
@@ -24501,43 +24501,43 @@
         <v>49</v>
       </c>
       <c r="K270">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L270">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M270">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N270">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O270">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P270">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q270">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R270">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S270">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T270">
         <v>1.75</v>
       </c>
       <c r="U270">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V270">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W270">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="X270">
         <v>-1</v>
@@ -24546,13 +24546,13 @@
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7627126</v>
+        <v>7627031</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,10 +24575,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G271" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H271">
         <v>2</v>
@@ -24590,43 +24590,43 @@
         <v>49</v>
       </c>
       <c r="K271">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L271">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M271">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N271">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O271">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P271">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q271">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R271">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S271">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T271">
         <v>1.75</v>
       </c>
       <c r="U271">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V271">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W271">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24635,13 +24635,13 @@
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24919,7 +24919,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7641574</v>
+        <v>7641575</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24931,76 +24931,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G275" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275">
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K275">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L275">
         <v>3</v>
       </c>
       <c r="M275">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N275">
         <v>1.95</v>
       </c>
       <c r="O275">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P275">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S275">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T275">
         <v>2</v>
       </c>
       <c r="U275">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V275">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X275">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA275">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC275">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25008,7 +25008,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7641575</v>
+        <v>7641574</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25020,76 +25020,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G276" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K276">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L276">
         <v>3</v>
       </c>
       <c r="M276">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N276">
         <v>1.95</v>
       </c>
       <c r="O276">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P276">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q276">
         <v>-0.5</v>
       </c>
       <c r="R276">
+        <v>1.925</v>
+      </c>
+      <c r="S276">
+        <v>1.875</v>
+      </c>
+      <c r="T276">
+        <v>2</v>
+      </c>
+      <c r="U276">
+        <v>1.85</v>
+      </c>
+      <c r="V276">
         <v>1.95</v>
       </c>
-      <c r="S276">
-        <v>1.85</v>
-      </c>
-      <c r="T276">
-        <v>2</v>
-      </c>
-      <c r="U276">
-        <v>2.025</v>
-      </c>
-      <c r="V276">
-        <v>1.775</v>
-      </c>
       <c r="W276">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB276">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -26254,7 +26254,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7781917</v>
+        <v>7781931</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26266,73 +26266,73 @@
         <v>45329.5</v>
       </c>
       <c r="F290" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G290" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K290">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L290">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M290">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N290">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O290">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P290">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R290">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S290">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T290">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U290">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V290">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W290">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X290">
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA290">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26343,7 +26343,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7781931</v>
+        <v>7781916</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26355,73 +26355,73 @@
         <v>45329.5</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G291" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J291" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K291">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L291">
+        <v>3.1</v>
+      </c>
+      <c r="M291">
+        <v>3.4</v>
+      </c>
+      <c r="N291">
+        <v>2.4</v>
+      </c>
+      <c r="O291">
+        <v>3</v>
+      </c>
+      <c r="P291">
         <v>2.9</v>
       </c>
-      <c r="M291">
-        <v>2.2</v>
-      </c>
-      <c r="N291">
-        <v>2.9</v>
-      </c>
-      <c r="O291">
-        <v>2.75</v>
-      </c>
-      <c r="P291">
-        <v>2.45</v>
-      </c>
       <c r="Q291">
         <v>0</v>
       </c>
       <c r="R291">
+        <v>1.725</v>
+      </c>
+      <c r="S291">
         <v>2.075</v>
       </c>
-      <c r="S291">
-        <v>1.725</v>
-      </c>
       <c r="T291">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U291">
+        <v>1.8</v>
+      </c>
+      <c r="V291">
+        <v>2</v>
+      </c>
+      <c r="W291">
+        <v>-1</v>
+      </c>
+      <c r="X291">
+        <v>-1</v>
+      </c>
+      <c r="Y291">
         <v>1.9</v>
       </c>
-      <c r="V291">
-        <v>1.9</v>
-      </c>
-      <c r="W291">
-        <v>1.9</v>
-      </c>
-      <c r="X291">
-        <v>-1</v>
-      </c>
-      <c r="Y291">
-        <v>-1</v>
-      </c>
       <c r="Z291">
+        <v>-1</v>
+      </c>
+      <c r="AA291">
         <v>1.075</v>
       </c>
-      <c r="AA291">
-        <v>-1</v>
-      </c>
       <c r="AB291">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26432,7 +26432,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7781916</v>
+        <v>7781917</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26444,16 +26444,16 @@
         <v>45329.5</v>
       </c>
       <c r="F292" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G292" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H292">
         <v>1</v>
       </c>
       <c r="I292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J292" t="s">
         <v>47</v>
@@ -26468,31 +26468,31 @@
         <v>3.4</v>
       </c>
       <c r="N292">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O292">
+        <v>3.1</v>
+      </c>
+      <c r="P292">
         <v>3</v>
       </c>
-      <c r="P292">
-        <v>2.9</v>
-      </c>
       <c r="Q292">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R292">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S292">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T292">
         <v>2</v>
       </c>
       <c r="U292">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V292">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W292">
         <v>-1</v>
@@ -26501,16 +26501,16 @@
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>1.075</v>
+        <v>0.875</v>
       </c>
       <c r="AB292">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26521,7 +26521,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7781918</v>
+        <v>7781919</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26533,73 +26533,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K293">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L293">
         <v>3</v>
       </c>
       <c r="M293">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N293">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O293">
         <v>2.75</v>
       </c>
       <c r="P293">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q293">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S293">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T293">
         <v>1.75</v>
       </c>
       <c r="U293">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V293">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z293">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB293">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AC293">
         <v>-0.5</v>
@@ -26610,7 +26610,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7781919</v>
+        <v>7781918</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26622,73 +26622,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K294">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L294">
         <v>3</v>
       </c>
       <c r="M294">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N294">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O294">
         <v>2.75</v>
       </c>
       <c r="P294">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S294">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T294">
         <v>1.75</v>
       </c>
       <c r="U294">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V294">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W294">
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y294">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA294">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB294">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AC294">
         <v>-0.5</v>
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7781920</v>
+        <v>7781933</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,76 +26800,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G296" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296" t="s">
+        <v>49</v>
+      </c>
+      <c r="K296">
+        <v>3.6</v>
+      </c>
+      <c r="L296">
         <v>3</v>
       </c>
-      <c r="J296" t="s">
-        <v>47</v>
-      </c>
-      <c r="K296">
-        <v>4.333</v>
-      </c>
-      <c r="L296">
+      <c r="M296">
+        <v>2</v>
+      </c>
+      <c r="N296">
+        <v>4.5</v>
+      </c>
+      <c r="O296">
+        <v>3.3</v>
+      </c>
+      <c r="P296">
+        <v>1.7</v>
+      </c>
+      <c r="Q296">
+        <v>0.75</v>
+      </c>
+      <c r="R296">
+        <v>1.875</v>
+      </c>
+      <c r="S296">
+        <v>1.925</v>
+      </c>
+      <c r="T296">
+        <v>2</v>
+      </c>
+      <c r="U296">
+        <v>1.75</v>
+      </c>
+      <c r="V296">
+        <v>2.05</v>
+      </c>
+      <c r="W296">
         <v>3.5</v>
       </c>
-      <c r="M296">
-        <v>1.666</v>
-      </c>
-      <c r="N296">
-        <v>7</v>
-      </c>
-      <c r="O296">
-        <v>4.2</v>
-      </c>
-      <c r="P296">
-        <v>1.363</v>
-      </c>
-      <c r="Q296">
-        <v>1.25</v>
-      </c>
-      <c r="R296">
-        <v>1.85</v>
-      </c>
-      <c r="S296">
-        <v>1.95</v>
-      </c>
-      <c r="T296">
-        <v>2.25</v>
-      </c>
-      <c r="U296">
-        <v>1.775</v>
-      </c>
-      <c r="V296">
-        <v>2.025</v>
-      </c>
-      <c r="W296">
-        <v>-1</v>
-      </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA296">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7781933</v>
+        <v>7781920</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,76 +26889,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G297" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J297" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K297">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L297">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M297">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N297">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O297">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P297">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="Q297">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R297">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S297">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T297">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V297">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W297">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z297">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC297">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7781923</v>
+        <v>7781922</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,73 +27067,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G299" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J299" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K299">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L299">
+        <v>2.875</v>
+      </c>
+      <c r="M299">
+        <v>2.45</v>
+      </c>
+      <c r="N299">
+        <v>2.7</v>
+      </c>
+      <c r="O299">
+        <v>2.5</v>
+      </c>
+      <c r="P299">
         <v>3</v>
       </c>
-      <c r="M299">
-        <v>4.333</v>
-      </c>
-      <c r="N299">
-        <v>2.05</v>
-      </c>
-      <c r="O299">
-        <v>3</v>
-      </c>
-      <c r="P299">
-        <v>3.8</v>
-      </c>
       <c r="Q299">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R299">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S299">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T299">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U299">
+        <v>2.025</v>
+      </c>
+      <c r="V299">
         <v>1.775</v>
       </c>
-      <c r="V299">
-        <v>2.025</v>
-      </c>
       <c r="W299">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z299">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB299">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC299">
         <v>-1</v>
@@ -27144,7 +27144,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7781922</v>
+        <v>7781923</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27156,73 +27156,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G300" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K300">
+        <v>1.95</v>
+      </c>
+      <c r="L300">
         <v>3</v>
       </c>
-      <c r="L300">
-        <v>2.875</v>
-      </c>
       <c r="M300">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N300">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O300">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P300">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q300">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R300">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S300">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T300">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U300">
+        <v>1.775</v>
+      </c>
+      <c r="V300">
         <v>2.025</v>
       </c>
-      <c r="V300">
-        <v>1.775</v>
-      </c>
       <c r="W300">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA300">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC300">
         <v>-1</v>
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7781926</v>
+        <v>7781935</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27512,58 +27512,58 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F304" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G304" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J304" t="s">
         <v>49</v>
       </c>
       <c r="K304">
+        <v>1.285</v>
+      </c>
+      <c r="L304">
+        <v>5</v>
+      </c>
+      <c r="M304">
+        <v>10</v>
+      </c>
+      <c r="N304">
+        <v>1.363</v>
+      </c>
+      <c r="O304">
+        <v>4.2</v>
+      </c>
+      <c r="P304">
+        <v>8</v>
+      </c>
+      <c r="Q304">
+        <v>-1.25</v>
+      </c>
+      <c r="R304">
+        <v>1.95</v>
+      </c>
+      <c r="S304">
         <v>1.85</v>
       </c>
-      <c r="L304">
-        <v>3.4</v>
-      </c>
-      <c r="M304">
-        <v>3.8</v>
-      </c>
-      <c r="N304">
-        <v>2</v>
-      </c>
-      <c r="O304">
-        <v>3.1</v>
-      </c>
-      <c r="P304">
-        <v>3.75</v>
-      </c>
-      <c r="Q304">
-        <v>-0.5</v>
-      </c>
-      <c r="R304">
-        <v>1.975</v>
-      </c>
-      <c r="S304">
-        <v>1.825</v>
-      </c>
       <c r="T304">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V304">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W304">
-        <v>1</v>
+        <v>0.363</v>
       </c>
       <c r="X304">
         <v>-1</v>
@@ -27572,16 +27572,16 @@
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA304">
         <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC304">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27589,7 +27589,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7781935</v>
+        <v>7781926</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27601,58 +27601,58 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F305" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G305" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H305">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
         <v>49</v>
       </c>
       <c r="K305">
-        <v>1.285</v>
+        <v>1.85</v>
       </c>
       <c r="L305">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="N305">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O305">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P305">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q305">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R305">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S305">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U305">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V305">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W305">
-        <v>0.363</v>
+        <v>1</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -27661,16 +27661,16 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA305">
         <v>-1</v>
       </c>
       <c r="AB305">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27856,7 +27856,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7812521</v>
+        <v>7812522</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27868,76 +27868,76 @@
         <v>45336.5</v>
       </c>
       <c r="F308" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G308" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H308">
         <v>0</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K308">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="L308">
         <v>3.5</v>
       </c>
       <c r="M308">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="N308">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O308">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P308">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="Q308">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R308">
+        <v>1.975</v>
+      </c>
+      <c r="S308">
         <v>1.825</v>
       </c>
-      <c r="S308">
-        <v>1.975</v>
-      </c>
       <c r="T308">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U308">
+        <v>1.95</v>
+      </c>
+      <c r="V308">
         <v>1.85</v>
       </c>
-      <c r="V308">
-        <v>1.95</v>
-      </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA308">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB308">
         <v>-1</v>
       </c>
       <c r="AC308">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27945,7 +27945,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7812522</v>
+        <v>7812521</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27957,76 +27957,76 @@
         <v>45336.5</v>
       </c>
       <c r="F309" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G309" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H309">
         <v>0</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K309">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="L309">
         <v>3.5</v>
       </c>
       <c r="M309">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="N309">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O309">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P309">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="Q309">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R309">
+        <v>1.825</v>
+      </c>
+      <c r="S309">
         <v>1.975</v>
       </c>
-      <c r="S309">
-        <v>1.825</v>
-      </c>
       <c r="T309">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U309">
+        <v>1.85</v>
+      </c>
+      <c r="V309">
         <v>1.95</v>
       </c>
-      <c r="V309">
-        <v>1.85</v>
-      </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y309">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28479,7 +28479,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7812528</v>
+        <v>7812532</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28488,49 +28488,49 @@
         <v>28</v>
       </c>
       <c r="E315" s="2">
-        <v>45339.5</v>
+        <v>45340.5</v>
       </c>
       <c r="F315" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G315" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K315">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L315">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M315">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N315">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O315">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P315">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q315">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R315">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S315">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T315">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U315">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V315">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W315">
         <v>0</v>
@@ -28553,7 +28553,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7812530</v>
+        <v>7812533</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28562,43 +28562,43 @@
         <v>28</v>
       </c>
       <c r="E316" s="2">
-        <v>45339.58333333334</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F316" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G316" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K316">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="L316">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M316">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="N316">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="O316">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="P316">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q316">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R316">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S316">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T316">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U316">
         <v>1.9</v>
@@ -28627,7 +28627,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7812529</v>
+        <v>7812534</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28636,49 +28636,49 @@
         <v>28</v>
       </c>
       <c r="E317" s="2">
-        <v>45339.58333333334</v>
+        <v>45340.66666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G317" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K317">
         <v>1.95</v>
       </c>
       <c r="L317">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M317">
         <v>3.8</v>
       </c>
       <c r="N317">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O317">
         <v>2.9</v>
       </c>
       <c r="P317">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S317">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T317">
         <v>2</v>
       </c>
       <c r="U317">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V317">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28693,302 +28693,6 @@
         <v>0</v>
       </c>
       <c r="AA317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:29">
-      <c r="A318" s="1">
-        <v>316</v>
-      </c>
-      <c r="B318">
-        <v>7812531</v>
-      </c>
-      <c r="C318" t="s">
-        <v>28</v>
-      </c>
-      <c r="D318" t="s">
-        <v>28</v>
-      </c>
-      <c r="E318" s="2">
-        <v>45339.66666666666</v>
-      </c>
-      <c r="F318" t="s">
-        <v>39</v>
-      </c>
-      <c r="G318" t="s">
-        <v>38</v>
-      </c>
-      <c r="K318">
-        <v>4.5</v>
-      </c>
-      <c r="L318">
-        <v>3.3</v>
-      </c>
-      <c r="M318">
-        <v>1.666</v>
-      </c>
-      <c r="N318">
-        <v>5.75</v>
-      </c>
-      <c r="O318">
-        <v>3.75</v>
-      </c>
-      <c r="P318">
-        <v>1.45</v>
-      </c>
-      <c r="Q318">
-        <v>1</v>
-      </c>
-      <c r="R318">
-        <v>1.925</v>
-      </c>
-      <c r="S318">
-        <v>1.875</v>
-      </c>
-      <c r="T318">
-        <v>2.25</v>
-      </c>
-      <c r="U318">
-        <v>1.95</v>
-      </c>
-      <c r="V318">
-        <v>1.85</v>
-      </c>
-      <c r="W318">
-        <v>0</v>
-      </c>
-      <c r="X318">
-        <v>0</v>
-      </c>
-      <c r="Y318">
-        <v>0</v>
-      </c>
-      <c r="Z318">
-        <v>0</v>
-      </c>
-      <c r="AA318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:29">
-      <c r="A319" s="1">
-        <v>317</v>
-      </c>
-      <c r="B319">
-        <v>7812532</v>
-      </c>
-      <c r="C319" t="s">
-        <v>28</v>
-      </c>
-      <c r="D319" t="s">
-        <v>28</v>
-      </c>
-      <c r="E319" s="2">
-        <v>45340.5</v>
-      </c>
-      <c r="F319" t="s">
-        <v>45</v>
-      </c>
-      <c r="G319" t="s">
-        <v>29</v>
-      </c>
-      <c r="K319">
-        <v>2.625</v>
-      </c>
-      <c r="L319">
-        <v>2.75</v>
-      </c>
-      <c r="M319">
-        <v>2.7</v>
-      </c>
-      <c r="N319">
-        <v>2.75</v>
-      </c>
-      <c r="O319">
-        <v>2.875</v>
-      </c>
-      <c r="P319">
-        <v>2.5</v>
-      </c>
-      <c r="Q319">
-        <v>0</v>
-      </c>
-      <c r="R319">
-        <v>2</v>
-      </c>
-      <c r="S319">
-        <v>1.8</v>
-      </c>
-      <c r="T319">
-        <v>2.25</v>
-      </c>
-      <c r="U319">
-        <v>2.05</v>
-      </c>
-      <c r="V319">
-        <v>1.75</v>
-      </c>
-      <c r="W319">
-        <v>0</v>
-      </c>
-      <c r="X319">
-        <v>0</v>
-      </c>
-      <c r="Y319">
-        <v>0</v>
-      </c>
-      <c r="Z319">
-        <v>0</v>
-      </c>
-      <c r="AA319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:29">
-      <c r="A320" s="1">
-        <v>318</v>
-      </c>
-      <c r="B320">
-        <v>7812533</v>
-      </c>
-      <c r="C320" t="s">
-        <v>28</v>
-      </c>
-      <c r="D320" t="s">
-        <v>28</v>
-      </c>
-      <c r="E320" s="2">
-        <v>45340.58333333334</v>
-      </c>
-      <c r="F320" t="s">
-        <v>42</v>
-      </c>
-      <c r="G320" t="s">
-        <v>44</v>
-      </c>
-      <c r="K320">
-        <v>1.25</v>
-      </c>
-      <c r="L320">
-        <v>5</v>
-      </c>
-      <c r="M320">
-        <v>8.5</v>
-      </c>
-      <c r="N320">
-        <v>1.181</v>
-      </c>
-      <c r="O320">
-        <v>6.5</v>
-      </c>
-      <c r="P320">
-        <v>10</v>
-      </c>
-      <c r="Q320">
-        <v>-1.75</v>
-      </c>
-      <c r="R320">
-        <v>1.85</v>
-      </c>
-      <c r="S320">
-        <v>1.95</v>
-      </c>
-      <c r="T320">
-        <v>2.5</v>
-      </c>
-      <c r="U320">
-        <v>1.8</v>
-      </c>
-      <c r="V320">
-        <v>2</v>
-      </c>
-      <c r="W320">
-        <v>0</v>
-      </c>
-      <c r="X320">
-        <v>0</v>
-      </c>
-      <c r="Y320">
-        <v>0</v>
-      </c>
-      <c r="Z320">
-        <v>0</v>
-      </c>
-      <c r="AA320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:27">
-      <c r="A321" s="1">
-        <v>319</v>
-      </c>
-      <c r="B321">
-        <v>7812534</v>
-      </c>
-      <c r="C321" t="s">
-        <v>28</v>
-      </c>
-      <c r="D321" t="s">
-        <v>28</v>
-      </c>
-      <c r="E321" s="2">
-        <v>45340.66666666666</v>
-      </c>
-      <c r="F321" t="s">
-        <v>43</v>
-      </c>
-      <c r="G321" t="s">
-        <v>41</v>
-      </c>
-      <c r="K321">
-        <v>1.95</v>
-      </c>
-      <c r="L321">
-        <v>2.9</v>
-      </c>
-      <c r="M321">
-        <v>3.8</v>
-      </c>
-      <c r="N321">
-        <v>1.95</v>
-      </c>
-      <c r="O321">
-        <v>2.9</v>
-      </c>
-      <c r="P321">
-        <v>3.8</v>
-      </c>
-      <c r="Q321">
-        <v>-0.5</v>
-      </c>
-      <c r="R321">
-        <v>2.025</v>
-      </c>
-      <c r="S321">
-        <v>1.775</v>
-      </c>
-      <c r="T321">
-        <v>2</v>
-      </c>
-      <c r="U321">
-        <v>1.975</v>
-      </c>
-      <c r="V321">
-        <v>1.825</v>
-      </c>
-      <c r="W321">
-        <v>0</v>
-      </c>
-      <c r="X321">
-        <v>0</v>
-      </c>
-      <c r="Y321">
-        <v>0</v>
-      </c>
-      <c r="Z321">
-        <v>0</v>
-      </c>
-      <c r="AA321">
         <v>0</v>
       </c>
     </row>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC317"/>
+  <dimension ref="A1:AC321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6148731</v>
+        <v>6149306</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,10 +4016,10 @@
         <v>44948.6875</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4031,40 +4031,40 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L40">
         <v>3</v>
       </c>
       <c r="M40">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N40">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
         <v>1.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4073,19 +4073,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6149306</v>
+        <v>6148731</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,10 +4105,10 @@
         <v>44948.6875</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4120,40 +4120,40 @@
         <v>47</v>
       </c>
       <c r="K41">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="L41">
         <v>3</v>
       </c>
       <c r="M41">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N41">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="O41">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T41">
         <v>1.75</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4162,19 +4162,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6170371</v>
+        <v>6170370</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>44955.6875</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
+        <v>1.85</v>
+      </c>
+      <c r="L56">
+        <v>3.25</v>
+      </c>
+      <c r="M56">
+        <v>3.75</v>
+      </c>
+      <c r="N56">
+        <v>2.2</v>
+      </c>
+      <c r="O56">
         <v>2.875</v>
       </c>
-      <c r="L56">
-        <v>3</v>
-      </c>
-      <c r="M56">
-        <v>2.3</v>
-      </c>
-      <c r="N56">
-        <v>2.45</v>
-      </c>
-      <c r="O56">
-        <v>2.55</v>
-      </c>
       <c r="P56">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U56">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V56">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y56">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>1.1</v>
+        <v>0.425</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC56">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6170370</v>
+        <v>6170371</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>44955.6875</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L57">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N57">
+        <v>2.45</v>
+      </c>
+      <c r="O57">
+        <v>2.55</v>
+      </c>
+      <c r="P57">
+        <v>3.2</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1.7</v>
+      </c>
+      <c r="S57">
+        <v>2.1</v>
+      </c>
+      <c r="T57">
+        <v>1.5</v>
+      </c>
+      <c r="U57">
+        <v>1.775</v>
+      </c>
+      <c r="V57">
+        <v>2.025</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
         <v>2.2</v>
       </c>
-      <c r="O57">
-        <v>2.875</v>
-      </c>
-      <c r="P57">
-        <v>3.3</v>
-      </c>
-      <c r="Q57">
-        <v>-0.25</v>
-      </c>
-      <c r="R57">
-        <v>1.95</v>
-      </c>
-      <c r="S57">
-        <v>1.85</v>
-      </c>
-      <c r="T57">
-        <v>1.75</v>
-      </c>
-      <c r="U57">
-        <v>1.75</v>
-      </c>
-      <c r="V57">
-        <v>2.05</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>1.875</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.425</v>
+        <v>1.1</v>
       </c>
       <c r="AB57">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6472143</v>
+        <v>6472142</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L91">
         <v>2.75</v>
       </c>
       <c r="M91">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O91">
         <v>2.75</v>
       </c>
       <c r="P91">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S91">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y91">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>0.7</v>
+        <v>0.4375</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6472142</v>
+        <v>6472151</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L92">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="N92">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P92">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X92">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA92">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6472151</v>
+        <v>6472143</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M93">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N93">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O93">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P93">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S93">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="T93">
         <v>2</v>
       </c>
       <c r="U93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W93">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6472144</v>
+        <v>6472145</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L94">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M94">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N94">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O94">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P94">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
         <v>1.75</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6472145</v>
+        <v>6472144</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L95">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N95">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P95">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T95">
         <v>1.75</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y95">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
+        <v>0.375</v>
+      </c>
+      <c r="AB95">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB95">
-        <v>-1</v>
-      </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6472149</v>
+        <v>6472147</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L98">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M98">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N98">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O98">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P98">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
+        <v>2.1</v>
+      </c>
+      <c r="S98">
         <v>1.7</v>
-      </c>
-      <c r="S98">
-        <v>2.1</v>
       </c>
       <c r="T98">
         <v>1.75</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X98">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6472147</v>
+        <v>6472148</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>49</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L99">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="M99">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N99">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O99">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
         <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,13 +9327,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6472148</v>
+        <v>6484614</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L100">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q100">
         <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
         <v>1.75</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.925</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6484614</v>
+        <v>6472149</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M101">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N101">
+        <v>2.5</v>
+      </c>
+      <c r="O101">
+        <v>2.6</v>
+      </c>
+      <c r="P101">
+        <v>3.1</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>1.7</v>
+      </c>
+      <c r="S101">
         <v>2.1</v>
-      </c>
-      <c r="O101">
-        <v>2.875</v>
-      </c>
-      <c r="P101">
-        <v>3.5</v>
-      </c>
-      <c r="Q101">
-        <v>-0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
-      <c r="S101">
-        <v>1.925</v>
       </c>
       <c r="T101">
         <v>1.75</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y101">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6480122</v>
+        <v>6484639</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,58 +9712,58 @@
         <v>45025.79166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>49</v>
       </c>
       <c r="K104">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P104">
+        <v>3.25</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
+        <v>1.95</v>
+      </c>
+      <c r="T104">
+        <v>1.75</v>
+      </c>
+      <c r="U104">
         <v>1.8</v>
       </c>
-      <c r="Q104">
-        <v>0.5</v>
-      </c>
-      <c r="R104">
-        <v>1.975</v>
-      </c>
-      <c r="S104">
-        <v>1.825</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.975</v>
-      </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9772,16 +9772,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6484639</v>
+        <v>6480122</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,59 +9801,59 @@
         <v>45025.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>49</v>
       </c>
       <c r="K105">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L105">
+        <v>3.75</v>
+      </c>
+      <c r="M105">
+        <v>1.533</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105">
+        <v>3.3</v>
+      </c>
+      <c r="P105">
+        <v>1.8</v>
+      </c>
+      <c r="Q105">
+        <v>0.5</v>
+      </c>
+      <c r="R105">
+        <v>1.975</v>
+      </c>
+      <c r="S105">
+        <v>1.825</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.975</v>
+      </c>
+      <c r="V105">
+        <v>1.825</v>
+      </c>
+      <c r="W105">
         <v>3</v>
       </c>
-      <c r="M105">
-        <v>3.3</v>
-      </c>
-      <c r="N105">
-        <v>2.2</v>
-      </c>
-      <c r="O105">
-        <v>2.875</v>
-      </c>
-      <c r="P105">
-        <v>3.25</v>
-      </c>
-      <c r="Q105">
-        <v>-0.25</v>
-      </c>
-      <c r="R105">
-        <v>1.85</v>
-      </c>
-      <c r="S105">
-        <v>1.95</v>
-      </c>
-      <c r="T105">
-        <v>1.75</v>
-      </c>
-      <c r="U105">
-        <v>1.8</v>
-      </c>
-      <c r="V105">
-        <v>2</v>
-      </c>
-      <c r="W105">
-        <v>1.2</v>
-      </c>
       <c r="X105">
         <v>-1</v>
       </c>
@@ -9861,16 +9861,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6504361</v>
+        <v>6517222</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45030.79166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K106">
+        <v>2.9</v>
+      </c>
+      <c r="L106">
         <v>2.875</v>
       </c>
-      <c r="L106">
-        <v>2.75</v>
-      </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N106">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O106">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P106">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T106">
         <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.925</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>0.825</v>
-      </c>
-      <c r="AC106">
-        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6517222</v>
+        <v>6504361</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45030.79166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L107">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M107">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N107">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O107">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P107">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T107">
         <v>1.75</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA107">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6544643</v>
+        <v>6543367</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,76 +10780,76 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>2.9</v>
+      </c>
+      <c r="M116">
+        <v>2.3</v>
+      </c>
+      <c r="N116">
         <v>2.1</v>
       </c>
-      <c r="L116">
-        <v>2.75</v>
-      </c>
-      <c r="M116">
-        <v>3.6</v>
-      </c>
-      <c r="N116">
-        <v>2.05</v>
-      </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>1.15</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6543367</v>
+        <v>6543366</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,34 +10869,34 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L117">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M117">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N117">
         <v>2.1</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P117">
         <v>3.25</v>
@@ -10905,40 +10905,40 @@
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC117">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6543368</v>
+        <v>6544643</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,76 +10958,76 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K118">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M118">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N118">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O118">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q118">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
         <v>1.75</v>
       </c>
       <c r="U118">
-        <v>1.775</v>
+        <v>1.675</v>
       </c>
       <c r="V118">
-        <v>2.025</v>
+        <v>2.15</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X118">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>1.025</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6543366</v>
+        <v>6543368</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,40 +11047,40 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N119">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
         <v>1.8</v>
@@ -11089,34 +11089,34 @@
         <v>2</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U119">
+        <v>1.775</v>
+      </c>
+      <c r="V119">
         <v>2.025</v>
       </c>
-      <c r="V119">
-        <v>1.775</v>
-      </c>
       <c r="W119">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>1.025</v>
-      </c>
-      <c r="AC119">
-        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6621806</v>
+        <v>6621807</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O132">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T132">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X132">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6621807</v>
+        <v>6621806</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
+        <v>2.05</v>
+      </c>
+      <c r="L133">
+        <v>2.95</v>
+      </c>
+      <c r="M133">
+        <v>3.5</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133">
         <v>2.75</v>
       </c>
-      <c r="L133">
-        <v>3</v>
-      </c>
-      <c r="M133">
-        <v>2.375</v>
-      </c>
-      <c r="N133">
-        <v>1.533</v>
-      </c>
-      <c r="O133">
-        <v>3.3</v>
-      </c>
       <c r="P133">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S133">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U133">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W133">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6760261</v>
+        <v>6761305</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,76 +12738,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M138">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N138">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O138">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA138">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6761305</v>
+        <v>6728744</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
+        <v>4.5</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>1.8</v>
+      </c>
+      <c r="N139">
+        <v>6.5</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
+        <v>1.5</v>
+      </c>
+      <c r="Q139">
+        <v>1</v>
+      </c>
+      <c r="R139">
+        <v>1.8</v>
+      </c>
+      <c r="S139">
+        <v>2</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
+        <v>1.95</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
         <v>2.5</v>
       </c>
-      <c r="L139">
-        <v>2.75</v>
-      </c>
-      <c r="M139">
-        <v>2.875</v>
-      </c>
-      <c r="N139">
-        <v>1.666</v>
-      </c>
-      <c r="O139">
-        <v>3.4</v>
-      </c>
-      <c r="P139">
-        <v>5</v>
-      </c>
-      <c r="Q139">
-        <v>-0.75</v>
-      </c>
-      <c r="R139">
-        <v>1.95</v>
-      </c>
-      <c r="S139">
-        <v>1.85</v>
-      </c>
-      <c r="T139">
-        <v>2</v>
-      </c>
-      <c r="U139">
-        <v>1.8</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
-      <c r="W139">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6760258</v>
+        <v>6757667</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,73 +12916,73 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K140">
         <v>3</v>
       </c>
       <c r="L140">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M140">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P140">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q140">
         <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA140">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6756722</v>
+        <v>6760258</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K141">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M141">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="N141">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
+        <v>1.975</v>
+      </c>
+      <c r="V141">
+        <v>1.825</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
         <v>2.5</v>
       </c>
-      <c r="U141">
-        <v>1.875</v>
-      </c>
-      <c r="V141">
-        <v>1.925</v>
-      </c>
-      <c r="W141">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
-      <c r="Y141">
-        <v>-1</v>
-      </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6757667</v>
+        <v>6756722</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,13 +13094,13 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -13109,43 +13109,43 @@
         <v>49</v>
       </c>
       <c r="K142">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L142">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="N142">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O142">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
+        <v>2.5</v>
+      </c>
+      <c r="U142">
         <v>1.875</v>
       </c>
-      <c r="S142">
+      <c r="V142">
         <v>1.925</v>
       </c>
-      <c r="T142">
-        <v>2</v>
-      </c>
-      <c r="U142">
-        <v>2</v>
-      </c>
-      <c r="V142">
-        <v>1.8</v>
-      </c>
       <c r="W142">
-        <v>0.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13154,16 +13154,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6760259</v>
+        <v>6760261</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,10 +13183,10 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13198,40 +13198,40 @@
         <v>47</v>
       </c>
       <c r="K143">
+        <v>2.25</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
         <v>2.5</v>
       </c>
-      <c r="L143">
-        <v>2.75</v>
-      </c>
-      <c r="M143">
-        <v>2.875</v>
-      </c>
-      <c r="N143">
-        <v>2.7</v>
-      </c>
       <c r="O143">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="P143">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
         <v>0</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T143">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13240,19 +13240,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6728744</v>
+        <v>6760259</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M144">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="N144">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="O144">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="P144">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6728808</v>
+        <v>6728807</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="L146">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="N146">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O146">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P146">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q146">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T146">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA146">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6728746</v>
+        <v>6728806</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N147">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="O147">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X147">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6728807</v>
+        <v>6728746</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>2.6</v>
+      </c>
+      <c r="N148">
         <v>3.2</v>
       </c>
-      <c r="M148">
-        <v>3.6</v>
-      </c>
-      <c r="N148">
-        <v>1.833</v>
-      </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P148">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
         <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6728809</v>
+        <v>6728808</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K149">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L149">
+        <v>3.25</v>
+      </c>
+      <c r="M149">
+        <v>1.7</v>
+      </c>
+      <c r="N149">
+        <v>4.75</v>
+      </c>
+      <c r="O149">
         <v>3.4</v>
       </c>
-      <c r="M149">
-        <v>5</v>
-      </c>
-      <c r="N149">
-        <v>1.909</v>
-      </c>
-      <c r="O149">
-        <v>3.2</v>
-      </c>
       <c r="P149">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q149">
+        <v>0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.9</v>
+      </c>
+      <c r="S149">
+        <v>1.9</v>
+      </c>
+      <c r="T149">
+        <v>2</v>
+      </c>
+      <c r="U149">
+        <v>1.825</v>
+      </c>
+      <c r="V149">
+        <v>1.975</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z149">
         <v>-0.5</v>
       </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>2.25</v>
-      </c>
-      <c r="U149">
-        <v>1.9</v>
-      </c>
-      <c r="V149">
-        <v>1.9</v>
-      </c>
-      <c r="W149">
-        <v>0.909</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>1</v>
-      </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6728806</v>
+        <v>6728811</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,40 +13806,40 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L150">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="M150">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N150">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P150">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R150">
         <v>1.85</v>
@@ -13851,31 +13851,31 @@
         <v>2</v>
       </c>
       <c r="U150">
+        <v>1.925</v>
+      </c>
+      <c r="V150">
         <v>1.875</v>
       </c>
-      <c r="V150">
-        <v>1.925</v>
-      </c>
       <c r="W150">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC150">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6728811</v>
+        <v>6728745</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,73 +13984,73 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L152">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N152">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O152">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
         <v>2</v>
       </c>
       <c r="U152">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V152">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6728745</v>
+        <v>6728809</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,13 +14073,13 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -14088,43 +14088,43 @@
         <v>49</v>
       </c>
       <c r="K153">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
         <v>5</v>
       </c>
       <c r="N153">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O153">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P153">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14133,13 +14133,13 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6786816</v>
+        <v>6786809</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K154">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L154">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="M154">
-        <v>9.5</v>
+        <v>2.9</v>
       </c>
       <c r="N154">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="O154">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P154">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W154">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6786815</v>
+        <v>6786810</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,76 +14251,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G155" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>48</v>
+      </c>
+      <c r="K155">
+        <v>1.444</v>
+      </c>
+      <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
+        <v>7</v>
+      </c>
+      <c r="N155">
+        <v>1.615</v>
+      </c>
+      <c r="O155">
         <v>3</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-      <c r="J155" t="s">
-        <v>49</v>
-      </c>
-      <c r="K155">
-        <v>3.6</v>
-      </c>
-      <c r="L155">
-        <v>3</v>
-      </c>
-      <c r="M155">
-        <v>2</v>
-      </c>
-      <c r="N155">
-        <v>2.9</v>
-      </c>
-      <c r="O155">
-        <v>2.9</v>
-      </c>
       <c r="P155">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T155">
         <v>2</v>
       </c>
       <c r="U155">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V155">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W155">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB155">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6786814</v>
+        <v>6786812</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K156">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L156">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="M156">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N156">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O156">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="P156">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="Q156">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
+        <v>1.975</v>
+      </c>
+      <c r="S156">
         <v>1.825</v>
       </c>
-      <c r="S156">
-        <v>1.975</v>
-      </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y156">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
+        <v>-0.5</v>
+      </c>
+      <c r="AA156">
         <v>0.4125</v>
       </c>
-      <c r="AA156">
-        <v>-0.5</v>
-      </c>
       <c r="AB156">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6786812</v>
+        <v>6786814</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L158">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M158">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N158">
+        <v>6.5</v>
+      </c>
+      <c r="O158">
+        <v>5.75</v>
+      </c>
+      <c r="P158">
+        <v>1.285</v>
+      </c>
+      <c r="Q158">
+        <v>1.25</v>
+      </c>
+      <c r="R158">
+        <v>1.825</v>
+      </c>
+      <c r="S158">
+        <v>1.975</v>
+      </c>
+      <c r="T158">
         <v>2.25</v>
       </c>
-      <c r="O158">
-        <v>3</v>
-      </c>
-      <c r="P158">
-        <v>3</v>
-      </c>
-      <c r="Q158">
-        <v>-0.25</v>
-      </c>
-      <c r="R158">
-        <v>1.975</v>
-      </c>
-      <c r="S158">
-        <v>1.825</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
       <c r="U158">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z158">
+        <v>0.4125</v>
+      </c>
+      <c r="AA158">
         <v>-0.5</v>
       </c>
-      <c r="AA158">
-        <v>0.4125</v>
-      </c>
       <c r="AB158">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6786810</v>
+        <v>6786816</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,76 +14607,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K159">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="L159">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M159">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="N159">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O159">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P159">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R159">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X159">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC159">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6786809</v>
+        <v>6786815</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K160">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L160">
+        <v>3</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
         <v>2.9</v>
-      </c>
-      <c r="M160">
-        <v>2.9</v>
-      </c>
-      <c r="N160">
-        <v>2.3</v>
       </c>
       <c r="O160">
         <v>2.9</v>
       </c>
       <c r="P160">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
+        <v>1.8</v>
+      </c>
+      <c r="T160">
+        <v>2</v>
+      </c>
+      <c r="U160">
+        <v>1.775</v>
+      </c>
+      <c r="V160">
         <v>2.025</v>
       </c>
-      <c r="S160">
-        <v>1.775</v>
-      </c>
-      <c r="T160">
-        <v>2.25</v>
-      </c>
-      <c r="U160">
-        <v>2.025</v>
-      </c>
-      <c r="V160">
-        <v>1.775</v>
-      </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X160">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA160">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC160">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6786819</v>
+        <v>6786824</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,76 +14874,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K162">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M162">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N162">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="O162">
         <v>3.6</v>
       </c>
       <c r="P162">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R162">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6786824</v>
+        <v>6786818</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,73 +14963,73 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H163">
+        <v>2</v>
+      </c>
+      <c r="I163">
         <v>3</v>
       </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L163">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="M163">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="N163">
-        <v>1.533</v>
+        <v>8</v>
       </c>
       <c r="O163">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R163">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W163">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z163">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB163">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6786823</v>
+        <v>6786820</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,49 +15052,49 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>1.666</v>
+        <v>8</v>
       </c>
       <c r="L164">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="N164">
-        <v>1.333</v>
+        <v>15</v>
       </c>
       <c r="O164">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P164">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="Q164">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
         <v>2.025</v>
@@ -15103,25 +15103,25 @@
         <v>1.775</v>
       </c>
       <c r="W164">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB164">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6786820</v>
+        <v>6786819</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,40 +15319,40 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J167" t="s">
         <v>47</v>
       </c>
       <c r="K167">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="L167">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M167">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="N167">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="O167">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q167">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R167">
         <v>1.925</v>
@@ -15361,13 +15361,13 @@
         <v>1.875</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15376,7 +15376,7 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Z167">
         <v>-1</v>
@@ -15385,10 +15385,10 @@
         <v>0.875</v>
       </c>
       <c r="AB167">
+        <v>0.4875</v>
+      </c>
+      <c r="AC167">
         <v>-0.5</v>
-      </c>
-      <c r="AC167">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6786822</v>
+        <v>6786823</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,58 +15408,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H168">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
+        <v>1.666</v>
+      </c>
+      <c r="L168">
+        <v>3.3</v>
+      </c>
+      <c r="M168">
+        <v>5</v>
+      </c>
+      <c r="N168">
+        <v>1.333</v>
+      </c>
+      <c r="O168">
+        <v>4.2</v>
+      </c>
+      <c r="P168">
+        <v>8</v>
+      </c>
+      <c r="Q168">
+        <v>-1.5</v>
+      </c>
+      <c r="R168">
+        <v>1.975</v>
+      </c>
+      <c r="S168">
+        <v>1.825</v>
+      </c>
+      <c r="T168">
         <v>3</v>
       </c>
-      <c r="L168">
-        <v>2.75</v>
-      </c>
-      <c r="M168">
-        <v>2.4</v>
-      </c>
-      <c r="N168">
-        <v>2.25</v>
-      </c>
-      <c r="O168">
-        <v>2.9</v>
-      </c>
-      <c r="P168">
-        <v>3.1</v>
-      </c>
-      <c r="Q168">
-        <v>-0.25</v>
-      </c>
-      <c r="R168">
-        <v>2</v>
-      </c>
-      <c r="S168">
-        <v>1.8</v>
-      </c>
-      <c r="T168">
-        <v>2.25</v>
-      </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W168">
-        <v>1.25</v>
+        <v>0.333</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15468,13 +15468,13 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6786818</v>
+        <v>6786822</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,73 +15497,73 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I169">
+        <v>4</v>
+      </c>
+      <c r="J169" t="s">
+        <v>49</v>
+      </c>
+      <c r="K169">
         <v>3</v>
       </c>
-      <c r="J169" t="s">
-        <v>47</v>
-      </c>
-      <c r="K169">
-        <v>9</v>
-      </c>
       <c r="L169">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="M169">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="N169">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="O169">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P169">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q169">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S169">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T169">
         <v>2.25</v>
       </c>
       <c r="U169">
+        <v>1.85</v>
+      </c>
+      <c r="V169">
         <v>1.95</v>
       </c>
-      <c r="V169">
-        <v>1.85</v>
-      </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7263824</v>
+        <v>7263823</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="s">
+        <v>48</v>
+      </c>
+      <c r="K204">
+        <v>2.2</v>
+      </c>
+      <c r="L204">
+        <v>2.875</v>
+      </c>
+      <c r="M204">
+        <v>3.2</v>
+      </c>
+      <c r="N204">
+        <v>1.909</v>
+      </c>
+      <c r="O204">
         <v>3</v>
       </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="J204" t="s">
-        <v>49</v>
-      </c>
-      <c r="K204">
-        <v>2.25</v>
-      </c>
-      <c r="L204">
-        <v>2.9</v>
-      </c>
-      <c r="M204">
-        <v>3.1</v>
-      </c>
-      <c r="N204">
-        <v>2</v>
-      </c>
-      <c r="O204">
-        <v>2.9</v>
-      </c>
       <c r="P204">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7263823</v>
+        <v>7263824</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K205">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L205">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M205">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O205">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P205">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T205">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X205">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7287222</v>
+        <v>7287211</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45207.59375</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>49</v>
       </c>
       <c r="K215">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L215">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N215">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P215">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,13 +19651,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7287211</v>
+        <v>7287222</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45207.59375</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>3</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L216">
+        <v>2.9</v>
+      </c>
+      <c r="M216">
+        <v>2.3</v>
+      </c>
+      <c r="N216">
         <v>3.6</v>
       </c>
-      <c r="M216">
-        <v>6</v>
-      </c>
-      <c r="N216">
-        <v>1.3</v>
-      </c>
       <c r="O216">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P216">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,13 +19740,13 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7627122</v>
+        <v>7627121</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45288.5</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G265" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265" t="s">
+        <v>48</v>
+      </c>
+      <c r="K265">
+        <v>1.5</v>
+      </c>
+      <c r="L265">
+        <v>3.5</v>
+      </c>
+      <c r="M265">
         <v>6</v>
       </c>
-      <c r="I265">
-        <v>1</v>
-      </c>
-      <c r="J265" t="s">
-        <v>49</v>
-      </c>
-      <c r="K265">
-        <v>1.333</v>
-      </c>
-      <c r="L265">
-        <v>4.2</v>
-      </c>
-      <c r="M265">
+      <c r="N265">
+        <v>1.444</v>
+      </c>
+      <c r="O265">
+        <v>3.6</v>
+      </c>
+      <c r="P265">
         <v>8</v>
       </c>
-      <c r="N265">
-        <v>1.363</v>
-      </c>
-      <c r="O265">
-        <v>3.75</v>
-      </c>
-      <c r="P265">
-        <v>9</v>
-      </c>
       <c r="Q265">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R265">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S265">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T265">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U265">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V265">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W265">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB265">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7627121</v>
+        <v>7627122</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,76 +24130,76 @@
         <v>45288.5</v>
       </c>
       <c r="F266" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G266" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I266">
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K266">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L266">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M266">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N266">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O266">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P266">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q266">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R266">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S266">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T266">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U266">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V266">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W266">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X266">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA266">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB266">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC266">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7627126</v>
+        <v>7627031</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,10 +24486,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G270" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H270">
         <v>2</v>
@@ -24501,43 +24501,43 @@
         <v>49</v>
       </c>
       <c r="K270">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L270">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M270">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N270">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O270">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P270">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q270">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R270">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S270">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T270">
         <v>1.75</v>
       </c>
       <c r="U270">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V270">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W270">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="X270">
         <v>-1</v>
@@ -24546,13 +24546,13 @@
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7627031</v>
+        <v>7627126</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,10 +24575,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G271" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H271">
         <v>2</v>
@@ -24590,43 +24590,43 @@
         <v>49</v>
       </c>
       <c r="K271">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L271">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M271">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N271">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O271">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P271">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q271">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R271">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S271">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T271">
         <v>1.75</v>
       </c>
       <c r="U271">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V271">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24635,13 +24635,13 @@
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -25631,7 +25631,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7641581</v>
+        <v>7641559</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25643,58 +25643,58 @@
         <v>45298.5</v>
       </c>
       <c r="F283" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G283" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
         <v>49</v>
       </c>
       <c r="K283">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L283">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M283">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="N283">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="O283">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P283">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R283">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S283">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T283">
         <v>2</v>
       </c>
       <c r="U283">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V283">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W283">
-        <v>1.1</v>
+        <v>4.25</v>
       </c>
       <c r="X283">
         <v>-1</v>
@@ -25703,13 +25703,13 @@
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA283">
         <v>-1</v>
       </c>
       <c r="AB283">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -25720,7 +25720,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7641559</v>
+        <v>7641581</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25732,58 +25732,58 @@
         <v>45298.5</v>
       </c>
       <c r="F284" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G284" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
         <v>49</v>
       </c>
       <c r="K284">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L284">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M284">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="N284">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O284">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P284">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="Q284">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S284">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T284">
         <v>2</v>
       </c>
       <c r="U284">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V284">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W284">
-        <v>4.25</v>
+        <v>1.1</v>
       </c>
       <c r="X284">
         <v>-1</v>
@@ -25792,13 +25792,13 @@
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA284">
         <v>-1</v>
       </c>
       <c r="AB284">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC284">
         <v>-1</v>
@@ -26254,7 +26254,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7781931</v>
+        <v>7781916</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26266,73 +26266,73 @@
         <v>45329.5</v>
       </c>
       <c r="F290" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G290" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J290" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K290">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L290">
+        <v>3.1</v>
+      </c>
+      <c r="M290">
+        <v>3.4</v>
+      </c>
+      <c r="N290">
+        <v>2.4</v>
+      </c>
+      <c r="O290">
+        <v>3</v>
+      </c>
+      <c r="P290">
         <v>2.9</v>
       </c>
-      <c r="M290">
-        <v>2.2</v>
-      </c>
-      <c r="N290">
-        <v>2.9</v>
-      </c>
-      <c r="O290">
-        <v>2.75</v>
-      </c>
-      <c r="P290">
-        <v>2.45</v>
-      </c>
       <c r="Q290">
         <v>0</v>
       </c>
       <c r="R290">
+        <v>1.725</v>
+      </c>
+      <c r="S290">
         <v>2.075</v>
       </c>
-      <c r="S290">
-        <v>1.725</v>
-      </c>
       <c r="T290">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U290">
+        <v>1.8</v>
+      </c>
+      <c r="V290">
+        <v>2</v>
+      </c>
+      <c r="W290">
+        <v>-1</v>
+      </c>
+      <c r="X290">
+        <v>-1</v>
+      </c>
+      <c r="Y290">
         <v>1.9</v>
       </c>
-      <c r="V290">
-        <v>1.9</v>
-      </c>
-      <c r="W290">
-        <v>1.9</v>
-      </c>
-      <c r="X290">
-        <v>-1</v>
-      </c>
-      <c r="Y290">
-        <v>-1</v>
-      </c>
       <c r="Z290">
+        <v>-1</v>
+      </c>
+      <c r="AA290">
         <v>1.075</v>
       </c>
-      <c r="AA290">
-        <v>-1</v>
-      </c>
       <c r="AB290">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26343,7 +26343,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7781916</v>
+        <v>7781917</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26355,16 +26355,16 @@
         <v>45329.5</v>
       </c>
       <c r="F291" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G291" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H291">
         <v>1</v>
       </c>
       <c r="I291">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J291" t="s">
         <v>47</v>
@@ -26379,31 +26379,31 @@
         <v>3.4</v>
       </c>
       <c r="N291">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O291">
+        <v>3.1</v>
+      </c>
+      <c r="P291">
         <v>3</v>
       </c>
-      <c r="P291">
-        <v>2.9</v>
-      </c>
       <c r="Q291">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S291">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T291">
         <v>2</v>
       </c>
       <c r="U291">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V291">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W291">
         <v>-1</v>
@@ -26412,16 +26412,16 @@
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>1.075</v>
+        <v>0.875</v>
       </c>
       <c r="AB291">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26432,7 +26432,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7781917</v>
+        <v>7781931</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26444,73 +26444,73 @@
         <v>45329.5</v>
       </c>
       <c r="F292" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G292" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K292">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L292">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M292">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N292">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O292">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P292">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q292">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R292">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S292">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T292">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U292">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V292">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA292">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26521,7 +26521,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7781919</v>
+        <v>7781918</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26533,73 +26533,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G293" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K293">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L293">
         <v>3</v>
       </c>
       <c r="M293">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N293">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O293">
         <v>2.75</v>
       </c>
       <c r="P293">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R293">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S293">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T293">
         <v>1.75</v>
       </c>
       <c r="U293">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V293">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y293">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA293">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB293">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AC293">
         <v>-0.5</v>
@@ -26610,7 +26610,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7781918</v>
+        <v>7781919</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26622,73 +26622,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G294" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K294">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L294">
         <v>3</v>
       </c>
       <c r="M294">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N294">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O294">
         <v>2.75</v>
       </c>
       <c r="P294">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q294">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S294">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T294">
         <v>1.75</v>
       </c>
       <c r="U294">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V294">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W294">
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB294">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AC294">
         <v>-0.5</v>
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7781924</v>
+        <v>7781934</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45333.5</v>
       </c>
       <c r="F301" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G301" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K301">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L301">
+        <v>3.25</v>
+      </c>
+      <c r="M301">
+        <v>1.85</v>
+      </c>
+      <c r="N301">
+        <v>4.2</v>
+      </c>
+      <c r="O301">
         <v>3.2</v>
       </c>
-      <c r="M301">
-        <v>2.375</v>
-      </c>
-      <c r="N301">
-        <v>2.5</v>
-      </c>
-      <c r="O301">
-        <v>2.875</v>
-      </c>
       <c r="P301">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q301">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R301">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S301">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T301">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U301">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W301">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z301">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA301">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB301">
         <v>-1</v>
       </c>
       <c r="AC301">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7781925</v>
+        <v>7781924</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45333.5</v>
       </c>
       <c r="F302" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G302" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H302">
         <v>1</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K302">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L302">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M302">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N302">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O302">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P302">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R302">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S302">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T302">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U302">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V302">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X302">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA302">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7781934</v>
+        <v>7781925</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,76 +27423,76 @@
         <v>45333.5</v>
       </c>
       <c r="F303" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G303" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303">
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K303">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="L303">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M303">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N303">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O303">
+        <v>3</v>
+      </c>
+      <c r="P303">
         <v>3.2</v>
       </c>
-      <c r="P303">
-        <v>1.833</v>
-      </c>
       <c r="Q303">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R303">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S303">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T303">
         <v>2.25</v>
       </c>
       <c r="U303">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V303">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W303">
         <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y303">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA303">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB303">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC303">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7781935</v>
+        <v>7781926</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27512,58 +27512,58 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F304" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G304" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H304">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J304" t="s">
         <v>49</v>
       </c>
       <c r="K304">
-        <v>1.285</v>
+        <v>1.85</v>
       </c>
       <c r="L304">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M304">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="N304">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O304">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P304">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q304">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R304">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S304">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U304">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V304">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W304">
-        <v>0.363</v>
+        <v>1</v>
       </c>
       <c r="X304">
         <v>-1</v>
@@ -27572,16 +27572,16 @@
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA304">
         <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27589,7 +27589,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7781926</v>
+        <v>7781935</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27601,58 +27601,58 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F305" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G305" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
         <v>49</v>
       </c>
       <c r="K305">
+        <v>1.285</v>
+      </c>
+      <c r="L305">
+        <v>5</v>
+      </c>
+      <c r="M305">
+        <v>10</v>
+      </c>
+      <c r="N305">
+        <v>1.363</v>
+      </c>
+      <c r="O305">
+        <v>4.2</v>
+      </c>
+      <c r="P305">
+        <v>8</v>
+      </c>
+      <c r="Q305">
+        <v>-1.25</v>
+      </c>
+      <c r="R305">
+        <v>1.95</v>
+      </c>
+      <c r="S305">
         <v>1.85</v>
       </c>
-      <c r="L305">
-        <v>3.4</v>
-      </c>
-      <c r="M305">
-        <v>3.8</v>
-      </c>
-      <c r="N305">
-        <v>2</v>
-      </c>
-      <c r="O305">
-        <v>3.1</v>
-      </c>
-      <c r="P305">
-        <v>3.75</v>
-      </c>
-      <c r="Q305">
-        <v>-0.5</v>
-      </c>
-      <c r="R305">
-        <v>1.975</v>
-      </c>
-      <c r="S305">
-        <v>1.825</v>
-      </c>
       <c r="T305">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V305">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W305">
-        <v>1</v>
+        <v>0.363</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -27661,16 +27661,16 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA305">
         <v>-1</v>
       </c>
       <c r="AB305">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC305">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27856,7 +27856,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7812522</v>
+        <v>7812521</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27868,76 +27868,76 @@
         <v>45336.5</v>
       </c>
       <c r="F308" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G308" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H308">
         <v>0</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K308">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="L308">
         <v>3.5</v>
       </c>
       <c r="M308">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="N308">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O308">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P308">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="Q308">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R308">
+        <v>1.825</v>
+      </c>
+      <c r="S308">
         <v>1.975</v>
       </c>
-      <c r="S308">
-        <v>1.825</v>
-      </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
+        <v>1.85</v>
+      </c>
+      <c r="V308">
         <v>1.95</v>
       </c>
-      <c r="V308">
-        <v>1.85</v>
-      </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y308">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB308">
         <v>-1</v>
       </c>
       <c r="AC308">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27945,7 +27945,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7812521</v>
+        <v>7812522</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27957,76 +27957,76 @@
         <v>45336.5</v>
       </c>
       <c r="F309" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G309" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H309">
         <v>0</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K309">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="L309">
         <v>3.5</v>
       </c>
       <c r="M309">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="N309">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O309">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P309">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="Q309">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R309">
+        <v>1.975</v>
+      </c>
+      <c r="S309">
         <v>1.825</v>
       </c>
-      <c r="S309">
-        <v>1.975</v>
-      </c>
       <c r="T309">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U309">
+        <v>1.95</v>
+      </c>
+      <c r="V309">
         <v>1.85</v>
       </c>
-      <c r="V309">
-        <v>1.95</v>
-      </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA309">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28479,7 +28479,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7812532</v>
+        <v>7812528</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28488,34 +28488,43 @@
         <v>28</v>
       </c>
       <c r="E315" s="2">
-        <v>45340.5</v>
+        <v>45339.5</v>
       </c>
       <c r="F315" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G315" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315" t="s">
+        <v>49</v>
       </c>
       <c r="K315">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L315">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M315">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N315">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O315">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P315">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q315">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R315">
         <v>2</v>
@@ -28524,28 +28533,34 @@
         <v>1.8</v>
       </c>
       <c r="T315">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U315">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V315">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W315">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA315">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB315">
+        <v>-1</v>
+      </c>
+      <c r="AC315">
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28553,7 +28568,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7812533</v>
+        <v>7812529</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28562,64 +28577,79 @@
         <v>28</v>
       </c>
       <c r="E316" s="2">
-        <v>45340.58333333334</v>
+        <v>45339.58333333334</v>
       </c>
       <c r="F316" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G316" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316" t="s">
+        <v>49</v>
       </c>
       <c r="K316">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="L316">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M316">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="N316">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="O316">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="P316">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="Q316">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R316">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S316">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T316">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U316">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V316">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W316">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X316">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA316">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB316">
+        <v>-1</v>
+      </c>
+      <c r="AC316">
+        <v>1.025</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28627,7 +28657,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7812534</v>
+        <v>7812530</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28636,40 +28666,49 @@
         <v>28</v>
       </c>
       <c r="E317" s="2">
-        <v>45340.66666666666</v>
+        <v>45339.58333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G317" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="H317">
+        <v>2</v>
+      </c>
+      <c r="I317">
+        <v>3</v>
+      </c>
+      <c r="J317" t="s">
+        <v>47</v>
       </c>
       <c r="K317">
         <v>1.95</v>
       </c>
       <c r="L317">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M317">
         <v>3.8</v>
       </c>
       <c r="N317">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O317">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="P317">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q317">
         <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S317">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T317">
         <v>2</v>
@@ -28681,19 +28720,381 @@
         <v>1.825</v>
       </c>
       <c r="W317">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Z317">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB317">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC317">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:29">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>7812531</v>
+      </c>
+      <c r="C318" t="s">
+        <v>28</v>
+      </c>
+      <c r="D318" t="s">
+        <v>28</v>
+      </c>
+      <c r="E318" s="2">
+        <v>45339.66666666666</v>
+      </c>
+      <c r="F318" t="s">
+        <v>39</v>
+      </c>
+      <c r="G318" t="s">
+        <v>38</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318" t="s">
+        <v>48</v>
+      </c>
+      <c r="K318">
+        <v>4.5</v>
+      </c>
+      <c r="L318">
+        <v>3.3</v>
+      </c>
+      <c r="M318">
+        <v>1.666</v>
+      </c>
+      <c r="N318">
+        <v>5.75</v>
+      </c>
+      <c r="O318">
+        <v>3.8</v>
+      </c>
+      <c r="P318">
+        <v>1.45</v>
+      </c>
+      <c r="Q318">
+        <v>1</v>
+      </c>
+      <c r="R318">
+        <v>1.975</v>
+      </c>
+      <c r="S318">
+        <v>1.825</v>
+      </c>
+      <c r="T318">
+        <v>2.25</v>
+      </c>
+      <c r="U318">
+        <v>1.9</v>
+      </c>
+      <c r="V318">
+        <v>1.9</v>
+      </c>
+      <c r="W318">
+        <v>-1</v>
+      </c>
+      <c r="X318">
+        <v>2.8</v>
+      </c>
+      <c r="Y318">
+        <v>-1</v>
+      </c>
+      <c r="Z318">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA318">
+        <v>-1</v>
+      </c>
+      <c r="AB318">
+        <v>-1</v>
+      </c>
+      <c r="AC318">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:29">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>7812532</v>
+      </c>
+      <c r="C319" t="s">
+        <v>28</v>
+      </c>
+      <c r="D319" t="s">
+        <v>28</v>
+      </c>
+      <c r="E319" s="2">
+        <v>45340.5</v>
+      </c>
+      <c r="F319" t="s">
+        <v>45</v>
+      </c>
+      <c r="G319" t="s">
+        <v>29</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319" t="s">
+        <v>47</v>
+      </c>
+      <c r="K319">
+        <v>2.625</v>
+      </c>
+      <c r="L319">
+        <v>2.75</v>
+      </c>
+      <c r="M319">
+        <v>2.7</v>
+      </c>
+      <c r="N319">
+        <v>3.2</v>
+      </c>
+      <c r="O319">
+        <v>2.9</v>
+      </c>
+      <c r="P319">
+        <v>2.2</v>
+      </c>
+      <c r="Q319">
+        <v>0.25</v>
+      </c>
+      <c r="R319">
+        <v>1.875</v>
+      </c>
+      <c r="S319">
+        <v>1.925</v>
+      </c>
+      <c r="T319">
+        <v>2</v>
+      </c>
+      <c r="U319">
+        <v>1.75</v>
+      </c>
+      <c r="V319">
+        <v>2.05</v>
+      </c>
+      <c r="W319">
+        <v>-1</v>
+      </c>
+      <c r="X319">
+        <v>-1</v>
+      </c>
+      <c r="Y319">
+        <v>1.2</v>
+      </c>
+      <c r="Z319">
+        <v>-1</v>
+      </c>
+      <c r="AA319">
+        <v>0.925</v>
+      </c>
+      <c r="AB319">
+        <v>-1</v>
+      </c>
+      <c r="AC319">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="320" spans="1:29">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>7812533</v>
+      </c>
+      <c r="C320" t="s">
+        <v>28</v>
+      </c>
+      <c r="D320" t="s">
+        <v>28</v>
+      </c>
+      <c r="E320" s="2">
+        <v>45340.58333333334</v>
+      </c>
+      <c r="F320" t="s">
+        <v>42</v>
+      </c>
+      <c r="G320" t="s">
+        <v>44</v>
+      </c>
+      <c r="H320">
+        <v>5</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320" t="s">
+        <v>49</v>
+      </c>
+      <c r="K320">
+        <v>1.25</v>
+      </c>
+      <c r="L320">
+        <v>5</v>
+      </c>
+      <c r="M320">
+        <v>8.5</v>
+      </c>
+      <c r="N320">
+        <v>1.166</v>
+      </c>
+      <c r="O320">
+        <v>6.5</v>
+      </c>
+      <c r="P320">
+        <v>11</v>
+      </c>
+      <c r="Q320">
+        <v>-2</v>
+      </c>
+      <c r="R320">
+        <v>2</v>
+      </c>
+      <c r="S320">
+        <v>1.8</v>
+      </c>
+      <c r="T320">
+        <v>2.75</v>
+      </c>
+      <c r="U320">
+        <v>1.825</v>
+      </c>
+      <c r="V320">
+        <v>1.975</v>
+      </c>
+      <c r="W320">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X320">
+        <v>-1</v>
+      </c>
+      <c r="Y320">
+        <v>-1</v>
+      </c>
+      <c r="Z320">
+        <v>1</v>
+      </c>
+      <c r="AA320">
+        <v>-1</v>
+      </c>
+      <c r="AB320">
+        <v>0.825</v>
+      </c>
+      <c r="AC320">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:29">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>7812534</v>
+      </c>
+      <c r="C321" t="s">
+        <v>28</v>
+      </c>
+      <c r="D321" t="s">
+        <v>28</v>
+      </c>
+      <c r="E321" s="2">
+        <v>45340.66666666666</v>
+      </c>
+      <c r="F321" t="s">
+        <v>43</v>
+      </c>
+      <c r="G321" t="s">
+        <v>41</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321" t="s">
+        <v>49</v>
+      </c>
+      <c r="K321">
+        <v>1.95</v>
+      </c>
+      <c r="L321">
+        <v>2.9</v>
+      </c>
+      <c r="M321">
+        <v>3.8</v>
+      </c>
+      <c r="N321">
+        <v>1.615</v>
+      </c>
+      <c r="O321">
+        <v>3.1</v>
+      </c>
+      <c r="P321">
+        <v>5.25</v>
+      </c>
+      <c r="Q321">
+        <v>-0.75</v>
+      </c>
+      <c r="R321">
+        <v>1.95</v>
+      </c>
+      <c r="S321">
+        <v>1.85</v>
+      </c>
+      <c r="T321">
+        <v>2</v>
+      </c>
+      <c r="U321">
+        <v>1.975</v>
+      </c>
+      <c r="V321">
+        <v>1.825</v>
+      </c>
+      <c r="W321">
+        <v>0.615</v>
+      </c>
+      <c r="X321">
+        <v>-1</v>
+      </c>
+      <c r="Y321">
+        <v>-1</v>
+      </c>
+      <c r="Z321">
+        <v>0.475</v>
+      </c>
+      <c r="AA321">
+        <v>-0.5</v>
+      </c>
+      <c r="AB321">
+        <v>-1</v>
+      </c>
+      <c r="AC321">
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -139,10 +139,10 @@
     <t>RSB Berkane</t>
   </si>
   <si>
-    <t>SC Chabab Mohammedia</t>
+    <t>FAR Rabat</t>
   </si>
   <si>
-    <t>FAR Rabat</t>
+    <t>SC Chabab Mohammedia</t>
   </si>
   <si>
     <t>MAT Tetouan</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC321"/>
+  <dimension ref="A1:AC323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6087144</v>
+        <v>6087143</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,13 +1794,13 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
@@ -1815,31 +1815,31 @@
         <v>3</v>
       </c>
       <c r="N15">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P15">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1848,19 +1848,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6087143</v>
+        <v>6087144</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,13 +1883,13 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -1904,32 +1904,32 @@
         <v>3</v>
       </c>
       <c r="N16">
+        <v>2.7</v>
+      </c>
+      <c r="O16">
+        <v>2.9</v>
+      </c>
+      <c r="P16">
+        <v>2.5</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
+        <v>1.825</v>
+      </c>
+      <c r="T16">
+        <v>1.75</v>
+      </c>
+      <c r="U16">
+        <v>1.75</v>
+      </c>
+      <c r="V16">
         <v>2.05</v>
       </c>
-      <c r="O16">
-        <v>2.8</v>
-      </c>
-      <c r="P16">
-        <v>3.75</v>
-      </c>
-      <c r="Q16">
-        <v>-0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.8</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
-      <c r="V16">
-        <v>1.8</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
@@ -1937,19 +1937,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2328,7 +2328,7 @@
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>44944.5</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>44945.6875</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
@@ -3574,7 +3574,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3930,7 +3930,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>44951.5</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4728,7 +4728,7 @@
         <v>44952.59375</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6170365</v>
+        <v>6170364</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,61 +4906,61 @@
         <v>44954.5</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M50">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="N50">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P50">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U50">
+        <v>1.875</v>
+      </c>
+      <c r="V50">
         <v>1.925</v>
       </c>
-      <c r="V50">
-        <v>1.875</v>
-      </c>
       <c r="W50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y50">
         <v>-1</v>
@@ -4972,10 +4972,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6170364</v>
+        <v>6170365</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,61 +4995,61 @@
         <v>44954.5</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L51">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="N51">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="O51">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
+        <v>1.925</v>
+      </c>
+      <c r="V51">
         <v>1.875</v>
       </c>
-      <c r="V51">
-        <v>1.925</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X51">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5061,10 +5061,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5440,7 +5440,7 @@
         <v>44955.6875</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
         <v>31</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6262289</v>
+        <v>6262287</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,76 +5885,76 @@
         <v>44978.59375</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M61">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="P61">
+        <v>3.3</v>
+      </c>
+      <c r="Q61">
+        <v>-0.25</v>
+      </c>
+      <c r="R61">
+        <v>2.075</v>
+      </c>
+      <c r="S61">
+        <v>1.725</v>
+      </c>
+      <c r="T61">
         <v>1.75</v>
       </c>
-      <c r="Q61">
-        <v>0.5</v>
-      </c>
-      <c r="R61">
-        <v>1.95</v>
-      </c>
-      <c r="S61">
-        <v>1.85</v>
-      </c>
-      <c r="T61">
-        <v>2</v>
-      </c>
       <c r="U61">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC61">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6262287</v>
+        <v>6262289</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>44978.59375</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L62">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M62">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N62">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="O62">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
+        <v>2.05</v>
+      </c>
+      <c r="V62">
         <v>1.75</v>
       </c>
-      <c r="U62">
-        <v>1.925</v>
-      </c>
-      <c r="V62">
-        <v>1.875</v>
-      </c>
       <c r="W62">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z62">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6066,7 +6066,7 @@
         <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6244,7 +6244,7 @@
         <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6508,7 +6508,7 @@
         <v>44982.6875</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6953,7 +6953,7 @@
         <v>44986.6875</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
         <v>39</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6325977</v>
+        <v>6325667</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,76 +7131,76 @@
         <v>44989.5</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O75">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T75">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6325667</v>
+        <v>6325977</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,76 +7220,76 @@
         <v>44989.5</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="N76">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P76">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
+        <v>1.775</v>
+      </c>
+      <c r="S76">
+        <v>2.025</v>
+      </c>
+      <c r="T76">
         <v>1.75</v>
       </c>
-      <c r="S76">
-        <v>2.05</v>
-      </c>
-      <c r="T76">
-        <v>2.25</v>
-      </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7312,7 +7312,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>44997.6875</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6472142</v>
+        <v>6472143</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
         <v>2.75</v>
       </c>
       <c r="M91">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O91">
         <v>2.75</v>
       </c>
       <c r="P91">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.4375</v>
+        <v>0.7</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6472143</v>
+        <v>6472142</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L93">
         <v>2.75</v>
       </c>
       <c r="M93">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O93">
         <v>2.75</v>
       </c>
       <c r="P93">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y93">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.7</v>
+        <v>0.4375</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6472145</v>
+        <v>6472144</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L94">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N94">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P94">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T94">
         <v>1.75</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y94">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
+        <v>0.375</v>
+      </c>
+      <c r="AB94">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6472144</v>
+        <v>6472145</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M95">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O95">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P95">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
         <v>1.75</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9089,10 +9089,10 @@
         <v>45022.79166666666</v>
       </c>
       <c r="F97" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" t="s">
         <v>42</v>
-      </c>
-      <c r="G97" t="s">
-        <v>41</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6484614</v>
+        <v>6472149</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M100">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N100">
+        <v>2.5</v>
+      </c>
+      <c r="O100">
+        <v>2.6</v>
+      </c>
+      <c r="P100">
+        <v>3.1</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>1.7</v>
+      </c>
+      <c r="S100">
         <v>2.1</v>
-      </c>
-      <c r="O100">
-        <v>2.875</v>
-      </c>
-      <c r="P100">
-        <v>3.5</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.875</v>
-      </c>
-      <c r="S100">
-        <v>1.925</v>
       </c>
       <c r="T100">
         <v>1.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y100">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6472149</v>
+        <v>6484614</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K101">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L101">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O101">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="P101">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
         <v>1.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6476436</v>
+        <v>6472150</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,13 +9534,13 @@
         <v>45024.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -9549,34 +9549,34 @@
         <v>49</v>
       </c>
       <c r="K102">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N102">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P102">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U102">
         <v>1.775</v>
@@ -9585,7 +9585,7 @@
         <v>2.025</v>
       </c>
       <c r="W102">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9594,16 +9594,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA102">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6472150</v>
+        <v>6476436</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,13 +9623,13 @@
         <v>45024.79166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9638,34 +9638,34 @@
         <v>49</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N103">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O103">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
         <v>1.775</v>
@@ -9674,7 +9674,7 @@
         <v>2.025</v>
       </c>
       <c r="W103">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB103">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6484639</v>
+        <v>6480122</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,59 +9712,59 @@
         <v>45025.79166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
         <v>41</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>49</v>
       </c>
       <c r="K104">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L104">
+        <v>3.75</v>
+      </c>
+      <c r="M104">
+        <v>1.533</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104">
+        <v>3.3</v>
+      </c>
+      <c r="P104">
+        <v>1.8</v>
+      </c>
+      <c r="Q104">
+        <v>0.5</v>
+      </c>
+      <c r="R104">
+        <v>1.975</v>
+      </c>
+      <c r="S104">
+        <v>1.825</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
+        <v>1.975</v>
+      </c>
+      <c r="V104">
+        <v>1.825</v>
+      </c>
+      <c r="W104">
         <v>3</v>
       </c>
-      <c r="M104">
-        <v>3.3</v>
-      </c>
-      <c r="N104">
-        <v>2.2</v>
-      </c>
-      <c r="O104">
-        <v>2.875</v>
-      </c>
-      <c r="P104">
-        <v>3.25</v>
-      </c>
-      <c r="Q104">
-        <v>-0.25</v>
-      </c>
-      <c r="R104">
-        <v>1.85</v>
-      </c>
-      <c r="S104">
-        <v>1.95</v>
-      </c>
-      <c r="T104">
-        <v>1.75</v>
-      </c>
-      <c r="U104">
-        <v>1.8</v>
-      </c>
-      <c r="V104">
-        <v>2</v>
-      </c>
-      <c r="W104">
-        <v>1.2</v>
-      </c>
       <c r="X104">
         <v>-1</v>
       </c>
@@ -9772,16 +9772,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6480122</v>
+        <v>6484639</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,58 +9801,58 @@
         <v>45025.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
         <v>42</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>49</v>
       </c>
       <c r="K105">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="N105">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P105">
+        <v>3.25</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.85</v>
+      </c>
+      <c r="S105">
+        <v>1.95</v>
+      </c>
+      <c r="T105">
+        <v>1.75</v>
+      </c>
+      <c r="U105">
         <v>1.8</v>
       </c>
-      <c r="Q105">
-        <v>0.5</v>
-      </c>
-      <c r="R105">
-        <v>1.975</v>
-      </c>
-      <c r="S105">
-        <v>1.825</v>
-      </c>
-      <c r="T105">
-        <v>2</v>
-      </c>
-      <c r="U105">
-        <v>1.975</v>
-      </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9861,16 +9861,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6504364</v>
+        <v>6504362</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M108">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S108">
+        <v>2.05</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
         <v>1.8</v>
       </c>
-      <c r="T108">
-        <v>2.25</v>
-      </c>
-      <c r="U108">
-        <v>1.975</v>
-      </c>
-      <c r="V108">
-        <v>1.825</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>0.8</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6504362</v>
+        <v>6504364</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K110">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L110">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N110">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O110">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6507527</v>
+        <v>6507526</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10338,46 +10338,46 @@
         <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K111">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="M111">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P111">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U111">
         <v>2.025</v>
@@ -10386,19 +10386,19 @@
         <v>1.775</v>
       </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
         <v>1.025</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6517498</v>
+        <v>6507527</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,58 +10424,58 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L112">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
+        <v>2.025</v>
+      </c>
+      <c r="V112">
         <v>1.775</v>
       </c>
-      <c r="V112">
-        <v>2.025</v>
-      </c>
       <c r="W112">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,13 +10484,13 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6507526</v>
+        <v>6517498</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,40 +10513,40 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L113">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="M113">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N113">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O113">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P113">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
         <v>2</v>
@@ -10555,31 +10555,31 @@
         <v>1.8</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U113">
+        <v>1.775</v>
+      </c>
+      <c r="V113">
         <v>2.025</v>
       </c>
-      <c r="V113">
-        <v>1.775</v>
-      </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6540264</v>
+        <v>6540263</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,73 +10602,73 @@
         <v>45035.79166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K114">
+        <v>1.444</v>
+      </c>
+      <c r="L114">
+        <v>3.5</v>
+      </c>
+      <c r="M114">
+        <v>7.5</v>
+      </c>
+      <c r="N114">
+        <v>1.615</v>
+      </c>
+      <c r="O114">
+        <v>3.3</v>
+      </c>
+      <c r="P114">
+        <v>5.25</v>
+      </c>
+      <c r="Q114">
+        <v>-0.75</v>
+      </c>
+      <c r="R114">
+        <v>1.825</v>
+      </c>
+      <c r="S114">
+        <v>1.975</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.75</v>
+      </c>
+      <c r="V114">
         <v>2.05</v>
       </c>
-      <c r="L114">
-        <v>2.875</v>
-      </c>
-      <c r="M114">
-        <v>3.6</v>
-      </c>
-      <c r="N114">
-        <v>2.2</v>
-      </c>
-      <c r="O114">
-        <v>2.625</v>
-      </c>
-      <c r="P114">
-        <v>3.75</v>
-      </c>
-      <c r="Q114">
-        <v>-0.25</v>
-      </c>
-      <c r="R114">
-        <v>1.875</v>
-      </c>
-      <c r="S114">
-        <v>1.925</v>
-      </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X114">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA114">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6540263</v>
+        <v>6540264</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,73 +10691,73 @@
         <v>45035.79166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K115">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M115">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P115">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
+        <v>1.875</v>
+      </c>
+      <c r="S115">
+        <v>1.925</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.825</v>
       </c>
-      <c r="S115">
-        <v>1.975</v>
-      </c>
-      <c r="T115">
-        <v>2</v>
-      </c>
-      <c r="U115">
-        <v>1.75</v>
-      </c>
-      <c r="V115">
-        <v>2.05</v>
-      </c>
       <c r="W115">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB115">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6543367</v>
+        <v>6544643</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,76 +10780,76 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K116">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
+        <v>2.75</v>
+      </c>
+      <c r="M116">
+        <v>3.6</v>
+      </c>
+      <c r="N116">
+        <v>2.05</v>
+      </c>
+      <c r="O116">
         <v>2.9</v>
       </c>
-      <c r="M116">
-        <v>2.3</v>
-      </c>
-      <c r="N116">
-        <v>2.1</v>
-      </c>
-      <c r="O116">
-        <v>3.1</v>
-      </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.4</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6543366</v>
+        <v>6543367</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,34 +10869,34 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M117">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N117">
         <v>2.1</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
         <v>3.25</v>
@@ -10905,40 +10905,40 @@
         <v>-0.25</v>
       </c>
       <c r="R117">
+        <v>1.875</v>
+      </c>
+      <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
       </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>2.025</v>
-      </c>
-      <c r="V117">
-        <v>1.775</v>
-      </c>
       <c r="W117">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6544643</v>
+        <v>6543366</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,58 +10958,58 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>49</v>
       </c>
       <c r="K118">
+        <v>3.2</v>
+      </c>
+      <c r="L118">
+        <v>2.8</v>
+      </c>
+      <c r="M118">
+        <v>2.25</v>
+      </c>
+      <c r="N118">
         <v>2.1</v>
       </c>
-      <c r="L118">
-        <v>2.75</v>
-      </c>
-      <c r="M118">
-        <v>3.6</v>
-      </c>
-      <c r="N118">
-        <v>2.05</v>
-      </c>
       <c r="O118">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q118">
         <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.675</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11018,16 +11018,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11050,7 +11050,7 @@
         <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6557108</v>
+        <v>6562344</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11851,70 +11851,70 @@
         <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K128">
+        <v>1.5</v>
+      </c>
+      <c r="L128">
+        <v>3.6</v>
+      </c>
+      <c r="M128">
+        <v>6</v>
+      </c>
+      <c r="N128">
+        <v>1.5</v>
+      </c>
+      <c r="O128">
+        <v>3.75</v>
+      </c>
+      <c r="P128">
         <v>5.5</v>
       </c>
-      <c r="L128">
-        <v>3.25</v>
-      </c>
-      <c r="M128">
-        <v>1.6</v>
-      </c>
-      <c r="N128">
-        <v>7.5</v>
-      </c>
-      <c r="O128">
-        <v>3.3</v>
-      </c>
-      <c r="P128">
-        <v>1.533</v>
-      </c>
       <c r="Q128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R128">
+        <v>2.025</v>
+      </c>
+      <c r="S128">
         <v>1.775</v>
       </c>
-      <c r="S128">
-        <v>2.025</v>
-      </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
         <v>1.825</v>
       </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6562344</v>
+        <v>6557108</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,70 +11940,70 @@
         <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="N129">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R129">
+        <v>1.775</v>
+      </c>
+      <c r="S129">
         <v>2.025</v>
       </c>
-      <c r="S129">
-        <v>1.775</v>
-      </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="V129">
-        <v>1.825</v>
-      </c>
       <c r="W129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6621807</v>
+        <v>6621804</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M132">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="N132">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O132">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P132">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S132">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T132">
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6621806</v>
+        <v>6621805</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L133">
-        <v>2.95</v>
+        <v>2.875</v>
       </c>
       <c r="M133">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O133">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P133">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T133">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U133">
+        <v>2</v>
+      </c>
+      <c r="V133">
         <v>1.8</v>
       </c>
-      <c r="V133">
-        <v>2</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.5249999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6621805</v>
+        <v>6621807</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,40 +12382,40 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L134">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N134">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O134">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
         <v>2.025</v>
@@ -12427,28 +12427,28 @@
         <v>2</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB134">
-        <v>1</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6621804</v>
+        <v>6621806</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,37 +12471,37 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>48</v>
       </c>
       <c r="K135">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L135">
-        <v>2.875</v>
+        <v>2.95</v>
       </c>
       <c r="M135">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N135">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O135">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
@@ -12513,19 +12513,19 @@
         <v>2.05</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="Y135">
         <v>-1</v>
@@ -12537,10 +12537,10 @@
         <v>0.5249999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC135">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6621808</v>
+        <v>6621809</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45075.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L136">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M136">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N136">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O136">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6621809</v>
+        <v>6621808</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45075.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L137">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M137">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N137">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P137">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6761305</v>
+        <v>6760258</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,73 +12738,73 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K138">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L138">
         <v>2.75</v>
       </c>
       <c r="M138">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N138">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z138">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB138">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6728744</v>
+        <v>6760259</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M139">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="N139">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="P139">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6757667</v>
+        <v>6760260</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,73 +12916,73 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140" t="s">
+        <v>48</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
         <v>3</v>
       </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140" t="s">
-        <v>49</v>
-      </c>
-      <c r="K140">
-        <v>3</v>
-      </c>
-      <c r="L140">
-        <v>2.8</v>
-      </c>
       <c r="M140">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140">
+        <v>3.25</v>
+      </c>
+      <c r="P140">
         <v>1.8</v>
       </c>
-      <c r="O140">
-        <v>2.875</v>
-      </c>
-      <c r="P140">
-        <v>4.5</v>
-      </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6760258</v>
+        <v>6756722</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L141">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R141">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6756722</v>
+        <v>6760261</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M142">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="O142">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="P142">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6760261</v>
+        <v>6761305</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N143">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O143">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R143">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA143">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6760259</v>
+        <v>6728744</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K144">
+        <v>4.5</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>1.8</v>
+      </c>
+      <c r="N144">
+        <v>6.5</v>
+      </c>
+      <c r="O144">
+        <v>3.5</v>
+      </c>
+      <c r="P144">
+        <v>1.5</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
+        <v>1.85</v>
+      </c>
+      <c r="V144">
+        <v>1.95</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
         <v>2.5</v>
       </c>
-      <c r="L144">
-        <v>2.75</v>
-      </c>
-      <c r="M144">
-        <v>2.875</v>
-      </c>
-      <c r="N144">
-        <v>2.7</v>
-      </c>
-      <c r="O144">
-        <v>2.625</v>
-      </c>
-      <c r="P144">
-        <v>2.75</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>1.9</v>
-      </c>
-      <c r="S144">
-        <v>1.9</v>
-      </c>
-      <c r="T144">
-        <v>1.75</v>
-      </c>
-      <c r="U144">
-        <v>1.925</v>
-      </c>
-      <c r="V144">
-        <v>1.875</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
       <c r="Y144">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6760260</v>
+        <v>6757667</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L145">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M145">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N145">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O145">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P145">
+        <v>4.5</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.875</v>
+      </c>
+      <c r="S145">
+        <v>1.925</v>
+      </c>
+      <c r="T145">
+        <v>2</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
         <v>1.8</v>
       </c>
-      <c r="Q145">
-        <v>0.5</v>
-      </c>
-      <c r="R145">
-        <v>1.975</v>
-      </c>
-      <c r="S145">
-        <v>1.825</v>
-      </c>
-      <c r="T145">
-        <v>2</v>
-      </c>
-      <c r="U145">
-        <v>1.975</v>
-      </c>
-      <c r="V145">
-        <v>1.825</v>
-      </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X145">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6728807</v>
+        <v>6728806</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,49 +13450,49 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>49</v>
       </c>
       <c r="K146">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N146">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O146">
         <v>3.5</v>
       </c>
       <c r="P146">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R146">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U146">
         <v>1.875</v>
@@ -13501,7 +13501,7 @@
         <v>1.925</v>
       </c>
       <c r="W146">
-        <v>0.833</v>
+        <v>0.5</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13510,16 +13510,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6728806</v>
+        <v>6728807</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,49 +13539,49 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>49</v>
       </c>
       <c r="K147">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N147">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O147">
         <v>3.5</v>
       </c>
       <c r="P147">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
         <v>1.875</v>
@@ -13590,7 +13590,7 @@
         <v>1.925</v>
       </c>
       <c r="W147">
-        <v>0.5</v>
+        <v>0.833</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13599,16 +13599,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC147">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6728808</v>
+        <v>6728745</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L149">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="N149">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="O149">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="Q149">
+        <v>-1</v>
+      </c>
+      <c r="R149">
+        <v>1.775</v>
+      </c>
+      <c r="S149">
+        <v>2.025</v>
+      </c>
+      <c r="T149">
+        <v>2</v>
+      </c>
+      <c r="U149">
+        <v>1.75</v>
+      </c>
+      <c r="V149">
+        <v>2.05</v>
+      </c>
+      <c r="W149">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
         <v>0.75</v>
       </c>
-      <c r="R149">
-        <v>1.9</v>
-      </c>
-      <c r="S149">
-        <v>1.9</v>
-      </c>
-      <c r="T149">
-        <v>2</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
-      <c r="Y149">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="Z149">
-        <v>-0.5</v>
-      </c>
-      <c r="AA149">
-        <v>0.45</v>
-      </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
       <c r="AC149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6728811</v>
+        <v>6728808</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,55 +13806,55 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L150">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="N150">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="O150">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R150">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
         <v>2</v>
       </c>
       <c r="U150">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13863,19 +13863,19 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.625</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB150">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6728810</v>
+        <v>6728809</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,58 +13895,58 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>49</v>
       </c>
       <c r="K151">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L151">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N151">
+        <v>1.909</v>
+      </c>
+      <c r="O151">
+        <v>3.2</v>
+      </c>
+      <c r="P151">
+        <v>3.5</v>
+      </c>
+      <c r="Q151">
+        <v>-0.5</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>1.8</v>
+      </c>
+      <c r="T151">
         <v>2.25</v>
       </c>
-      <c r="O151">
-        <v>2.9</v>
-      </c>
-      <c r="P151">
-        <v>3.1</v>
-      </c>
-      <c r="Q151">
-        <v>-0.25</v>
-      </c>
-      <c r="R151">
-        <v>1.975</v>
-      </c>
-      <c r="S151">
-        <v>1.825</v>
-      </c>
-      <c r="T151">
-        <v>2</v>
-      </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13955,13 +13955,13 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6728745</v>
+        <v>6728811</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,73 +13984,73 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
         <v>3</v>
       </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M152">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N152">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O152">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P152">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
         <v>2</v>
       </c>
       <c r="U152">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z152">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB152">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6728809</v>
+        <v>6728810</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,58 +14073,58 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>49</v>
       </c>
       <c r="K153">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L153">
+        <v>2.9</v>
+      </c>
+      <c r="M153">
         <v>3.4</v>
       </c>
-      <c r="M153">
-        <v>5</v>
-      </c>
       <c r="N153">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O153">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P153">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S153">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14133,13 +14133,13 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6786809</v>
+        <v>6786812</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,49 +14162,49 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>48</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L154">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M154">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N154">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O154">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P154">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q154">
         <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14216,7 +14216,7 @@
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14225,13 +14225,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA154">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6786810</v>
+        <v>6786816</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,76 +14251,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K155">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="L155">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M155">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="N155">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O155">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P155">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T155">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V155">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X155">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA155">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6786812</v>
+        <v>6786815</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L156">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M156">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N156">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O156">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P156">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
         <v>2</v>
       </c>
       <c r="U156">
+        <v>1.775</v>
+      </c>
+      <c r="V156">
         <v>2.025</v>
       </c>
-      <c r="V156">
-        <v>1.775</v>
-      </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X156">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA156">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6786813</v>
+        <v>6786814</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="L157">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M157">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="N157">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="O157">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="P157">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S157">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z157">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6786814</v>
+        <v>6786809</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K158">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="L158">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="M158">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="N158">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="O158">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P158">
-        <v>1.285</v>
+        <v>2.9</v>
       </c>
       <c r="Q158">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T158">
         <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y158">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6786816</v>
+        <v>6786813</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,58 +14607,58 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>49</v>
       </c>
       <c r="K159">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L159">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M159">
-        <v>9.5</v>
+        <v>2.375</v>
       </c>
       <c r="N159">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P159">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q159">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S159">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W159">
-        <v>0.2849999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14667,16 +14667,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6786815</v>
+        <v>6786810</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160" t="s">
+        <v>48</v>
+      </c>
+      <c r="K160">
+        <v>1.444</v>
+      </c>
+      <c r="L160">
+        <v>3.6</v>
+      </c>
+      <c r="M160">
+        <v>7</v>
+      </c>
+      <c r="N160">
+        <v>1.615</v>
+      </c>
+      <c r="O160">
         <v>3</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-      <c r="J160" t="s">
-        <v>49</v>
-      </c>
-      <c r="K160">
-        <v>3.6</v>
-      </c>
-      <c r="L160">
-        <v>3</v>
-      </c>
-      <c r="M160">
-        <v>2</v>
-      </c>
-      <c r="N160">
-        <v>2.9</v>
-      </c>
-      <c r="O160">
-        <v>2.9</v>
-      </c>
       <c r="P160">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
         <v>2</v>
       </c>
       <c r="U160">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W160">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB160">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6786824</v>
+        <v>6786821</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,58 +14874,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>49</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L162">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M162">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N162">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O162">
         <v>3.6</v>
       </c>
       <c r="P162">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q162">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
+        <v>1.775</v>
+      </c>
+      <c r="S162">
+        <v>2.025</v>
+      </c>
+      <c r="T162">
+        <v>2.75</v>
+      </c>
+      <c r="U162">
         <v>1.9</v>
       </c>
-      <c r="S162">
+      <c r="V162">
         <v>1.9</v>
       </c>
-      <c r="T162">
-        <v>2.5</v>
-      </c>
-      <c r="U162">
-        <v>1.8</v>
-      </c>
-      <c r="V162">
-        <v>2</v>
-      </c>
       <c r="W162">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14934,16 +14934,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB162">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6786818</v>
+        <v>6786822</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,73 +14963,73 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I163">
+        <v>4</v>
+      </c>
+      <c r="J163" t="s">
+        <v>49</v>
+      </c>
+      <c r="K163">
         <v>3</v>
       </c>
-      <c r="J163" t="s">
-        <v>47</v>
-      </c>
-      <c r="K163">
-        <v>9</v>
-      </c>
       <c r="L163">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="M163">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="N163">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P163">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q163">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S163">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T163">
         <v>2.25</v>
       </c>
       <c r="U163">
+        <v>1.85</v>
+      </c>
+      <c r="V163">
         <v>1.95</v>
       </c>
-      <c r="V163">
-        <v>1.85</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6786820</v>
+        <v>6786818</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,55 +15052,55 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
         <v>47</v>
       </c>
       <c r="K164">
+        <v>9</v>
+      </c>
+      <c r="L164">
+        <v>3.8</v>
+      </c>
+      <c r="M164">
+        <v>1.363</v>
+      </c>
+      <c r="N164">
         <v>8</v>
       </c>
-      <c r="L164">
-        <v>3.4</v>
-      </c>
-      <c r="M164">
-        <v>1.444</v>
-      </c>
-      <c r="N164">
-        <v>15</v>
-      </c>
       <c r="O164">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>1.2</v>
+        <v>1.333</v>
       </c>
       <c r="Q164">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
         <v>1.925</v>
-      </c>
-      <c r="S164">
-        <v>1.875</v>
       </c>
       <c r="T164">
         <v>2.25</v>
       </c>
       <c r="U164">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15109,19 +15109,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.2</v>
+        <v>0.333</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA164">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC164">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6786821</v>
+        <v>6786820</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="L165">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="N165">
-        <v>1.6</v>
+        <v>15</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P165">
-        <v>5.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R165">
+        <v>1.925</v>
+      </c>
+      <c r="S165">
+        <v>1.875</v>
+      </c>
+      <c r="T165">
+        <v>2.25</v>
+      </c>
+      <c r="U165">
+        <v>2.025</v>
+      </c>
+      <c r="V165">
         <v>1.775</v>
       </c>
-      <c r="S165">
-        <v>2.025</v>
-      </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
-      </c>
-      <c r="V165">
-        <v>1.9</v>
-      </c>
       <c r="W165">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
+        <v>0.875</v>
+      </c>
+      <c r="AB165">
+        <v>-0.5</v>
+      </c>
+      <c r="AC165">
         <v>0.3875</v>
-      </c>
-      <c r="AA165">
-        <v>-0.5</v>
-      </c>
-      <c r="AB165">
-        <v>0.45</v>
-      </c>
-      <c r="AC165">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6786817</v>
+        <v>6786823</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L166">
+        <v>3.3</v>
+      </c>
+      <c r="M166">
+        <v>5</v>
+      </c>
+      <c r="N166">
+        <v>1.333</v>
+      </c>
+      <c r="O166">
+        <v>4.2</v>
+      </c>
+      <c r="P166">
+        <v>8</v>
+      </c>
+      <c r="Q166">
+        <v>-1.5</v>
+      </c>
+      <c r="R166">
+        <v>1.975</v>
+      </c>
+      <c r="S166">
+        <v>1.825</v>
+      </c>
+      <c r="T166">
         <v>3</v>
       </c>
-      <c r="M166">
-        <v>3.75</v>
-      </c>
-      <c r="N166">
-        <v>2.6</v>
-      </c>
-      <c r="O166">
-        <v>2.8</v>
-      </c>
-      <c r="P166">
-        <v>2.875</v>
-      </c>
-      <c r="Q166">
-        <v>0</v>
-      </c>
-      <c r="R166">
+      <c r="U166">
+        <v>2.025</v>
+      </c>
+      <c r="V166">
         <v>1.775</v>
       </c>
-      <c r="S166">
-        <v>2.025</v>
-      </c>
-      <c r="T166">
-        <v>2</v>
-      </c>
-      <c r="U166">
-        <v>1.825</v>
-      </c>
-      <c r="V166">
-        <v>1.975</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X166">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6786819</v>
+        <v>6786824</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L167">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M167">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N167">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="O167">
         <v>3.6</v>
       </c>
       <c r="P167">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA167">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6786823</v>
+        <v>6786817</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168" t="s">
+        <v>48</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
         <v>3</v>
       </c>
-      <c r="I168">
-        <v>2</v>
-      </c>
-      <c r="J168" t="s">
-        <v>49</v>
-      </c>
-      <c r="K168">
-        <v>1.666</v>
-      </c>
-      <c r="L168">
-        <v>3.3</v>
-      </c>
       <c r="M168">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N168">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P168">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R168">
+        <v>1.775</v>
+      </c>
+      <c r="S168">
+        <v>2.025</v>
+      </c>
+      <c r="T168">
+        <v>2</v>
+      </c>
+      <c r="U168">
+        <v>1.825</v>
+      </c>
+      <c r="V168">
         <v>1.975</v>
       </c>
-      <c r="S168">
-        <v>1.825</v>
-      </c>
-      <c r="T168">
-        <v>3</v>
-      </c>
-      <c r="U168">
-        <v>2.025</v>
-      </c>
-      <c r="V168">
-        <v>1.775</v>
-      </c>
       <c r="W168">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6786822</v>
+        <v>6786819</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H169">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L169">
         <v>2.75</v>
       </c>
       <c r="M169">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N169">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="O169">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S169">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W169">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z169">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB169">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16120,10 +16120,10 @@
         <v>45168.63541666666</v>
       </c>
       <c r="F176" t="s">
+        <v>41</v>
+      </c>
+      <c r="G176" t="s">
         <v>42</v>
-      </c>
-      <c r="G176" t="s">
-        <v>41</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16657,7 +16657,7 @@
         <v>38</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7112130</v>
+        <v>7112131</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L183">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M183">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N183">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O183">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
         <v>4.5</v>
       </c>
       <c r="Q183">
+        <v>-0.75</v>
+      </c>
+      <c r="R183">
+        <v>1.875</v>
+      </c>
+      <c r="S183">
+        <v>1.925</v>
+      </c>
+      <c r="T183">
+        <v>2.25</v>
+      </c>
+      <c r="U183">
+        <v>2.025</v>
+      </c>
+      <c r="V183">
+        <v>1.775</v>
+      </c>
+      <c r="W183">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>0.4375</v>
+      </c>
+      <c r="AA183">
         <v>-0.5</v>
       </c>
-      <c r="R183">
-        <v>1.8</v>
-      </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
-      <c r="T183">
-        <v>1.75</v>
-      </c>
-      <c r="U183">
-        <v>1.825</v>
-      </c>
-      <c r="V183">
-        <v>1.975</v>
-      </c>
-      <c r="W183">
-        <v>-1</v>
-      </c>
-      <c r="X183">
-        <v>2.1</v>
-      </c>
-      <c r="Y183">
-        <v>-1</v>
-      </c>
-      <c r="Z183">
-        <v>-1</v>
-      </c>
-      <c r="AA183">
-        <v>1</v>
-      </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7112131</v>
+        <v>7112130</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M184">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N184">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P184">
         <v>4.5</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB184">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
         <v>36</v>
@@ -17191,7 +17191,7 @@
         <v>45</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17544,7 +17544,7 @@
         <v>45189.63541666666</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G192" t="s">
         <v>46</v>
@@ -17811,7 +17811,7 @@
         <v>45192.72916666666</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
         <v>43</v>
@@ -18170,7 +18170,7 @@
         <v>44</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18437,7 +18437,7 @@
         <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18968,7 +18968,7 @@
         <v>45203.6875</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
@@ -19146,7 +19146,7 @@
         <v>45205.6875</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
         <v>30</v>
@@ -19238,7 +19238,7 @@
         <v>39</v>
       </c>
       <c r="G211" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7287211</v>
+        <v>7287222</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45207.59375</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>49</v>
       </c>
       <c r="K215">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L215">
+        <v>2.9</v>
+      </c>
+      <c r="M215">
+        <v>2.3</v>
+      </c>
+      <c r="N215">
         <v>3.6</v>
       </c>
-      <c r="M215">
-        <v>6</v>
-      </c>
-      <c r="N215">
-        <v>1.3</v>
-      </c>
       <c r="O215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P215">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W215">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,13 +19651,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7287222</v>
+        <v>7287211</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45207.59375</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H216">
         <v>3</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L216">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M216">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N216">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P216">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S216">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,13 +19740,13 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -19861,7 +19861,7 @@
         <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -20214,7 +20214,7 @@
         <v>45228.5</v>
       </c>
       <c r="F222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G222" t="s">
         <v>29</v>
@@ -20484,7 +20484,7 @@
         <v>35</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -20748,7 +20748,7 @@
         <v>45234.6875</v>
       </c>
       <c r="F228" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G228" t="s">
         <v>45</v>
@@ -21463,7 +21463,7 @@
         <v>32</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21549,7 +21549,7 @@
         <v>45242.59375</v>
       </c>
       <c r="F237" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G237" t="s">
         <v>46</v>
@@ -21997,7 +21997,7 @@
         <v>38</v>
       </c>
       <c r="G242" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22261,7 +22261,7 @@
         <v>45258.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G245" t="s">
         <v>36</v>
@@ -22531,7 +22531,7 @@
         <v>33</v>
       </c>
       <c r="G248" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -22884,7 +22884,7 @@
         <v>45270.5</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G252" t="s">
         <v>44</v>
@@ -23421,7 +23421,7 @@
         <v>39</v>
       </c>
       <c r="G258" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -23596,7 +23596,7 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F260" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G260" t="s">
         <v>30</v>
@@ -24219,7 +24219,7 @@
         <v>45288.58333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G267" t="s">
         <v>40</v>
@@ -24667,7 +24667,7 @@
         <v>35</v>
       </c>
       <c r="G272" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -24919,7 +24919,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7641575</v>
+        <v>7641574</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24931,76 +24931,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G275" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K275">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L275">
         <v>3</v>
       </c>
       <c r="M275">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N275">
         <v>1.95</v>
       </c>
       <c r="O275">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P275">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
+        <v>1.925</v>
+      </c>
+      <c r="S275">
+        <v>1.875</v>
+      </c>
+      <c r="T275">
+        <v>2</v>
+      </c>
+      <c r="U275">
+        <v>1.85</v>
+      </c>
+      <c r="V275">
         <v>1.95</v>
       </c>
-      <c r="S275">
-        <v>1.85</v>
-      </c>
-      <c r="T275">
-        <v>2</v>
-      </c>
-      <c r="U275">
-        <v>2.025</v>
-      </c>
-      <c r="V275">
-        <v>1.775</v>
-      </c>
       <c r="W275">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB275">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC275">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25008,7 +25008,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7641574</v>
+        <v>7641575</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25020,76 +25020,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G276" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K276">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L276">
         <v>3</v>
       </c>
       <c r="M276">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N276">
         <v>1.95</v>
       </c>
       <c r="O276">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P276">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q276">
         <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S276">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T276">
         <v>2</v>
       </c>
       <c r="U276">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V276">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X276">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA276">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC276">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25376,7 +25376,7 @@
         <v>45295.66666666666</v>
       </c>
       <c r="F280" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G280" t="s">
         <v>43</v>
@@ -25554,7 +25554,7 @@
         <v>45297.66666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G282" t="s">
         <v>29</v>
@@ -26091,7 +26091,7 @@
         <v>34</v>
       </c>
       <c r="G288" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H288">
         <v>1</v>
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7781933</v>
+        <v>7781920</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,76 +26800,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G296" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J296" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K296">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L296">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M296">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N296">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O296">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P296">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="Q296">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R296">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T296">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U296">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V296">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W296">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z296">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB296">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC296">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7781920</v>
+        <v>7781933</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,76 +26889,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G297" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297" t="s">
+        <v>49</v>
+      </c>
+      <c r="K297">
+        <v>3.6</v>
+      </c>
+      <c r="L297">
         <v>3</v>
       </c>
-      <c r="J297" t="s">
-        <v>47</v>
-      </c>
-      <c r="K297">
-        <v>4.333</v>
-      </c>
-      <c r="L297">
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>4.5</v>
+      </c>
+      <c r="O297">
+        <v>3.3</v>
+      </c>
+      <c r="P297">
+        <v>1.7</v>
+      </c>
+      <c r="Q297">
+        <v>0.75</v>
+      </c>
+      <c r="R297">
+        <v>1.875</v>
+      </c>
+      <c r="S297">
+        <v>1.925</v>
+      </c>
+      <c r="T297">
+        <v>2</v>
+      </c>
+      <c r="U297">
+        <v>1.75</v>
+      </c>
+      <c r="V297">
+        <v>2.05</v>
+      </c>
+      <c r="W297">
         <v>3.5</v>
       </c>
-      <c r="M297">
-        <v>1.666</v>
-      </c>
-      <c r="N297">
-        <v>7</v>
-      </c>
-      <c r="O297">
-        <v>4.2</v>
-      </c>
-      <c r="P297">
-        <v>1.363</v>
-      </c>
-      <c r="Q297">
-        <v>1.25</v>
-      </c>
-      <c r="R297">
-        <v>1.85</v>
-      </c>
-      <c r="S297">
-        <v>1.95</v>
-      </c>
-      <c r="T297">
-        <v>2.25</v>
-      </c>
-      <c r="U297">
-        <v>1.775</v>
-      </c>
-      <c r="V297">
-        <v>2.025</v>
-      </c>
-      <c r="W297">
-        <v>-1</v>
-      </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7781922</v>
+        <v>7781923</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,73 +27067,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G299" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K299">
+        <v>1.95</v>
+      </c>
+      <c r="L299">
         <v>3</v>
       </c>
-      <c r="L299">
-        <v>2.875</v>
-      </c>
       <c r="M299">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N299">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O299">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P299">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q299">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S299">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T299">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U299">
+        <v>1.775</v>
+      </c>
+      <c r="V299">
         <v>2.025</v>
       </c>
-      <c r="V299">
-        <v>1.775</v>
-      </c>
       <c r="W299">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA299">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC299">
         <v>-1</v>
@@ -27144,7 +27144,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7781923</v>
+        <v>7781922</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27156,73 +27156,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G300" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K300">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L300">
+        <v>2.875</v>
+      </c>
+      <c r="M300">
+        <v>2.45</v>
+      </c>
+      <c r="N300">
+        <v>2.7</v>
+      </c>
+      <c r="O300">
+        <v>2.5</v>
+      </c>
+      <c r="P300">
         <v>3</v>
       </c>
-      <c r="M300">
-        <v>4.333</v>
-      </c>
-      <c r="N300">
-        <v>2.05</v>
-      </c>
-      <c r="O300">
-        <v>3</v>
-      </c>
-      <c r="P300">
-        <v>3.8</v>
-      </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S300">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T300">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U300">
+        <v>2.025</v>
+      </c>
+      <c r="V300">
         <v>1.775</v>
       </c>
-      <c r="V300">
-        <v>2.025</v>
-      </c>
       <c r="W300">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z300">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB300">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC300">
         <v>-1</v>
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7781934</v>
+        <v>7781925</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45333.5</v>
       </c>
       <c r="F301" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G301" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301">
         <v>1</v>
       </c>
       <c r="J301" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K301">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="L301">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M301">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N301">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O301">
+        <v>3</v>
+      </c>
+      <c r="P301">
         <v>3.2</v>
       </c>
-      <c r="P301">
-        <v>1.833</v>
-      </c>
       <c r="Q301">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S301">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T301">
         <v>2.25</v>
       </c>
       <c r="U301">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V301">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W301">
         <v>-1</v>
       </c>
       <c r="X301">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y301">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA301">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC301">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7781924</v>
+        <v>7781934</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45333.5</v>
       </c>
       <c r="F302" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G302" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K302">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L302">
+        <v>3.25</v>
+      </c>
+      <c r="M302">
+        <v>1.85</v>
+      </c>
+      <c r="N302">
+        <v>4.2</v>
+      </c>
+      <c r="O302">
         <v>3.2</v>
       </c>
-      <c r="M302">
-        <v>2.375</v>
-      </c>
-      <c r="N302">
-        <v>2.5</v>
-      </c>
-      <c r="O302">
-        <v>2.875</v>
-      </c>
       <c r="P302">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q302">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R302">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S302">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T302">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V302">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W302">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z302">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB302">
         <v>-1</v>
       </c>
       <c r="AC302">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7781925</v>
+        <v>7781924</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,76 +27423,76 @@
         <v>45333.5</v>
       </c>
       <c r="F303" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G303" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H303">
         <v>1</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K303">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L303">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M303">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N303">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O303">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P303">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R303">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S303">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T303">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U303">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V303">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X303">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA303">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27604,7 +27604,7 @@
         <v>36</v>
       </c>
       <c r="G305" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H305">
         <v>5</v>
@@ -27856,7 +27856,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7812521</v>
+        <v>7812522</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27868,76 +27868,76 @@
         <v>45336.5</v>
       </c>
       <c r="F308" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G308" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H308">
         <v>0</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K308">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="L308">
         <v>3.5</v>
       </c>
       <c r="M308">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="N308">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O308">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P308">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="Q308">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R308">
+        <v>1.975</v>
+      </c>
+      <c r="S308">
         <v>1.825</v>
       </c>
-      <c r="S308">
-        <v>1.975</v>
-      </c>
       <c r="T308">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U308">
+        <v>1.95</v>
+      </c>
+      <c r="V308">
         <v>1.85</v>
       </c>
-      <c r="V308">
-        <v>1.95</v>
-      </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA308">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB308">
         <v>-1</v>
       </c>
       <c r="AC308">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27945,7 +27945,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7812522</v>
+        <v>7812521</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27957,76 +27957,76 @@
         <v>45336.5</v>
       </c>
       <c r="F309" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G309" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H309">
         <v>0</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K309">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="L309">
         <v>3.5</v>
       </c>
       <c r="M309">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="N309">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O309">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P309">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="Q309">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R309">
+        <v>1.825</v>
+      </c>
+      <c r="S309">
         <v>1.975</v>
       </c>
-      <c r="S309">
-        <v>1.825</v>
-      </c>
       <c r="T309">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U309">
+        <v>1.85</v>
+      </c>
+      <c r="V309">
         <v>1.95</v>
       </c>
-      <c r="V309">
-        <v>1.85</v>
-      </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y309">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28313,7 +28313,7 @@
         <v>45337.66666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G313" t="s">
         <v>45</v>
@@ -28568,7 +28568,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7812529</v>
+        <v>7812530</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28580,76 +28580,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F316" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G316" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J316" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K316">
         <v>1.95</v>
       </c>
       <c r="L316">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M316">
         <v>3.8</v>
       </c>
       <c r="N316">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O316">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="P316">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S316">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T316">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U316">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V316">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W316">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X316">
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z316">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB316">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC316">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28657,7 +28657,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7812530</v>
+        <v>7812529</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28669,76 +28669,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G317" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K317">
         <v>1.95</v>
       </c>
       <c r="L317">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M317">
         <v>3.8</v>
       </c>
       <c r="N317">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O317">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P317">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S317">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T317">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U317">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V317">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W317">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X317">
         <v>-1</v>
       </c>
       <c r="Y317">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA317">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC317">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28936,7 +28936,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G320" t="s">
         <v>44</v>
@@ -29028,7 +29028,7 @@
         <v>43</v>
       </c>
       <c r="G321" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29095,6 +29095,154 @@
       </c>
       <c r="AC321">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="322" spans="1:29">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>7849138</v>
+      </c>
+      <c r="C322" t="s">
+        <v>28</v>
+      </c>
+      <c r="D322" t="s">
+        <v>28</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45342.5</v>
+      </c>
+      <c r="F322" t="s">
+        <v>38</v>
+      </c>
+      <c r="G322" t="s">
+        <v>30</v>
+      </c>
+      <c r="K322">
+        <v>1.3</v>
+      </c>
+      <c r="L322">
+        <v>4.2</v>
+      </c>
+      <c r="M322">
+        <v>9</v>
+      </c>
+      <c r="N322">
+        <v>1.285</v>
+      </c>
+      <c r="O322">
+        <v>4.5</v>
+      </c>
+      <c r="P322">
+        <v>9</v>
+      </c>
+      <c r="Q322">
+        <v>-1.5</v>
+      </c>
+      <c r="R322">
+        <v>2.025</v>
+      </c>
+      <c r="S322">
+        <v>1.775</v>
+      </c>
+      <c r="T322">
+        <v>2.25</v>
+      </c>
+      <c r="U322">
+        <v>1.8</v>
+      </c>
+      <c r="V322">
+        <v>2</v>
+      </c>
+      <c r="W322">
+        <v>0</v>
+      </c>
+      <c r="X322">
+        <v>0</v>
+      </c>
+      <c r="Y322">
+        <v>0</v>
+      </c>
+      <c r="Z322">
+        <v>0</v>
+      </c>
+      <c r="AA322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:29">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>7849140</v>
+      </c>
+      <c r="C323" t="s">
+        <v>28</v>
+      </c>
+      <c r="D323" t="s">
+        <v>28</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45342.625</v>
+      </c>
+      <c r="F323" t="s">
+        <v>35</v>
+      </c>
+      <c r="G323" t="s">
+        <v>33</v>
+      </c>
+      <c r="K323">
+        <v>2.55</v>
+      </c>
+      <c r="L323">
+        <v>2.95</v>
+      </c>
+      <c r="M323">
+        <v>2.6</v>
+      </c>
+      <c r="N323">
+        <v>3.1</v>
+      </c>
+      <c r="O323">
+        <v>3.1</v>
+      </c>
+      <c r="P323">
+        <v>2.15</v>
+      </c>
+      <c r="Q323">
+        <v>0.25</v>
+      </c>
+      <c r="R323">
+        <v>1.9</v>
+      </c>
+      <c r="S323">
+        <v>1.9</v>
+      </c>
+      <c r="T323">
+        <v>2</v>
+      </c>
+      <c r="U323">
+        <v>1.85</v>
+      </c>
+      <c r="V323">
+        <v>1.95</v>
+      </c>
+      <c r="W323">
+        <v>0</v>
+      </c>
+      <c r="X323">
+        <v>0</v>
+      </c>
+      <c r="Y323">
+        <v>0</v>
+      </c>
+      <c r="Z323">
+        <v>0</v>
+      </c>
+      <c r="AA323">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -139,13 +139,13 @@
     <t>RSB Berkane</t>
   </si>
   <si>
+    <t>MAT Tetouan</t>
+  </si>
+  <si>
     <t>FAR Rabat</t>
   </si>
   <si>
     <t>SC Chabab Mohammedia</t>
-  </si>
-  <si>
-    <t>MAT Tetouan</t>
   </si>
   <si>
     <t>Mouloudia Oujda</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC323"/>
+  <dimension ref="A1:AC325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6087143</v>
+        <v>6087142</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,37 +1794,37 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="M15">
+        <v>2.1</v>
+      </c>
+      <c r="N15">
+        <v>3.6</v>
+      </c>
+      <c r="O15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>2.05</v>
-      </c>
-      <c r="O15">
-        <v>2.8</v>
-      </c>
       <c r="P15">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R15">
         <v>1.8</v>
@@ -1836,10 +1836,10 @@
         <v>2</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1848,7 +1848,7 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>2.75</v>
+        <v>0.95</v>
       </c>
       <c r="Z15">
         <v>-1</v>
@@ -1857,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6087144</v>
+        <v>6087143</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,13 +1883,13 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -1904,31 +1904,31 @@
         <v>3</v>
       </c>
       <c r="N16">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P16">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1937,19 +1937,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6087142</v>
+        <v>6087144</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1972,7 +1972,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1984,40 +1984,40 @@
         <v>47</v>
       </c>
       <c r="K17">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="L17">
         <v>3</v>
       </c>
       <c r="M17">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P17">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2026,16 +2026,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2328,7 +2328,7 @@
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2684,7 +2684,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>44944.5</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3304,7 +3304,7 @@
         <v>44945.59375</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
@@ -3393,7 +3393,7 @@
         <v>44945.6875</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
@@ -3574,7 +3574,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3841,7 +3841,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3930,7 +3930,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6149306</v>
+        <v>6148731</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,10 +4016,10 @@
         <v>44948.6875</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4031,40 +4031,40 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="L40">
         <v>3</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N40">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="O40">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
         <v>1.75</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4073,19 +4073,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6148731</v>
+        <v>6149306</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,10 +4105,10 @@
         <v>44948.6875</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4120,40 +4120,40 @@
         <v>47</v>
       </c>
       <c r="K41">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L41">
         <v>3</v>
       </c>
       <c r="M41">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N41">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P41">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>1.75</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4162,19 +4162,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6170357</v>
+        <v>6170358</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,70 +4286,70 @@
         <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="L43">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M43">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="N43">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q43">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
         <v>1.8</v>
       </c>
-      <c r="S43">
-        <v>2</v>
-      </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W43">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
         <v>0.8</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6170358</v>
+        <v>6170357</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,73 +4372,73 @@
         <v>44951.5</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="L44">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="N44">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O44">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4728,7 +4728,7 @@
         <v>44952.59375</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4906,7 +4906,7 @@
         <v>44954.5</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -4995,7 +4995,7 @@
         <v>44954.5</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
         <v>44</v>
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6170370</v>
+        <v>6170371</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>44955.6875</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N56">
+        <v>2.45</v>
+      </c>
+      <c r="O56">
+        <v>2.55</v>
+      </c>
+      <c r="P56">
+        <v>3.2</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>1.7</v>
+      </c>
+      <c r="S56">
+        <v>2.1</v>
+      </c>
+      <c r="T56">
+        <v>1.5</v>
+      </c>
+      <c r="U56">
+        <v>1.775</v>
+      </c>
+      <c r="V56">
+        <v>2.025</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
         <v>2.2</v>
       </c>
-      <c r="O56">
-        <v>2.875</v>
-      </c>
-      <c r="P56">
-        <v>3.3</v>
-      </c>
-      <c r="Q56">
-        <v>-0.25</v>
-      </c>
-      <c r="R56">
-        <v>1.95</v>
-      </c>
-      <c r="S56">
-        <v>1.85</v>
-      </c>
-      <c r="T56">
-        <v>1.75</v>
-      </c>
-      <c r="U56">
-        <v>1.75</v>
-      </c>
-      <c r="V56">
-        <v>2.05</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
-      <c r="X56">
-        <v>1.875</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.425</v>
+        <v>1.1</v>
       </c>
       <c r="AB56">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6170371</v>
+        <v>6170370</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>44955.6875</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57">
+        <v>1.85</v>
+      </c>
+      <c r="L57">
+        <v>3.25</v>
+      </c>
+      <c r="M57">
+        <v>3.75</v>
+      </c>
+      <c r="N57">
+        <v>2.2</v>
+      </c>
+      <c r="O57">
         <v>2.875</v>
       </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="M57">
-        <v>2.3</v>
-      </c>
-      <c r="N57">
-        <v>2.45</v>
-      </c>
-      <c r="O57">
-        <v>2.55</v>
-      </c>
       <c r="P57">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U57">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V57">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>1.1</v>
+        <v>0.425</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC57">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6262287</v>
+        <v>6262289</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,76 +5885,76 @@
         <v>44978.59375</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L61">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M61">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N61">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="O61">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R61">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
+        <v>2</v>
+      </c>
+      <c r="U61">
+        <v>2.05</v>
+      </c>
+      <c r="V61">
         <v>1.75</v>
       </c>
-      <c r="U61">
-        <v>1.925</v>
-      </c>
-      <c r="V61">
-        <v>1.875</v>
-      </c>
       <c r="W61">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z61">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6262289</v>
+        <v>6262287</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>44978.59375</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M62">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="P62">
+        <v>3.3</v>
+      </c>
+      <c r="Q62">
+        <v>-0.25</v>
+      </c>
+      <c r="R62">
+        <v>2.075</v>
+      </c>
+      <c r="S62">
+        <v>1.725</v>
+      </c>
+      <c r="T62">
         <v>1.75</v>
       </c>
-      <c r="Q62">
-        <v>0.5</v>
-      </c>
-      <c r="R62">
-        <v>1.95</v>
-      </c>
-      <c r="S62">
-        <v>1.85</v>
-      </c>
-      <c r="T62">
-        <v>2</v>
-      </c>
       <c r="U62">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC62">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6066,7 +6066,7 @@
         <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6244,7 +6244,7 @@
         <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6508,7 +6508,7 @@
         <v>44982.6875</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6775,7 +6775,7 @@
         <v>44985.59375</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
         <v>38</v>
@@ -6953,7 +6953,7 @@
         <v>44986.6875</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
         <v>39</v>
@@ -7134,7 +7134,7 @@
         <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7579,7 +7579,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7932,7 +7932,7 @@
         <v>44996.6875</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -8024,7 +8024,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>44997.6875</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6472143</v>
+        <v>6472151</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L91">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
+        <v>1.6</v>
+      </c>
+      <c r="N91">
+        <v>3.4</v>
+      </c>
+      <c r="O91">
         <v>2.875</v>
       </c>
-      <c r="N91">
-        <v>3</v>
-      </c>
-      <c r="O91">
-        <v>2.75</v>
-      </c>
       <c r="P91">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
         <v>2</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6472151</v>
+        <v>6472143</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M92">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O92">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P92">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="T92">
         <v>2</v>
       </c>
       <c r="U92">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W92">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8736,7 +8736,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6472144</v>
+        <v>6472145</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L94">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M94">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N94">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O94">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P94">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
         <v>1.75</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6472145</v>
+        <v>6472144</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L95">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N95">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P95">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T95">
         <v>1.75</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y95">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
+        <v>0.375</v>
+      </c>
+      <c r="AB95">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB95">
-        <v>-1</v>
-      </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9089,10 +9089,10 @@
         <v>45022.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6472147</v>
+        <v>6472149</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L98">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M98">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N98">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O98">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.7</v>
+      </c>
+      <c r="S98">
         <v>2.1</v>
-      </c>
-      <c r="S98">
-        <v>1.7</v>
       </c>
       <c r="T98">
         <v>1.75</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6472148</v>
+        <v>6472147</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>49</v>
       </c>
       <c r="K99">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L99">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="M99">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O99">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P99">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="T99">
         <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,13 +9327,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6472149</v>
+        <v>6472148</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,46 +9356,46 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="M100">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O100">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="P100">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>1.75</v>
@@ -9407,25 +9407,25 @@
         <v>1.825</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X100">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6472150</v>
+        <v>6476436</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,13 +9534,13 @@
         <v>45024.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -9549,34 +9549,34 @@
         <v>49</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N102">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O102">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
         <v>1.775</v>
@@ -9585,7 +9585,7 @@
         <v>2.025</v>
       </c>
       <c r="W102">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9594,16 +9594,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB102">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6476436</v>
+        <v>6472150</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,13 +9623,13 @@
         <v>45024.79166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9638,34 +9638,34 @@
         <v>49</v>
       </c>
       <c r="K103">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N103">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P103">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U103">
         <v>1.775</v>
@@ -9674,7 +9674,7 @@
         <v>2.025</v>
       </c>
       <c r="W103">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9715,7 +9715,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9801,10 +9801,10 @@
         <v>45025.79166666666</v>
       </c>
       <c r="F105" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" t="s">
         <v>43</v>
-      </c>
-      <c r="G105" t="s">
-        <v>42</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6504363</v>
+        <v>6504364</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N109">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O109">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P109">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y109">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6504364</v>
+        <v>6504363</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N110">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="O110">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10335,7 +10335,7 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>30</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6507527</v>
+        <v>6517498</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,58 +10424,58 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N112">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P112">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U112">
+        <v>1.775</v>
+      </c>
+      <c r="V112">
         <v>2.025</v>
       </c>
-      <c r="V112">
-        <v>1.775</v>
-      </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,13 +10484,13 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6517498</v>
+        <v>6507527</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,58 +10513,58 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L113">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O113">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
+        <v>2.025</v>
+      </c>
+      <c r="V113">
         <v>1.775</v>
       </c>
-      <c r="V113">
-        <v>2.025</v>
-      </c>
       <c r="W113">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10573,13 +10573,13 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6544643</v>
+        <v>6543366</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,58 +10780,58 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
         <v>49</v>
       </c>
       <c r="K116">
+        <v>3.2</v>
+      </c>
+      <c r="L116">
+        <v>2.8</v>
+      </c>
+      <c r="M116">
+        <v>2.25</v>
+      </c>
+      <c r="N116">
         <v>2.1</v>
       </c>
-      <c r="L116">
-        <v>2.75</v>
-      </c>
-      <c r="M116">
-        <v>3.6</v>
-      </c>
-      <c r="N116">
-        <v>2.05</v>
-      </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P116">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.675</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="W116">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10840,16 +10840,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC116">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6543366</v>
+        <v>6543368</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,40 +10958,40 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L118">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N118">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P118">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
         <v>1.8</v>
@@ -11000,34 +11000,34 @@
         <v>2</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U118">
+        <v>1.775</v>
+      </c>
+      <c r="V118">
         <v>2.025</v>
       </c>
-      <c r="V118">
-        <v>1.775</v>
-      </c>
       <c r="W118">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>1.025</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6543368</v>
+        <v>6544643</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M119">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N119">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O119">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P119">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
         <v>1.75</v>
       </c>
       <c r="U119">
-        <v>1.775</v>
+        <v>1.675</v>
       </c>
       <c r="V119">
-        <v>2.025</v>
+        <v>2.15</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X119">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>1.025</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11314,7 +11314,7 @@
         <v>45050.63541666666</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
         <v>32</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6562344</v>
+        <v>6557108</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,73 +11848,73 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="L128">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="N128">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P128">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R128">
+        <v>1.775</v>
+      </c>
+      <c r="S128">
         <v>2.025</v>
       </c>
-      <c r="S128">
-        <v>1.775</v>
-      </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
       <c r="W128">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB128">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6557108</v>
+        <v>6562344</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,70 +11940,70 @@
         <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K129">
+        <v>1.5</v>
+      </c>
+      <c r="L129">
+        <v>3.6</v>
+      </c>
+      <c r="M129">
+        <v>6</v>
+      </c>
+      <c r="N129">
+        <v>1.5</v>
+      </c>
+      <c r="O129">
+        <v>3.75</v>
+      </c>
+      <c r="P129">
         <v>5.5</v>
       </c>
-      <c r="L129">
-        <v>3.25</v>
-      </c>
-      <c r="M129">
-        <v>1.6</v>
-      </c>
-      <c r="N129">
-        <v>7.5</v>
-      </c>
-      <c r="O129">
-        <v>3.3</v>
-      </c>
-      <c r="P129">
-        <v>1.533</v>
-      </c>
       <c r="Q129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R129">
+        <v>2.025</v>
+      </c>
+      <c r="S129">
         <v>1.775</v>
       </c>
-      <c r="S129">
-        <v>2.025</v>
-      </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
+        <v>1.975</v>
+      </c>
+      <c r="V129">
         <v>1.825</v>
       </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6621804</v>
+        <v>6621806</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,37 +12204,37 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>48</v>
       </c>
       <c r="K132">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L132">
-        <v>2.875</v>
+        <v>2.95</v>
       </c>
       <c r="M132">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N132">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O132">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P132">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
@@ -12246,19 +12246,19 @@
         <v>2.05</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="Y132">
         <v>-1</v>
@@ -12270,10 +12270,10 @@
         <v>0.5249999999999999</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12382,7 +12382,7 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
         <v>35</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6621806</v>
+        <v>6621804</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,37 +12471,37 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
         <v>48</v>
       </c>
       <c r="K135">
+        <v>2.6</v>
+      </c>
+      <c r="L135">
+        <v>2.875</v>
+      </c>
+      <c r="M135">
+        <v>2.6</v>
+      </c>
+      <c r="N135">
         <v>2.05</v>
       </c>
-      <c r="L135">
-        <v>2.95</v>
-      </c>
-      <c r="M135">
-        <v>3.5</v>
-      </c>
-      <c r="N135">
-        <v>2</v>
-      </c>
       <c r="O135">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P135">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
@@ -12513,19 +12513,19 @@
         <v>2.05</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="Y135">
         <v>-1</v>
@@ -12537,10 +12537,10 @@
         <v>0.5249999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6621809</v>
+        <v>6621808</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45075.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L136">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M136">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N136">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P136">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6621808</v>
+        <v>6621809</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45075.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
         <v>41</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L137">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M137">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N137">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O137">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6760258</v>
+        <v>6760260</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,46 +12738,46 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
         <v>3</v>
       </c>
-      <c r="L138">
-        <v>2.75</v>
-      </c>
       <c r="M138">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>2</v>
@@ -12792,16 +12792,16 @@
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y138">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>0.9750000000000001</v>
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6760260</v>
+        <v>6756722</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L140">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N140">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O140">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q140">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X140">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6756722</v>
+        <v>6757667</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,13 +13005,13 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -13020,43 +13020,43 @@
         <v>49</v>
       </c>
       <c r="K141">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M141">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="N141">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P141">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="Q141">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W141">
-        <v>0.2849999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13065,16 +13065,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6761305</v>
+        <v>6760258</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L143">
         <v>2.75</v>
       </c>
       <c r="M143">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N143">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
         <v>2</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z143">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6728744</v>
+        <v>6761305</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M144">
+        <v>2.875</v>
+      </c>
+      <c r="N144">
+        <v>1.666</v>
+      </c>
+      <c r="O144">
+        <v>3.4</v>
+      </c>
+      <c r="P144">
+        <v>5</v>
+      </c>
+      <c r="Q144">
+        <v>-0.75</v>
+      </c>
+      <c r="R144">
+        <v>1.95</v>
+      </c>
+      <c r="S144">
+        <v>1.85</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
         <v>1.8</v>
       </c>
-      <c r="N144">
-        <v>6.5</v>
-      </c>
-      <c r="O144">
-        <v>3.5</v>
-      </c>
-      <c r="P144">
-        <v>1.5</v>
-      </c>
-      <c r="Q144">
-        <v>1</v>
-      </c>
-      <c r="R144">
-        <v>1.8</v>
-      </c>
-      <c r="S144">
-        <v>2</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
-      <c r="U144">
-        <v>1.85</v>
-      </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
+        <v>0.475</v>
+      </c>
+      <c r="AA144">
+        <v>-0.5</v>
+      </c>
+      <c r="AB144">
         <v>0.8</v>
       </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
-      <c r="AB144">
-        <v>-1</v>
-      </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6757667</v>
+        <v>6728744</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>48</v>
+      </c>
+      <c r="K145">
+        <v>4.5</v>
+      </c>
+      <c r="L145">
         <v>3</v>
       </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145" t="s">
-        <v>49</v>
-      </c>
-      <c r="K145">
-        <v>3</v>
-      </c>
-      <c r="L145">
-        <v>2.8</v>
-      </c>
       <c r="M145">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N145">
+        <v>6.5</v>
+      </c>
+      <c r="O145">
+        <v>3.5</v>
+      </c>
+      <c r="P145">
+        <v>1.5</v>
+      </c>
+      <c r="Q145">
+        <v>1</v>
+      </c>
+      <c r="R145">
         <v>1.8</v>
       </c>
-      <c r="O145">
-        <v>2.875</v>
-      </c>
-      <c r="P145">
-        <v>4.5</v>
-      </c>
-      <c r="Q145">
-        <v>-0.5</v>
-      </c>
-      <c r="R145">
-        <v>1.875</v>
-      </c>
       <c r="S145">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T145">
         <v>2</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>2.5</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
         <v>0.8</v>
       </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>0.875</v>
-      </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6728806</v>
+        <v>6728808</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="L146">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M146">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="N146">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="O146">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
         <v>2</v>
       </c>
       <c r="U146">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6728807</v>
+        <v>6728745</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,13 +13539,13 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -13554,43 +13554,43 @@
         <v>49</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N147">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V147">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W147">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13599,13 +13599,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6728745</v>
+        <v>6728809</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,13 +13717,13 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -13732,43 +13732,43 @@
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M149">
         <v>5</v>
       </c>
       <c r="N149">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P149">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6728808</v>
+        <v>6728807</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K150">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="L150">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M150">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="N150">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q150">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6728809</v>
+        <v>6728806</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,58 +13895,58 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>49</v>
       </c>
       <c r="K151">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N151">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O151">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13955,16 +13955,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6786812</v>
+        <v>6786810</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,55 +14162,55 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>48</v>
       </c>
       <c r="K154">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L154">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N154">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O154">
         <v>3</v>
       </c>
       <c r="P154">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S154">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T154">
         <v>2</v>
       </c>
       <c r="U154">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V154">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -14222,16 +14222,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6786816</v>
+        <v>6786812</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,76 +14251,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>48</v>
+      </c>
+      <c r="K155">
+        <v>2.1</v>
+      </c>
+      <c r="L155">
+        <v>2.875</v>
+      </c>
+      <c r="M155">
+        <v>3.4</v>
+      </c>
+      <c r="N155">
+        <v>2.25</v>
+      </c>
+      <c r="O155">
         <v>3</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-      <c r="J155" t="s">
-        <v>49</v>
-      </c>
-      <c r="K155">
-        <v>1.25</v>
-      </c>
-      <c r="L155">
-        <v>4.75</v>
-      </c>
-      <c r="M155">
-        <v>9.5</v>
-      </c>
-      <c r="N155">
-        <v>1.285</v>
-      </c>
-      <c r="O155">
-        <v>4.333</v>
-      </c>
       <c r="P155">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q155">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U155">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W155">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB155">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6786815</v>
+        <v>6786813</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,58 +14340,58 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>49</v>
       </c>
       <c r="K156">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L156">
         <v>3</v>
       </c>
       <c r="M156">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N156">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O156">
         <v>2.9</v>
       </c>
       <c r="P156">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T156">
         <v>2</v>
       </c>
       <c r="U156">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V156">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W156">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14400,16 +14400,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6786813</v>
+        <v>6786815</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,58 +14607,58 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>49</v>
       </c>
       <c r="K159">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L159">
         <v>3</v>
       </c>
       <c r="M159">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N159">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O159">
         <v>2.9</v>
       </c>
       <c r="P159">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q159">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T159">
         <v>2</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V159">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W159">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14667,16 +14667,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC159">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6786810</v>
+        <v>6786816</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K160">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M160">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="N160">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O160">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R160">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X160">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA160">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6786821</v>
+        <v>6786823</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,58 +14874,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>49</v>
       </c>
       <c r="K162">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L162">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="M162">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N162">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="O162">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P162">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R162">
+        <v>1.975</v>
+      </c>
+      <c r="S162">
+        <v>1.825</v>
+      </c>
+      <c r="T162">
+        <v>3</v>
+      </c>
+      <c r="U162">
+        <v>2.025</v>
+      </c>
+      <c r="V162">
         <v>1.775</v>
       </c>
-      <c r="S162">
-        <v>2.025</v>
-      </c>
-      <c r="T162">
-        <v>2.75</v>
-      </c>
-      <c r="U162">
-        <v>1.9</v>
-      </c>
-      <c r="V162">
-        <v>1.9</v>
-      </c>
       <c r="W162">
-        <v>0.6000000000000001</v>
+        <v>0.333</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14934,16 +14934,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB162">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6786818</v>
+        <v>6786821</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,7 +15052,7 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
         <v>41</v>
@@ -15061,67 +15061,67 @@
         <v>2</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="L164">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="M164">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="N164">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q164">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S164">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
       <c r="AA164">
         <v>-0.5</v>
       </c>
       <c r="AB164">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6786820</v>
+        <v>6786819</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,40 +15141,40 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
         <v>47</v>
       </c>
       <c r="K165">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M165">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="N165">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="O165">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q165">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R165">
         <v>1.925</v>
@@ -15183,13 +15183,13 @@
         <v>1.875</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15198,7 +15198,7 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Z165">
         <v>-1</v>
@@ -15207,10 +15207,10 @@
         <v>0.875</v>
       </c>
       <c r="AB165">
+        <v>0.4875</v>
+      </c>
+      <c r="AC165">
         <v>-0.5</v>
-      </c>
-      <c r="AC165">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6786823</v>
+        <v>6786824</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,58 +15230,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H166">
         <v>3</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>49</v>
       </c>
       <c r="K166">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L166">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M166">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N166">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V166">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W166">
-        <v>0.333</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15290,13 +15290,13 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6786824</v>
+        <v>6786818</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,73 +15319,73 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
         <v>42</v>
       </c>
       <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
         <v>3</v>
       </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K167">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L167">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="M167">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="N167">
-        <v>1.533</v>
+        <v>8</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P167">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q167">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z167">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB167">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6786817</v>
+        <v>6786820</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L168">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M168">
-        <v>3.75</v>
+        <v>1.444</v>
       </c>
       <c r="N168">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="O168">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="P168">
-        <v>2.875</v>
+        <v>1.2</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R168">
+        <v>1.925</v>
+      </c>
+      <c r="S168">
+        <v>1.875</v>
+      </c>
+      <c r="T168">
+        <v>2.25</v>
+      </c>
+      <c r="U168">
+        <v>2.025</v>
+      </c>
+      <c r="V168">
         <v>1.775</v>
       </c>
-      <c r="S168">
-        <v>2.025</v>
-      </c>
-      <c r="T168">
-        <v>2</v>
-      </c>
-      <c r="U168">
-        <v>1.825</v>
-      </c>
-      <c r="V168">
-        <v>1.975</v>
-      </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6786819</v>
+        <v>6786817</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>48</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
         <v>3</v>
       </c>
-      <c r="J169" t="s">
-        <v>47</v>
-      </c>
-      <c r="K169">
-        <v>2.5</v>
-      </c>
-      <c r="L169">
-        <v>2.75</v>
-      </c>
       <c r="M169">
+        <v>3.75</v>
+      </c>
+      <c r="N169">
+        <v>2.6</v>
+      </c>
+      <c r="O169">
+        <v>2.8</v>
+      </c>
+      <c r="P169">
         <v>2.875</v>
       </c>
-      <c r="N169">
-        <v>5.75</v>
-      </c>
-      <c r="O169">
-        <v>3.6</v>
-      </c>
-      <c r="P169">
-        <v>1.5</v>
-      </c>
       <c r="Q169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S169">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U169">
+        <v>1.825</v>
+      </c>
+      <c r="V169">
         <v>1.975</v>
       </c>
-      <c r="V169">
-        <v>1.825</v>
-      </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y169">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15589,7 +15589,7 @@
         <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -16120,10 +16120,10 @@
         <v>45168.63541666666</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7112127</v>
+        <v>7112128</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45171.6875</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K180">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L180">
         <v>2.75</v>
       </c>
       <c r="M180">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N180">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O180">
+        <v>2.7</v>
+      </c>
+      <c r="P180">
         <v>2.75</v>
       </c>
-      <c r="P180">
-        <v>2.25</v>
-      </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>1.8</v>
+      </c>
+      <c r="V180">
+        <v>2</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
         <v>1.75</v>
       </c>
-      <c r="U180">
-        <v>1.75</v>
-      </c>
-      <c r="V180">
-        <v>2.05</v>
-      </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
-      <c r="X180">
-        <v>1.75</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
       <c r="Z180">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC180">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7112128</v>
+        <v>7112127</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45171.6875</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K181">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L181">
         <v>2.75</v>
       </c>
       <c r="M181">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N181">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O181">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P181">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y181">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA181">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>38</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7112131</v>
+        <v>7112130</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K183">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L183">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M183">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N183">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O183">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P183">
         <v>4.5</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U183">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB183">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7112130</v>
+        <v>7112131</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K184">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L184">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M184">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N184">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O184">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
         <v>4.5</v>
       </c>
       <c r="Q184">
+        <v>-0.75</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>2.025</v>
+      </c>
+      <c r="V184">
+        <v>1.775</v>
+      </c>
+      <c r="W184">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
+        <v>0.4375</v>
+      </c>
+      <c r="AA184">
         <v>-0.5</v>
       </c>
-      <c r="R184">
-        <v>1.8</v>
-      </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
-      <c r="T184">
-        <v>1.75</v>
-      </c>
-      <c r="U184">
-        <v>1.825</v>
-      </c>
-      <c r="V184">
-        <v>1.975</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>2.1</v>
-      </c>
-      <c r="Y184">
-        <v>-1</v>
-      </c>
-      <c r="Z184">
-        <v>-1</v>
-      </c>
-      <c r="AA184">
-        <v>1</v>
-      </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
         <v>36</v>
@@ -17013,7 +17013,7 @@
         <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17191,7 +17191,7 @@
         <v>45</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17544,7 +17544,7 @@
         <v>45189.63541666666</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
         <v>46</v>
@@ -17811,10 +17811,10 @@
         <v>45192.72916666666</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>44</v>
       </c>
       <c r="G199" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18437,7 +18437,7 @@
         <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7263823</v>
+        <v>7263824</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F204" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I204">
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K204">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L204">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M204">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N204">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O204">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P204">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q204">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S204">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U204">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X204">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA204">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC204">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7263824</v>
+        <v>7263823</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>48</v>
+      </c>
+      <c r="K205">
+        <v>2.2</v>
+      </c>
+      <c r="L205">
+        <v>2.875</v>
+      </c>
+      <c r="M205">
+        <v>3.2</v>
+      </c>
+      <c r="N205">
+        <v>1.909</v>
+      </c>
+      <c r="O205">
         <v>3</v>
       </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205" t="s">
-        <v>49</v>
-      </c>
-      <c r="K205">
-        <v>2.25</v>
-      </c>
-      <c r="L205">
-        <v>2.9</v>
-      </c>
-      <c r="M205">
-        <v>3.1</v>
-      </c>
-      <c r="N205">
-        <v>2</v>
-      </c>
-      <c r="O205">
-        <v>2.9</v>
-      </c>
       <c r="P205">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S205">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB205">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18968,7 +18968,7 @@
         <v>45203.6875</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
@@ -19057,7 +19057,7 @@
         <v>45204.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
         <v>34</v>
@@ -19146,7 +19146,7 @@
         <v>45205.6875</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G210" t="s">
         <v>30</v>
@@ -19238,7 +19238,7 @@
         <v>39</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19772,7 +19772,7 @@
         <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19861,7 +19861,7 @@
         <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -20214,7 +20214,7 @@
         <v>45228.5</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G222" t="s">
         <v>29</v>
@@ -20303,7 +20303,7 @@
         <v>45228.59375</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
         <v>35</v>
@@ -20484,7 +20484,7 @@
         <v>35</v>
       </c>
       <c r="G225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -20573,7 +20573,7 @@
         <v>46</v>
       </c>
       <c r="G226" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20748,7 +20748,7 @@
         <v>45234.6875</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G228" t="s">
         <v>45</v>
@@ -21193,7 +21193,7 @@
         <v>45240.59375</v>
       </c>
       <c r="F233" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G233" t="s">
         <v>44</v>
@@ -21463,7 +21463,7 @@
         <v>32</v>
       </c>
       <c r="G236" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21549,7 +21549,7 @@
         <v>45242.59375</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
         <v>46</v>
@@ -21997,7 +21997,7 @@
         <v>38</v>
       </c>
       <c r="G242" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7500976</v>
+        <v>7500977</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,46 +22083,46 @@
         <v>45256.5</v>
       </c>
       <c r="F243" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K243">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L243">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M243">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N243">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O243">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P243">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q243">
         <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S243">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T243">
         <v>2</v>
@@ -22134,25 +22134,25 @@
         <v>1.8</v>
       </c>
       <c r="W243">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC243">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7500977</v>
+        <v>7500976</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,46 +22172,46 @@
         <v>45256.5</v>
       </c>
       <c r="F244" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H244">
         <v>1</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L244">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M244">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N244">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O244">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P244">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q244">
         <v>-0.25</v>
       </c>
       <c r="R244">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S244">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T244">
         <v>2</v>
@@ -22223,25 +22223,25 @@
         <v>1.8</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X244">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA244">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22261,7 +22261,7 @@
         <v>45258.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G245" t="s">
         <v>36</v>
@@ -22531,7 +22531,7 @@
         <v>33</v>
       </c>
       <c r="G248" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -22884,7 +22884,7 @@
         <v>45270.5</v>
       </c>
       <c r="F252" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
         <v>44</v>
@@ -23151,7 +23151,7 @@
         <v>45273.58333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G255" t="s">
         <v>40</v>
@@ -23421,7 +23421,7 @@
         <v>39</v>
       </c>
       <c r="G258" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -23596,7 +23596,7 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F260" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G260" t="s">
         <v>30</v>
@@ -23688,7 +23688,7 @@
         <v>45</v>
       </c>
       <c r="G261" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -24219,7 +24219,7 @@
         <v>45288.58333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G267" t="s">
         <v>40</v>
@@ -24308,7 +24308,7 @@
         <v>45288.66666666666</v>
       </c>
       <c r="F268" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G268" t="s">
         <v>39</v>
@@ -24667,7 +24667,7 @@
         <v>35</v>
       </c>
       <c r="G272" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -25023,7 +25023,7 @@
         <v>33</v>
       </c>
       <c r="G276" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H276">
         <v>2</v>
@@ -25376,10 +25376,10 @@
         <v>45295.66666666666</v>
       </c>
       <c r="F280" t="s">
+        <v>42</v>
+      </c>
+      <c r="G280" t="s">
         <v>41</v>
-      </c>
-      <c r="G280" t="s">
-        <v>43</v>
       </c>
       <c r="H280">
         <v>3</v>
@@ -25554,7 +25554,7 @@
         <v>45297.66666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G282" t="s">
         <v>29</v>
@@ -25821,7 +25821,7 @@
         <v>45298.58333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G285" t="s">
         <v>36</v>
@@ -26091,7 +26091,7 @@
         <v>34</v>
       </c>
       <c r="G288" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H288">
         <v>1</v>
@@ -26254,7 +26254,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7781916</v>
+        <v>7781931</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26266,73 +26266,73 @@
         <v>45329.5</v>
       </c>
       <c r="F290" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G290" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K290">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L290">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M290">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N290">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O290">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P290">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q290">
         <v>0</v>
       </c>
       <c r="R290">
+        <v>2.075</v>
+      </c>
+      <c r="S290">
         <v>1.725</v>
       </c>
-      <c r="S290">
-        <v>2.075</v>
-      </c>
       <c r="T290">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U290">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V290">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W290">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X290">
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA290">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26432,7 +26432,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7781931</v>
+        <v>7781916</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26444,73 +26444,73 @@
         <v>45329.5</v>
       </c>
       <c r="F292" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G292" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J292" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K292">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L292">
+        <v>3.1</v>
+      </c>
+      <c r="M292">
+        <v>3.4</v>
+      </c>
+      <c r="N292">
+        <v>2.4</v>
+      </c>
+      <c r="O292">
+        <v>3</v>
+      </c>
+      <c r="P292">
         <v>2.9</v>
       </c>
-      <c r="M292">
-        <v>2.2</v>
-      </c>
-      <c r="N292">
-        <v>2.9</v>
-      </c>
-      <c r="O292">
-        <v>2.75</v>
-      </c>
-      <c r="P292">
-        <v>2.45</v>
-      </c>
       <c r="Q292">
         <v>0</v>
       </c>
       <c r="R292">
+        <v>1.725</v>
+      </c>
+      <c r="S292">
         <v>2.075</v>
       </c>
-      <c r="S292">
-        <v>1.725</v>
-      </c>
       <c r="T292">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U292">
+        <v>1.8</v>
+      </c>
+      <c r="V292">
+        <v>2</v>
+      </c>
+      <c r="W292">
+        <v>-1</v>
+      </c>
+      <c r="X292">
+        <v>-1</v>
+      </c>
+      <c r="Y292">
         <v>1.9</v>
       </c>
-      <c r="V292">
-        <v>1.9</v>
-      </c>
-      <c r="W292">
-        <v>1.9</v>
-      </c>
-      <c r="X292">
-        <v>-1</v>
-      </c>
-      <c r="Y292">
-        <v>-1</v>
-      </c>
       <c r="Z292">
+        <v>-1</v>
+      </c>
+      <c r="AA292">
         <v>1.075</v>
       </c>
-      <c r="AA292">
-        <v>-1</v>
-      </c>
       <c r="AB292">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26521,7 +26521,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7781918</v>
+        <v>7781919</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26533,73 +26533,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K293">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L293">
         <v>3</v>
       </c>
       <c r="M293">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N293">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O293">
         <v>2.75</v>
       </c>
       <c r="P293">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q293">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S293">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T293">
         <v>1.75</v>
       </c>
       <c r="U293">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V293">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z293">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB293">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AC293">
         <v>-0.5</v>
@@ -26610,7 +26610,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7781919</v>
+        <v>7781918</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26622,73 +26622,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K294">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L294">
         <v>3</v>
       </c>
       <c r="M294">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N294">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O294">
         <v>2.75</v>
       </c>
       <c r="P294">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S294">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T294">
         <v>1.75</v>
       </c>
       <c r="U294">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V294">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W294">
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y294">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA294">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB294">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AC294">
         <v>-0.5</v>
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7781920</v>
+        <v>7781933</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,76 +26800,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G296" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296" t="s">
+        <v>49</v>
+      </c>
+      <c r="K296">
+        <v>3.6</v>
+      </c>
+      <c r="L296">
         <v>3</v>
       </c>
-      <c r="J296" t="s">
-        <v>47</v>
-      </c>
-      <c r="K296">
-        <v>4.333</v>
-      </c>
-      <c r="L296">
+      <c r="M296">
+        <v>2</v>
+      </c>
+      <c r="N296">
+        <v>4.5</v>
+      </c>
+      <c r="O296">
+        <v>3.3</v>
+      </c>
+      <c r="P296">
+        <v>1.7</v>
+      </c>
+      <c r="Q296">
+        <v>0.75</v>
+      </c>
+      <c r="R296">
+        <v>1.875</v>
+      </c>
+      <c r="S296">
+        <v>1.925</v>
+      </c>
+      <c r="T296">
+        <v>2</v>
+      </c>
+      <c r="U296">
+        <v>1.75</v>
+      </c>
+      <c r="V296">
+        <v>2.05</v>
+      </c>
+      <c r="W296">
         <v>3.5</v>
       </c>
-      <c r="M296">
-        <v>1.666</v>
-      </c>
-      <c r="N296">
-        <v>7</v>
-      </c>
-      <c r="O296">
-        <v>4.2</v>
-      </c>
-      <c r="P296">
-        <v>1.363</v>
-      </c>
-      <c r="Q296">
-        <v>1.25</v>
-      </c>
-      <c r="R296">
-        <v>1.85</v>
-      </c>
-      <c r="S296">
-        <v>1.95</v>
-      </c>
-      <c r="T296">
-        <v>2.25</v>
-      </c>
-      <c r="U296">
-        <v>1.775</v>
-      </c>
-      <c r="V296">
-        <v>2.025</v>
-      </c>
-      <c r="W296">
-        <v>-1</v>
-      </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA296">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7781933</v>
+        <v>7781920</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,76 +26889,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J297" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K297">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L297">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M297">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N297">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O297">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P297">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="Q297">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R297">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S297">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T297">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V297">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W297">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z297">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC297">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27070,7 +27070,7 @@
         <v>32</v>
       </c>
       <c r="G299" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H299">
         <v>2</v>
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7781925</v>
+        <v>7781924</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45333.5</v>
       </c>
       <c r="F301" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G301" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H301">
         <v>1</v>
       </c>
       <c r="I301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K301">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L301">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M301">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N301">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O301">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P301">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R301">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S301">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T301">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U301">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V301">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X301">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y301">
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA301">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7781934</v>
+        <v>7781925</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45333.5</v>
       </c>
       <c r="F302" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G302" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302">
         <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K302">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="L302">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M302">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N302">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O302">
+        <v>3</v>
+      </c>
+      <c r="P302">
         <v>3.2</v>
       </c>
-      <c r="P302">
-        <v>1.833</v>
-      </c>
       <c r="Q302">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S302">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T302">
         <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V302">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y302">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA302">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC302">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7781924</v>
+        <v>7781934</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,76 +27423,76 @@
         <v>45333.5</v>
       </c>
       <c r="F303" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G303" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K303">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L303">
+        <v>3.25</v>
+      </c>
+      <c r="M303">
+        <v>1.85</v>
+      </c>
+      <c r="N303">
+        <v>4.2</v>
+      </c>
+      <c r="O303">
         <v>3.2</v>
       </c>
-      <c r="M303">
-        <v>2.375</v>
-      </c>
-      <c r="N303">
-        <v>2.5</v>
-      </c>
-      <c r="O303">
-        <v>2.875</v>
-      </c>
       <c r="P303">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q303">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R303">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S303">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T303">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U303">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V303">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W303">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z303">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB303">
         <v>-1</v>
       </c>
       <c r="AC303">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7781926</v>
+        <v>7781935</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27512,58 +27512,58 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F304" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G304" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J304" t="s">
         <v>49</v>
       </c>
       <c r="K304">
+        <v>1.285</v>
+      </c>
+      <c r="L304">
+        <v>5</v>
+      </c>
+      <c r="M304">
+        <v>10</v>
+      </c>
+      <c r="N304">
+        <v>1.363</v>
+      </c>
+      <c r="O304">
+        <v>4.2</v>
+      </c>
+      <c r="P304">
+        <v>8</v>
+      </c>
+      <c r="Q304">
+        <v>-1.25</v>
+      </c>
+      <c r="R304">
+        <v>1.95</v>
+      </c>
+      <c r="S304">
         <v>1.85</v>
       </c>
-      <c r="L304">
-        <v>3.4</v>
-      </c>
-      <c r="M304">
-        <v>3.8</v>
-      </c>
-      <c r="N304">
-        <v>2</v>
-      </c>
-      <c r="O304">
-        <v>3.1</v>
-      </c>
-      <c r="P304">
-        <v>3.75</v>
-      </c>
-      <c r="Q304">
-        <v>-0.5</v>
-      </c>
-      <c r="R304">
-        <v>1.975</v>
-      </c>
-      <c r="S304">
-        <v>1.825</v>
-      </c>
       <c r="T304">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V304">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W304">
-        <v>1</v>
+        <v>0.363</v>
       </c>
       <c r="X304">
         <v>-1</v>
@@ -27572,16 +27572,16 @@
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA304">
         <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC304">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27589,7 +27589,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7781935</v>
+        <v>7781926</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27601,58 +27601,58 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F305" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G305" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H305">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
         <v>49</v>
       </c>
       <c r="K305">
-        <v>1.285</v>
+        <v>1.85</v>
       </c>
       <c r="L305">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="N305">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O305">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P305">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q305">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R305">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S305">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U305">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V305">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W305">
-        <v>0.363</v>
+        <v>1</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -27661,16 +27661,16 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA305">
         <v>-1</v>
       </c>
       <c r="AB305">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27690,7 +27690,7 @@
         <v>45335.58333333334</v>
       </c>
       <c r="F306" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G306" t="s">
         <v>30</v>
@@ -27871,7 +27871,7 @@
         <v>46</v>
       </c>
       <c r="G308" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H308">
         <v>0</v>
@@ -28313,7 +28313,7 @@
         <v>45337.66666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G313" t="s">
         <v>45</v>
@@ -28936,7 +28936,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G320" t="s">
         <v>44</v>
@@ -29025,10 +29025,10 @@
         <v>45340.66666666666</v>
       </c>
       <c r="F321" t="s">
+        <v>41</v>
+      </c>
+      <c r="G321" t="s">
         <v>43</v>
-      </c>
-      <c r="G321" t="s">
-        <v>42</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29119,6 +29119,15 @@
       <c r="G322" t="s">
         <v>30</v>
       </c>
+      <c r="H322">
+        <v>2</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322" t="s">
+        <v>49</v>
+      </c>
       <c r="K322">
         <v>1.3</v>
       </c>
@@ -29129,10 +29138,10 @@
         <v>9</v>
       </c>
       <c r="N322">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="O322">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P322">
         <v>9</v>
@@ -29141,34 +29150,40 @@
         <v>-1.5</v>
       </c>
       <c r="R322">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S322">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T322">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U322">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V322">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W322">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X322">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA322">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB322">
+        <v>-1</v>
+      </c>
+      <c r="AC322">
+        <v>0.925</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29193,6 +29208,15 @@
       <c r="G323" t="s">
         <v>33</v>
       </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323" t="s">
+        <v>48</v>
+      </c>
       <c r="K323">
         <v>2.55</v>
       </c>
@@ -29203,45 +29227,199 @@
         <v>2.6</v>
       </c>
       <c r="N323">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O323">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P323">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q323">
         <v>0.25</v>
       </c>
       <c r="R323">
+        <v>2.025</v>
+      </c>
+      <c r="S323">
+        <v>1.775</v>
+      </c>
+      <c r="T323">
+        <v>2</v>
+      </c>
+      <c r="U323">
+        <v>1.75</v>
+      </c>
+      <c r="V323">
+        <v>2.05</v>
+      </c>
+      <c r="W323">
+        <v>-1</v>
+      </c>
+      <c r="X323">
         <v>1.9</v>
       </c>
-      <c r="S323">
+      <c r="Y323">
+        <v>-1</v>
+      </c>
+      <c r="Z323">
+        <v>0.5125</v>
+      </c>
+      <c r="AA323">
+        <v>-0.5</v>
+      </c>
+      <c r="AB323">
+        <v>0</v>
+      </c>
+      <c r="AC323">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:29">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>7849141</v>
+      </c>
+      <c r="C324" t="s">
+        <v>28</v>
+      </c>
+      <c r="D324" t="s">
+        <v>28</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45343.58333333334</v>
+      </c>
+      <c r="F324" t="s">
+        <v>34</v>
+      </c>
+      <c r="G324" t="s">
+        <v>41</v>
+      </c>
+      <c r="K324">
+        <v>1.75</v>
+      </c>
+      <c r="L324">
+        <v>3</v>
+      </c>
+      <c r="M324">
+        <v>4.75</v>
+      </c>
+      <c r="N324">
+        <v>1.833</v>
+      </c>
+      <c r="O324">
+        <v>3.1</v>
+      </c>
+      <c r="P324">
+        <v>4</v>
+      </c>
+      <c r="Q324">
+        <v>-0.5</v>
+      </c>
+      <c r="R324">
         <v>1.9</v>
       </c>
-      <c r="T323">
-        <v>2</v>
-      </c>
-      <c r="U323">
-        <v>1.85</v>
-      </c>
-      <c r="V323">
-        <v>1.95</v>
-      </c>
-      <c r="W323">
-        <v>0</v>
-      </c>
-      <c r="X323">
-        <v>0</v>
-      </c>
-      <c r="Y323">
-        <v>0</v>
-      </c>
-      <c r="Z323">
-        <v>0</v>
-      </c>
-      <c r="AA323">
+      <c r="S324">
+        <v>1.9</v>
+      </c>
+      <c r="T324">
+        <v>2</v>
+      </c>
+      <c r="U324">
+        <v>1.775</v>
+      </c>
+      <c r="V324">
+        <v>2.025</v>
+      </c>
+      <c r="W324">
+        <v>0</v>
+      </c>
+      <c r="X324">
+        <v>0</v>
+      </c>
+      <c r="Y324">
+        <v>0</v>
+      </c>
+      <c r="Z324">
+        <v>0</v>
+      </c>
+      <c r="AA324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:29">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>7849142</v>
+      </c>
+      <c r="C325" t="s">
+        <v>28</v>
+      </c>
+      <c r="D325" t="s">
+        <v>28</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45343.66666666666</v>
+      </c>
+      <c r="F325" t="s">
+        <v>43</v>
+      </c>
+      <c r="G325" t="s">
+        <v>32</v>
+      </c>
+      <c r="K325">
+        <v>3.4</v>
+      </c>
+      <c r="L325">
+        <v>2.8</v>
+      </c>
+      <c r="M325">
+        <v>2.15</v>
+      </c>
+      <c r="N325">
+        <v>4.333</v>
+      </c>
+      <c r="O325">
+        <v>2.9</v>
+      </c>
+      <c r="P325">
+        <v>1.833</v>
+      </c>
+      <c r="Q325">
+        <v>0.5</v>
+      </c>
+      <c r="R325">
+        <v>1.9</v>
+      </c>
+      <c r="S325">
+        <v>1.9</v>
+      </c>
+      <c r="T325">
+        <v>2</v>
+      </c>
+      <c r="U325">
+        <v>1.975</v>
+      </c>
+      <c r="V325">
+        <v>1.825</v>
+      </c>
+      <c r="W325">
+        <v>0</v>
+      </c>
+      <c r="X325">
+        <v>0</v>
+      </c>
+      <c r="Y325">
+        <v>0</v>
+      </c>
+      <c r="Z325">
+        <v>0</v>
+      </c>
+      <c r="AA325">
         <v>0</v>
       </c>
     </row>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC325"/>
+  <dimension ref="A1:AC327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6262289</v>
+        <v>6262287</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,76 +5885,76 @@
         <v>44978.59375</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M61">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="P61">
+        <v>3.3</v>
+      </c>
+      <c r="Q61">
+        <v>-0.25</v>
+      </c>
+      <c r="R61">
+        <v>2.075</v>
+      </c>
+      <c r="S61">
+        <v>1.725</v>
+      </c>
+      <c r="T61">
         <v>1.75</v>
       </c>
-      <c r="Q61">
-        <v>0.5</v>
-      </c>
-      <c r="R61">
-        <v>1.95</v>
-      </c>
-      <c r="S61">
-        <v>1.85</v>
-      </c>
-      <c r="T61">
-        <v>2</v>
-      </c>
       <c r="U61">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC61">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6262287</v>
+        <v>6262289</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>44978.59375</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L62">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M62">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N62">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="O62">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
+        <v>2.05</v>
+      </c>
+      <c r="V62">
         <v>1.75</v>
       </c>
-      <c r="U62">
-        <v>1.925</v>
-      </c>
-      <c r="V62">
-        <v>1.875</v>
-      </c>
       <c r="W62">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z62">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6325809</v>
+        <v>6325983</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>44997.6875</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L87">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N87">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O87">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P87">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T87">
         <v>1.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6325983</v>
+        <v>6325809</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>44997.6875</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M88">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="O88">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P88">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
         <v>1.75</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X88">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6472151</v>
+        <v>6472142</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L91">
+        <v>2.75</v>
+      </c>
+      <c r="M91">
+        <v>3.2</v>
+      </c>
+      <c r="N91">
+        <v>2.25</v>
+      </c>
+      <c r="O91">
+        <v>2.75</v>
+      </c>
+      <c r="P91">
         <v>3.5</v>
       </c>
-      <c r="M91">
-        <v>1.6</v>
-      </c>
-      <c r="N91">
-        <v>3.4</v>
-      </c>
-      <c r="O91">
-        <v>2.875</v>
-      </c>
-      <c r="P91">
-        <v>2.15</v>
-      </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
+        <v>1.825</v>
+      </c>
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.825</v>
-      </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>2.025</v>
-      </c>
-      <c r="V91">
-        <v>1.775</v>
-      </c>
       <c r="W91">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
+        <v>-0.5</v>
+      </c>
+      <c r="AA91">
+        <v>0.4375</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6472142</v>
+        <v>6472151</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L93">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="N93">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O93">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X93">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA93">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6472145</v>
+        <v>6472144</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L94">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N94">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P94">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T94">
         <v>1.75</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y94">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
+        <v>0.375</v>
+      </c>
+      <c r="AB94">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6472144</v>
+        <v>6472145</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M95">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O95">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P95">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
         <v>1.75</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6472149</v>
+        <v>6484614</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L98">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N98">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O98">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="P98">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
         <v>1.75</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB98">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6472147</v>
+        <v>6472149</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L99">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M99">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N99">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O99">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>1.7</v>
+      </c>
+      <c r="S99">
         <v>2.1</v>
-      </c>
-      <c r="S99">
-        <v>1.7</v>
       </c>
       <c r="T99">
         <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6484614</v>
+        <v>6472147</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M101">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N101">
+        <v>2.05</v>
+      </c>
+      <c r="O101">
+        <v>2.8</v>
+      </c>
+      <c r="P101">
+        <v>3.8</v>
+      </c>
+      <c r="Q101">
+        <v>-0.5</v>
+      </c>
+      <c r="R101">
         <v>2.1</v>
       </c>
-      <c r="O101">
-        <v>2.875</v>
-      </c>
-      <c r="P101">
-        <v>3.5</v>
-      </c>
-      <c r="Q101">
-        <v>-0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="T101">
         <v>1.75</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6517222</v>
+        <v>6504361</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45030.79166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K106">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L106">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M106">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N106">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O106">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P106">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
         <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6504361</v>
+        <v>6517222</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45030.79166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K107">
+        <v>2.9</v>
+      </c>
+      <c r="L107">
         <v>2.875</v>
       </c>
-      <c r="L107">
-        <v>2.75</v>
-      </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N107">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O107">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T107">
         <v>1.75</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.925</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.825</v>
-      </c>
-      <c r="AC107">
-        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6504364</v>
+        <v>6504363</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K109">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N109">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P109">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T109">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6504363</v>
+        <v>6504364</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K110">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L110">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N110">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O110">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y110">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6517498</v>
+        <v>6507527</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,58 +10424,58 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L112">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
+        <v>2.025</v>
+      </c>
+      <c r="V112">
         <v>1.775</v>
       </c>
-      <c r="V112">
-        <v>2.025</v>
-      </c>
       <c r="W112">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,13 +10484,13 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6507527</v>
+        <v>6517498</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,58 +10513,58 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N113">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P113">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U113">
+        <v>1.775</v>
+      </c>
+      <c r="V113">
         <v>2.025</v>
       </c>
-      <c r="V113">
-        <v>1.775</v>
-      </c>
       <c r="W113">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10573,13 +10573,13 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6540263</v>
+        <v>6540264</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,73 +10602,73 @@
         <v>45035.79166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K114">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P114">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
+        <v>1.875</v>
+      </c>
+      <c r="S114">
+        <v>1.925</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="S114">
-        <v>1.975</v>
-      </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
-        <v>1.75</v>
-      </c>
-      <c r="V114">
-        <v>2.05</v>
-      </c>
       <c r="W114">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB114">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6540264</v>
+        <v>6540263</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,73 +10691,73 @@
         <v>45035.79166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
+        <v>1.444</v>
+      </c>
+      <c r="L115">
+        <v>3.5</v>
+      </c>
+      <c r="M115">
+        <v>7.5</v>
+      </c>
+      <c r="N115">
+        <v>1.615</v>
+      </c>
+      <c r="O115">
+        <v>3.3</v>
+      </c>
+      <c r="P115">
+        <v>5.25</v>
+      </c>
+      <c r="Q115">
+        <v>-0.75</v>
+      </c>
+      <c r="R115">
+        <v>1.825</v>
+      </c>
+      <c r="S115">
+        <v>1.975</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.75</v>
+      </c>
+      <c r="V115">
         <v>2.05</v>
       </c>
-      <c r="L115">
-        <v>2.875</v>
-      </c>
-      <c r="M115">
-        <v>3.6</v>
-      </c>
-      <c r="N115">
-        <v>2.2</v>
-      </c>
-      <c r="O115">
-        <v>2.625</v>
-      </c>
-      <c r="P115">
-        <v>3.75</v>
-      </c>
-      <c r="Q115">
-        <v>-0.25</v>
-      </c>
-      <c r="R115">
-        <v>1.875</v>
-      </c>
-      <c r="S115">
-        <v>1.925</v>
-      </c>
-      <c r="T115">
-        <v>2</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X115">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA115">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6543366</v>
+        <v>6543367</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,34 +10780,34 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L116">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M116">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N116">
         <v>2.1</v>
       </c>
       <c r="O116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
         <v>3.25</v>
@@ -10816,40 +10816,40 @@
         <v>-0.25</v>
       </c>
       <c r="R116">
+        <v>1.875</v>
+      </c>
+      <c r="S116">
+        <v>1.925</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="V116">
         <v>1.8</v>
       </c>
-      <c r="S116">
-        <v>2</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>2.025</v>
-      </c>
-      <c r="V116">
-        <v>1.775</v>
-      </c>
       <c r="W116">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB116">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6543367</v>
+        <v>6544643</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,76 +10869,76 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L117">
+        <v>2.75</v>
+      </c>
+      <c r="M117">
+        <v>3.6</v>
+      </c>
+      <c r="N117">
+        <v>2.05</v>
+      </c>
+      <c r="O117">
         <v>2.9</v>
       </c>
-      <c r="M117">
-        <v>2.3</v>
-      </c>
-      <c r="N117">
-        <v>2.1</v>
-      </c>
-      <c r="O117">
-        <v>3.1</v>
-      </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA117">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.4</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6544643</v>
+        <v>6543366</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,58 +11047,58 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>49</v>
       </c>
       <c r="K119">
+        <v>3.2</v>
+      </c>
+      <c r="L119">
+        <v>2.8</v>
+      </c>
+      <c r="M119">
+        <v>2.25</v>
+      </c>
+      <c r="N119">
         <v>2.1</v>
       </c>
-      <c r="L119">
-        <v>2.75</v>
-      </c>
-      <c r="M119">
-        <v>3.6</v>
-      </c>
-      <c r="N119">
-        <v>2.05</v>
-      </c>
       <c r="O119">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q119">
         <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.675</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="W119">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,16 +11107,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6557108</v>
+        <v>6562344</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,73 +11848,73 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K128">
+        <v>1.5</v>
+      </c>
+      <c r="L128">
+        <v>3.6</v>
+      </c>
+      <c r="M128">
+        <v>6</v>
+      </c>
+      <c r="N128">
+        <v>1.5</v>
+      </c>
+      <c r="O128">
+        <v>3.75</v>
+      </c>
+      <c r="P128">
         <v>5.5</v>
       </c>
-      <c r="L128">
-        <v>3.25</v>
-      </c>
-      <c r="M128">
-        <v>1.6</v>
-      </c>
-      <c r="N128">
-        <v>7.5</v>
-      </c>
-      <c r="O128">
-        <v>3.3</v>
-      </c>
-      <c r="P128">
-        <v>1.533</v>
-      </c>
       <c r="Q128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R128">
+        <v>2.025</v>
+      </c>
+      <c r="S128">
         <v>1.775</v>
       </c>
-      <c r="S128">
-        <v>2.025</v>
-      </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
         <v>1.825</v>
       </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6562344</v>
+        <v>6557108</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,73 +11937,73 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="N129">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R129">
+        <v>1.775</v>
+      </c>
+      <c r="S129">
         <v>2.025</v>
       </c>
-      <c r="S129">
-        <v>1.775</v>
-      </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="V129">
-        <v>1.825</v>
-      </c>
       <c r="W129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6621806</v>
+        <v>6621807</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O132">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T132">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X132">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6621807</v>
+        <v>6621806</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
+        <v>2.05</v>
+      </c>
+      <c r="L134">
+        <v>2.95</v>
+      </c>
+      <c r="M134">
+        <v>3.5</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134">
         <v>2.75</v>
       </c>
-      <c r="L134">
-        <v>3</v>
-      </c>
-      <c r="M134">
-        <v>2.375</v>
-      </c>
-      <c r="N134">
-        <v>1.533</v>
-      </c>
-      <c r="O134">
-        <v>3.3</v>
-      </c>
       <c r="P134">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S134">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB134">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6760260</v>
+        <v>6760259</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,76 +12738,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M138">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N138">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="P138">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q138">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6760259</v>
+        <v>6757667</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L139">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M139">
+        <v>2.375</v>
+      </c>
+      <c r="N139">
+        <v>1.8</v>
+      </c>
+      <c r="O139">
         <v>2.875</v>
       </c>
-      <c r="N139">
-        <v>2.7</v>
-      </c>
-      <c r="O139">
-        <v>2.625</v>
-      </c>
       <c r="P139">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6756722</v>
+        <v>6728744</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
+        <v>4.5</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>1.8</v>
+      </c>
+      <c r="N140">
+        <v>6.5</v>
+      </c>
+      <c r="O140">
+        <v>3.5</v>
+      </c>
+      <c r="P140">
         <v>1.5</v>
       </c>
-      <c r="L140">
-        <v>3.2</v>
-      </c>
-      <c r="M140">
-        <v>7.5</v>
-      </c>
-      <c r="N140">
-        <v>1.285</v>
-      </c>
-      <c r="O140">
-        <v>4.2</v>
-      </c>
-      <c r="P140">
-        <v>10</v>
-      </c>
       <c r="Q140">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R140">
+        <v>1.8</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="S140">
-        <v>1.85</v>
-      </c>
-      <c r="T140">
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
         <v>2.5</v>
       </c>
-      <c r="U140">
-        <v>1.875</v>
-      </c>
-      <c r="V140">
-        <v>1.925</v>
-      </c>
-      <c r="W140">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6757667</v>
+        <v>6760258</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,73 +13005,73 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>3</v>
       </c>
       <c r="L141">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M141">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N141">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
         <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T141">
         <v>2</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6760258</v>
+        <v>6756722</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L143">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="N143">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P143">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6761305</v>
+        <v>6760260</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,73 +13272,73 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L144">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M144">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N144">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q144">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T144">
         <v>2</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6728744</v>
+        <v>6761305</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M145">
+        <v>2.875</v>
+      </c>
+      <c r="N145">
+        <v>1.666</v>
+      </c>
+      <c r="O145">
+        <v>3.4</v>
+      </c>
+      <c r="P145">
+        <v>5</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
+        <v>1.85</v>
+      </c>
+      <c r="T145">
+        <v>2</v>
+      </c>
+      <c r="U145">
         <v>1.8</v>
       </c>
-      <c r="N145">
-        <v>6.5</v>
-      </c>
-      <c r="O145">
-        <v>3.5</v>
-      </c>
-      <c r="P145">
-        <v>1.5</v>
-      </c>
-      <c r="Q145">
-        <v>1</v>
-      </c>
-      <c r="R145">
-        <v>1.8</v>
-      </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>2</v>
-      </c>
-      <c r="U145">
-        <v>1.85</v>
-      </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X145">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
+        <v>0.475</v>
+      </c>
+      <c r="AA145">
+        <v>-0.5</v>
+      </c>
+      <c r="AB145">
         <v>0.8</v>
       </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
-      <c r="AB145">
-        <v>-1</v>
-      </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6728808</v>
+        <v>6728811</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,55 +13450,55 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J146" t="s">
         <v>47</v>
       </c>
       <c r="K146">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="L146">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M146">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="N146">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="O146">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P146">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="Q146">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13507,19 +13507,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.6499999999999999</v>
+        <v>1.625</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6728745</v>
+        <v>6728809</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,13 +13539,13 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -13554,43 +13554,43 @@
         <v>49</v>
       </c>
       <c r="K147">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
         <v>5</v>
       </c>
       <c r="N147">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13599,13 +13599,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6728746</v>
+        <v>6728745</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N148">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O148">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P148">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X148">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6728809</v>
+        <v>6728810</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,58 +13717,58 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L149">
+        <v>2.9</v>
+      </c>
+      <c r="M149">
         <v>3.4</v>
       </c>
-      <c r="M149">
-        <v>5</v>
-      </c>
       <c r="N149">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O149">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P149">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W149">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6728807</v>
+        <v>6728808</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="L150">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="N150">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q150">
+        <v>0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.825</v>
+      </c>
+      <c r="V150">
+        <v>1.975</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z150">
         <v>-0.5</v>
       </c>
-      <c r="R150">
-        <v>1.875</v>
-      </c>
-      <c r="S150">
-        <v>1.925</v>
-      </c>
-      <c r="T150">
-        <v>2.25</v>
-      </c>
-      <c r="U150">
-        <v>1.875</v>
-      </c>
-      <c r="V150">
-        <v>1.925</v>
-      </c>
-      <c r="W150">
-        <v>0.833</v>
-      </c>
-      <c r="X150">
-        <v>-1</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>0.875</v>
-      </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB150">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6728806</v>
+        <v>6728746</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K151">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L151">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M151">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N151">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O151">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA151">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6728811</v>
+        <v>6728806</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,40 +13984,40 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L152">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N152">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O152">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R152">
         <v>1.85</v>
@@ -14029,31 +14029,31 @@
         <v>2</v>
       </c>
       <c r="U152">
+        <v>1.875</v>
+      </c>
+      <c r="V152">
         <v>1.925</v>
       </c>
-      <c r="V152">
-        <v>1.875</v>
-      </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
         <v>0.925</v>
-      </c>
-      <c r="AC152">
-        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6728810</v>
+        <v>6728807</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,58 +14073,58 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>49</v>
       </c>
       <c r="K153">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L153">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M153">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N153">
+        <v>1.833</v>
+      </c>
+      <c r="O153">
+        <v>3.5</v>
+      </c>
+      <c r="P153">
+        <v>3.5</v>
+      </c>
+      <c r="Q153">
+        <v>-0.5</v>
+      </c>
+      <c r="R153">
+        <v>1.875</v>
+      </c>
+      <c r="S153">
+        <v>1.925</v>
+      </c>
+      <c r="T153">
         <v>2.25</v>
       </c>
-      <c r="O153">
-        <v>2.9</v>
-      </c>
-      <c r="P153">
-        <v>3.1</v>
-      </c>
-      <c r="Q153">
-        <v>-0.25</v>
-      </c>
-      <c r="R153">
-        <v>1.975</v>
-      </c>
-      <c r="S153">
-        <v>1.825</v>
-      </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>1.25</v>
+        <v>0.833</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14133,13 +14133,13 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6786810</v>
+        <v>6786816</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K154">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M154">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="N154">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O154">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P154">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q154">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R154">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T154">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V154">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X154">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC154">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6786812</v>
+        <v>6786815</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,76 +14251,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K155">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L155">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M155">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N155">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O155">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P155">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
         <v>2</v>
       </c>
       <c r="U155">
+        <v>1.775</v>
+      </c>
+      <c r="V155">
         <v>2.025</v>
       </c>
-      <c r="V155">
-        <v>1.775</v>
-      </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X155">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA155">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6786813</v>
+        <v>6786814</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="L156">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M156">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="N156">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="O156">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="P156">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R156">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z156">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC156">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6786814</v>
+        <v>6786813</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K157">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="L157">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="N157">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="O157">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P157">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="Q157">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6786815</v>
+        <v>6786810</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,76 +14607,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159" t="s">
+        <v>48</v>
+      </c>
+      <c r="K159">
+        <v>1.444</v>
+      </c>
+      <c r="L159">
+        <v>3.6</v>
+      </c>
+      <c r="M159">
+        <v>7</v>
+      </c>
+      <c r="N159">
+        <v>1.615</v>
+      </c>
+      <c r="O159">
         <v>3</v>
       </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-      <c r="J159" t="s">
-        <v>49</v>
-      </c>
-      <c r="K159">
-        <v>3.6</v>
-      </c>
-      <c r="L159">
-        <v>3</v>
-      </c>
-      <c r="M159">
-        <v>2</v>
-      </c>
-      <c r="N159">
-        <v>2.9</v>
-      </c>
-      <c r="O159">
-        <v>2.9</v>
-      </c>
       <c r="P159">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S159">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T159">
         <v>2</v>
       </c>
       <c r="U159">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V159">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W159">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB159">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6786816</v>
+        <v>6786812</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>48</v>
+      </c>
+      <c r="K160">
+        <v>2.1</v>
+      </c>
+      <c r="L160">
+        <v>2.875</v>
+      </c>
+      <c r="M160">
+        <v>3.4</v>
+      </c>
+      <c r="N160">
+        <v>2.25</v>
+      </c>
+      <c r="O160">
         <v>3</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-      <c r="J160" t="s">
-        <v>49</v>
-      </c>
-      <c r="K160">
-        <v>1.25</v>
-      </c>
-      <c r="L160">
-        <v>4.75</v>
-      </c>
-      <c r="M160">
-        <v>9.5</v>
-      </c>
-      <c r="N160">
-        <v>1.285</v>
-      </c>
-      <c r="O160">
-        <v>4.333</v>
-      </c>
       <c r="P160">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q160">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W160">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6786823</v>
+        <v>6786824</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,58 +14874,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>49</v>
       </c>
       <c r="K162">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M162">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N162">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="O162">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="Q162">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V162">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W162">
-        <v>0.333</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14934,13 +14934,13 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA162">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6786822</v>
+        <v>6786823</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,58 +14963,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H163">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
         <v>49</v>
       </c>
       <c r="K163">
+        <v>1.666</v>
+      </c>
+      <c r="L163">
+        <v>3.3</v>
+      </c>
+      <c r="M163">
+        <v>5</v>
+      </c>
+      <c r="N163">
+        <v>1.333</v>
+      </c>
+      <c r="O163">
+        <v>4.2</v>
+      </c>
+      <c r="P163">
+        <v>8</v>
+      </c>
+      <c r="Q163">
+        <v>-1.5</v>
+      </c>
+      <c r="R163">
+        <v>1.975</v>
+      </c>
+      <c r="S163">
+        <v>1.825</v>
+      </c>
+      <c r="T163">
         <v>3</v>
       </c>
-      <c r="L163">
-        <v>2.75</v>
-      </c>
-      <c r="M163">
-        <v>2.4</v>
-      </c>
-      <c r="N163">
-        <v>2.25</v>
-      </c>
-      <c r="O163">
-        <v>2.9</v>
-      </c>
-      <c r="P163">
-        <v>3.1</v>
-      </c>
-      <c r="Q163">
-        <v>-0.25</v>
-      </c>
-      <c r="R163">
-        <v>2</v>
-      </c>
-      <c r="S163">
-        <v>1.8</v>
-      </c>
-      <c r="T163">
-        <v>2.25</v>
-      </c>
       <c r="U163">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V163">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W163">
-        <v>1.25</v>
+        <v>0.333</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15023,13 +15023,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB163">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6786821</v>
+        <v>6786818</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,76 +15052,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H164">
         <v>2</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="L164">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="M164">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="N164">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R164">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S164">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z164">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA164">
         <v>-0.5</v>
       </c>
       <c r="AB164">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6786819</v>
+        <v>6786821</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,19 +15141,19 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K165">
         <v>2.5</v>
@@ -15165,49 +15165,49 @@
         <v>2.875</v>
       </c>
       <c r="N165">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="O165">
         <v>3.6</v>
       </c>
       <c r="P165">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q165">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S165">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA165">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
-        <v>0.4875</v>
+        <v>0.45</v>
       </c>
       <c r="AC165">
         <v>-0.5</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6786824</v>
+        <v>6786820</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="L166">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N166">
-        <v>1.533</v>
+        <v>15</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P166">
-        <v>5.75</v>
+        <v>1.2</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="R166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V166">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W166">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z166">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB166">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6786818</v>
+        <v>6786819</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,13 +15319,13 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>3</v>
@@ -15334,40 +15334,40 @@
         <v>47</v>
       </c>
       <c r="K167">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="L167">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="M167">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="N167">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="O167">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="Q167">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R167">
+        <v>1.925</v>
+      </c>
+      <c r="S167">
         <v>1.875</v>
       </c>
-      <c r="S167">
-        <v>1.925</v>
-      </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15376,19 +15376,19 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="Z167">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
+        <v>0.875</v>
+      </c>
+      <c r="AB167">
+        <v>0.4875</v>
+      </c>
+      <c r="AC167">
         <v>-0.5</v>
-      </c>
-      <c r="AB167">
-        <v>0.95</v>
-      </c>
-      <c r="AC167">
-        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6786820</v>
+        <v>6786817</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K168">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M168">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="N168">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="O168">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="P168">
-        <v>1.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q168">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S168">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U168">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y168">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6786817</v>
+        <v>6786822</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M169">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N169">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O169">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P169">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S169">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T169">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X169">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7112128</v>
+        <v>7112127</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45171.6875</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K180">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L180">
         <v>2.75</v>
       </c>
       <c r="M180">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N180">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O180">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P180">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U180">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V180">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y180">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA180">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB180">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7112127</v>
+        <v>7112128</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45171.6875</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L181">
         <v>2.75</v>
       </c>
       <c r="M181">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N181">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O181">
+        <v>2.7</v>
+      </c>
+      <c r="P181">
         <v>2.75</v>
       </c>
-      <c r="P181">
-        <v>2.25</v>
-      </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
+        <v>1.8</v>
+      </c>
+      <c r="V181">
+        <v>2</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
         <v>1.75</v>
       </c>
-      <c r="U181">
-        <v>1.75</v>
-      </c>
-      <c r="V181">
-        <v>2.05</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>1.75</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
       <c r="Z181">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC181">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7112130</v>
+        <v>7112131</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L183">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M183">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N183">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O183">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
         <v>4.5</v>
       </c>
       <c r="Q183">
+        <v>-0.75</v>
+      </c>
+      <c r="R183">
+        <v>1.875</v>
+      </c>
+      <c r="S183">
+        <v>1.925</v>
+      </c>
+      <c r="T183">
+        <v>2.25</v>
+      </c>
+      <c r="U183">
+        <v>2.025</v>
+      </c>
+      <c r="V183">
+        <v>1.775</v>
+      </c>
+      <c r="W183">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>0.4375</v>
+      </c>
+      <c r="AA183">
         <v>-0.5</v>
       </c>
-      <c r="R183">
-        <v>1.8</v>
-      </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
-      <c r="T183">
-        <v>1.75</v>
-      </c>
-      <c r="U183">
-        <v>1.825</v>
-      </c>
-      <c r="V183">
-        <v>1.975</v>
-      </c>
-      <c r="W183">
-        <v>-1</v>
-      </c>
-      <c r="X183">
-        <v>2.1</v>
-      </c>
-      <c r="Y183">
-        <v>-1</v>
-      </c>
-      <c r="Z183">
-        <v>-1</v>
-      </c>
-      <c r="AA183">
-        <v>1</v>
-      </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7112131</v>
+        <v>7112130</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M184">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N184">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P184">
         <v>4.5</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB184">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7263824</v>
+        <v>7263823</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="s">
+        <v>48</v>
+      </c>
+      <c r="K204">
+        <v>2.2</v>
+      </c>
+      <c r="L204">
+        <v>2.875</v>
+      </c>
+      <c r="M204">
+        <v>3.2</v>
+      </c>
+      <c r="N204">
+        <v>1.909</v>
+      </c>
+      <c r="O204">
         <v>3</v>
       </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="J204" t="s">
-        <v>49</v>
-      </c>
-      <c r="K204">
-        <v>2.25</v>
-      </c>
-      <c r="L204">
-        <v>2.9</v>
-      </c>
-      <c r="M204">
-        <v>3.1</v>
-      </c>
-      <c r="N204">
-        <v>2</v>
-      </c>
-      <c r="O204">
-        <v>2.9</v>
-      </c>
       <c r="P204">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7263823</v>
+        <v>7263824</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K205">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L205">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M205">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O205">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P205">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T205">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X205">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7500977</v>
+        <v>7500976</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,46 +22083,46 @@
         <v>45256.5</v>
       </c>
       <c r="F243" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G243" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L243">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M243">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N243">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O243">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P243">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q243">
         <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S243">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T243">
         <v>2</v>
@@ -22134,25 +22134,25 @@
         <v>1.8</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X243">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA243">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7500976</v>
+        <v>7500977</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,46 +22172,46 @@
         <v>45256.5</v>
       </c>
       <c r="F244" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H244">
         <v>1</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K244">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L244">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M244">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N244">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O244">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P244">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q244">
         <v>-0.25</v>
       </c>
       <c r="R244">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S244">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T244">
         <v>2</v>
@@ -22223,25 +22223,25 @@
         <v>1.8</v>
       </c>
       <c r="W244">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC244">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7627121</v>
+        <v>7627122</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45288.5</v>
       </c>
       <c r="F265" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G265" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I265">
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K265">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L265">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M265">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N265">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O265">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P265">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q265">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R265">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S265">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T265">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U265">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V265">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X265">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA265">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7627122</v>
+        <v>7627121</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,76 +24130,76 @@
         <v>45288.5</v>
       </c>
       <c r="F266" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G266" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266" t="s">
+        <v>48</v>
+      </c>
+      <c r="K266">
+        <v>1.5</v>
+      </c>
+      <c r="L266">
+        <v>3.5</v>
+      </c>
+      <c r="M266">
         <v>6</v>
       </c>
-      <c r="I266">
-        <v>1</v>
-      </c>
-      <c r="J266" t="s">
-        <v>49</v>
-      </c>
-      <c r="K266">
-        <v>1.333</v>
-      </c>
-      <c r="L266">
-        <v>4.2</v>
-      </c>
-      <c r="M266">
+      <c r="N266">
+        <v>1.444</v>
+      </c>
+      <c r="O266">
+        <v>3.6</v>
+      </c>
+      <c r="P266">
         <v>8</v>
       </c>
-      <c r="N266">
-        <v>1.363</v>
-      </c>
-      <c r="O266">
-        <v>3.75</v>
-      </c>
-      <c r="P266">
-        <v>9</v>
-      </c>
       <c r="Q266">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R266">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S266">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T266">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U266">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V266">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W266">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB266">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7627031</v>
+        <v>7627126</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,10 +24486,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G270" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H270">
         <v>2</v>
@@ -24501,43 +24501,43 @@
         <v>49</v>
       </c>
       <c r="K270">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L270">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M270">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N270">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O270">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P270">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q270">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R270">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S270">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T270">
         <v>1.75</v>
       </c>
       <c r="U270">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V270">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W270">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="X270">
         <v>-1</v>
@@ -24546,13 +24546,13 @@
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7627126</v>
+        <v>7627031</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,10 +24575,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G271" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H271">
         <v>2</v>
@@ -24590,43 +24590,43 @@
         <v>49</v>
       </c>
       <c r="K271">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L271">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M271">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N271">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O271">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P271">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q271">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R271">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S271">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T271">
         <v>1.75</v>
       </c>
       <c r="U271">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V271">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W271">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24635,13 +24635,13 @@
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24919,7 +24919,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7641574</v>
+        <v>7641575</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24931,76 +24931,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G275" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275">
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K275">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L275">
         <v>3</v>
       </c>
       <c r="M275">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N275">
         <v>1.95</v>
       </c>
       <c r="O275">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P275">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S275">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T275">
         <v>2</v>
       </c>
       <c r="U275">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V275">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X275">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA275">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC275">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25008,7 +25008,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7641575</v>
+        <v>7641574</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25020,76 +25020,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G276" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K276">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L276">
         <v>3</v>
       </c>
       <c r="M276">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N276">
         <v>1.95</v>
       </c>
       <c r="O276">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P276">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q276">
         <v>-0.5</v>
       </c>
       <c r="R276">
+        <v>1.925</v>
+      </c>
+      <c r="S276">
+        <v>1.875</v>
+      </c>
+      <c r="T276">
+        <v>2</v>
+      </c>
+      <c r="U276">
+        <v>1.85</v>
+      </c>
+      <c r="V276">
         <v>1.95</v>
       </c>
-      <c r="S276">
-        <v>1.85</v>
-      </c>
-      <c r="T276">
-        <v>2</v>
-      </c>
-      <c r="U276">
-        <v>2.025</v>
-      </c>
-      <c r="V276">
-        <v>1.775</v>
-      </c>
       <c r="W276">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB276">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25186,7 +25186,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7641558</v>
+        <v>7641577</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25198,73 +25198,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G278" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+      <c r="J278" t="s">
+        <v>47</v>
+      </c>
+      <c r="K278">
+        <v>2.25</v>
+      </c>
+      <c r="L278">
         <v>3</v>
       </c>
-      <c r="I278">
-        <v>1</v>
-      </c>
-      <c r="J278" t="s">
-        <v>49</v>
-      </c>
-      <c r="K278">
-        <v>1.444</v>
-      </c>
-      <c r="L278">
-        <v>3.75</v>
-      </c>
       <c r="M278">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N278">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O278">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P278">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q278">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
+        <v>2</v>
+      </c>
+      <c r="S278">
         <v>1.8</v>
       </c>
-      <c r="S278">
-        <v>2</v>
-      </c>
       <c r="T278">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U278">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W278">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z278">
+        <v>-1</v>
+      </c>
+      <c r="AA278">
         <v>0.8</v>
       </c>
-      <c r="AA278">
-        <v>-1</v>
-      </c>
       <c r="AB278">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25275,7 +25275,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7641577</v>
+        <v>7641558</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25287,73 +25287,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F279" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G279" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K279">
+        <v>1.444</v>
+      </c>
+      <c r="L279">
+        <v>3.75</v>
+      </c>
+      <c r="M279">
+        <v>6.5</v>
+      </c>
+      <c r="N279">
+        <v>1.444</v>
+      </c>
+      <c r="O279">
+        <v>4</v>
+      </c>
+      <c r="P279">
+        <v>5.75</v>
+      </c>
+      <c r="Q279">
+        <v>-1</v>
+      </c>
+      <c r="R279">
+        <v>1.8</v>
+      </c>
+      <c r="S279">
+        <v>2</v>
+      </c>
+      <c r="T279">
         <v>2.25</v>
       </c>
-      <c r="L279">
-        <v>3</v>
-      </c>
-      <c r="M279">
-        <v>3</v>
-      </c>
-      <c r="N279">
-        <v>2.3</v>
-      </c>
-      <c r="O279">
-        <v>2.9</v>
-      </c>
-      <c r="P279">
-        <v>2.9</v>
-      </c>
-      <c r="Q279">
-        <v>-0.25</v>
-      </c>
-      <c r="R279">
-        <v>2</v>
-      </c>
-      <c r="S279">
-        <v>1.8</v>
-      </c>
-      <c r="T279">
-        <v>2</v>
-      </c>
       <c r="U279">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V279">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA279">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -26254,7 +26254,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7781931</v>
+        <v>7781917</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26266,73 +26266,73 @@
         <v>45329.5</v>
       </c>
       <c r="F290" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G290" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K290">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L290">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M290">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N290">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O290">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P290">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q290">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S290">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T290">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U290">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V290">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W290">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X290">
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z290">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB290">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26343,7 +26343,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7781917</v>
+        <v>7781931</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26355,73 +26355,73 @@
         <v>45329.5</v>
       </c>
       <c r="F291" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G291" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K291">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L291">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M291">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N291">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O291">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P291">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q291">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R291">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S291">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T291">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U291">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V291">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA291">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7781933</v>
+        <v>7781920</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,76 +26800,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G296" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J296" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K296">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L296">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M296">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N296">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O296">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P296">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="Q296">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R296">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T296">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U296">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V296">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W296">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z296">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB296">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC296">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7781920</v>
+        <v>7781933</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,76 +26889,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G297" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297" t="s">
+        <v>49</v>
+      </c>
+      <c r="K297">
+        <v>3.6</v>
+      </c>
+      <c r="L297">
         <v>3</v>
       </c>
-      <c r="J297" t="s">
-        <v>47</v>
-      </c>
-      <c r="K297">
-        <v>4.333</v>
-      </c>
-      <c r="L297">
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>4.5</v>
+      </c>
+      <c r="O297">
+        <v>3.3</v>
+      </c>
+      <c r="P297">
+        <v>1.7</v>
+      </c>
+      <c r="Q297">
+        <v>0.75</v>
+      </c>
+      <c r="R297">
+        <v>1.875</v>
+      </c>
+      <c r="S297">
+        <v>1.925</v>
+      </c>
+      <c r="T297">
+        <v>2</v>
+      </c>
+      <c r="U297">
+        <v>1.75</v>
+      </c>
+      <c r="V297">
+        <v>2.05</v>
+      </c>
+      <c r="W297">
         <v>3.5</v>
       </c>
-      <c r="M297">
-        <v>1.666</v>
-      </c>
-      <c r="N297">
-        <v>7</v>
-      </c>
-      <c r="O297">
-        <v>4.2</v>
-      </c>
-      <c r="P297">
-        <v>1.363</v>
-      </c>
-      <c r="Q297">
-        <v>1.25</v>
-      </c>
-      <c r="R297">
-        <v>1.85</v>
-      </c>
-      <c r="S297">
-        <v>1.95</v>
-      </c>
-      <c r="T297">
-        <v>2.25</v>
-      </c>
-      <c r="U297">
-        <v>1.775</v>
-      </c>
-      <c r="V297">
-        <v>2.025</v>
-      </c>
-      <c r="W297">
-        <v>-1</v>
-      </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7781925</v>
+        <v>7781934</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45333.5</v>
       </c>
       <c r="F302" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G302" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302">
         <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K302">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="L302">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M302">
+        <v>1.85</v>
+      </c>
+      <c r="N302">
         <v>4.2</v>
       </c>
-      <c r="N302">
-        <v>2.2</v>
-      </c>
       <c r="O302">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P302">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R302">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S302">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T302">
         <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V302">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z302">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB302">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7781934</v>
+        <v>7781925</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,76 +27423,76 @@
         <v>45333.5</v>
       </c>
       <c r="F303" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G303" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303">
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K303">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="L303">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M303">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N303">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O303">
+        <v>3</v>
+      </c>
+      <c r="P303">
         <v>3.2</v>
       </c>
-      <c r="P303">
-        <v>1.833</v>
-      </c>
       <c r="Q303">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R303">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S303">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T303">
         <v>2.25</v>
       </c>
       <c r="U303">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V303">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W303">
         <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y303">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA303">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB303">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC303">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -29297,6 +29297,15 @@
       <c r="G324" t="s">
         <v>41</v>
       </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324" t="s">
+        <v>48</v>
+      </c>
       <c r="K324">
         <v>1.75</v>
       </c>
@@ -29307,46 +29316,52 @@
         <v>4.75</v>
       </c>
       <c r="N324">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O324">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P324">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q324">
         <v>-0.5</v>
       </c>
       <c r="R324">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S324">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T324">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U324">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V324">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X324">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB324">
+        <v>-0.5</v>
+      </c>
+      <c r="AC324">
+        <v>0.425</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29371,6 +29386,15 @@
       <c r="G325" t="s">
         <v>32</v>
       </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325" t="s">
+        <v>49</v>
+      </c>
       <c r="K325">
         <v>3.4</v>
       </c>
@@ -29381,45 +29405,199 @@
         <v>2.15</v>
       </c>
       <c r="N325">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O325">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P325">
+        <v>2.1</v>
+      </c>
+      <c r="Q325">
+        <v>0.25</v>
+      </c>
+      <c r="R325">
+        <v>1.975</v>
+      </c>
+      <c r="S325">
+        <v>1.825</v>
+      </c>
+      <c r="T325">
+        <v>2</v>
+      </c>
+      <c r="U325">
+        <v>2.025</v>
+      </c>
+      <c r="V325">
+        <v>1.775</v>
+      </c>
+      <c r="W325">
+        <v>2.5</v>
+      </c>
+      <c r="X325">
+        <v>-1</v>
+      </c>
+      <c r="Y325">
+        <v>-1</v>
+      </c>
+      <c r="Z325">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA325">
+        <v>-1</v>
+      </c>
+      <c r="AB325">
+        <v>-1</v>
+      </c>
+      <c r="AC325">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:29">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>7849143</v>
+      </c>
+      <c r="C326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D326" t="s">
+        <v>28</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45344.58333333334</v>
+      </c>
+      <c r="F326" t="s">
+        <v>29</v>
+      </c>
+      <c r="G326" t="s">
+        <v>39</v>
+      </c>
+      <c r="K326">
+        <v>3</v>
+      </c>
+      <c r="L326">
+        <v>3</v>
+      </c>
+      <c r="M326">
+        <v>2.25</v>
+      </c>
+      <c r="N326">
+        <v>2.1</v>
+      </c>
+      <c r="O326">
+        <v>3.1</v>
+      </c>
+      <c r="P326">
+        <v>3.5</v>
+      </c>
+      <c r="Q326">
+        <v>-0.25</v>
+      </c>
+      <c r="R326">
+        <v>1.9</v>
+      </c>
+      <c r="S326">
+        <v>1.9</v>
+      </c>
+      <c r="T326">
+        <v>2.25</v>
+      </c>
+      <c r="U326">
+        <v>2.025</v>
+      </c>
+      <c r="V326">
+        <v>1.775</v>
+      </c>
+      <c r="W326">
+        <v>0</v>
+      </c>
+      <c r="X326">
+        <v>0</v>
+      </c>
+      <c r="Y326">
+        <v>0</v>
+      </c>
+      <c r="Z326">
+        <v>0</v>
+      </c>
+      <c r="AA326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>7849144</v>
+      </c>
+      <c r="C327" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45344.66666666666</v>
+      </c>
+      <c r="F327" t="s">
+        <v>44</v>
+      </c>
+      <c r="G327" t="s">
+        <v>45</v>
+      </c>
+      <c r="K327">
         <v>1.833</v>
       </c>
-      <c r="Q325">
-        <v>0.5</v>
-      </c>
-      <c r="R325">
-        <v>1.9</v>
-      </c>
-      <c r="S325">
-        <v>1.9</v>
-      </c>
-      <c r="T325">
-        <v>2</v>
-      </c>
-      <c r="U325">
-        <v>1.975</v>
-      </c>
-      <c r="V325">
-        <v>1.825</v>
-      </c>
-      <c r="W325">
-        <v>0</v>
-      </c>
-      <c r="X325">
-        <v>0</v>
-      </c>
-      <c r="Y325">
-        <v>0</v>
-      </c>
-      <c r="Z325">
-        <v>0</v>
-      </c>
-      <c r="AA325">
+      <c r="L327">
+        <v>3.1</v>
+      </c>
+      <c r="M327">
+        <v>4</v>
+      </c>
+      <c r="N327">
+        <v>2.05</v>
+      </c>
+      <c r="O327">
+        <v>3.1</v>
+      </c>
+      <c r="P327">
+        <v>3.3</v>
+      </c>
+      <c r="Q327">
+        <v>-0.25</v>
+      </c>
+      <c r="R327">
+        <v>1.8</v>
+      </c>
+      <c r="S327">
+        <v>2</v>
+      </c>
+      <c r="T327">
+        <v>2</v>
+      </c>
+      <c r="U327">
+        <v>1.85</v>
+      </c>
+      <c r="V327">
+        <v>1.95</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
         <v>0</v>
       </c>
     </row>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC328"/>
+  <dimension ref="A1:AC330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6148731</v>
+        <v>6149306</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,10 +4016,10 @@
         <v>44948.6875</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4031,40 +4031,40 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L40">
         <v>3</v>
       </c>
       <c r="M40">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N40">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
         <v>1.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4073,19 +4073,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6149306</v>
+        <v>6148731</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,10 +4105,10 @@
         <v>44948.6875</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4120,40 +4120,40 @@
         <v>47</v>
       </c>
       <c r="K41">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="L41">
         <v>3</v>
       </c>
       <c r="M41">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N41">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="O41">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T41">
         <v>1.75</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4162,19 +4162,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6170357</v>
+        <v>6170358</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>44951.5</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="L43">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M43">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="N43">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q43">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
         <v>1.8</v>
       </c>
-      <c r="S43">
-        <v>2</v>
-      </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W43">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
         <v>0.8</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6170358</v>
+        <v>6170357</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,73 +4372,73 @@
         <v>44951.5</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="L44">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="N44">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O44">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6262287</v>
+        <v>6262289</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,76 +5885,76 @@
         <v>44978.59375</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L61">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M61">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N61">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="O61">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R61">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
+        <v>2</v>
+      </c>
+      <c r="U61">
+        <v>2.05</v>
+      </c>
+      <c r="V61">
         <v>1.75</v>
       </c>
-      <c r="U61">
-        <v>1.925</v>
-      </c>
-      <c r="V61">
-        <v>1.875</v>
-      </c>
       <c r="W61">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z61">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6262289</v>
+        <v>6262287</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>44978.59375</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M62">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="P62">
+        <v>3.3</v>
+      </c>
+      <c r="Q62">
+        <v>-0.25</v>
+      </c>
+      <c r="R62">
+        <v>2.075</v>
+      </c>
+      <c r="S62">
+        <v>1.725</v>
+      </c>
+      <c r="T62">
         <v>1.75</v>
       </c>
-      <c r="Q62">
-        <v>0.5</v>
-      </c>
-      <c r="R62">
-        <v>1.95</v>
-      </c>
-      <c r="S62">
-        <v>1.85</v>
-      </c>
-      <c r="T62">
-        <v>2</v>
-      </c>
       <c r="U62">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC62">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6325667</v>
+        <v>6325977</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,76 +7131,76 @@
         <v>44989.5</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="N75">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P75">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
+        <v>1.775</v>
+      </c>
+      <c r="S75">
+        <v>2.025</v>
+      </c>
+      <c r="T75">
         <v>1.75</v>
       </c>
-      <c r="S75">
-        <v>2.05</v>
-      </c>
-      <c r="T75">
-        <v>2.25</v>
-      </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6325977</v>
+        <v>6325667</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,76 +7220,76 @@
         <v>44989.5</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O76">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T76">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB76">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6472143</v>
+        <v>6472151</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L91">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
+        <v>1.6</v>
+      </c>
+      <c r="N91">
+        <v>3.4</v>
+      </c>
+      <c r="O91">
         <v>2.875</v>
       </c>
-      <c r="N91">
-        <v>3</v>
-      </c>
-      <c r="O91">
-        <v>2.75</v>
-      </c>
       <c r="P91">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
         <v>2</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6472142</v>
+        <v>6472143</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L92">
         <v>2.75</v>
       </c>
       <c r="M92">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O92">
         <v>2.75</v>
       </c>
       <c r="P92">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.4375</v>
+        <v>0.7</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6472151</v>
+        <v>6472142</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L93">
+        <v>2.75</v>
+      </c>
+      <c r="M93">
+        <v>3.2</v>
+      </c>
+      <c r="N93">
+        <v>2.25</v>
+      </c>
+      <c r="O93">
+        <v>2.75</v>
+      </c>
+      <c r="P93">
         <v>3.5</v>
       </c>
-      <c r="M93">
-        <v>1.6</v>
-      </c>
-      <c r="N93">
-        <v>3.4</v>
-      </c>
-      <c r="O93">
-        <v>2.875</v>
-      </c>
-      <c r="P93">
-        <v>2.15</v>
-      </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
+        <v>1.925</v>
+      </c>
+      <c r="S93">
+        <v>1.875</v>
+      </c>
+      <c r="T93">
+        <v>1.75</v>
+      </c>
+      <c r="U93">
+        <v>1.825</v>
+      </c>
+      <c r="V93">
         <v>1.975</v>
       </c>
-      <c r="S93">
-        <v>1.825</v>
-      </c>
-      <c r="T93">
-        <v>2</v>
-      </c>
-      <c r="U93">
-        <v>2.025</v>
-      </c>
-      <c r="V93">
-        <v>1.775</v>
-      </c>
       <c r="W93">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
+        <v>-0.5</v>
+      </c>
+      <c r="AA93">
+        <v>0.4375</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
-      <c r="AC93">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6472147</v>
+        <v>6472148</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,58 +9178,58 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>49</v>
       </c>
       <c r="K98">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L98">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="M98">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N98">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O98">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
         <v>1.75</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9238,13 +9238,13 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6472148</v>
+        <v>6472147</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>49</v>
       </c>
       <c r="K99">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L99">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="M99">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O99">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P99">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="T99">
         <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,13 +9327,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6472149</v>
+        <v>6484614</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L100">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="P100">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
         <v>1.75</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB100">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6484614</v>
+        <v>6472149</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M101">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N101">
+        <v>2.5</v>
+      </c>
+      <c r="O101">
+        <v>2.6</v>
+      </c>
+      <c r="P101">
+        <v>3.1</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>1.7</v>
+      </c>
+      <c r="S101">
         <v>2.1</v>
-      </c>
-      <c r="O101">
-        <v>2.875</v>
-      </c>
-      <c r="P101">
-        <v>3.5</v>
-      </c>
-      <c r="Q101">
-        <v>-0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
-      <c r="S101">
-        <v>1.925</v>
       </c>
       <c r="T101">
         <v>1.75</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y101">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6480122</v>
+        <v>6484639</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,58 +9712,58 @@
         <v>45025.79166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>49</v>
       </c>
       <c r="K104">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P104">
+        <v>3.25</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
+        <v>1.95</v>
+      </c>
+      <c r="T104">
+        <v>1.75</v>
+      </c>
+      <c r="U104">
         <v>1.8</v>
       </c>
-      <c r="Q104">
-        <v>0.5</v>
-      </c>
-      <c r="R104">
-        <v>1.975</v>
-      </c>
-      <c r="S104">
-        <v>1.825</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.975</v>
-      </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9772,16 +9772,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6484639</v>
+        <v>6480122</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,59 +9801,59 @@
         <v>45025.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>49</v>
       </c>
       <c r="K105">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L105">
+        <v>3.75</v>
+      </c>
+      <c r="M105">
+        <v>1.533</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105">
+        <v>3.3</v>
+      </c>
+      <c r="P105">
+        <v>1.8</v>
+      </c>
+      <c r="Q105">
+        <v>0.5</v>
+      </c>
+      <c r="R105">
+        <v>1.975</v>
+      </c>
+      <c r="S105">
+        <v>1.825</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.975</v>
+      </c>
+      <c r="V105">
+        <v>1.825</v>
+      </c>
+      <c r="W105">
         <v>3</v>
       </c>
-      <c r="M105">
-        <v>3.3</v>
-      </c>
-      <c r="N105">
-        <v>2.2</v>
-      </c>
-      <c r="O105">
-        <v>2.875</v>
-      </c>
-      <c r="P105">
-        <v>3.25</v>
-      </c>
-      <c r="Q105">
-        <v>-0.25</v>
-      </c>
-      <c r="R105">
-        <v>1.85</v>
-      </c>
-      <c r="S105">
-        <v>1.95</v>
-      </c>
-      <c r="T105">
-        <v>1.75</v>
-      </c>
-      <c r="U105">
-        <v>1.8</v>
-      </c>
-      <c r="V105">
-        <v>2</v>
-      </c>
-      <c r="W105">
-        <v>1.2</v>
-      </c>
       <c r="X105">
         <v>-1</v>
       </c>
@@ -9861,16 +9861,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6517222</v>
+        <v>6504361</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45030.79166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K106">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L106">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M106">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N106">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O106">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P106">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
         <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6504361</v>
+        <v>6517222</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45030.79166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K107">
+        <v>2.9</v>
+      </c>
+      <c r="L107">
         <v>2.875</v>
       </c>
-      <c r="L107">
-        <v>2.75</v>
-      </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N107">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O107">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T107">
         <v>1.75</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.925</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.825</v>
-      </c>
-      <c r="AC107">
-        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6504363</v>
+        <v>6504364</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N108">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6504362</v>
+        <v>6504363</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K109">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N109">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O109">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P109">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
+        <v>1.9</v>
+      </c>
+      <c r="S109">
+        <v>1.9</v>
+      </c>
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109">
         <v>1.75</v>
       </c>
-      <c r="S109">
+      <c r="V109">
         <v>2.05</v>
       </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
-      <c r="U109">
-        <v>2</v>
-      </c>
-      <c r="V109">
-        <v>1.8</v>
-      </c>
       <c r="W109">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z109">
+        <v>-0.5</v>
+      </c>
+      <c r="AA109">
+        <v>0.45</v>
+      </c>
+      <c r="AB109">
         <v>0.75</v>
       </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
       <c r="AC109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6504364</v>
+        <v>6504362</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K110">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M110">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N110">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O110">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P110">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S110">
+        <v>2.05</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
         <v>1.8</v>
       </c>
-      <c r="T110">
-        <v>2.25</v>
-      </c>
-      <c r="U110">
-        <v>1.975</v>
-      </c>
-      <c r="V110">
-        <v>1.825</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X110">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6507527</v>
+        <v>6517498</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,58 +10335,58 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>49</v>
       </c>
       <c r="K111">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M111">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P111">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U111">
+        <v>1.775</v>
+      </c>
+      <c r="V111">
         <v>2.025</v>
       </c>
-      <c r="V111">
-        <v>1.775</v>
-      </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,13 +10395,13 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6517498</v>
+        <v>6507527</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,58 +10424,58 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L112">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
+        <v>2.025</v>
+      </c>
+      <c r="V112">
         <v>1.775</v>
       </c>
-      <c r="V112">
-        <v>2.025</v>
-      </c>
       <c r="W112">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,13 +10484,13 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6540263</v>
+        <v>6540264</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,73 +10602,73 @@
         <v>45035.79166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K114">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P114">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
+        <v>1.875</v>
+      </c>
+      <c r="S114">
+        <v>1.925</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="S114">
-        <v>1.975</v>
-      </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
-        <v>1.75</v>
-      </c>
-      <c r="V114">
-        <v>2.05</v>
-      </c>
       <c r="W114">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB114">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6540264</v>
+        <v>6540263</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,73 +10691,73 @@
         <v>45035.79166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
+        <v>1.444</v>
+      </c>
+      <c r="L115">
+        <v>3.5</v>
+      </c>
+      <c r="M115">
+        <v>7.5</v>
+      </c>
+      <c r="N115">
+        <v>1.615</v>
+      </c>
+      <c r="O115">
+        <v>3.3</v>
+      </c>
+      <c r="P115">
+        <v>5.25</v>
+      </c>
+      <c r="Q115">
+        <v>-0.75</v>
+      </c>
+      <c r="R115">
+        <v>1.825</v>
+      </c>
+      <c r="S115">
+        <v>1.975</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.75</v>
+      </c>
+      <c r="V115">
         <v>2.05</v>
       </c>
-      <c r="L115">
-        <v>2.875</v>
-      </c>
-      <c r="M115">
-        <v>3.6</v>
-      </c>
-      <c r="N115">
-        <v>2.2</v>
-      </c>
-      <c r="O115">
-        <v>2.625</v>
-      </c>
-      <c r="P115">
-        <v>3.75</v>
-      </c>
-      <c r="Q115">
-        <v>-0.25</v>
-      </c>
-      <c r="R115">
-        <v>1.875</v>
-      </c>
-      <c r="S115">
-        <v>1.925</v>
-      </c>
-      <c r="T115">
-        <v>2</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X115">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA115">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6543366</v>
+        <v>6543368</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,40 +10780,40 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L116">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N116">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O116">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
         <v>1.8</v>
@@ -10822,34 +10822,34 @@
         <v>2</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U116">
+        <v>1.775</v>
+      </c>
+      <c r="V116">
         <v>2.025</v>
       </c>
-      <c r="V116">
-        <v>1.775</v>
-      </c>
       <c r="W116">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>1.025</v>
-      </c>
-      <c r="AC116">
-        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6543367</v>
+        <v>6543366</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,34 +10869,34 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L117">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M117">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N117">
         <v>2.1</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P117">
         <v>3.25</v>
@@ -10905,40 +10905,40 @@
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC117">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6543368</v>
+        <v>6543367</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L119">
+        <v>2.9</v>
+      </c>
+      <c r="M119">
+        <v>2.3</v>
+      </c>
+      <c r="N119">
+        <v>2.1</v>
+      </c>
+      <c r="O119">
         <v>3.1</v>
       </c>
-      <c r="M119">
-        <v>3.75</v>
-      </c>
-      <c r="N119">
-        <v>1.75</v>
-      </c>
-      <c r="O119">
+      <c r="P119">
         <v>3.25</v>
       </c>
-      <c r="P119">
-        <v>4.5</v>
-      </c>
       <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.875</v>
+      </c>
+      <c r="S119">
+        <v>1.925</v>
+      </c>
+      <c r="T119">
+        <v>2.25</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
+        <v>1.8</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
+        <v>2.1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
         <v>-0.5</v>
       </c>
-      <c r="R119">
-        <v>1.8</v>
-      </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
-      <c r="T119">
-        <v>1.75</v>
-      </c>
-      <c r="U119">
-        <v>1.775</v>
-      </c>
-      <c r="V119">
-        <v>2.025</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
-      <c r="X119">
-        <v>2.25</v>
-      </c>
-      <c r="Y119">
-        <v>-1</v>
-      </c>
-      <c r="Z119">
-        <v>-1</v>
-      </c>
       <c r="AA119">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6557108</v>
+        <v>6562344</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,73 +11848,73 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K128">
+        <v>1.5</v>
+      </c>
+      <c r="L128">
+        <v>3.6</v>
+      </c>
+      <c r="M128">
+        <v>6</v>
+      </c>
+      <c r="N128">
+        <v>1.5</v>
+      </c>
+      <c r="O128">
+        <v>3.75</v>
+      </c>
+      <c r="P128">
         <v>5.5</v>
       </c>
-      <c r="L128">
-        <v>3.25</v>
-      </c>
-      <c r="M128">
-        <v>1.6</v>
-      </c>
-      <c r="N128">
-        <v>7.5</v>
-      </c>
-      <c r="O128">
-        <v>3.3</v>
-      </c>
-      <c r="P128">
-        <v>1.533</v>
-      </c>
       <c r="Q128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R128">
+        <v>2.025</v>
+      </c>
+      <c r="S128">
         <v>1.775</v>
       </c>
-      <c r="S128">
-        <v>2.025</v>
-      </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
         <v>1.825</v>
       </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6562344</v>
+        <v>6557108</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,73 +11937,73 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="N129">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R129">
+        <v>1.775</v>
+      </c>
+      <c r="S129">
         <v>2.025</v>
       </c>
-      <c r="S129">
-        <v>1.775</v>
-      </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="V129">
-        <v>1.825</v>
-      </c>
       <c r="W129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6621805</v>
+        <v>6621806</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L132">
-        <v>2.875</v>
+        <v>2.95</v>
       </c>
       <c r="M132">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N132">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O132">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P132">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S132">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y132">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6621806</v>
+        <v>6621807</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O133">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T133">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X133">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA133">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6621807</v>
+        <v>6621804</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M134">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="N134">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O134">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P134">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S134">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T134">
         <v>2</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB134">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6621804</v>
+        <v>6621805</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L135">
         <v>2.875</v>
       </c>
       <c r="M135">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N135">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O135">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T135">
         <v>2</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.5249999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6621808</v>
+        <v>6621809</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45075.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L136">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M136">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N136">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O136">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6621809</v>
+        <v>6621808</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45075.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L137">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M137">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N137">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P137">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6728744</v>
+        <v>6760260</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,76 +12738,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>48</v>
       </c>
       <c r="K138">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>3</v>
       </c>
       <c r="M138">
+        <v>3.6</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138">
+        <v>3.25</v>
+      </c>
+      <c r="P138">
         <v>1.8</v>
       </c>
-      <c r="N138">
-        <v>6.5</v>
-      </c>
-      <c r="O138">
-        <v>3.5</v>
-      </c>
-      <c r="P138">
-        <v>1.5</v>
-      </c>
       <c r="Q138">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6761305</v>
+        <v>6760259</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,19 +12827,19 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K139">
         <v>2.5</v>
@@ -12851,52 +12851,52 @@
         <v>2.875</v>
       </c>
       <c r="N139">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="P139">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z139">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6756722</v>
+        <v>6728744</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
+        <v>4.5</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>1.8</v>
+      </c>
+      <c r="N140">
+        <v>6.5</v>
+      </c>
+      <c r="O140">
+        <v>3.5</v>
+      </c>
+      <c r="P140">
         <v>1.5</v>
       </c>
-      <c r="L140">
-        <v>3.2</v>
-      </c>
-      <c r="M140">
-        <v>7.5</v>
-      </c>
-      <c r="N140">
-        <v>1.285</v>
-      </c>
-      <c r="O140">
-        <v>4.2</v>
-      </c>
-      <c r="P140">
-        <v>10</v>
-      </c>
       <c r="Q140">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R140">
+        <v>1.8</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="S140">
-        <v>1.85</v>
-      </c>
-      <c r="T140">
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
         <v>2.5</v>
       </c>
-      <c r="U140">
-        <v>1.875</v>
-      </c>
-      <c r="V140">
-        <v>1.925</v>
-      </c>
-      <c r="W140">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6760260</v>
+        <v>6757667</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,73 +13005,73 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M141">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N141">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O141">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P141">
+        <v>4.5</v>
+      </c>
+      <c r="Q141">
+        <v>-0.5</v>
+      </c>
+      <c r="R141">
+        <v>1.875</v>
+      </c>
+      <c r="S141">
+        <v>1.925</v>
+      </c>
+      <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
         <v>1.8</v>
       </c>
-      <c r="Q141">
-        <v>0.5</v>
-      </c>
-      <c r="R141">
-        <v>1.975</v>
-      </c>
-      <c r="S141">
-        <v>1.825</v>
-      </c>
-      <c r="T141">
-        <v>2</v>
-      </c>
-      <c r="U141">
-        <v>1.975</v>
-      </c>
-      <c r="V141">
-        <v>1.825</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X141">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6760258</v>
+        <v>6756722</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L142">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6757667</v>
+        <v>6760261</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>47</v>
+      </c>
+      <c r="K143">
+        <v>2.25</v>
+      </c>
+      <c r="L143">
         <v>3</v>
       </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143" t="s">
-        <v>49</v>
-      </c>
-      <c r="K143">
+      <c r="M143">
         <v>3</v>
       </c>
-      <c r="L143">
-        <v>2.8</v>
-      </c>
-      <c r="M143">
-        <v>2.375</v>
-      </c>
       <c r="N143">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O143">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="P143">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="S143">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T143">
         <v>2</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6760261</v>
+        <v>6760258</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,46 +13272,46 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>47</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M144">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N144">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O144">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
         <v>2</v>
@@ -13329,19 +13329,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1.1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6760259</v>
+        <v>6761305</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,19 +13361,19 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2.5</v>
@@ -13385,52 +13385,52 @@
         <v>2.875</v>
       </c>
       <c r="N145">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O145">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6728810</v>
+        <v>6728745</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,58 +13539,58 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H147">
         <v>3</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>49</v>
       </c>
       <c r="K147">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L147">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N147">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O147">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
         <v>2</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W147">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13599,13 +13599,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6728807</v>
+        <v>6728746</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>2.6</v>
+      </c>
+      <c r="N148">
         <v>3.2</v>
       </c>
-      <c r="M148">
-        <v>3.6</v>
-      </c>
-      <c r="N148">
-        <v>1.833</v>
-      </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P148">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
         <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6728809</v>
+        <v>6728807</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,10 +13717,10 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13732,19 +13732,19 @@
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N149">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O149">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
         <v>3.5</v>
@@ -13753,22 +13753,22 @@
         <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S149">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
         <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
-        <v>0.909</v>
+        <v>0.833</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6728746</v>
+        <v>6728808</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="N150">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="O150">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.825</v>
+      </c>
+      <c r="V150">
         <v>1.975</v>
       </c>
-      <c r="S150">
-        <v>1.825</v>
-      </c>
-      <c r="T150">
-        <v>2.25</v>
-      </c>
-      <c r="U150">
-        <v>1.975</v>
-      </c>
-      <c r="V150">
-        <v>1.825</v>
-      </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z150">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6728745</v>
+        <v>6728809</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,13 +13895,13 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -13910,43 +13910,43 @@
         <v>49</v>
       </c>
       <c r="K151">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
         <v>5</v>
       </c>
       <c r="N151">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O151">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S151">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13955,13 +13955,13 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6728808</v>
+        <v>6728810</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L152">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M152">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="N152">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P152">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S152">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T152">
         <v>2</v>
       </c>
       <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
         <v>1.825</v>
       </c>
-      <c r="V152">
-        <v>1.975</v>
-      </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6786809</v>
+        <v>6786813</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,28 +14162,28 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="L154">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M154">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N154">
         <v>2.3</v>
@@ -14192,46 +14192,46 @@
         <v>2.9</v>
       </c>
       <c r="P154">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q154">
         <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S154">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V154">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X154">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA154">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6786812</v>
+        <v>6786814</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,76 +14251,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K155">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L155">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M155">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N155">
+        <v>6.5</v>
+      </c>
+      <c r="O155">
+        <v>5.75</v>
+      </c>
+      <c r="P155">
+        <v>1.285</v>
+      </c>
+      <c r="Q155">
+        <v>1.25</v>
+      </c>
+      <c r="R155">
+        <v>1.825</v>
+      </c>
+      <c r="S155">
+        <v>1.975</v>
+      </c>
+      <c r="T155">
         <v>2.25</v>
       </c>
-      <c r="O155">
-        <v>3</v>
-      </c>
-      <c r="P155">
-        <v>3</v>
-      </c>
-      <c r="Q155">
-        <v>-0.25</v>
-      </c>
-      <c r="R155">
-        <v>1.975</v>
-      </c>
-      <c r="S155">
-        <v>1.825</v>
-      </c>
-      <c r="T155">
-        <v>2</v>
-      </c>
       <c r="U155">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z155">
+        <v>0.4125</v>
+      </c>
+      <c r="AA155">
         <v>-0.5</v>
       </c>
-      <c r="AA155">
-        <v>0.4125</v>
-      </c>
       <c r="AB155">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6786810</v>
+        <v>6786815</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M156">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N156">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O156">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P156">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
         <v>2</v>
       </c>
       <c r="U156">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V156">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X156">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA156">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC156">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6786814</v>
+        <v>6786809</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K157">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="L157">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="M157">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="N157">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="O157">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P157">
-        <v>1.285</v>
+        <v>2.9</v>
       </c>
       <c r="Q157">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T157">
         <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y157">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6786813</v>
+        <v>6786810</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,46 +14518,46 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K158">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L158">
+        <v>3.6</v>
+      </c>
+      <c r="M158">
+        <v>7</v>
+      </c>
+      <c r="N158">
+        <v>1.615</v>
+      </c>
+      <c r="O158">
         <v>3</v>
       </c>
-      <c r="M158">
-        <v>2.375</v>
-      </c>
-      <c r="N158">
-        <v>2.3</v>
-      </c>
-      <c r="O158">
-        <v>2.9</v>
-      </c>
       <c r="P158">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S158">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T158">
         <v>2</v>
@@ -14569,19 +14569,19 @@
         <v>1.75</v>
       </c>
       <c r="W158">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB158">
         <v>-1</v>
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6786815</v>
+        <v>6786812</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>48</v>
+      </c>
+      <c r="K160">
+        <v>2.1</v>
+      </c>
+      <c r="L160">
+        <v>2.875</v>
+      </c>
+      <c r="M160">
+        <v>3.4</v>
+      </c>
+      <c r="N160">
+        <v>2.25</v>
+      </c>
+      <c r="O160">
         <v>3</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-      <c r="J160" t="s">
-        <v>49</v>
-      </c>
-      <c r="K160">
-        <v>3.6</v>
-      </c>
-      <c r="L160">
+      <c r="P160">
         <v>3</v>
       </c>
-      <c r="M160">
-        <v>2</v>
-      </c>
-      <c r="N160">
-        <v>2.9</v>
-      </c>
-      <c r="O160">
-        <v>2.9</v>
-      </c>
-      <c r="P160">
-        <v>2.375</v>
-      </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
         <v>2</v>
       </c>
       <c r="U160">
+        <v>2.025</v>
+      </c>
+      <c r="V160">
         <v>1.775</v>
       </c>
-      <c r="V160">
-        <v>2.025</v>
-      </c>
       <c r="W160">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB160">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6786824</v>
+        <v>6786820</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,76 +14874,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="L162">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N162">
-        <v>1.533</v>
+        <v>15</v>
       </c>
       <c r="O162">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P162">
-        <v>5.75</v>
+        <v>1.2</v>
       </c>
       <c r="Q162">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="R162">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V162">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W162">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z162">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB162">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6786818</v>
+        <v>6786817</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,76 +14963,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" t="s">
+        <v>48</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
         <v>3</v>
       </c>
-      <c r="J163" t="s">
-        <v>47</v>
-      </c>
-      <c r="K163">
-        <v>9</v>
-      </c>
-      <c r="L163">
-        <v>3.8</v>
-      </c>
       <c r="M163">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="N163">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P163">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q163">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S163">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y163">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB163">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6786819</v>
+        <v>6786818</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,13 +15141,13 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
         <v>3</v>
@@ -15156,40 +15156,40 @@
         <v>47</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="L165">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="M165">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="N165">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P165">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q165">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R165">
+        <v>1.875</v>
+      </c>
+      <c r="S165">
         <v>1.925</v>
       </c>
-      <c r="S165">
-        <v>1.875</v>
-      </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15198,19 +15198,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA165">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6786821</v>
+        <v>6786823</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,58 +15230,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
         <v>49</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L166">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="M166">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N166">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P166">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
+        <v>1.975</v>
+      </c>
+      <c r="S166">
+        <v>1.825</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>2.025</v>
+      </c>
+      <c r="V166">
         <v>1.775</v>
       </c>
-      <c r="S166">
-        <v>2.025</v>
-      </c>
-      <c r="T166">
-        <v>2.75</v>
-      </c>
-      <c r="U166">
-        <v>1.9</v>
-      </c>
-      <c r="V166">
-        <v>1.9</v>
-      </c>
       <c r="W166">
-        <v>0.6000000000000001</v>
+        <v>0.333</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15290,16 +15290,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB166">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6786823</v>
+        <v>6786819</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
         <v>3</v>
       </c>
-      <c r="I167">
-        <v>2</v>
-      </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K167">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="M167">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N167">
-        <v>1.333</v>
+        <v>5.75</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R167">
+        <v>1.925</v>
+      </c>
+      <c r="S167">
+        <v>1.875</v>
+      </c>
+      <c r="T167">
+        <v>2.75</v>
+      </c>
+      <c r="U167">
         <v>1.975</v>
       </c>
-      <c r="S167">
+      <c r="V167">
         <v>1.825</v>
       </c>
-      <c r="T167">
-        <v>3</v>
-      </c>
-      <c r="U167">
-        <v>2.025</v>
-      </c>
-      <c r="V167">
-        <v>1.775</v>
-      </c>
       <c r="W167">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB167">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6786820</v>
+        <v>6786824</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="L168">
+        <v>2.9</v>
+      </c>
+      <c r="M168">
         <v>3.4</v>
       </c>
-      <c r="M168">
-        <v>1.444</v>
-      </c>
       <c r="N168">
-        <v>15</v>
+        <v>1.533</v>
       </c>
       <c r="O168">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>1.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q168">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S168">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC168">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6786817</v>
+        <v>6786821</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,40 +15497,40 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M169">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N169">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O169">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
         <v>1.775</v>
@@ -15539,34 +15539,34 @@
         <v>2.025</v>
       </c>
       <c r="T169">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X169">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7263823</v>
+        <v>7263824</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F204" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I204">
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K204">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L204">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M204">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N204">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O204">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P204">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q204">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S204">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U204">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X204">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA204">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC204">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7263824</v>
+        <v>7263823</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>48</v>
+      </c>
+      <c r="K205">
+        <v>2.2</v>
+      </c>
+      <c r="L205">
+        <v>2.875</v>
+      </c>
+      <c r="M205">
+        <v>3.2</v>
+      </c>
+      <c r="N205">
+        <v>1.909</v>
+      </c>
+      <c r="O205">
         <v>3</v>
       </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205" t="s">
-        <v>49</v>
-      </c>
-      <c r="K205">
-        <v>2.25</v>
-      </c>
-      <c r="L205">
-        <v>2.9</v>
-      </c>
-      <c r="M205">
-        <v>3.1</v>
-      </c>
-      <c r="N205">
-        <v>2</v>
-      </c>
-      <c r="O205">
-        <v>2.9</v>
-      </c>
       <c r="P205">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S205">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB205">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7627031</v>
+        <v>7627126</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,10 +24486,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G270" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H270">
         <v>2</v>
@@ -24501,43 +24501,43 @@
         <v>49</v>
       </c>
       <c r="K270">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L270">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M270">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N270">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O270">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P270">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q270">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R270">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S270">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T270">
         <v>1.75</v>
       </c>
       <c r="U270">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V270">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W270">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="X270">
         <v>-1</v>
@@ -24546,13 +24546,13 @@
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7627126</v>
+        <v>7627031</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,10 +24575,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G271" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H271">
         <v>2</v>
@@ -24590,43 +24590,43 @@
         <v>49</v>
       </c>
       <c r="K271">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L271">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M271">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N271">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O271">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P271">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q271">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R271">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S271">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T271">
         <v>1.75</v>
       </c>
       <c r="U271">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V271">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W271">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24635,13 +24635,13 @@
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24919,7 +24919,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7641574</v>
+        <v>7641575</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24931,76 +24931,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G275" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275">
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K275">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L275">
         <v>3</v>
       </c>
       <c r="M275">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N275">
         <v>1.95</v>
       </c>
       <c r="O275">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P275">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S275">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T275">
         <v>2</v>
       </c>
       <c r="U275">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V275">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X275">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA275">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC275">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25008,7 +25008,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7641575</v>
+        <v>7641574</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25020,76 +25020,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G276" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K276">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L276">
         <v>3</v>
       </c>
       <c r="M276">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N276">
         <v>1.95</v>
       </c>
       <c r="O276">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P276">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q276">
         <v>-0.5</v>
       </c>
       <c r="R276">
+        <v>1.925</v>
+      </c>
+      <c r="S276">
+        <v>1.875</v>
+      </c>
+      <c r="T276">
+        <v>2</v>
+      </c>
+      <c r="U276">
+        <v>1.85</v>
+      </c>
+      <c r="V276">
         <v>1.95</v>
       </c>
-      <c r="S276">
-        <v>1.85</v>
-      </c>
-      <c r="T276">
-        <v>2</v>
-      </c>
-      <c r="U276">
-        <v>2.025</v>
-      </c>
-      <c r="V276">
-        <v>1.775</v>
-      </c>
       <c r="W276">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB276">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25186,7 +25186,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7641558</v>
+        <v>7641577</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25198,73 +25198,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G278" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+      <c r="J278" t="s">
+        <v>47</v>
+      </c>
+      <c r="K278">
+        <v>2.25</v>
+      </c>
+      <c r="L278">
         <v>3</v>
       </c>
-      <c r="I278">
-        <v>1</v>
-      </c>
-      <c r="J278" t="s">
-        <v>49</v>
-      </c>
-      <c r="K278">
-        <v>1.444</v>
-      </c>
-      <c r="L278">
-        <v>3.75</v>
-      </c>
       <c r="M278">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N278">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O278">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P278">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q278">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
+        <v>2</v>
+      </c>
+      <c r="S278">
         <v>1.8</v>
       </c>
-      <c r="S278">
-        <v>2</v>
-      </c>
       <c r="T278">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U278">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W278">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z278">
+        <v>-1</v>
+      </c>
+      <c r="AA278">
         <v>0.8</v>
       </c>
-      <c r="AA278">
-        <v>-1</v>
-      </c>
       <c r="AB278">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25275,7 +25275,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7641577</v>
+        <v>7641558</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25287,73 +25287,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F279" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G279" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K279">
+        <v>1.444</v>
+      </c>
+      <c r="L279">
+        <v>3.75</v>
+      </c>
+      <c r="M279">
+        <v>6.5</v>
+      </c>
+      <c r="N279">
+        <v>1.444</v>
+      </c>
+      <c r="O279">
+        <v>4</v>
+      </c>
+      <c r="P279">
+        <v>5.75</v>
+      </c>
+      <c r="Q279">
+        <v>-1</v>
+      </c>
+      <c r="R279">
+        <v>1.8</v>
+      </c>
+      <c r="S279">
+        <v>2</v>
+      </c>
+      <c r="T279">
         <v>2.25</v>
       </c>
-      <c r="L279">
-        <v>3</v>
-      </c>
-      <c r="M279">
-        <v>3</v>
-      </c>
-      <c r="N279">
-        <v>2.3</v>
-      </c>
-      <c r="O279">
-        <v>2.9</v>
-      </c>
-      <c r="P279">
-        <v>2.9</v>
-      </c>
-      <c r="Q279">
-        <v>-0.25</v>
-      </c>
-      <c r="R279">
-        <v>2</v>
-      </c>
-      <c r="S279">
-        <v>1.8</v>
-      </c>
-      <c r="T279">
-        <v>2</v>
-      </c>
       <c r="U279">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V279">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA279">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -25631,7 +25631,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7641581</v>
+        <v>7641559</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25643,58 +25643,58 @@
         <v>45298.5</v>
       </c>
       <c r="F283" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G283" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
         <v>49</v>
       </c>
       <c r="K283">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L283">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M283">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="N283">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="O283">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P283">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R283">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S283">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T283">
         <v>2</v>
       </c>
       <c r="U283">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V283">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W283">
-        <v>1.1</v>
+        <v>4.25</v>
       </c>
       <c r="X283">
         <v>-1</v>
@@ -25703,13 +25703,13 @@
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA283">
         <v>-1</v>
       </c>
       <c r="AB283">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -25720,7 +25720,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7641559</v>
+        <v>7641581</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25732,58 +25732,58 @@
         <v>45298.5</v>
       </c>
       <c r="F284" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G284" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
         <v>49</v>
       </c>
       <c r="K284">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L284">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M284">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="N284">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O284">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P284">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="Q284">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S284">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T284">
         <v>2</v>
       </c>
       <c r="U284">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V284">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W284">
-        <v>4.25</v>
+        <v>1.1</v>
       </c>
       <c r="X284">
         <v>-1</v>
@@ -25792,13 +25792,13 @@
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA284">
         <v>-1</v>
       </c>
       <c r="AB284">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC284">
         <v>-1</v>
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7781922</v>
+        <v>7781923</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,73 +27067,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G299" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K299">
+        <v>1.95</v>
+      </c>
+      <c r="L299">
         <v>3</v>
       </c>
-      <c r="L299">
-        <v>2.875</v>
-      </c>
       <c r="M299">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N299">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O299">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P299">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q299">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S299">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T299">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U299">
+        <v>1.775</v>
+      </c>
+      <c r="V299">
         <v>2.025</v>
       </c>
-      <c r="V299">
-        <v>1.775</v>
-      </c>
       <c r="W299">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA299">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC299">
         <v>-1</v>
@@ -27144,7 +27144,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7781923</v>
+        <v>7781922</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27156,73 +27156,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G300" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K300">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L300">
+        <v>2.875</v>
+      </c>
+      <c r="M300">
+        <v>2.45</v>
+      </c>
+      <c r="N300">
+        <v>2.7</v>
+      </c>
+      <c r="O300">
+        <v>2.5</v>
+      </c>
+      <c r="P300">
         <v>3</v>
       </c>
-      <c r="M300">
-        <v>4.333</v>
-      </c>
-      <c r="N300">
-        <v>2.05</v>
-      </c>
-      <c r="O300">
-        <v>3</v>
-      </c>
-      <c r="P300">
-        <v>3.8</v>
-      </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S300">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T300">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U300">
+        <v>2.025</v>
+      </c>
+      <c r="V300">
         <v>1.775</v>
       </c>
-      <c r="V300">
-        <v>2.025</v>
-      </c>
       <c r="W300">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z300">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB300">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC300">
         <v>-1</v>
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7781924</v>
+        <v>7781934</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45333.5</v>
       </c>
       <c r="F302" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G302" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K302">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L302">
+        <v>3.25</v>
+      </c>
+      <c r="M302">
+        <v>1.85</v>
+      </c>
+      <c r="N302">
+        <v>4.2</v>
+      </c>
+      <c r="O302">
         <v>3.2</v>
       </c>
-      <c r="M302">
-        <v>2.375</v>
-      </c>
-      <c r="N302">
-        <v>2.5</v>
-      </c>
-      <c r="O302">
-        <v>2.875</v>
-      </c>
       <c r="P302">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q302">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R302">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S302">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T302">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V302">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W302">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z302">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB302">
         <v>-1</v>
       </c>
       <c r="AC302">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7781934</v>
+        <v>7781924</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,76 +27423,76 @@
         <v>45333.5</v>
       </c>
       <c r="F303" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G303" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K303">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="L303">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M303">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N303">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O303">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P303">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="Q303">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R303">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S303">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T303">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U303">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V303">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA303">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
         <v>-1</v>
       </c>
       <c r="AC303">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7781926</v>
+        <v>7781935</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27512,58 +27512,58 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F304" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G304" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J304" t="s">
         <v>49</v>
       </c>
       <c r="K304">
+        <v>1.285</v>
+      </c>
+      <c r="L304">
+        <v>5</v>
+      </c>
+      <c r="M304">
+        <v>10</v>
+      </c>
+      <c r="N304">
+        <v>1.363</v>
+      </c>
+      <c r="O304">
+        <v>4.2</v>
+      </c>
+      <c r="P304">
+        <v>8</v>
+      </c>
+      <c r="Q304">
+        <v>-1.25</v>
+      </c>
+      <c r="R304">
+        <v>1.95</v>
+      </c>
+      <c r="S304">
         <v>1.85</v>
       </c>
-      <c r="L304">
-        <v>3.4</v>
-      </c>
-      <c r="M304">
-        <v>3.8</v>
-      </c>
-      <c r="N304">
-        <v>2</v>
-      </c>
-      <c r="O304">
-        <v>3.1</v>
-      </c>
-      <c r="P304">
-        <v>3.75</v>
-      </c>
-      <c r="Q304">
-        <v>-0.5</v>
-      </c>
-      <c r="R304">
-        <v>1.975</v>
-      </c>
-      <c r="S304">
-        <v>1.825</v>
-      </c>
       <c r="T304">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V304">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W304">
-        <v>1</v>
+        <v>0.363</v>
       </c>
       <c r="X304">
         <v>-1</v>
@@ -27572,16 +27572,16 @@
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA304">
         <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC304">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27589,7 +27589,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7781935</v>
+        <v>7781926</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27601,58 +27601,58 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F305" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G305" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H305">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
         <v>49</v>
       </c>
       <c r="K305">
-        <v>1.285</v>
+        <v>1.85</v>
       </c>
       <c r="L305">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="N305">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O305">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P305">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q305">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R305">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S305">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U305">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V305">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W305">
-        <v>0.363</v>
+        <v>1</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -27661,16 +27661,16 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA305">
         <v>-1</v>
       </c>
       <c r="AB305">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -29636,7 +29636,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7849148</v>
+        <v>7849145</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29645,43 +29645,43 @@
         <v>28</v>
       </c>
       <c r="E328" s="2">
-        <v>45346.58333333334</v>
+        <v>45346.5</v>
       </c>
       <c r="F328" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G328" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K328">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L328">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="M328">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N328">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O328">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P328">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q328">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R328">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S328">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T328">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U328">
         <v>1.975</v>
@@ -29702,6 +29702,154 @@
         <v>0</v>
       </c>
       <c r="AA328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>7849148</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F329" t="s">
+        <v>41</v>
+      </c>
+      <c r="G329" t="s">
+        <v>38</v>
+      </c>
+      <c r="K329">
+        <v>2.5</v>
+      </c>
+      <c r="L329">
+        <v>2.75</v>
+      </c>
+      <c r="M329">
+        <v>2.875</v>
+      </c>
+      <c r="N329">
+        <v>5</v>
+      </c>
+      <c r="O329">
+        <v>3.2</v>
+      </c>
+      <c r="P329">
+        <v>1.666</v>
+      </c>
+      <c r="Q329">
+        <v>0.75</v>
+      </c>
+      <c r="R329">
+        <v>1.825</v>
+      </c>
+      <c r="S329">
+        <v>1.975</v>
+      </c>
+      <c r="T329">
+        <v>2</v>
+      </c>
+      <c r="U329">
+        <v>1.95</v>
+      </c>
+      <c r="V329">
+        <v>1.85</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>7849149</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45346.66666666666</v>
+      </c>
+      <c r="F330" t="s">
+        <v>32</v>
+      </c>
+      <c r="G330" t="s">
+        <v>46</v>
+      </c>
+      <c r="K330">
+        <v>1.8</v>
+      </c>
+      <c r="L330">
+        <v>3.25</v>
+      </c>
+      <c r="M330">
+        <v>4</v>
+      </c>
+      <c r="N330">
+        <v>1.7</v>
+      </c>
+      <c r="O330">
+        <v>3.3</v>
+      </c>
+      <c r="P330">
+        <v>4.5</v>
+      </c>
+      <c r="Q330">
+        <v>-0.75</v>
+      </c>
+      <c r="R330">
+        <v>2</v>
+      </c>
+      <c r="S330">
+        <v>1.8</v>
+      </c>
+      <c r="T330">
+        <v>2</v>
+      </c>
+      <c r="U330">
+        <v>1.85</v>
+      </c>
+      <c r="V330">
+        <v>1.95</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
         <v>0</v>
       </c>
     </row>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC330"/>
+  <dimension ref="A1:AC333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6170371</v>
+        <v>6170370</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>44955.6875</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
+        <v>1.85</v>
+      </c>
+      <c r="L56">
+        <v>3.25</v>
+      </c>
+      <c r="M56">
+        <v>3.75</v>
+      </c>
+      <c r="N56">
+        <v>2.2</v>
+      </c>
+      <c r="O56">
         <v>2.875</v>
       </c>
-      <c r="L56">
-        <v>3</v>
-      </c>
-      <c r="M56">
-        <v>2.3</v>
-      </c>
-      <c r="N56">
-        <v>2.45</v>
-      </c>
-      <c r="O56">
-        <v>2.55</v>
-      </c>
       <c r="P56">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U56">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V56">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y56">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>1.1</v>
+        <v>0.425</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC56">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6170370</v>
+        <v>6170371</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>44955.6875</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L57">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N57">
+        <v>2.45</v>
+      </c>
+      <c r="O57">
+        <v>2.55</v>
+      </c>
+      <c r="P57">
+        <v>3.2</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1.7</v>
+      </c>
+      <c r="S57">
+        <v>2.1</v>
+      </c>
+      <c r="T57">
+        <v>1.5</v>
+      </c>
+      <c r="U57">
+        <v>1.775</v>
+      </c>
+      <c r="V57">
+        <v>2.025</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
         <v>2.2</v>
       </c>
-      <c r="O57">
-        <v>2.875</v>
-      </c>
-      <c r="P57">
-        <v>3.3</v>
-      </c>
-      <c r="Q57">
-        <v>-0.25</v>
-      </c>
-      <c r="R57">
-        <v>1.95</v>
-      </c>
-      <c r="S57">
-        <v>1.85</v>
-      </c>
-      <c r="T57">
-        <v>1.75</v>
-      </c>
-      <c r="U57">
-        <v>1.75</v>
-      </c>
-      <c r="V57">
-        <v>2.05</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>1.875</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.425</v>
+        <v>1.1</v>
       </c>
       <c r="AB57">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6472147</v>
+        <v>6484614</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L99">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N99">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O99">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
         <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z99">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6484614</v>
+        <v>6472147</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M100">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N100">
+        <v>2.05</v>
+      </c>
+      <c r="O100">
+        <v>2.8</v>
+      </c>
+      <c r="P100">
+        <v>3.8</v>
+      </c>
+      <c r="Q100">
+        <v>-0.5</v>
+      </c>
+      <c r="R100">
         <v>2.1</v>
       </c>
-      <c r="O100">
-        <v>2.875</v>
-      </c>
-      <c r="P100">
-        <v>3.5</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.875</v>
-      </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="T100">
         <v>1.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6504361</v>
+        <v>6517222</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45030.79166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K106">
+        <v>2.9</v>
+      </c>
+      <c r="L106">
         <v>2.875</v>
       </c>
-      <c r="L106">
-        <v>2.75</v>
-      </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N106">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O106">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P106">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T106">
         <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.925</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>0.825</v>
-      </c>
-      <c r="AC106">
-        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6517222</v>
+        <v>6504361</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45030.79166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L107">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M107">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N107">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O107">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P107">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T107">
         <v>1.75</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA107">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6543368</v>
+        <v>6544643</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,76 +10780,76 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K116">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M116">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O116">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P116">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
         <v>1.75</v>
       </c>
       <c r="U116">
-        <v>1.775</v>
+        <v>1.675</v>
       </c>
       <c r="V116">
-        <v>2.025</v>
+        <v>2.15</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X116">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>1.025</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6544643</v>
+        <v>6543367</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,76 +10958,76 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
+        <v>3</v>
+      </c>
+      <c r="L118">
+        <v>2.9</v>
+      </c>
+      <c r="M118">
+        <v>2.3</v>
+      </c>
+      <c r="N118">
         <v>2.1</v>
       </c>
-      <c r="L118">
-        <v>2.75</v>
-      </c>
-      <c r="M118">
-        <v>3.6</v>
-      </c>
-      <c r="N118">
-        <v>2.05</v>
-      </c>
       <c r="O118">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P118">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q118">
         <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>1.15</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6543367</v>
+        <v>6543368</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N119">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O119">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T119">
+        <v>1.75</v>
+      </c>
+      <c r="U119">
+        <v>1.775</v>
+      </c>
+      <c r="V119">
+        <v>2.025</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
         <v>2.25</v>
       </c>
-      <c r="U119">
-        <v>2</v>
-      </c>
-      <c r="V119">
-        <v>1.8</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
-      <c r="X119">
-        <v>2.1</v>
-      </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6562344</v>
+        <v>6557108</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,73 +11848,73 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="L128">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="N128">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P128">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R128">
+        <v>1.775</v>
+      </c>
+      <c r="S128">
         <v>2.025</v>
       </c>
-      <c r="S128">
-        <v>1.775</v>
-      </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
       <c r="W128">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB128">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6557108</v>
+        <v>6562344</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,73 +11937,73 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K129">
+        <v>1.5</v>
+      </c>
+      <c r="L129">
+        <v>3.6</v>
+      </c>
+      <c r="M129">
+        <v>6</v>
+      </c>
+      <c r="N129">
+        <v>1.5</v>
+      </c>
+      <c r="O129">
+        <v>3.75</v>
+      </c>
+      <c r="P129">
         <v>5.5</v>
       </c>
-      <c r="L129">
-        <v>3.25</v>
-      </c>
-      <c r="M129">
-        <v>1.6</v>
-      </c>
-      <c r="N129">
-        <v>7.5</v>
-      </c>
-      <c r="O129">
-        <v>3.3</v>
-      </c>
-      <c r="P129">
-        <v>1.533</v>
-      </c>
       <c r="Q129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R129">
+        <v>2.025</v>
+      </c>
+      <c r="S129">
         <v>1.775</v>
       </c>
-      <c r="S129">
-        <v>2.025</v>
-      </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
+        <v>1.975</v>
+      </c>
+      <c r="V129">
         <v>1.825</v>
       </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6621809</v>
+        <v>6621808</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45075.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L136">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M136">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N136">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P136">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6621808</v>
+        <v>6621809</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45075.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L137">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M137">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N137">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O137">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6728811</v>
+        <v>6728806</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,40 +13450,40 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L146">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N146">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O146">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P146">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R146">
         <v>1.85</v>
@@ -13495,31 +13495,31 @@
         <v>2</v>
       </c>
       <c r="U146">
+        <v>1.875</v>
+      </c>
+      <c r="V146">
         <v>1.925</v>
       </c>
-      <c r="V146">
-        <v>1.875</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
         <v>0.925</v>
-      </c>
-      <c r="AC146">
-        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6728745</v>
+        <v>6728811</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,73 +13539,73 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
         <v>3</v>
       </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M147">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N147">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P147">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2</v>
       </c>
       <c r="U147">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z147">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6728746</v>
+        <v>6728809</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N148">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O148">
         <v>3.2</v>
       </c>
       <c r="P148">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
         <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X148">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6728807</v>
+        <v>6728810</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,58 +13717,58 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L149">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M149">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N149">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P149">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W149">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6728809</v>
+        <v>6728807</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,10 +13895,10 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13910,19 +13910,19 @@
         <v>49</v>
       </c>
       <c r="K151">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M151">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N151">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O151">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
         <v>3.5</v>
@@ -13931,22 +13931,22 @@
         <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
-        <v>0.909</v>
+        <v>0.833</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13955,13 +13955,13 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6728810</v>
+        <v>6728746</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,40 +13984,40 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>48</v>
+      </c>
+      <c r="K152">
+        <v>2.5</v>
+      </c>
+      <c r="L152">
         <v>3</v>
       </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152" t="s">
-        <v>49</v>
-      </c>
-      <c r="K152">
+      <c r="M152">
+        <v>2.6</v>
+      </c>
+      <c r="N152">
+        <v>3.2</v>
+      </c>
+      <c r="O152">
+        <v>3.2</v>
+      </c>
+      <c r="P152">
         <v>2.1</v>
       </c>
-      <c r="L152">
-        <v>2.9</v>
-      </c>
-      <c r="M152">
-        <v>3.4</v>
-      </c>
-      <c r="N152">
-        <v>2.25</v>
-      </c>
-      <c r="O152">
-        <v>2.9</v>
-      </c>
-      <c r="P152">
-        <v>3.1</v>
-      </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
         <v>1.975</v>
@@ -14026,7 +14026,7 @@
         <v>1.825</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
         <v>1.975</v>
@@ -14035,25 +14035,25 @@
         <v>1.825</v>
       </c>
       <c r="W152">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6728806</v>
+        <v>6728745</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,34 +14073,34 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>49</v>
       </c>
       <c r="K153">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N153">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P153">
         <v>6.5</v>
@@ -14109,22 +14109,22 @@
         <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
         <v>2</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W153">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14133,16 +14133,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC153">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6786809</v>
+        <v>6786812</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,49 +14429,49 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>48</v>
       </c>
       <c r="K157">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L157">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M157">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N157">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O157">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P157">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q157">
         <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U157">
         <v>2.025</v>
@@ -14483,7 +14483,7 @@
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
@@ -14492,13 +14492,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA157">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC157">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6786812</v>
+        <v>6786809</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,49 +14696,49 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>48</v>
       </c>
       <c r="K160">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L160">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M160">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N160">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O160">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P160">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q160">
         <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U160">
         <v>2.025</v>
@@ -14750,7 +14750,7 @@
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y160">
         <v>-1</v>
@@ -14759,13 +14759,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AB160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6786820</v>
+        <v>6786821</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,76 +14874,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K162">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M162">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="N162">
-        <v>15</v>
+        <v>1.6</v>
       </c>
       <c r="O162">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>1.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q162">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA162">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB162">
+        <v>0.45</v>
+      </c>
+      <c r="AC162">
         <v>-0.5</v>
-      </c>
-      <c r="AC162">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6786817</v>
+        <v>6786824</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,76 +14963,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M163">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N163">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O163">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R163">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T163">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X163">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6786822</v>
+        <v>6786823</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,58 +15052,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
         <v>49</v>
       </c>
       <c r="K164">
+        <v>1.666</v>
+      </c>
+      <c r="L164">
+        <v>3.3</v>
+      </c>
+      <c r="M164">
+        <v>5</v>
+      </c>
+      <c r="N164">
+        <v>1.333</v>
+      </c>
+      <c r="O164">
+        <v>4.2</v>
+      </c>
+      <c r="P164">
+        <v>8</v>
+      </c>
+      <c r="Q164">
+        <v>-1.5</v>
+      </c>
+      <c r="R164">
+        <v>1.975</v>
+      </c>
+      <c r="S164">
+        <v>1.825</v>
+      </c>
+      <c r="T164">
         <v>3</v>
       </c>
-      <c r="L164">
-        <v>2.75</v>
-      </c>
-      <c r="M164">
-        <v>2.4</v>
-      </c>
-      <c r="N164">
-        <v>2.25</v>
-      </c>
-      <c r="O164">
-        <v>2.9</v>
-      </c>
-      <c r="P164">
-        <v>3.1</v>
-      </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>2</v>
-      </c>
-      <c r="S164">
-        <v>1.8</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W164">
-        <v>1.25</v>
+        <v>0.333</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15112,13 +15112,13 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB164">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6786818</v>
+        <v>6786820</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,55 +15141,55 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
         <v>47</v>
       </c>
       <c r="K165">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L165">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="N165">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O165">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P165">
-        <v>1.333</v>
+        <v>1.2</v>
       </c>
       <c r="Q165">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R165">
+        <v>1.925</v>
+      </c>
+      <c r="S165">
         <v>1.875</v>
-      </c>
-      <c r="S165">
-        <v>1.925</v>
       </c>
       <c r="T165">
         <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15198,19 +15198,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.333</v>
+        <v>0.2</v>
       </c>
       <c r="Z165">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
+        <v>0.875</v>
+      </c>
+      <c r="AB165">
         <v>-0.5</v>
       </c>
-      <c r="AB165">
-        <v>0.95</v>
-      </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6786823</v>
+        <v>6786819</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
         <v>3</v>
       </c>
-      <c r="I166">
-        <v>2</v>
-      </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="M166">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N166">
-        <v>1.333</v>
+        <v>5.75</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R166">
+        <v>1.925</v>
+      </c>
+      <c r="S166">
+        <v>1.875</v>
+      </c>
+      <c r="T166">
+        <v>2.75</v>
+      </c>
+      <c r="U166">
         <v>1.975</v>
       </c>
-      <c r="S166">
+      <c r="V166">
         <v>1.825</v>
       </c>
-      <c r="T166">
-        <v>3</v>
-      </c>
-      <c r="U166">
-        <v>2.025</v>
-      </c>
-      <c r="V166">
-        <v>1.775</v>
-      </c>
       <c r="W166">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB166">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6786819</v>
+        <v>6786818</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,13 +15319,13 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167">
         <v>3</v>
@@ -15334,40 +15334,40 @@
         <v>47</v>
       </c>
       <c r="K167">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="L167">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="M167">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="N167">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P167">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q167">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R167">
+        <v>1.875</v>
+      </c>
+      <c r="S167">
         <v>1.925</v>
       </c>
-      <c r="S167">
-        <v>1.875</v>
-      </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15376,19 +15376,19 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA167">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB167">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6786824</v>
+        <v>6786822</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,58 +15408,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L168">
+        <v>2.75</v>
+      </c>
+      <c r="M168">
+        <v>2.4</v>
+      </c>
+      <c r="N168">
+        <v>2.25</v>
+      </c>
+      <c r="O168">
         <v>2.9</v>
       </c>
-      <c r="M168">
-        <v>3.4</v>
-      </c>
-      <c r="N168">
-        <v>1.533</v>
-      </c>
-      <c r="O168">
-        <v>3.6</v>
-      </c>
       <c r="P168">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q168">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
-        <v>0.5329999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15468,13 +15468,13 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6786821</v>
+        <v>6786817</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,40 +15497,40 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K169">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L169">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M169">
+        <v>3.75</v>
+      </c>
+      <c r="N169">
+        <v>2.6</v>
+      </c>
+      <c r="O169">
+        <v>2.8</v>
+      </c>
+      <c r="P169">
         <v>2.875</v>
       </c>
-      <c r="N169">
-        <v>1.6</v>
-      </c>
-      <c r="O169">
-        <v>3.6</v>
-      </c>
-      <c r="P169">
-        <v>5.25</v>
-      </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R169">
         <v>1.775</v>
@@ -15539,34 +15539,34 @@
         <v>2.025</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7112127</v>
+        <v>7112128</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45171.6875</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K180">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L180">
         <v>2.75</v>
       </c>
       <c r="M180">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N180">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O180">
+        <v>2.7</v>
+      </c>
+      <c r="P180">
         <v>2.75</v>
       </c>
-      <c r="P180">
-        <v>2.25</v>
-      </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>1.8</v>
+      </c>
+      <c r="V180">
+        <v>2</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
         <v>1.75</v>
       </c>
-      <c r="U180">
-        <v>1.75</v>
-      </c>
-      <c r="V180">
-        <v>2.05</v>
-      </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
-      <c r="X180">
-        <v>1.75</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
       <c r="Z180">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC180">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7112128</v>
+        <v>7112127</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45171.6875</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K181">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L181">
         <v>2.75</v>
       </c>
       <c r="M181">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N181">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O181">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P181">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y181">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA181">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7112130</v>
+        <v>7112131</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L183">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M183">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N183">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O183">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
         <v>4.5</v>
       </c>
       <c r="Q183">
+        <v>-0.75</v>
+      </c>
+      <c r="R183">
+        <v>1.875</v>
+      </c>
+      <c r="S183">
+        <v>1.925</v>
+      </c>
+      <c r="T183">
+        <v>2.25</v>
+      </c>
+      <c r="U183">
+        <v>2.025</v>
+      </c>
+      <c r="V183">
+        <v>1.775</v>
+      </c>
+      <c r="W183">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>0.4375</v>
+      </c>
+      <c r="AA183">
         <v>-0.5</v>
       </c>
-      <c r="R183">
-        <v>1.8</v>
-      </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
-      <c r="T183">
-        <v>1.75</v>
-      </c>
-      <c r="U183">
-        <v>1.825</v>
-      </c>
-      <c r="V183">
-        <v>1.975</v>
-      </c>
-      <c r="W183">
-        <v>-1</v>
-      </c>
-      <c r="X183">
-        <v>2.1</v>
-      </c>
-      <c r="Y183">
-        <v>-1</v>
-      </c>
-      <c r="Z183">
-        <v>-1</v>
-      </c>
-      <c r="AA183">
-        <v>1</v>
-      </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7112131</v>
+        <v>7112130</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M184">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N184">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P184">
         <v>4.5</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB184">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7263824</v>
+        <v>7263823</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="s">
+        <v>48</v>
+      </c>
+      <c r="K204">
+        <v>2.2</v>
+      </c>
+      <c r="L204">
+        <v>2.875</v>
+      </c>
+      <c r="M204">
+        <v>3.2</v>
+      </c>
+      <c r="N204">
+        <v>1.909</v>
+      </c>
+      <c r="O204">
         <v>3</v>
       </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="J204" t="s">
-        <v>49</v>
-      </c>
-      <c r="K204">
-        <v>2.25</v>
-      </c>
-      <c r="L204">
-        <v>2.9</v>
-      </c>
-      <c r="M204">
-        <v>3.1</v>
-      </c>
-      <c r="N204">
-        <v>2</v>
-      </c>
-      <c r="O204">
-        <v>2.9</v>
-      </c>
       <c r="P204">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7263823</v>
+        <v>7263824</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K205">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L205">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M205">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O205">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P205">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T205">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X205">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7287211</v>
+        <v>7287222</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45207.59375</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>49</v>
       </c>
       <c r="K215">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L215">
+        <v>2.9</v>
+      </c>
+      <c r="M215">
+        <v>2.3</v>
+      </c>
+      <c r="N215">
         <v>3.6</v>
       </c>
-      <c r="M215">
-        <v>6</v>
-      </c>
-      <c r="N215">
-        <v>1.3</v>
-      </c>
       <c r="O215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P215">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W215">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,13 +19651,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7287222</v>
+        <v>7287211</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45207.59375</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H216">
         <v>3</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L216">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M216">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N216">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P216">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S216">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,13 +19740,13 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7500977</v>
+        <v>7500976</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,46 +22083,46 @@
         <v>45256.5</v>
       </c>
       <c r="F243" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G243" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L243">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M243">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N243">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O243">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P243">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q243">
         <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S243">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T243">
         <v>2</v>
@@ -22134,25 +22134,25 @@
         <v>1.8</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X243">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA243">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7500976</v>
+        <v>7500977</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,46 +22172,46 @@
         <v>45256.5</v>
       </c>
       <c r="F244" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H244">
         <v>1</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K244">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L244">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M244">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N244">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O244">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P244">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q244">
         <v>-0.25</v>
       </c>
       <c r="R244">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S244">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T244">
         <v>2</v>
@@ -22223,25 +22223,25 @@
         <v>1.8</v>
       </c>
       <c r="W244">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC244">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -25186,7 +25186,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7641577</v>
+        <v>7641558</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25198,73 +25198,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G278" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K278">
+        <v>1.444</v>
+      </c>
+      <c r="L278">
+        <v>3.75</v>
+      </c>
+      <c r="M278">
+        <v>6.5</v>
+      </c>
+      <c r="N278">
+        <v>1.444</v>
+      </c>
+      <c r="O278">
+        <v>4</v>
+      </c>
+      <c r="P278">
+        <v>5.75</v>
+      </c>
+      <c r="Q278">
+        <v>-1</v>
+      </c>
+      <c r="R278">
+        <v>1.8</v>
+      </c>
+      <c r="S278">
+        <v>2</v>
+      </c>
+      <c r="T278">
         <v>2.25</v>
       </c>
-      <c r="L278">
-        <v>3</v>
-      </c>
-      <c r="M278">
-        <v>3</v>
-      </c>
-      <c r="N278">
-        <v>2.3</v>
-      </c>
-      <c r="O278">
-        <v>2.9</v>
-      </c>
-      <c r="P278">
-        <v>2.9</v>
-      </c>
-      <c r="Q278">
-        <v>-0.25</v>
-      </c>
-      <c r="R278">
-        <v>2</v>
-      </c>
-      <c r="S278">
-        <v>1.8</v>
-      </c>
-      <c r="T278">
-        <v>2</v>
-      </c>
       <c r="U278">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V278">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA278">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25275,7 +25275,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7641558</v>
+        <v>7641577</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25287,73 +25287,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F279" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>2</v>
+      </c>
+      <c r="J279" t="s">
+        <v>47</v>
+      </c>
+      <c r="K279">
+        <v>2.25</v>
+      </c>
+      <c r="L279">
         <v>3</v>
       </c>
-      <c r="I279">
-        <v>1</v>
-      </c>
-      <c r="J279" t="s">
-        <v>49</v>
-      </c>
-      <c r="K279">
-        <v>1.444</v>
-      </c>
-      <c r="L279">
-        <v>3.75</v>
-      </c>
       <c r="M279">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N279">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O279">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P279">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q279">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R279">
+        <v>2</v>
+      </c>
+      <c r="S279">
         <v>1.8</v>
       </c>
-      <c r="S279">
-        <v>2</v>
-      </c>
       <c r="T279">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U279">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V279">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W279">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z279">
+        <v>-1</v>
+      </c>
+      <c r="AA279">
         <v>0.8</v>
       </c>
-      <c r="AA279">
-        <v>-1</v>
-      </c>
       <c r="AB279">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -26343,7 +26343,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7781916</v>
+        <v>7781917</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26355,16 +26355,16 @@
         <v>45329.5</v>
       </c>
       <c r="F291" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G291" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H291">
         <v>1</v>
       </c>
       <c r="I291">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J291" t="s">
         <v>47</v>
@@ -26379,31 +26379,31 @@
         <v>3.4</v>
       </c>
       <c r="N291">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O291">
+        <v>3.1</v>
+      </c>
+      <c r="P291">
         <v>3</v>
       </c>
-      <c r="P291">
-        <v>2.9</v>
-      </c>
       <c r="Q291">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S291">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T291">
         <v>2</v>
       </c>
       <c r="U291">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V291">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W291">
         <v>-1</v>
@@ -26412,16 +26412,16 @@
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>1.075</v>
+        <v>0.875</v>
       </c>
       <c r="AB291">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26432,7 +26432,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7781917</v>
+        <v>7781916</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26444,16 +26444,16 @@
         <v>45329.5</v>
       </c>
       <c r="F292" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G292" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H292">
         <v>1</v>
       </c>
       <c r="I292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J292" t="s">
         <v>47</v>
@@ -26468,31 +26468,31 @@
         <v>3.4</v>
       </c>
       <c r="N292">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O292">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P292">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q292">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R292">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S292">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T292">
         <v>2</v>
       </c>
       <c r="U292">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V292">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W292">
         <v>-1</v>
@@ -26501,16 +26501,16 @@
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.875</v>
+        <v>1.075</v>
       </c>
       <c r="AB292">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7781920</v>
+        <v>7781933</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,76 +26800,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G296" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296" t="s">
+        <v>49</v>
+      </c>
+      <c r="K296">
+        <v>3.6</v>
+      </c>
+      <c r="L296">
         <v>3</v>
       </c>
-      <c r="J296" t="s">
-        <v>47</v>
-      </c>
-      <c r="K296">
-        <v>4.333</v>
-      </c>
-      <c r="L296">
+      <c r="M296">
+        <v>2</v>
+      </c>
+      <c r="N296">
+        <v>4.5</v>
+      </c>
+      <c r="O296">
+        <v>3.3</v>
+      </c>
+      <c r="P296">
+        <v>1.7</v>
+      </c>
+      <c r="Q296">
+        <v>0.75</v>
+      </c>
+      <c r="R296">
+        <v>1.875</v>
+      </c>
+      <c r="S296">
+        <v>1.925</v>
+      </c>
+      <c r="T296">
+        <v>2</v>
+      </c>
+      <c r="U296">
+        <v>1.75</v>
+      </c>
+      <c r="V296">
+        <v>2.05</v>
+      </c>
+      <c r="W296">
         <v>3.5</v>
       </c>
-      <c r="M296">
-        <v>1.666</v>
-      </c>
-      <c r="N296">
-        <v>7</v>
-      </c>
-      <c r="O296">
-        <v>4.2</v>
-      </c>
-      <c r="P296">
-        <v>1.363</v>
-      </c>
-      <c r="Q296">
-        <v>1.25</v>
-      </c>
-      <c r="R296">
-        <v>1.85</v>
-      </c>
-      <c r="S296">
-        <v>1.95</v>
-      </c>
-      <c r="T296">
-        <v>2.25</v>
-      </c>
-      <c r="U296">
-        <v>1.775</v>
-      </c>
-      <c r="V296">
-        <v>2.025</v>
-      </c>
-      <c r="W296">
-        <v>-1</v>
-      </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA296">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7781933</v>
+        <v>7781920</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,76 +26889,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J297" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K297">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L297">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M297">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N297">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O297">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P297">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="Q297">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R297">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S297">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T297">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V297">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W297">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z297">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC297">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7781923</v>
+        <v>7781922</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,73 +27067,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G299" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J299" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K299">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L299">
+        <v>2.875</v>
+      </c>
+      <c r="M299">
+        <v>2.45</v>
+      </c>
+      <c r="N299">
+        <v>2.7</v>
+      </c>
+      <c r="O299">
+        <v>2.5</v>
+      </c>
+      <c r="P299">
         <v>3</v>
       </c>
-      <c r="M299">
-        <v>4.333</v>
-      </c>
-      <c r="N299">
-        <v>2.05</v>
-      </c>
-      <c r="O299">
-        <v>3</v>
-      </c>
-      <c r="P299">
-        <v>3.8</v>
-      </c>
       <c r="Q299">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R299">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S299">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T299">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U299">
+        <v>2.025</v>
+      </c>
+      <c r="V299">
         <v>1.775</v>
       </c>
-      <c r="V299">
-        <v>2.025</v>
-      </c>
       <c r="W299">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z299">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB299">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC299">
         <v>-1</v>
@@ -27144,7 +27144,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7781922</v>
+        <v>7781923</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27156,73 +27156,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G300" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K300">
+        <v>1.95</v>
+      </c>
+      <c r="L300">
         <v>3</v>
       </c>
-      <c r="L300">
-        <v>2.875</v>
-      </c>
       <c r="M300">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N300">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O300">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P300">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q300">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R300">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S300">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T300">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U300">
+        <v>1.775</v>
+      </c>
+      <c r="V300">
         <v>2.025</v>
       </c>
-      <c r="V300">
-        <v>1.775</v>
-      </c>
       <c r="W300">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA300">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC300">
         <v>-1</v>
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7781925</v>
+        <v>7781934</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45333.5</v>
       </c>
       <c r="F301" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G301" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301">
         <v>1</v>
       </c>
       <c r="J301" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K301">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="L301">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M301">
+        <v>1.85</v>
+      </c>
+      <c r="N301">
         <v>4.2</v>
       </c>
-      <c r="N301">
-        <v>2.2</v>
-      </c>
       <c r="O301">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P301">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R301">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S301">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T301">
         <v>2.25</v>
       </c>
       <c r="U301">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W301">
         <v>-1</v>
       </c>
       <c r="X301">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z301">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA301">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB301">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7781934</v>
+        <v>7781924</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45333.5</v>
       </c>
       <c r="F302" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G302" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K302">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="L302">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M302">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N302">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O302">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P302">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="Q302">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R302">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S302">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T302">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V302">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA302">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
         <v>-1</v>
       </c>
       <c r="AC302">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7781924</v>
+        <v>7781925</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,76 +27423,76 @@
         <v>45333.5</v>
       </c>
       <c r="F303" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G303" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H303">
         <v>1</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K303">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="L303">
+        <v>3.75</v>
+      </c>
+      <c r="M303">
+        <v>4.2</v>
+      </c>
+      <c r="N303">
+        <v>2.2</v>
+      </c>
+      <c r="O303">
+        <v>3</v>
+      </c>
+      <c r="P303">
         <v>3.2</v>
       </c>
-      <c r="M303">
-        <v>2.375</v>
-      </c>
-      <c r="N303">
-        <v>2.5</v>
-      </c>
-      <c r="O303">
-        <v>2.875</v>
-      </c>
-      <c r="P303">
-        <v>2.9</v>
-      </c>
       <c r="Q303">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R303">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S303">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T303">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U303">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V303">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W303">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB303">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC303">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -29663,16 +29663,16 @@
         <v>4.75</v>
       </c>
       <c r="N328">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O328">
         <v>4</v>
       </c>
       <c r="P328">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q328">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R328">
         <v>2</v>
@@ -29684,10 +29684,10 @@
         <v>2.25</v>
       </c>
       <c r="U328">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V328">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W328">
         <v>0</v>
@@ -29737,31 +29737,31 @@
         <v>2.875</v>
       </c>
       <c r="N329">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O329">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P329">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="Q329">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R329">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S329">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T329">
         <v>2</v>
       </c>
       <c r="U329">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V329">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29823,33 +29823,255 @@
         <v>-0.75</v>
       </c>
       <c r="R330">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S330">
+        <v>1.825</v>
+      </c>
+      <c r="T330">
+        <v>2</v>
+      </c>
+      <c r="U330">
+        <v>1.825</v>
+      </c>
+      <c r="V330">
+        <v>1.975</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>7849150</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" t="s">
+        <v>28</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45347.5</v>
+      </c>
+      <c r="F331" t="s">
+        <v>30</v>
+      </c>
+      <c r="G331" t="s">
+        <v>43</v>
+      </c>
+      <c r="K331">
+        <v>1.909</v>
+      </c>
+      <c r="L331">
+        <v>3.2</v>
+      </c>
+      <c r="M331">
+        <v>3.6</v>
+      </c>
+      <c r="N331">
+        <v>2.05</v>
+      </c>
+      <c r="O331">
+        <v>3.2</v>
+      </c>
+      <c r="P331">
+        <v>3.3</v>
+      </c>
+      <c r="Q331">
+        <v>-0.25</v>
+      </c>
+      <c r="R331">
+        <v>1.775</v>
+      </c>
+      <c r="S331">
+        <v>2.025</v>
+      </c>
+      <c r="T331">
+        <v>2</v>
+      </c>
+      <c r="U331">
+        <v>2</v>
+      </c>
+      <c r="V331">
         <v>1.8</v>
       </c>
-      <c r="T330">
-        <v>2</v>
-      </c>
-      <c r="U330">
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <v>0</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>7849151</v>
+      </c>
+      <c r="C332" t="s">
+        <v>28</v>
+      </c>
+      <c r="D332" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45347.58333333334</v>
+      </c>
+      <c r="F332" t="s">
+        <v>42</v>
+      </c>
+      <c r="G332" t="s">
+        <v>39</v>
+      </c>
+      <c r="K332">
+        <v>1.5</v>
+      </c>
+      <c r="L332">
+        <v>3.6</v>
+      </c>
+      <c r="M332">
+        <v>6</v>
+      </c>
+      <c r="N332">
+        <v>1.285</v>
+      </c>
+      <c r="O332">
+        <v>4</v>
+      </c>
+      <c r="P332">
+        <v>11</v>
+      </c>
+      <c r="Q332">
+        <v>-1.5</v>
+      </c>
+      <c r="R332">
+        <v>1.95</v>
+      </c>
+      <c r="S332">
         <v>1.85</v>
       </c>
-      <c r="V330">
+      <c r="T332">
+        <v>2.5</v>
+      </c>
+      <c r="U332">
+        <v>1.85</v>
+      </c>
+      <c r="V332">
         <v>1.95</v>
       </c>
-      <c r="W330">
-        <v>0</v>
-      </c>
-      <c r="X330">
-        <v>0</v>
-      </c>
-      <c r="Y330">
-        <v>0</v>
-      </c>
-      <c r="Z330">
-        <v>0</v>
-      </c>
-      <c r="AA330">
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>7849152</v>
+      </c>
+      <c r="C333" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45347.66666666666</v>
+      </c>
+      <c r="F333" t="s">
+        <v>33</v>
+      </c>
+      <c r="G333" t="s">
+        <v>44</v>
+      </c>
+      <c r="K333">
+        <v>1.727</v>
+      </c>
+      <c r="L333">
+        <v>3.4</v>
+      </c>
+      <c r="M333">
+        <v>4.2</v>
+      </c>
+      <c r="N333">
+        <v>1.6</v>
+      </c>
+      <c r="O333">
+        <v>3.6</v>
+      </c>
+      <c r="P333">
+        <v>4.75</v>
+      </c>
+      <c r="Q333">
+        <v>-0.75</v>
+      </c>
+      <c r="R333">
+        <v>1.825</v>
+      </c>
+      <c r="S333">
+        <v>1.975</v>
+      </c>
+      <c r="T333">
+        <v>2.25</v>
+      </c>
+      <c r="U333">
+        <v>2.025</v>
+      </c>
+      <c r="V333">
+        <v>1.775</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
         <v>0</v>
       </c>
     </row>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6170358</v>
+        <v>6170357</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>44951.5</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="L43">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M43">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="N43">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O43">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6170357</v>
+        <v>6170358</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,73 +4372,73 @@
         <v>44951.5</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M44">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="N44">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P44">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q44">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
         <v>1.8</v>
       </c>
-      <c r="S44">
-        <v>2</v>
-      </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W44">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z44">
+        <v>-1</v>
+      </c>
+      <c r="AA44">
         <v>0.8</v>
       </c>
-      <c r="AA44">
-        <v>-1</v>
-      </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6170370</v>
+        <v>6170371</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>44955.6875</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N56">
+        <v>2.45</v>
+      </c>
+      <c r="O56">
+        <v>2.55</v>
+      </c>
+      <c r="P56">
+        <v>3.2</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>1.7</v>
+      </c>
+      <c r="S56">
+        <v>2.1</v>
+      </c>
+      <c r="T56">
+        <v>1.5</v>
+      </c>
+      <c r="U56">
+        <v>1.775</v>
+      </c>
+      <c r="V56">
+        <v>2.025</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
         <v>2.2</v>
       </c>
-      <c r="O56">
-        <v>2.875</v>
-      </c>
-      <c r="P56">
-        <v>3.3</v>
-      </c>
-      <c r="Q56">
-        <v>-0.25</v>
-      </c>
-      <c r="R56">
-        <v>1.95</v>
-      </c>
-      <c r="S56">
-        <v>1.85</v>
-      </c>
-      <c r="T56">
-        <v>1.75</v>
-      </c>
-      <c r="U56">
-        <v>1.75</v>
-      </c>
-      <c r="V56">
-        <v>2.05</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
-      <c r="X56">
-        <v>1.875</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.425</v>
+        <v>1.1</v>
       </c>
       <c r="AB56">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6170371</v>
+        <v>6170370</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>44955.6875</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57">
+        <v>1.85</v>
+      </c>
+      <c r="L57">
+        <v>3.25</v>
+      </c>
+      <c r="M57">
+        <v>3.75</v>
+      </c>
+      <c r="N57">
+        <v>2.2</v>
+      </c>
+      <c r="O57">
         <v>2.875</v>
       </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="M57">
-        <v>2.3</v>
-      </c>
-      <c r="N57">
-        <v>2.45</v>
-      </c>
-      <c r="O57">
-        <v>2.55</v>
-      </c>
       <c r="P57">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U57">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V57">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>1.1</v>
+        <v>0.425</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC57">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6325809</v>
+        <v>6325983</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>44997.6875</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L87">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N87">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O87">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P87">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T87">
         <v>1.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6325983</v>
+        <v>6325809</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>44997.6875</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M88">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="O88">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P88">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
         <v>1.75</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X88">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6472151</v>
+        <v>6472142</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L91">
+        <v>2.75</v>
+      </c>
+      <c r="M91">
+        <v>3.2</v>
+      </c>
+      <c r="N91">
+        <v>2.25</v>
+      </c>
+      <c r="O91">
+        <v>2.75</v>
+      </c>
+      <c r="P91">
         <v>3.5</v>
       </c>
-      <c r="M91">
-        <v>1.6</v>
-      </c>
-      <c r="N91">
-        <v>3.4</v>
-      </c>
-      <c r="O91">
-        <v>2.875</v>
-      </c>
-      <c r="P91">
-        <v>2.15</v>
-      </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
+        <v>1.825</v>
+      </c>
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.825</v>
-      </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>2.025</v>
-      </c>
-      <c r="V91">
-        <v>1.775</v>
-      </c>
       <c r="W91">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
+        <v>-0.5</v>
+      </c>
+      <c r="AA91">
+        <v>0.4375</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6472143</v>
+        <v>6472151</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L92">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
+        <v>1.6</v>
+      </c>
+      <c r="N92">
+        <v>3.4</v>
+      </c>
+      <c r="O92">
         <v>2.875</v>
       </c>
-      <c r="N92">
-        <v>3</v>
-      </c>
-      <c r="O92">
-        <v>2.75</v>
-      </c>
       <c r="P92">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="T92">
         <v>2</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA92">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6472142</v>
+        <v>6472143</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45019.79166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L93">
         <v>2.75</v>
       </c>
       <c r="M93">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N93">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O93">
         <v>2.75</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T93">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.4375</v>
+        <v>0.7</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6472145</v>
+        <v>6472144</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L94">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N94">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P94">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T94">
         <v>1.75</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y94">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
+        <v>0.375</v>
+      </c>
+      <c r="AB94">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6472144</v>
+        <v>6472145</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45020.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M95">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O95">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P95">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
         <v>1.75</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6484614</v>
+        <v>6472149</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K99">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M99">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N99">
+        <v>2.5</v>
+      </c>
+      <c r="O99">
+        <v>2.6</v>
+      </c>
+      <c r="P99">
+        <v>3.1</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>1.7</v>
+      </c>
+      <c r="S99">
         <v>2.1</v>
-      </c>
-      <c r="O99">
-        <v>2.875</v>
-      </c>
-      <c r="P99">
-        <v>3.5</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.875</v>
-      </c>
-      <c r="S99">
-        <v>1.925</v>
       </c>
       <c r="T99">
         <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y99">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6472147</v>
+        <v>6484614</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L100">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N100">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
         <v>1.75</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z100">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6472149</v>
+        <v>6472147</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45023.79166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L101">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M101">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O101">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P101">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
+        <v>2.1</v>
+      </c>
+      <c r="S101">
         <v>1.7</v>
-      </c>
-      <c r="S101">
-        <v>2.1</v>
       </c>
       <c r="T101">
         <v>1.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X101">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6504364</v>
+        <v>6504363</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N108">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6504363</v>
+        <v>6504364</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N109">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O109">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P109">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y109">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6544643</v>
+        <v>6543366</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,58 +10780,58 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
         <v>49</v>
       </c>
       <c r="K116">
+        <v>3.2</v>
+      </c>
+      <c r="L116">
+        <v>2.8</v>
+      </c>
+      <c r="M116">
+        <v>2.25</v>
+      </c>
+      <c r="N116">
         <v>2.1</v>
       </c>
-      <c r="L116">
-        <v>2.75</v>
-      </c>
-      <c r="M116">
-        <v>3.6</v>
-      </c>
-      <c r="N116">
-        <v>2.05</v>
-      </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P116">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.675</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="W116">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10840,16 +10840,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC116">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6543366</v>
+        <v>6543367</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,34 +10869,34 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M117">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N117">
         <v>2.1</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
         <v>3.25</v>
@@ -10905,40 +10905,40 @@
         <v>-0.25</v>
       </c>
       <c r="R117">
+        <v>1.875</v>
+      </c>
+      <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
       </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>2.025</v>
-      </c>
-      <c r="V117">
-        <v>1.775</v>
-      </c>
       <c r="W117">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6543367</v>
+        <v>6544643</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,76 +10958,76 @@
         <v>45036.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L118">
+        <v>2.75</v>
+      </c>
+      <c r="M118">
+        <v>3.6</v>
+      </c>
+      <c r="N118">
+        <v>2.05</v>
+      </c>
+      <c r="O118">
         <v>2.9</v>
       </c>
-      <c r="M118">
-        <v>2.3</v>
-      </c>
-      <c r="N118">
-        <v>2.1</v>
-      </c>
-      <c r="O118">
-        <v>3.1</v>
-      </c>
       <c r="P118">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q118">
         <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X118">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.4</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6621806</v>
+        <v>6621804</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,37 +12204,37 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>48</v>
       </c>
       <c r="K132">
+        <v>2.6</v>
+      </c>
+      <c r="L132">
+        <v>2.875</v>
+      </c>
+      <c r="M132">
+        <v>2.6</v>
+      </c>
+      <c r="N132">
         <v>2.05</v>
       </c>
-      <c r="L132">
-        <v>2.95</v>
-      </c>
-      <c r="M132">
-        <v>3.5</v>
-      </c>
-      <c r="N132">
-        <v>2</v>
-      </c>
       <c r="O132">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P132">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
@@ -12246,19 +12246,19 @@
         <v>2.05</v>
       </c>
       <c r="T132">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="Y132">
         <v>-1</v>
@@ -12270,10 +12270,10 @@
         <v>0.5249999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6621807</v>
+        <v>6621805</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,40 +12293,40 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M133">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="N133">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P133">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
         <v>2.025</v>
@@ -12338,28 +12338,28 @@
         <v>2</v>
       </c>
       <c r="U133">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6621804</v>
+        <v>6621806</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,37 +12382,37 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>48</v>
       </c>
       <c r="K134">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L134">
-        <v>2.875</v>
+        <v>2.95</v>
       </c>
       <c r="M134">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N134">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O134">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P134">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q134">
         <v>-0.25</v>
@@ -12424,19 +12424,19 @@
         <v>2.05</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="Y134">
         <v>-1</v>
@@ -12448,10 +12448,10 @@
         <v>0.5249999999999999</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC134">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6621805</v>
+        <v>6621807</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,40 +12471,40 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L135">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N135">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P135">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
         <v>2.025</v>
@@ -12516,28 +12516,28 @@
         <v>2</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB135">
-        <v>1</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6760260</v>
+        <v>6760261</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,46 +12738,46 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L138">
         <v>3</v>
       </c>
       <c r="M138">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N138">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="P138">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q138">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T138">
         <v>2</v>
@@ -12792,22 +12792,22 @@
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6760259</v>
+        <v>6761305</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,19 +12827,19 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K139">
         <v>2.5</v>
@@ -12851,52 +12851,52 @@
         <v>2.875</v>
       </c>
       <c r="N139">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O139">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA139">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6757667</v>
+        <v>6756722</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,13 +13005,13 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -13020,43 +13020,43 @@
         <v>49</v>
       </c>
       <c r="K141">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L141">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="N141">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O141">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.85</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
         <v>1.875</v>
       </c>
-      <c r="S141">
+      <c r="V141">
         <v>1.925</v>
       </c>
-      <c r="T141">
-        <v>2</v>
-      </c>
-      <c r="U141">
-        <v>2</v>
-      </c>
-      <c r="V141">
-        <v>1.8</v>
-      </c>
       <c r="W141">
-        <v>0.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13065,16 +13065,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6756722</v>
+        <v>6760259</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M142">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="N142">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="O142">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P142">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U142">
+        <v>1.925</v>
+      </c>
+      <c r="V142">
         <v>1.875</v>
       </c>
-      <c r="V142">
-        <v>1.925</v>
-      </c>
       <c r="W142">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6760261</v>
+        <v>6757667</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N143">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O143">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S143">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T143">
         <v>2</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA143">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6761305</v>
+        <v>6760260</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45091.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M145">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N145">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
         <v>2</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6728806</v>
+        <v>6728808</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="L146">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M146">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="N146">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="O146">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
         <v>2</v>
       </c>
       <c r="U146">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6728811</v>
+        <v>6728810</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,73 +13539,73 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L147">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M147">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N147">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O147">
         <v>2.9</v>
       </c>
       <c r="P147">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
         <v>2</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6728810</v>
+        <v>6728745</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,58 +13717,58 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>3</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
         <v>49</v>
       </c>
       <c r="K149">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L149">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N149">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O149">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T149">
         <v>2</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W149">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6728808</v>
+        <v>6728746</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K150">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M150">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="N150">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P150">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="Q150">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
+        <v>1.975</v>
+      </c>
+      <c r="V150">
         <v>1.825</v>
       </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y150">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
+        <v>0.4875</v>
+      </c>
+      <c r="AA150">
         <v>-0.5</v>
       </c>
-      <c r="AA150">
-        <v>0.45</v>
-      </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6728807</v>
+        <v>6728806</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,49 +13895,49 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>49</v>
       </c>
       <c r="K151">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L151">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N151">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O151">
         <v>3.5</v>
       </c>
       <c r="P151">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U151">
         <v>1.875</v>
@@ -13946,7 +13946,7 @@
         <v>1.925</v>
       </c>
       <c r="W151">
-        <v>0.833</v>
+        <v>0.5</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13955,16 +13955,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6728746</v>
+        <v>6728811</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L152">
+        <v>2.8</v>
+      </c>
+      <c r="M152">
         <v>3</v>
       </c>
-      <c r="M152">
-        <v>2.6</v>
-      </c>
       <c r="N152">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P152">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z152">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6728745</v>
+        <v>6728807</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,13 +14073,13 @@
         <v>45094.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -14088,43 +14088,43 @@
         <v>49</v>
       </c>
       <c r="K153">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L153">
+        <v>3.2</v>
+      </c>
+      <c r="M153">
         <v>3.6</v>
       </c>
-      <c r="M153">
-        <v>5</v>
-      </c>
       <c r="N153">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O153">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14133,13 +14133,13 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6786813</v>
+        <v>6786810</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,46 +14162,46 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K154">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L154">
+        <v>3.6</v>
+      </c>
+      <c r="M154">
+        <v>7</v>
+      </c>
+      <c r="N154">
+        <v>1.615</v>
+      </c>
+      <c r="O154">
         <v>3</v>
       </c>
-      <c r="M154">
-        <v>2.375</v>
-      </c>
-      <c r="N154">
-        <v>2.3</v>
-      </c>
-      <c r="O154">
-        <v>2.9</v>
-      </c>
       <c r="P154">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S154">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T154">
         <v>2</v>
@@ -14213,19 +14213,19 @@
         <v>1.75</v>
       </c>
       <c r="W154">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB154">
         <v>-1</v>
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6786814</v>
+        <v>6786816</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,73 +14251,73 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K155">
-        <v>6.5</v>
+        <v>1.25</v>
       </c>
       <c r="L155">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M155">
-        <v>1.444</v>
+        <v>9.5</v>
       </c>
       <c r="N155">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="O155">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="P155">
-        <v>1.285</v>
+        <v>10</v>
       </c>
       <c r="Q155">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>1.85</v>
+      </c>
+      <c r="T155">
+        <v>2.5</v>
+      </c>
+      <c r="U155">
+        <v>1.975</v>
+      </c>
+      <c r="V155">
         <v>1.825</v>
       </c>
-      <c r="S155">
-        <v>1.975</v>
-      </c>
-      <c r="T155">
-        <v>2.25</v>
-      </c>
-      <c r="U155">
-        <v>1.925</v>
-      </c>
-      <c r="V155">
-        <v>1.875</v>
-      </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6786812</v>
+        <v>6786814</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L157">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M157">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N157">
+        <v>6.5</v>
+      </c>
+      <c r="O157">
+        <v>5.75</v>
+      </c>
+      <c r="P157">
+        <v>1.285</v>
+      </c>
+      <c r="Q157">
+        <v>1.25</v>
+      </c>
+      <c r="R157">
+        <v>1.825</v>
+      </c>
+      <c r="S157">
+        <v>1.975</v>
+      </c>
+      <c r="T157">
         <v>2.25</v>
       </c>
-      <c r="O157">
-        <v>3</v>
-      </c>
-      <c r="P157">
-        <v>3</v>
-      </c>
-      <c r="Q157">
-        <v>-0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.975</v>
-      </c>
-      <c r="S157">
-        <v>1.825</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
       <c r="U157">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z157">
+        <v>0.4125</v>
+      </c>
+      <c r="AA157">
         <v>-0.5</v>
       </c>
-      <c r="AA157">
-        <v>0.4125</v>
-      </c>
       <c r="AB157">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6786810</v>
+        <v>6786809</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,10 +14518,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14533,61 +14533,61 @@
         <v>48</v>
       </c>
       <c r="K158">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M158">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N158">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P158">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V158">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6786816</v>
+        <v>6786813</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,58 +14607,58 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>49</v>
       </c>
       <c r="K159">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L159">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M159">
-        <v>9.5</v>
+        <v>2.375</v>
       </c>
       <c r="N159">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P159">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q159">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S159">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W159">
-        <v>0.2849999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14667,16 +14667,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6786809</v>
+        <v>6786812</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,49 +14696,49 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>48</v>
       </c>
       <c r="K160">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L160">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M160">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N160">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O160">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P160">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q160">
         <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U160">
         <v>2.025</v>
@@ -14750,7 +14750,7 @@
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y160">
         <v>-1</v>
@@ -14759,13 +14759,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6786821</v>
+        <v>6786817</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,40 +14874,40 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L162">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M162">
+        <v>3.75</v>
+      </c>
+      <c r="N162">
+        <v>2.6</v>
+      </c>
+      <c r="O162">
+        <v>2.8</v>
+      </c>
+      <c r="P162">
         <v>2.875</v>
       </c>
-      <c r="N162">
-        <v>1.6</v>
-      </c>
-      <c r="O162">
-        <v>3.6</v>
-      </c>
-      <c r="P162">
-        <v>5.25</v>
-      </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R162">
         <v>1.775</v>
@@ -14916,34 +14916,34 @@
         <v>2.025</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB162">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6786823</v>
+        <v>6786822</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,58 +15052,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J164" t="s">
         <v>49</v>
       </c>
       <c r="K164">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L164">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="M164">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N164">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="O164">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P164">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q164">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
-        <v>0.333</v>
+        <v>1.25</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15112,13 +15112,13 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA164">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6786820</v>
+        <v>6786818</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,55 +15141,55 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
         <v>47</v>
       </c>
       <c r="K165">
+        <v>9</v>
+      </c>
+      <c r="L165">
+        <v>3.8</v>
+      </c>
+      <c r="M165">
+        <v>1.363</v>
+      </c>
+      <c r="N165">
         <v>8</v>
       </c>
-      <c r="L165">
-        <v>3.4</v>
-      </c>
-      <c r="M165">
-        <v>1.444</v>
-      </c>
-      <c r="N165">
-        <v>15</v>
-      </c>
       <c r="O165">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P165">
-        <v>1.2</v>
+        <v>1.333</v>
       </c>
       <c r="Q165">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R165">
+        <v>1.875</v>
+      </c>
+      <c r="S165">
         <v>1.925</v>
-      </c>
-      <c r="S165">
-        <v>1.875</v>
       </c>
       <c r="T165">
         <v>2.25</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15198,19 +15198,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.2</v>
+        <v>0.333</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA165">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC165">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6786819</v>
+        <v>6786820</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,40 +15230,40 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
         <v>47</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="L166">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="N166">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P166">
+        <v>1.2</v>
+      </c>
+      <c r="Q166">
         <v>1.5</v>
-      </c>
-      <c r="Q166">
-        <v>1</v>
       </c>
       <c r="R166">
         <v>1.925</v>
@@ -15272,13 +15272,13 @@
         <v>1.875</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15287,7 +15287,7 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Z166">
         <v>-1</v>
@@ -15296,10 +15296,10 @@
         <v>0.875</v>
       </c>
       <c r="AB166">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6786818</v>
+        <v>6786821</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H167">
         <v>2</v>
       </c>
       <c r="I167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="L167">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="M167">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="N167">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="O167">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q167">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
       <c r="AA167">
         <v>-0.5</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6786822</v>
+        <v>6786823</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,58 +15408,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H168">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
+        <v>1.666</v>
+      </c>
+      <c r="L168">
+        <v>3.3</v>
+      </c>
+      <c r="M168">
+        <v>5</v>
+      </c>
+      <c r="N168">
+        <v>1.333</v>
+      </c>
+      <c r="O168">
+        <v>4.2</v>
+      </c>
+      <c r="P168">
+        <v>8</v>
+      </c>
+      <c r="Q168">
+        <v>-1.5</v>
+      </c>
+      <c r="R168">
+        <v>1.975</v>
+      </c>
+      <c r="S168">
+        <v>1.825</v>
+      </c>
+      <c r="T168">
         <v>3</v>
       </c>
-      <c r="L168">
-        <v>2.75</v>
-      </c>
-      <c r="M168">
-        <v>2.4</v>
-      </c>
-      <c r="N168">
-        <v>2.25</v>
-      </c>
-      <c r="O168">
-        <v>2.9</v>
-      </c>
-      <c r="P168">
-        <v>3.1</v>
-      </c>
-      <c r="Q168">
-        <v>-0.25</v>
-      </c>
-      <c r="R168">
-        <v>2</v>
-      </c>
-      <c r="S168">
-        <v>1.8</v>
-      </c>
-      <c r="T168">
-        <v>2.25</v>
-      </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W168">
-        <v>1.25</v>
+        <v>0.333</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15468,13 +15468,13 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6786817</v>
+        <v>6786819</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M169">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N169">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="O169">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R169">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S169">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
+        <v>1.975</v>
+      </c>
+      <c r="V169">
         <v>1.825</v>
       </c>
-      <c r="V169">
-        <v>1.975</v>
-      </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7112131</v>
+        <v>7112130</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K183">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L183">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M183">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N183">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O183">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P183">
         <v>4.5</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U183">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB183">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7112130</v>
+        <v>7112131</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K184">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L184">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M184">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N184">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O184">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
         <v>4.5</v>
       </c>
       <c r="Q184">
+        <v>-0.75</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>2.025</v>
+      </c>
+      <c r="V184">
+        <v>1.775</v>
+      </c>
+      <c r="W184">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
+        <v>0.4375</v>
+      </c>
+      <c r="AA184">
         <v>-0.5</v>
       </c>
-      <c r="R184">
-        <v>1.8</v>
-      </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
-      <c r="T184">
-        <v>1.75</v>
-      </c>
-      <c r="U184">
-        <v>1.825</v>
-      </c>
-      <c r="V184">
-        <v>1.975</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>2.1</v>
-      </c>
-      <c r="Y184">
-        <v>-1</v>
-      </c>
-      <c r="Z184">
-        <v>-1</v>
-      </c>
-      <c r="AA184">
-        <v>1</v>
-      </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7287222</v>
+        <v>7287211</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45207.59375</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>49</v>
       </c>
       <c r="K215">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L215">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N215">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P215">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,13 +19651,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7287211</v>
+        <v>7287222</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45207.59375</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>3</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L216">
+        <v>2.9</v>
+      </c>
+      <c r="M216">
+        <v>2.3</v>
+      </c>
+      <c r="N216">
         <v>3.6</v>
       </c>
-      <c r="M216">
-        <v>6</v>
-      </c>
-      <c r="N216">
-        <v>1.3</v>
-      </c>
       <c r="O216">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P216">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,13 +19740,13 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7500976</v>
+        <v>7500977</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,46 +22083,46 @@
         <v>45256.5</v>
       </c>
       <c r="F243" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K243">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L243">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M243">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N243">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O243">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P243">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q243">
         <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S243">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T243">
         <v>2</v>
@@ -22134,25 +22134,25 @@
         <v>1.8</v>
       </c>
       <c r="W243">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC243">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7500977</v>
+        <v>7500976</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,46 +22172,46 @@
         <v>45256.5</v>
       </c>
       <c r="F244" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G244" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H244">
         <v>1</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L244">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M244">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N244">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O244">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P244">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q244">
         <v>-0.25</v>
       </c>
       <c r="R244">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S244">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T244">
         <v>2</v>
@@ -22223,25 +22223,25 @@
         <v>1.8</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X244">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA244">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7627126</v>
+        <v>7627031</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,10 +24486,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G270" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H270">
         <v>2</v>
@@ -24501,43 +24501,43 @@
         <v>49</v>
       </c>
       <c r="K270">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L270">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M270">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N270">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O270">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P270">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q270">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R270">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S270">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T270">
         <v>1.75</v>
       </c>
       <c r="U270">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V270">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W270">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="X270">
         <v>-1</v>
@@ -24546,13 +24546,13 @@
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7627031</v>
+        <v>7627126</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,10 +24575,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G271" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H271">
         <v>2</v>
@@ -24590,43 +24590,43 @@
         <v>49</v>
       </c>
       <c r="K271">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L271">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M271">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N271">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O271">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P271">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q271">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R271">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S271">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T271">
         <v>1.75</v>
       </c>
       <c r="U271">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V271">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24635,13 +24635,13 @@
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -26254,7 +26254,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7781931</v>
+        <v>7781916</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26266,73 +26266,73 @@
         <v>45329.5</v>
       </c>
       <c r="F290" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G290" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J290" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K290">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L290">
+        <v>3.1</v>
+      </c>
+      <c r="M290">
+        <v>3.4</v>
+      </c>
+      <c r="N290">
+        <v>2.4</v>
+      </c>
+      <c r="O290">
+        <v>3</v>
+      </c>
+      <c r="P290">
         <v>2.9</v>
       </c>
-      <c r="M290">
-        <v>2.2</v>
-      </c>
-      <c r="N290">
-        <v>2.9</v>
-      </c>
-      <c r="O290">
-        <v>2.75</v>
-      </c>
-      <c r="P290">
-        <v>2.45</v>
-      </c>
       <c r="Q290">
         <v>0</v>
       </c>
       <c r="R290">
+        <v>1.725</v>
+      </c>
+      <c r="S290">
         <v>2.075</v>
       </c>
-      <c r="S290">
-        <v>1.725</v>
-      </c>
       <c r="T290">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U290">
+        <v>1.8</v>
+      </c>
+      <c r="V290">
+        <v>2</v>
+      </c>
+      <c r="W290">
+        <v>-1</v>
+      </c>
+      <c r="X290">
+        <v>-1</v>
+      </c>
+      <c r="Y290">
         <v>1.9</v>
       </c>
-      <c r="V290">
-        <v>1.9</v>
-      </c>
-      <c r="W290">
-        <v>1.9</v>
-      </c>
-      <c r="X290">
-        <v>-1</v>
-      </c>
-      <c r="Y290">
-        <v>-1</v>
-      </c>
       <c r="Z290">
+        <v>-1</v>
+      </c>
+      <c r="AA290">
         <v>1.075</v>
       </c>
-      <c r="AA290">
-        <v>-1</v>
-      </c>
       <c r="AB290">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26343,7 +26343,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7781917</v>
+        <v>7781931</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26355,73 +26355,73 @@
         <v>45329.5</v>
       </c>
       <c r="F291" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G291" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K291">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L291">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M291">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N291">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O291">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P291">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q291">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R291">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S291">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T291">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U291">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V291">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA291">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26432,7 +26432,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7781916</v>
+        <v>7781917</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26444,16 +26444,16 @@
         <v>45329.5</v>
       </c>
       <c r="F292" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G292" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H292">
         <v>1</v>
       </c>
       <c r="I292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J292" t="s">
         <v>47</v>
@@ -26468,31 +26468,31 @@
         <v>3.4</v>
       </c>
       <c r="N292">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O292">
+        <v>3.1</v>
+      </c>
+      <c r="P292">
         <v>3</v>
       </c>
-      <c r="P292">
-        <v>2.9</v>
-      </c>
       <c r="Q292">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R292">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S292">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T292">
         <v>2</v>
       </c>
       <c r="U292">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V292">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W292">
         <v>-1</v>
@@ -26501,16 +26501,16 @@
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>1.075</v>
+        <v>0.875</v>
       </c>
       <c r="AB292">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26521,7 +26521,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7781919</v>
+        <v>7781918</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26533,73 +26533,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G293" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K293">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L293">
         <v>3</v>
       </c>
       <c r="M293">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N293">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O293">
         <v>2.75</v>
       </c>
       <c r="P293">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R293">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S293">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T293">
         <v>1.75</v>
       </c>
       <c r="U293">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V293">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y293">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA293">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB293">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AC293">
         <v>-0.5</v>
@@ -26610,7 +26610,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7781918</v>
+        <v>7781919</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26622,73 +26622,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G294" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K294">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L294">
         <v>3</v>
       </c>
       <c r="M294">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N294">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O294">
         <v>2.75</v>
       </c>
       <c r="P294">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q294">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S294">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T294">
         <v>1.75</v>
       </c>
       <c r="U294">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V294">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W294">
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB294">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AC294">
         <v>-0.5</v>
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7781933</v>
+        <v>7781920</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,76 +26800,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G296" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J296" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K296">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L296">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M296">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N296">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O296">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P296">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="Q296">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R296">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T296">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U296">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V296">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W296">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z296">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB296">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC296">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7781920</v>
+        <v>7781933</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,76 +26889,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G297" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297" t="s">
+        <v>49</v>
+      </c>
+      <c r="K297">
+        <v>3.6</v>
+      </c>
+      <c r="L297">
         <v>3</v>
       </c>
-      <c r="J297" t="s">
-        <v>47</v>
-      </c>
-      <c r="K297">
-        <v>4.333</v>
-      </c>
-      <c r="L297">
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>4.5</v>
+      </c>
+      <c r="O297">
+        <v>3.3</v>
+      </c>
+      <c r="P297">
+        <v>1.7</v>
+      </c>
+      <c r="Q297">
+        <v>0.75</v>
+      </c>
+      <c r="R297">
+        <v>1.875</v>
+      </c>
+      <c r="S297">
+        <v>1.925</v>
+      </c>
+      <c r="T297">
+        <v>2</v>
+      </c>
+      <c r="U297">
+        <v>1.75</v>
+      </c>
+      <c r="V297">
+        <v>2.05</v>
+      </c>
+      <c r="W297">
         <v>3.5</v>
       </c>
-      <c r="M297">
-        <v>1.666</v>
-      </c>
-      <c r="N297">
-        <v>7</v>
-      </c>
-      <c r="O297">
-        <v>4.2</v>
-      </c>
-      <c r="P297">
-        <v>1.363</v>
-      </c>
-      <c r="Q297">
-        <v>1.25</v>
-      </c>
-      <c r="R297">
-        <v>1.85</v>
-      </c>
-      <c r="S297">
-        <v>1.95</v>
-      </c>
-      <c r="T297">
-        <v>2.25</v>
-      </c>
-      <c r="U297">
-        <v>1.775</v>
-      </c>
-      <c r="V297">
-        <v>2.025</v>
-      </c>
-      <c r="W297">
-        <v>-1</v>
-      </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7781922</v>
+        <v>7781923</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,73 +27067,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G299" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K299">
+        <v>1.95</v>
+      </c>
+      <c r="L299">
         <v>3</v>
       </c>
-      <c r="L299">
-        <v>2.875</v>
-      </c>
       <c r="M299">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N299">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O299">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P299">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q299">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S299">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T299">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U299">
+        <v>1.775</v>
+      </c>
+      <c r="V299">
         <v>2.025</v>
       </c>
-      <c r="V299">
-        <v>1.775</v>
-      </c>
       <c r="W299">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA299">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC299">
         <v>-1</v>
@@ -27144,7 +27144,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7781923</v>
+        <v>7781922</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27156,73 +27156,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G300" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K300">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L300">
+        <v>2.875</v>
+      </c>
+      <c r="M300">
+        <v>2.45</v>
+      </c>
+      <c r="N300">
+        <v>2.7</v>
+      </c>
+      <c r="O300">
+        <v>2.5</v>
+      </c>
+      <c r="P300">
         <v>3</v>
       </c>
-      <c r="M300">
-        <v>4.333</v>
-      </c>
-      <c r="N300">
-        <v>2.05</v>
-      </c>
-      <c r="O300">
-        <v>3</v>
-      </c>
-      <c r="P300">
-        <v>3.8</v>
-      </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S300">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T300">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U300">
+        <v>2.025</v>
+      </c>
+      <c r="V300">
         <v>1.775</v>
       </c>
-      <c r="V300">
-        <v>2.025</v>
-      </c>
       <c r="W300">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z300">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB300">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC300">
         <v>-1</v>
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7781934</v>
+        <v>7781925</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45333.5</v>
       </c>
       <c r="F301" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G301" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301">
         <v>1</v>
       </c>
       <c r="J301" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K301">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="L301">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M301">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N301">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O301">
+        <v>3</v>
+      </c>
+      <c r="P301">
         <v>3.2</v>
       </c>
-      <c r="P301">
-        <v>1.833</v>
-      </c>
       <c r="Q301">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S301">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T301">
         <v>2.25</v>
       </c>
       <c r="U301">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V301">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W301">
         <v>-1</v>
       </c>
       <c r="X301">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y301">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA301">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC301">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7781925</v>
+        <v>7781934</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,76 +27423,76 @@
         <v>45333.5</v>
       </c>
       <c r="F303" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G303" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303">
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K303">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="L303">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M303">
+        <v>1.85</v>
+      </c>
+      <c r="N303">
         <v>4.2</v>
       </c>
-      <c r="N303">
-        <v>2.2</v>
-      </c>
       <c r="O303">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P303">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R303">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S303">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T303">
         <v>2.25</v>
       </c>
       <c r="U303">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V303">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W303">
         <v>-1</v>
       </c>
       <c r="X303">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7781935</v>
+        <v>7781926</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27512,58 +27512,58 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F304" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G304" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H304">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J304" t="s">
         <v>49</v>
       </c>
       <c r="K304">
-        <v>1.285</v>
+        <v>1.85</v>
       </c>
       <c r="L304">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M304">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="N304">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O304">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P304">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q304">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R304">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S304">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U304">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V304">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W304">
-        <v>0.363</v>
+        <v>1</v>
       </c>
       <c r="X304">
         <v>-1</v>
@@ -27572,16 +27572,16 @@
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA304">
         <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27589,7 +27589,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7781926</v>
+        <v>7781935</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27601,58 +27601,58 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F305" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G305" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
         <v>49</v>
       </c>
       <c r="K305">
+        <v>1.285</v>
+      </c>
+      <c r="L305">
+        <v>5</v>
+      </c>
+      <c r="M305">
+        <v>10</v>
+      </c>
+      <c r="N305">
+        <v>1.363</v>
+      </c>
+      <c r="O305">
+        <v>4.2</v>
+      </c>
+      <c r="P305">
+        <v>8</v>
+      </c>
+      <c r="Q305">
+        <v>-1.25</v>
+      </c>
+      <c r="R305">
+        <v>1.95</v>
+      </c>
+      <c r="S305">
         <v>1.85</v>
       </c>
-      <c r="L305">
-        <v>3.4</v>
-      </c>
-      <c r="M305">
-        <v>3.8</v>
-      </c>
-      <c r="N305">
-        <v>2</v>
-      </c>
-      <c r="O305">
-        <v>3.1</v>
-      </c>
-      <c r="P305">
-        <v>3.75</v>
-      </c>
-      <c r="Q305">
-        <v>-0.5</v>
-      </c>
-      <c r="R305">
-        <v>1.975</v>
-      </c>
-      <c r="S305">
-        <v>1.825</v>
-      </c>
       <c r="T305">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V305">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W305">
-        <v>1</v>
+        <v>0.363</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -27661,16 +27661,16 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA305">
         <v>-1</v>
       </c>
       <c r="AB305">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC305">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -29653,6 +29653,15 @@
       <c r="G328" t="s">
         <v>35</v>
       </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328" t="s">
+        <v>49</v>
+      </c>
       <c r="K328">
         <v>1.571</v>
       </c>
@@ -29675,10 +29684,10 @@
         <v>-1.25</v>
       </c>
       <c r="R328">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S328">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T328">
         <v>2.25</v>
@@ -29690,19 +29699,25 @@
         <v>2</v>
       </c>
       <c r="W328">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X328">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA328">
-        <v>0</v>
+        <v>0.3875</v>
+      </c>
+      <c r="AB328">
+        <v>-1</v>
+      </c>
+      <c r="AC328">
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29727,6 +29742,15 @@
       <c r="G329" t="s">
         <v>38</v>
       </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329" t="s">
+        <v>48</v>
+      </c>
       <c r="K329">
         <v>2.5</v>
       </c>
@@ -29749,34 +29773,40 @@
         <v>0.5</v>
       </c>
       <c r="R329">
+        <v>1.975</v>
+      </c>
+      <c r="S329">
+        <v>1.825</v>
+      </c>
+      <c r="T329">
+        <v>2</v>
+      </c>
+      <c r="U329">
         <v>1.95</v>
       </c>
-      <c r="S329">
+      <c r="V329">
         <v>1.85</v>
       </c>
-      <c r="T329">
-        <v>2</v>
-      </c>
-      <c r="U329">
-        <v>2</v>
-      </c>
-      <c r="V329">
-        <v>1.8</v>
-      </c>
       <c r="W329">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X329">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y329">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA329">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB329">
+        <v>0</v>
+      </c>
+      <c r="AC329">
+        <v>-0</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29801,6 +29831,15 @@
       <c r="G330" t="s">
         <v>46</v>
       </c>
+      <c r="H330">
+        <v>2</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330" t="s">
+        <v>49</v>
+      </c>
       <c r="K330">
         <v>1.8</v>
       </c>
@@ -29811,46 +29850,52 @@
         <v>4</v>
       </c>
       <c r="N330">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O330">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P330">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q330">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R330">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S330">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T330">
         <v>2</v>
       </c>
       <c r="U330">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V330">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W330">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X330">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y330">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA330">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB330">
+        <v>0</v>
+      </c>
+      <c r="AC330">
+        <v>-0</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -30045,19 +30090,19 @@
         <v>-0.75</v>
       </c>
       <c r="R333">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S333">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T333">
         <v>2.25</v>
       </c>
       <c r="U333">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V333">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W333">
         <v>0</v>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -25186,7 +25186,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7641558</v>
+        <v>7641577</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25198,73 +25198,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G278" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+      <c r="J278" t="s">
+        <v>47</v>
+      </c>
+      <c r="K278">
+        <v>2.25</v>
+      </c>
+      <c r="L278">
         <v>3</v>
       </c>
-      <c r="I278">
-        <v>1</v>
-      </c>
-      <c r="J278" t="s">
-        <v>49</v>
-      </c>
-      <c r="K278">
-        <v>1.444</v>
-      </c>
-      <c r="L278">
-        <v>3.75</v>
-      </c>
       <c r="M278">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N278">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O278">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P278">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q278">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
+        <v>2</v>
+      </c>
+      <c r="S278">
         <v>1.8</v>
       </c>
-      <c r="S278">
-        <v>2</v>
-      </c>
       <c r="T278">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U278">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W278">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z278">
+        <v>-1</v>
+      </c>
+      <c r="AA278">
         <v>0.8</v>
       </c>
-      <c r="AA278">
-        <v>-1</v>
-      </c>
       <c r="AB278">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25275,7 +25275,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7641577</v>
+        <v>7641558</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25287,73 +25287,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F279" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G279" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K279">
+        <v>1.444</v>
+      </c>
+      <c r="L279">
+        <v>3.75</v>
+      </c>
+      <c r="M279">
+        <v>6.5</v>
+      </c>
+      <c r="N279">
+        <v>1.444</v>
+      </c>
+      <c r="O279">
+        <v>4</v>
+      </c>
+      <c r="P279">
+        <v>5.75</v>
+      </c>
+      <c r="Q279">
+        <v>-1</v>
+      </c>
+      <c r="R279">
+        <v>1.8</v>
+      </c>
+      <c r="S279">
+        <v>2</v>
+      </c>
+      <c r="T279">
         <v>2.25</v>
       </c>
-      <c r="L279">
-        <v>3</v>
-      </c>
-      <c r="M279">
-        <v>3</v>
-      </c>
-      <c r="N279">
-        <v>2.3</v>
-      </c>
-      <c r="O279">
-        <v>2.9</v>
-      </c>
-      <c r="P279">
-        <v>2.9</v>
-      </c>
-      <c r="Q279">
-        <v>-0.25</v>
-      </c>
-      <c r="R279">
-        <v>2</v>
-      </c>
-      <c r="S279">
-        <v>1.8</v>
-      </c>
-      <c r="T279">
-        <v>2</v>
-      </c>
       <c r="U279">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V279">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA279">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -26254,7 +26254,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7781916</v>
+        <v>7781917</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26266,16 +26266,16 @@
         <v>45329.5</v>
       </c>
       <c r="F290" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G290" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H290">
         <v>1</v>
       </c>
       <c r="I290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J290" t="s">
         <v>47</v>
@@ -26290,31 +26290,31 @@
         <v>3.4</v>
       </c>
       <c r="N290">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O290">
+        <v>3.1</v>
+      </c>
+      <c r="P290">
         <v>3</v>
       </c>
-      <c r="P290">
-        <v>2.9</v>
-      </c>
       <c r="Q290">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S290">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T290">
         <v>2</v>
       </c>
       <c r="U290">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V290">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W290">
         <v>-1</v>
@@ -26323,16 +26323,16 @@
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z290">
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>1.075</v>
+        <v>0.875</v>
       </c>
       <c r="AB290">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26432,7 +26432,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7781917</v>
+        <v>7781916</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26444,16 +26444,16 @@
         <v>45329.5</v>
       </c>
       <c r="F292" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G292" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H292">
         <v>1</v>
       </c>
       <c r="I292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J292" t="s">
         <v>47</v>
@@ -26468,31 +26468,31 @@
         <v>3.4</v>
       </c>
       <c r="N292">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O292">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P292">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q292">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R292">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S292">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T292">
         <v>2</v>
       </c>
       <c r="U292">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V292">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W292">
         <v>-1</v>
@@ -26501,16 +26501,16 @@
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.875</v>
+        <v>1.075</v>
       </c>
       <c r="AB292">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26521,7 +26521,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7781918</v>
+        <v>7781919</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26533,73 +26533,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K293">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L293">
         <v>3</v>
       </c>
       <c r="M293">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N293">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O293">
         <v>2.75</v>
       </c>
       <c r="P293">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q293">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S293">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T293">
         <v>1.75</v>
       </c>
       <c r="U293">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V293">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z293">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB293">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AC293">
         <v>-0.5</v>
@@ -26610,7 +26610,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7781919</v>
+        <v>7781918</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26622,73 +26622,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K294">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L294">
         <v>3</v>
       </c>
       <c r="M294">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N294">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O294">
         <v>2.75</v>
       </c>
       <c r="P294">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S294">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T294">
         <v>1.75</v>
       </c>
       <c r="U294">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V294">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W294">
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y294">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA294">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB294">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AC294">
         <v>-0.5</v>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -103,28 +103,40 @@
     <t>Morocco GNF 1</t>
   </si>
   <si>
+    <t>SC Chabab Mohammedia</t>
+  </si>
+  <si>
+    <t>Union de Touarga</t>
+  </si>
+  <si>
+    <t>MAT Tetouan</t>
+  </si>
+  <si>
+    <t>HUSA Agadir</t>
+  </si>
+  <si>
     <t>OC Safi</t>
+  </si>
+  <si>
+    <t>Difaa El Jadida</t>
+  </si>
+  <si>
+    <t>Raja Casablanca</t>
   </si>
   <si>
     <t>FAR Rabat</t>
   </si>
   <si>
-    <t>MAT Tetouan</t>
+    <t>FUS Rabat</t>
   </si>
   <si>
-    <t>SC Chabab Mohammedia</t>
+    <t>MAS Fes</t>
   </si>
   <si>
-    <t>Difaa El Jadida</t>
+    <t>JS Soualem</t>
   </si>
   <si>
-    <t>HUSA Agadir</t>
-  </si>
-  <si>
-    <t>Raja Casablanca</t>
-  </si>
-  <si>
-    <t>Union de Touarga</t>
+    <t>Olympique Khouribga</t>
   </si>
   <si>
     <t>Ittihad Tanger</t>
@@ -139,31 +151,19 @@
     <t>RSB Berkane</t>
   </si>
   <si>
-    <t>MAS Fes</t>
-  </si>
-  <si>
-    <t>FUS Rabat</t>
-  </si>
-  <si>
-    <t>Olympique Khouribga</t>
-  </si>
-  <si>
-    <t>JS Soualem</t>
-  </si>
-  <si>
     <t>Youssoufia Berrechid</t>
   </si>
   <si>
     <t>Renaissance Zemamra</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760259</v>
+        <v>6757667</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M2">
+        <v>2.375</v>
+      </c>
+      <c r="N2">
+        <v>1.8</v>
+      </c>
+      <c r="O2">
         <v>2.875</v>
       </c>
-      <c r="N2">
-        <v>2.7</v>
-      </c>
-      <c r="O2">
-        <v>2.625</v>
-      </c>
       <c r="P2">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6756722</v>
+        <v>6760260</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6757667</v>
+        <v>6728744</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,10 +904,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -916,61 +916,61 @@
         <v>48</v>
       </c>
       <c r="K5">
+        <v>4.5</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>2.8</v>
-      </c>
       <c r="M5">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N5">
+        <v>6.5</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>1.5</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>1.8</v>
       </c>
-      <c r="O5">
-        <v>2.875</v>
-      </c>
-      <c r="P5">
-        <v>4.5</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>2.5</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>0.8</v>
       </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.875</v>
-      </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6760261</v>
+        <v>6760259</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1002,43 +1002,43 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O6">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="P6">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1047,19 +1047,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6728744</v>
+        <v>6760261</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,73 +1082,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>49</v>
       </c>
       <c r="K7">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
       <c r="M7">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="P7">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>2.5</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6760260</v>
+        <v>6756722</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,73 +1260,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O9">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P9">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X9">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6728806</v>
+        <v>6728809</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,55 +1349,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L10">
+        <v>3.4</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>1.909</v>
+      </c>
+      <c r="O10">
+        <v>3.2</v>
+      </c>
+      <c r="P10">
         <v>3.5</v>
       </c>
-      <c r="M10">
-        <v>4.333</v>
-      </c>
-      <c r="N10">
-        <v>1.5</v>
-      </c>
-      <c r="O10">
-        <v>3.5</v>
-      </c>
-      <c r="P10">
-        <v>6.5</v>
-      </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1423,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6728745</v>
+        <v>6728808</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1438,73 +1438,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="N11">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R11">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
         <v>2</v>
       </c>
       <c r="U11">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB11">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6728746</v>
+        <v>6728811</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,73 +1527,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L12">
+        <v>2.8</v>
+      </c>
+      <c r="M12">
         <v>3</v>
       </c>
-      <c r="M12">
-        <v>2.6</v>
-      </c>
       <c r="N12">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P12">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6728807</v>
+        <v>6728810</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,55 +1616,55 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N13">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O13">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P13">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1673,13 +1673,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6728808</v>
+        <v>6728806</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>47</v>
       </c>
       <c r="K14">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="N14">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
         <v>2</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6728809</v>
+        <v>6728745</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,55 +1794,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
         <v>5</v>
       </c>
       <c r="N15">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P15">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W15">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,13 +1851,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6728810</v>
+        <v>6728746</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,10 +1883,10 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1895,25 +1895,25 @@
         <v>48</v>
       </c>
       <c r="K16">
+        <v>2.5</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>2.6</v>
+      </c>
+      <c r="N16">
+        <v>3.2</v>
+      </c>
+      <c r="O16">
+        <v>3.2</v>
+      </c>
+      <c r="P16">
         <v>2.1</v>
       </c>
-      <c r="L16">
-        <v>2.9</v>
-      </c>
-      <c r="M16">
-        <v>3.4</v>
-      </c>
-      <c r="N16">
-        <v>2.25</v>
-      </c>
-      <c r="O16">
-        <v>2.9</v>
-      </c>
-      <c r="P16">
-        <v>3.1</v>
-      </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
         <v>1.975</v>
@@ -1922,7 +1922,7 @@
         <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1931,25 +1931,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6728811</v>
+        <v>6728807</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1972,70 +1972,70 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O17">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
+        <v>1.875</v>
+      </c>
+      <c r="V17">
         <v>1.925</v>
       </c>
-      <c r="V17">
-        <v>1.875</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6786813</v>
+        <v>6786810</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,13 +2058,13 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2073,31 +2073,31 @@
         <v>48</v>
       </c>
       <c r="K18">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L18">
+        <v>3.6</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>1.615</v>
+      </c>
+      <c r="O18">
         <v>3</v>
       </c>
-      <c r="M18">
-        <v>2.375</v>
-      </c>
-      <c r="N18">
-        <v>2.3</v>
-      </c>
-      <c r="O18">
-        <v>2.9</v>
-      </c>
       <c r="P18">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
         <v>2</v>
@@ -2109,19 +2109,19 @@
         <v>1.75</v>
       </c>
       <c r="W18">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
         <v>-1</v>
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6786812</v>
+        <v>6786814</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,76 +2147,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L19">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N19">
+        <v>6.5</v>
+      </c>
+      <c r="O19">
+        <v>5.75</v>
+      </c>
+      <c r="P19">
+        <v>1.285</v>
+      </c>
+      <c r="Q19">
+        <v>1.25</v>
+      </c>
+      <c r="R19">
+        <v>1.825</v>
+      </c>
+      <c r="S19">
+        <v>1.975</v>
+      </c>
+      <c r="T19">
         <v>2.25</v>
       </c>
-      <c r="O19">
-        <v>3</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
-        <v>1.975</v>
-      </c>
-      <c r="S19">
-        <v>1.825</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
       <c r="U19">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z19">
+        <v>0.4125</v>
+      </c>
+      <c r="AA19">
         <v>-0.5</v>
       </c>
-      <c r="AA19">
-        <v>0.4125</v>
-      </c>
       <c r="AB19">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6786814</v>
+        <v>6786813</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="N20">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="Q20">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6786816</v>
+        <v>6786812</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,13 +2325,13 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2340,61 +2340,61 @@
         <v>48</v>
       </c>
       <c r="K21">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="M21">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q21">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W21">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB21">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6786809</v>
+        <v>6786815</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,76 +2414,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
         <v>2.9</v>
-      </c>
-      <c r="M22">
-        <v>2.9</v>
-      </c>
-      <c r="N22">
-        <v>2.3</v>
       </c>
       <c r="O22">
         <v>2.9</v>
       </c>
       <c r="P22">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>1.775</v>
+      </c>
+      <c r="V22">
         <v>2.025</v>
       </c>
-      <c r="S22">
-        <v>1.775</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
-      <c r="V22">
-        <v>1.775</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X22">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6786815</v>
+        <v>6786816</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,7 +2503,7 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2515,46 +2515,46 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="N23">
-        <v>2.9</v>
+        <v>1.285</v>
       </c>
       <c r="O23">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P23">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>1.9</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,13 +2563,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6786810</v>
+        <v>6786809</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,10 +2592,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2604,64 +2604,64 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N24">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2681,10 +2681,10 @@
         <v>45097.75</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>2.1</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6786823</v>
+        <v>6786817</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,76 +2770,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>48</v>
       </c>
       <c r="K26">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N26">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P26">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="Q26">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R26">
+        <v>1.775</v>
+      </c>
+      <c r="S26">
+        <v>2.025</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>1.825</v>
+      </c>
+      <c r="V26">
         <v>1.975</v>
       </c>
-      <c r="S26">
-        <v>1.825</v>
-      </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>2.025</v>
-      </c>
-      <c r="V26">
-        <v>1.775</v>
-      </c>
       <c r="W26">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6786817</v>
+        <v>6786824</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M27">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N27">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O27">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X27">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6786824</v>
+        <v>6786823</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,58 +2948,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M28">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>0.5329999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3008,13 +3008,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB28">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6786820</v>
+        <v>6786821</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
       </c>
       <c r="K29">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M29">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="N29">
-        <v>15</v>
+        <v>1.6</v>
       </c>
       <c r="O29">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>1.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q29">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
+        <v>0.45</v>
+      </c>
+      <c r="AC29">
         <v>-0.5</v>
-      </c>
-      <c r="AC29">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6786818</v>
+        <v>6786820</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,55 +3126,55 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="N30">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>1.333</v>
+        <v>1.2</v>
       </c>
       <c r="Q30">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
+        <v>1.925</v>
+      </c>
+      <c r="S30">
         <v>1.875</v>
-      </c>
-      <c r="S30">
-        <v>1.925</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3183,19 +3183,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.333</v>
+        <v>0.2</v>
       </c>
       <c r="Z30">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
+        <v>0.875</v>
+      </c>
+      <c r="AB30">
         <v>-0.5</v>
       </c>
-      <c r="AB30">
-        <v>0.95</v>
-      </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6786821</v>
+        <v>6786819</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,16 +3218,16 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>2.5</v>
@@ -3239,49 +3239,49 @@
         <v>2.875</v>
       </c>
       <c r="N31">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="O31">
         <v>3.6</v>
       </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z31">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB31">
-        <v>0.45</v>
+        <v>0.4875</v>
       </c>
       <c r="AC31">
         <v>-0.5</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6786819</v>
+        <v>6786818</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,55 +3304,55 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="N32">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
         <v>1.925</v>
       </c>
-      <c r="S32">
-        <v>1.875</v>
-      </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3361,19 +3361,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA32">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3393,10 +3393,10 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>6</v>
@@ -3405,7 +3405,7 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -3482,7 +3482,7 @@
         <v>45163.72916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
         <v>31</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>2.15</v>
@@ -3571,10 +3571,10 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3660,7 +3660,7 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>1.833</v>
@@ -3749,10 +3749,10 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>1.8</v>
@@ -3850,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>4.5</v>
@@ -3927,10 +3927,10 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
         <v>1.75</v>
@@ -4016,10 +4016,10 @@
         <v>45168.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K40">
         <v>1.285</v>
@@ -4105,10 +4105,10 @@
         <v>45169.72916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>2.1</v>
@@ -4194,10 +4194,10 @@
         <v>45170.72916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K42">
         <v>2.4</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>2.1</v>
@@ -4372,10 +4372,10 @@
         <v>45171.6875</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4384,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4464,7 +4464,7 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>2.875</v>
@@ -4553,7 +4553,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4562,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46">
         <v>2.4</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7112130</v>
+        <v>7112131</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O47">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
         <v>4.5</v>
       </c>
       <c r="Q47">
+        <v>-0.75</v>
+      </c>
+      <c r="R47">
+        <v>1.875</v>
+      </c>
+      <c r="S47">
+        <v>1.925</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>2.025</v>
+      </c>
+      <c r="V47">
+        <v>1.775</v>
+      </c>
+      <c r="W47">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
+        <v>-1</v>
+      </c>
+      <c r="Z47">
+        <v>0.4375</v>
+      </c>
+      <c r="AA47">
         <v>-0.5</v>
       </c>
-      <c r="R47">
-        <v>1.8</v>
-      </c>
-      <c r="S47">
-        <v>2</v>
-      </c>
-      <c r="T47">
-        <v>1.75</v>
-      </c>
-      <c r="U47">
-        <v>1.825</v>
-      </c>
-      <c r="V47">
-        <v>1.975</v>
-      </c>
-      <c r="W47">
-        <v>-1</v>
-      </c>
-      <c r="X47">
-        <v>2.1</v>
-      </c>
-      <c r="Y47">
-        <v>-1</v>
-      </c>
-      <c r="Z47">
-        <v>-1</v>
-      </c>
-      <c r="AA47">
-        <v>1</v>
-      </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7112131</v>
+        <v>7112130</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>48</v>
       </c>
       <c r="K48">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N48">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P48">
         <v>4.5</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4817,10 +4817,10 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4829,7 +4829,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K49">
         <v>5.5</v>
@@ -4906,7 +4906,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K50">
         <v>1.833</v>
@@ -4995,10 +4995,10 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K51">
         <v>2.3</v>
@@ -5087,7 +5087,7 @@
         <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>2.375</v>
@@ -5173,7 +5173,7 @@
         <v>45186.63541666666</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>35</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K53">
         <v>4</v>
@@ -5262,10 +5262,10 @@
         <v>45186.72916666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5274,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5351,10 +5351,10 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5363,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>2.875</v>
@@ -5440,7 +5440,7 @@
         <v>45189.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
         <v>1.222</v>
@@ -5529,10 +5529,10 @@
         <v>45190.66666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>1.571</v>
@@ -5618,7 +5618,7 @@
         <v>45192.63541666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>2.25</v>
@@ -5707,7 +5707,7 @@
         <v>45192.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -5719,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K59">
         <v>2.4</v>
@@ -5799,7 +5799,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>1.666</v>
@@ -5885,10 +5885,10 @@
         <v>45193.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K61">
         <v>2.7</v>
@@ -5974,10 +5974,10 @@
         <v>45194.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K62">
         <v>2.25</v>
@@ -6063,10 +6063,10 @@
         <v>45194.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6075,7 +6075,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>7</v>
@@ -6155,7 +6155,7 @@
         <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>3.2</v>
@@ -6241,10 +6241,10 @@
         <v>45196.66666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K65">
         <v>1.7</v>
@@ -6330,11 +6330,11 @@
         <v>45199.5</v>
       </c>
       <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s">
         <v>29</v>
       </c>
-      <c r="G66" t="s">
-        <v>32</v>
-      </c>
       <c r="H66">
         <v>0</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
         <v>1.8</v>
@@ -6419,7 +6419,7 @@
         <v>45200.5</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
         <v>35</v>
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67">
         <v>3.4</v>
@@ -6511,7 +6511,7 @@
         <v>45</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>2.2</v>
@@ -6597,10 +6597,10 @@
         <v>45200.59375</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6686,10 +6686,10 @@
         <v>45200.6875</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6698,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>2.625</v>
@@ -6775,7 +6775,7 @@
         <v>45203.59375</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>1.222</v>
@@ -6864,10 +6864,10 @@
         <v>45203.6875</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
         <v>1.75</v>
@@ -6956,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6965,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>2.6</v>
@@ -7042,10 +7042,10 @@
         <v>45205.6875</v>
       </c>
       <c r="F74" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" t="s">
         <v>32</v>
-      </c>
-      <c r="G74" t="s">
-        <v>34</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>2.45</v>
@@ -7131,11 +7131,11 @@
         <v>45206.5</v>
       </c>
       <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
         <v>36</v>
       </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
       <c r="H75">
         <v>2</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75">
         <v>4.5</v>
@@ -7220,10 +7220,10 @@
         <v>45206.59375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7232,7 +7232,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K76">
         <v>2.875</v>
@@ -7309,10 +7309,10 @@
         <v>45206.6875</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>4</v>
@@ -7398,10 +7398,10 @@
         <v>45207.5</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K78">
         <v>3.5</v>
@@ -7487,7 +7487,7 @@
         <v>45207.59375</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s">
         <v>45</v>
@@ -7499,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>1.5</v>
@@ -7579,7 +7579,7 @@
         <v>46</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7588,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>3</v>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>1.5</v>
@@ -7754,10 +7754,10 @@
         <v>45226.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>1.571</v>
@@ -7843,7 +7843,7 @@
         <v>45227.5</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -7855,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K83">
         <v>2.375</v>
@@ -7932,7 +7932,7 @@
         <v>45227.59375</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>35</v>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>2.875</v>
@@ -8024,7 +8024,7 @@
         <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K85">
         <v>6</v>
@@ -8110,10 +8110,10 @@
         <v>45228.5</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>1.222</v>
@@ -8202,7 +8202,7 @@
         <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8288,10 +8288,10 @@
         <v>45228.6875</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>2.5</v>
@@ -8377,10 +8377,10 @@
         <v>45233.6875</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8389,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>2.4</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>2.3</v>
@@ -8555,10 +8555,10 @@
         <v>45234.59375</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
         <v>1.363</v>
@@ -8644,7 +8644,7 @@
         <v>45234.6875</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>45</v>
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K92">
         <v>1.363</v>
@@ -8733,10 +8733,10 @@
         <v>45235.5</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8745,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
         <v>3.1</v>
@@ -8822,10 +8822,10 @@
         <v>45235.59375</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8834,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
         <v>3.4</v>
@@ -8914,7 +8914,7 @@
         <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9000,10 +9000,10 @@
         <v>45240.5</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -9092,7 +9092,7 @@
         <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9101,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>1.75</v>
@@ -9178,10 +9178,10 @@
         <v>45241.5</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>2.2</v>
@@ -9267,7 +9267,7 @@
         <v>45241.59375</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99">
         <v>4.333</v>
@@ -9356,10 +9356,10 @@
         <v>45241.6875</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>3.5</v>
@@ -9445,7 +9445,7 @@
         <v>45242.59375</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
@@ -9457,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>2.4</v>
@@ -9534,10 +9534,10 @@
         <v>45242.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9546,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>2.6</v>
@@ -9623,10 +9623,10 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K103">
         <v>2.9</v>
@@ -9712,10 +9712,10 @@
         <v>45255.5</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K104">
         <v>2.9</v>
@@ -9804,7 +9804,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
         <v>3.1</v>
@@ -9893,7 +9893,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>1.3</v>
@@ -9982,7 +9982,7 @@
         <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10068,7 +10068,7 @@
         <v>45256.5</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
@@ -10080,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -10157,10 +10157,10 @@
         <v>45258.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>2.1</v>
@@ -10246,10 +10246,10 @@
         <v>45266.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -10258,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>1.25</v>
@@ -10335,10 +10335,10 @@
         <v>45267.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K111">
         <v>1.615</v>
@@ -10424,10 +10424,10 @@
         <v>45268.5</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>4.333</v>
@@ -10513,10 +10513,10 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K113">
         <v>1.571</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10691,10 +10691,10 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K115">
         <v>2.625</v>
@@ -10780,10 +10780,10 @@
         <v>45270.5</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10792,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
         <v>2.1</v>
@@ -10869,7 +10869,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
         <v>45</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10958,10 +10958,10 @@
         <v>45272.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>4.75</v>
@@ -11050,7 +11050,7 @@
         <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
         <v>2.75</v>
@@ -11136,10 +11136,10 @@
         <v>45276.5</v>
       </c>
       <c r="F120" t="s">
+        <v>43</v>
+      </c>
+      <c r="G120" t="s">
         <v>39</v>
-      </c>
-      <c r="G120" t="s">
-        <v>44</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11148,7 +11148,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>2.1</v>
@@ -11225,10 +11225,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11237,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>2.2</v>
@@ -11314,10 +11314,10 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11326,7 +11326,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K122">
         <v>1.833</v>
@@ -11406,7 +11406,7 @@
         <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11415,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>4</v>
@@ -11492,10 +11492,10 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11504,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>1.4</v>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>3.3</v>
@@ -11670,7 +11670,7 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>1.3</v>
@@ -11759,7 +11759,7 @@
         <v>45284.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G127" t="s">
         <v>35</v>
@@ -11771,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>2.55</v>
@@ -11848,10 +11848,10 @@
         <v>45286.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11860,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K128">
         <v>5</v>
@@ -11937,7 +11937,7 @@
         <v>45288.5</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
         <v>45</v>
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K129">
         <v>1.5</v>
@@ -12029,7 +12029,7 @@
         <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H130">
         <v>6</v>
@@ -12038,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>1.333</v>
@@ -12115,10 +12115,10 @@
         <v>45288.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12127,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
         <v>3.2</v>
@@ -12207,7 +12207,7 @@
         <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
         <v>2.05</v>
@@ -12296,7 +12296,7 @@
         <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>1.8</v>
@@ -12382,10 +12382,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12394,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>2.875</v>
@@ -12471,10 +12471,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K135">
         <v>3.4</v>
@@ -12560,10 +12560,10 @@
         <v>45289.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12572,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K136">
         <v>5.25</v>
@@ -12649,7 +12649,7 @@
         <v>45294.5</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
         <v>35</v>
@@ -12661,7 +12661,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>2.6</v>
@@ -12738,10 +12738,10 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K138">
         <v>4.5</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7641575</v>
+        <v>7641574</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,10 +12830,10 @@
         <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -12842,61 +12842,61 @@
         <v>48</v>
       </c>
       <c r="K139">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L139">
         <v>3</v>
       </c>
       <c r="M139">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N139">
         <v>1.95</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
         <v>-0.5</v>
       </c>
       <c r="R139">
+        <v>1.925</v>
+      </c>
+      <c r="S139">
+        <v>1.875</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="S139">
-        <v>1.85</v>
-      </c>
-      <c r="T139">
-        <v>2</v>
-      </c>
-      <c r="U139">
-        <v>2.025</v>
-      </c>
-      <c r="V139">
-        <v>1.775</v>
-      </c>
       <c r="W139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB139">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7641574</v>
+        <v>7641575</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L140">
         <v>3</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
         <v>1.95</v>
       </c>
       <c r="O140">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q140">
         <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X140">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13005,10 +13005,10 @@
         <v>45295.5</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>2.5</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7641558</v>
+        <v>7641577</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142" t="s">
+        <v>49</v>
+      </c>
+      <c r="K142">
+        <v>2.25</v>
+      </c>
+      <c r="L142">
         <v>3</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="J142" t="s">
-        <v>48</v>
-      </c>
-      <c r="K142">
-        <v>1.444</v>
-      </c>
-      <c r="L142">
-        <v>3.75</v>
-      </c>
       <c r="M142">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P142">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
         <v>1.8</v>
       </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U142">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
         <v>0.8</v>
       </c>
-      <c r="AA142">
-        <v>-1</v>
-      </c>
       <c r="AB142">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7641577</v>
+        <v>7641558</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>47</v>
       </c>
       <c r="K143">
+        <v>1.444</v>
+      </c>
+      <c r="L143">
+        <v>3.75</v>
+      </c>
+      <c r="M143">
+        <v>6.5</v>
+      </c>
+      <c r="N143">
+        <v>1.444</v>
+      </c>
+      <c r="O143">
+        <v>4</v>
+      </c>
+      <c r="P143">
+        <v>5.75</v>
+      </c>
+      <c r="Q143">
+        <v>-1</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
+        <v>2</v>
+      </c>
+      <c r="T143">
         <v>2.25</v>
       </c>
-      <c r="L143">
-        <v>3</v>
-      </c>
-      <c r="M143">
-        <v>3</v>
-      </c>
-      <c r="N143">
-        <v>2.3</v>
-      </c>
-      <c r="O143">
-        <v>2.9</v>
-      </c>
-      <c r="P143">
-        <v>2.9</v>
-      </c>
-      <c r="Q143">
-        <v>-0.25</v>
-      </c>
-      <c r="R143">
-        <v>2</v>
-      </c>
-      <c r="S143">
-        <v>1.8</v>
-      </c>
-      <c r="T143">
-        <v>2</v>
-      </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13272,7 +13272,7 @@
         <v>45295.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
         <v>31</v>
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K144">
         <v>1.571</v>
@@ -13364,7 +13364,7 @@
         <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
         <v>1.285</v>
@@ -13450,10 +13450,10 @@
         <v>45297.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K146">
         <v>2.2</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13551,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>3.5</v>
@@ -13628,10 +13628,10 @@
         <v>45298.5</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13640,7 +13640,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>2.5</v>
@@ -13720,7 +13720,7 @@
         <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>3.2</v>
@@ -13806,10 +13806,10 @@
         <v>45298.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13818,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K150">
         <v>2.15</v>
@@ -13895,7 +13895,7 @@
         <v>45299.5</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
         <v>45</v>
@@ -13907,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151">
         <v>2.2</v>
@@ -13984,10 +13984,10 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13996,7 +13996,7 @@
         <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>2.8</v>
@@ -14073,11 +14073,11 @@
         <v>45302.58333333334</v>
       </c>
       <c r="F153" t="s">
+        <v>42</v>
+      </c>
+      <c r="G153" t="s">
         <v>38</v>
       </c>
-      <c r="G153" t="s">
-        <v>41</v>
-      </c>
       <c r="H153">
         <v>1</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K153">
         <v>1.533</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7781931</v>
+        <v>7781916</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,73 +14162,73 @@
         <v>45329.5</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K154">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L154">
+        <v>3.1</v>
+      </c>
+      <c r="M154">
+        <v>3.4</v>
+      </c>
+      <c r="N154">
+        <v>2.4</v>
+      </c>
+      <c r="O154">
+        <v>3</v>
+      </c>
+      <c r="P154">
         <v>2.9</v>
       </c>
-      <c r="M154">
-        <v>2.2</v>
-      </c>
-      <c r="N154">
-        <v>2.9</v>
-      </c>
-      <c r="O154">
-        <v>2.75</v>
-      </c>
-      <c r="P154">
-        <v>2.45</v>
-      </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154">
+        <v>1.725</v>
+      </c>
+      <c r="S154">
         <v>2.075</v>
       </c>
-      <c r="S154">
-        <v>1.725</v>
-      </c>
       <c r="T154">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U154">
+        <v>1.8</v>
+      </c>
+      <c r="V154">
+        <v>2</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
         <v>1.9</v>
       </c>
-      <c r="V154">
-        <v>1.9</v>
-      </c>
-      <c r="W154">
-        <v>1.9</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
       <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
         <v>1.075</v>
       </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
       <c r="AB154">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14254,7 +14254,7 @@
         <v>46</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14263,7 +14263,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K155">
         <v>2</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7781916</v>
+        <v>7781931</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,73 +14340,73 @@
         <v>45329.5</v>
       </c>
       <c r="F156" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>47</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L156">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M156">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N156">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O156">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P156">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q156">
         <v>0</v>
       </c>
       <c r="R156">
+        <v>2.075</v>
+      </c>
+      <c r="S156">
         <v>1.725</v>
       </c>
-      <c r="S156">
-        <v>2.075</v>
-      </c>
       <c r="T156">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA156">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14432,7 +14432,7 @@
         <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14441,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K157">
         <v>2.1</v>
@@ -14518,10 +14518,10 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14530,7 +14530,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K158">
         <v>2.3</v>
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>1.2</v>
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7781933</v>
+        <v>7781920</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K160">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L160">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N160">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O160">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="Q160">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U160">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V160">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z160">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC160">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7781920</v>
+        <v>7781933</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,76 +14785,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>4.5</v>
+      </c>
+      <c r="O161">
+        <v>3.3</v>
+      </c>
+      <c r="P161">
+        <v>1.7</v>
+      </c>
+      <c r="Q161">
+        <v>0.75</v>
+      </c>
+      <c r="R161">
+        <v>1.875</v>
+      </c>
+      <c r="S161">
+        <v>1.925</v>
+      </c>
+      <c r="T161">
+        <v>2</v>
+      </c>
+      <c r="U161">
+        <v>1.75</v>
+      </c>
+      <c r="V161">
+        <v>2.05</v>
+      </c>
+      <c r="W161">
         <v>3.5</v>
       </c>
-      <c r="M161">
-        <v>1.666</v>
-      </c>
-      <c r="N161">
-        <v>7</v>
-      </c>
-      <c r="O161">
-        <v>4.2</v>
-      </c>
-      <c r="P161">
-        <v>1.363</v>
-      </c>
-      <c r="Q161">
-        <v>1.25</v>
-      </c>
-      <c r="R161">
-        <v>1.85</v>
-      </c>
-      <c r="S161">
-        <v>1.95</v>
-      </c>
-      <c r="T161">
-        <v>2.25</v>
-      </c>
-      <c r="U161">
-        <v>1.775</v>
-      </c>
-      <c r="V161">
-        <v>2.025</v>
-      </c>
-      <c r="W161">
-        <v>-1</v>
-      </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,10 +14874,10 @@
         <v>45332.5</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K162">
         <v>1.95</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7781922</v>
+        <v>7781923</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,73 +14963,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>47</v>
       </c>
       <c r="K163">
+        <v>1.95</v>
+      </c>
+      <c r="L163">
         <v>3</v>
       </c>
-      <c r="L163">
-        <v>2.875</v>
-      </c>
       <c r="M163">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N163">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P163">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S163">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T163">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U163">
+        <v>1.775</v>
+      </c>
+      <c r="V163">
         <v>2.025</v>
       </c>
-      <c r="V163">
-        <v>1.775</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA163">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7781923</v>
+        <v>7781922</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,73 +15052,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L164">
+        <v>2.875</v>
+      </c>
+      <c r="M164">
+        <v>2.45</v>
+      </c>
+      <c r="N164">
+        <v>2.7</v>
+      </c>
+      <c r="O164">
+        <v>2.5</v>
+      </c>
+      <c r="P164">
         <v>3</v>
       </c>
-      <c r="M164">
-        <v>4.333</v>
-      </c>
-      <c r="N164">
-        <v>2.05</v>
-      </c>
-      <c r="O164">
-        <v>3</v>
-      </c>
-      <c r="P164">
-        <v>3.8</v>
-      </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S164">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T164">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U164">
+        <v>2.025</v>
+      </c>
+      <c r="V164">
         <v>1.775</v>
       </c>
-      <c r="V164">
-        <v>2.025</v>
-      </c>
       <c r="W164">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z164">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB164">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7781924</v>
+        <v>7781934</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45333.5</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K165">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L165">
+        <v>3.25</v>
+      </c>
+      <c r="M165">
+        <v>1.85</v>
+      </c>
+      <c r="N165">
+        <v>4.2</v>
+      </c>
+      <c r="O165">
         <v>3.2</v>
       </c>
-      <c r="M165">
-        <v>2.375</v>
-      </c>
-      <c r="N165">
-        <v>2.5</v>
-      </c>
-      <c r="O165">
-        <v>2.875</v>
-      </c>
       <c r="P165">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R165">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z165">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7781925</v>
+        <v>7781924</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45333.5</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N166">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O166">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P166">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S166">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X166">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA166">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7781934</v>
+        <v>7781925</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45333.5</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K167">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N167">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O167">
+        <v>3</v>
+      </c>
+      <c r="P167">
         <v>3.2</v>
       </c>
-      <c r="P167">
-        <v>1.833</v>
-      </c>
       <c r="Q167">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T167">
         <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y167">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC167">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15408,10 +15408,10 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H168">
         <v>5</v>
@@ -15420,7 +15420,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K168">
         <v>1.285</v>
@@ -15497,10 +15497,10 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15509,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K169">
         <v>1.85</v>
@@ -15589,7 +15589,7 @@
         <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15598,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K170">
         <v>2.2</v>
@@ -15675,10 +15675,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>2.1</v>
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7812521</v>
+        <v>7812522</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,7 +15764,7 @@
         <v>45336.5</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
         <v>36</v>
@@ -15773,67 +15773,67 @@
         <v>0</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
         <v>49</v>
       </c>
       <c r="K172">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="L172">
         <v>3.5</v>
       </c>
       <c r="M172">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="N172">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P172">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R172">
+        <v>1.975</v>
+      </c>
+      <c r="S172">
         <v>1.825</v>
       </c>
-      <c r="S172">
-        <v>1.975</v>
-      </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
+        <v>1.95</v>
+      </c>
+      <c r="V172">
         <v>1.85</v>
       </c>
-      <c r="V172">
-        <v>1.95</v>
-      </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7812522</v>
+        <v>7812521</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,7 +15853,7 @@
         <v>45336.5</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G173" t="s">
         <v>30</v>
@@ -15862,67 +15862,67 @@
         <v>0</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="L173">
         <v>3.5</v>
       </c>
       <c r="M173">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="N173">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O173">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="Q173">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R173">
+        <v>1.825</v>
+      </c>
+      <c r="S173">
         <v>1.975</v>
       </c>
-      <c r="S173">
-        <v>1.825</v>
-      </c>
       <c r="T173">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
         <v>1.95</v>
       </c>
-      <c r="V173">
-        <v>1.85</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y173">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15954,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K174">
         <v>1.444</v>
@@ -16031,10 +16031,10 @@
         <v>45336.66666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -16043,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K175">
         <v>4</v>
@@ -16120,10 +16120,10 @@
         <v>45337.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16132,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K176">
         <v>2.1</v>
@@ -16209,7 +16209,7 @@
         <v>45337.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
         <v>45</v>
@@ -16221,7 +16221,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>1.8</v>
@@ -16298,10 +16298,10 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16310,7 +16310,7 @@
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K178">
         <v>2.8</v>
@@ -16387,10 +16387,10 @@
         <v>45339.5</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K179">
         <v>1.833</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7812529</v>
+        <v>7812530</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16479,73 +16479,73 @@
         <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K180">
         <v>1.95</v>
       </c>
       <c r="L180">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M180">
         <v>3.8</v>
       </c>
       <c r="N180">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O180">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="P180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7812530</v>
+        <v>7812529</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,16 +16565,16 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G181" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>47</v>
@@ -16583,58 +16583,58 @@
         <v>1.95</v>
       </c>
       <c r="L181">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M181">
         <v>3.8</v>
       </c>
       <c r="N181">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O181">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P181">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U181">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V181">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
         <v>35</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>4.5</v>
@@ -16746,7 +16746,7 @@
         <v>45</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16755,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K183">
         <v>2.625</v>
@@ -16832,10 +16832,10 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H184">
         <v>5</v>
@@ -16844,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K184">
         <v>1.25</v>
@@ -16924,7 +16924,7 @@
         <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K185">
         <v>1.95</v>
@@ -17013,7 +17013,7 @@
         <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K186">
         <v>1.3</v>
@@ -17099,10 +17099,10 @@
         <v>45342.625</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17111,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>2.55</v>
@@ -17188,7 +17188,7 @@
         <v>45343.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
         <v>31</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>1.75</v>
@@ -17277,10 +17277,10 @@
         <v>45343.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K189">
         <v>3.4</v>
@@ -17366,10 +17366,10 @@
         <v>45344.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17378,7 +17378,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K190">
         <v>3</v>
@@ -17455,7 +17455,7 @@
         <v>45344.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
         <v>45</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>1.833</v>
@@ -17544,10 +17544,10 @@
         <v>45346.5</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K192">
         <v>1.571</v>
@@ -17645,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K193">
         <v>2.5</v>
@@ -17722,7 +17722,7 @@
         <v>45346.66666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K194">
         <v>1.8</v>
@@ -17811,10 +17811,10 @@
         <v>45347.5</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K195">
         <v>1.909</v>
@@ -17900,10 +17900,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F196" t="s">
+        <v>36</v>
+      </c>
+      <c r="G196" t="s">
         <v>30</v>
-      </c>
-      <c r="G196" t="s">
-        <v>36</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K196">
         <v>1.5</v>
@@ -17989,10 +17989,10 @@
         <v>45347.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18001,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K197">
         <v>1.727</v>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -103,7 +103,7 @@
     <t>Morocco GNF 1</t>
   </si>
   <si>
-    <t>SC Chabab Mohammedia</t>
+    <t>Difaa El Jadida</t>
   </si>
   <si>
     <t>Union de Touarga</t>
@@ -112,28 +112,31 @@
     <t>MAT Tetouan</t>
   </si>
   <si>
-    <t>HUSA Agadir</t>
+    <t>SC Chabab Mohammedia</t>
+  </si>
+  <si>
+    <t>Raja Casablanca</t>
   </si>
   <si>
     <t>OC Safi</t>
   </si>
   <si>
-    <t>Difaa El Jadida</t>
-  </si>
-  <si>
-    <t>Raja Casablanca</t>
-  </si>
-  <si>
     <t>FAR Rabat</t>
   </si>
   <si>
-    <t>FUS Rabat</t>
+    <t>HUSA Agadir</t>
   </si>
   <si>
     <t>MAS Fes</t>
   </si>
   <si>
-    <t>JS Soualem</t>
+    <t>RSB Berkane</t>
+  </si>
+  <si>
+    <t>Mouloudia Oujda</t>
+  </si>
+  <si>
+    <t>WAC Casablanca</t>
   </si>
   <si>
     <t>Olympique Khouribga</t>
@@ -142,13 +145,10 @@
     <t>Ittihad Tanger</t>
   </si>
   <si>
-    <t>WAC Casablanca</t>
+    <t>JS Soualem</t>
   </si>
   <si>
-    <t>Mouloudia Oujda</t>
-  </si>
-  <si>
-    <t>RSB Berkane</t>
+    <t>FUS Rabat</t>
   </si>
   <si>
     <t>Youssoufia Berrechid</t>
@@ -157,13 +157,13 @@
     <t>Renaissance Zemamra</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757667</v>
+        <v>6760261</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
+        <v>2.25</v>
+      </c>
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="L2">
-        <v>2.8</v>
-      </c>
       <c r="M2">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O2">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="P2">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T2">
         <v>2</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6728744</v>
+        <v>6757667</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>2.8</v>
+      </c>
+      <c r="M5">
+        <v>2.375</v>
+      </c>
+      <c r="N5">
+        <v>1.8</v>
+      </c>
+      <c r="O5">
+        <v>2.875</v>
+      </c>
+      <c r="P5">
         <v>4.5</v>
       </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
+      <c r="Q5">
+        <v>-0.5</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.925</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="N5">
-        <v>6.5</v>
-      </c>
-      <c r="O5">
-        <v>3.5</v>
-      </c>
-      <c r="P5">
-        <v>1.5</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1.8</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>1.85</v>
-      </c>
-      <c r="V5">
-        <v>1.95</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6760259</v>
+        <v>6761305</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,10 +993,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1014,52 +1014,52 @@
         <v>2.875</v>
       </c>
       <c r="N6">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6760261</v>
+        <v>6760259</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1091,43 +1091,43 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O7">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="P7">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6761305</v>
+        <v>6756722</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,37 +1171,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="N8">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R8">
         <v>1.95</v>
@@ -1210,16 +1210,16 @@
         <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>0.6659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1228,16 +1228,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6756722</v>
+        <v>6728744</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,70 +1263,70 @@
         <v>40</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
+        <v>4.5</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>1.8</v>
+      </c>
+      <c r="N9">
+        <v>6.5</v>
+      </c>
+      <c r="O9">
+        <v>3.5</v>
+      </c>
+      <c r="P9">
         <v>1.5</v>
       </c>
-      <c r="L9">
-        <v>3.2</v>
-      </c>
-      <c r="M9">
-        <v>7.5</v>
-      </c>
-      <c r="N9">
-        <v>1.285</v>
-      </c>
-      <c r="O9">
-        <v>4.2</v>
-      </c>
-      <c r="P9">
-        <v>10</v>
-      </c>
       <c r="Q9">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R9">
+        <v>1.8</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
         <v>2.5</v>
       </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.925</v>
-      </c>
-      <c r="W9">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6728809</v>
+        <v>6728808</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,10 +1349,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1361,61 +1361,61 @@
         <v>47</v>
       </c>
       <c r="K10">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L10">
+        <v>3.25</v>
+      </c>
+      <c r="M10">
+        <v>1.7</v>
+      </c>
+      <c r="N10">
+        <v>4.75</v>
+      </c>
+      <c r="O10">
         <v>3.4</v>
       </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>1.909</v>
-      </c>
-      <c r="O10">
-        <v>3.2</v>
-      </c>
       <c r="P10">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q10">
+        <v>0.75</v>
+      </c>
+      <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>1.825</v>
+      </c>
+      <c r="V10">
+        <v>1.975</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z10">
         <v>-0.5</v>
       </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>1.8</v>
-      </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
-      <c r="U10">
-        <v>1.9</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
-      <c r="W10">
-        <v>0.909</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1423,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6728808</v>
+        <v>6728807</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1438,10 +1438,10 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1450,61 +1450,61 @@
         <v>49</v>
       </c>
       <c r="K11">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="N11">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q11">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6728811</v>
+        <v>6728746</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,73 +1527,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12">
+        <v>2.5</v>
+      </c>
+      <c r="L12">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12">
-        <v>2.375</v>
-      </c>
-      <c r="L12">
-        <v>2.8</v>
-      </c>
       <c r="M12">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O12">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6728810</v>
+        <v>6728745</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,55 +1616,55 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O13">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P13">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
         <v>2</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W13">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1673,13 +1673,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6728806</v>
+        <v>6728810</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,55 +1705,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M14">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P14">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
         <v>2</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1762,16 +1762,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6728745</v>
+        <v>6728806</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,31 +1794,31 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N15">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O15">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
         <v>6.5</v>
@@ -1827,22 +1827,22 @@
         <v>-1</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,16 +1851,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6728746</v>
+        <v>6728811</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,73 +1883,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L16">
+        <v>2.8</v>
+      </c>
+      <c r="M16">
         <v>3</v>
       </c>
-      <c r="M16">
-        <v>2.6</v>
-      </c>
       <c r="N16">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P16">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z16">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6728807</v>
+        <v>6728809</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1981,22 +1981,22 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K17">
+        <v>1.615</v>
+      </c>
+      <c r="L17">
+        <v>3.4</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
         <v>1.909</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>3.2</v>
-      </c>
-      <c r="M17">
-        <v>3.6</v>
-      </c>
-      <c r="N17">
-        <v>1.833</v>
-      </c>
-      <c r="O17">
-        <v>3.5</v>
       </c>
       <c r="P17">
         <v>3.5</v>
@@ -2005,22 +2005,22 @@
         <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>0.833</v>
+        <v>0.909</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2029,13 +2029,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2058,10 +2058,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6786814</v>
+        <v>6786816</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,73 +2147,73 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
       </c>
       <c r="K19">
-        <v>6.5</v>
+        <v>1.25</v>
       </c>
       <c r="L19">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M19">
-        <v>1.444</v>
+        <v>9.5</v>
       </c>
       <c r="N19">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="O19">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="P19">
-        <v>1.285</v>
+        <v>10</v>
       </c>
       <c r="Q19">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
+        <v>1.85</v>
+      </c>
+      <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>1.975</v>
+      </c>
+      <c r="V19">
         <v>1.825</v>
       </c>
-      <c r="S19">
-        <v>1.975</v>
-      </c>
-      <c r="T19">
-        <v>2.25</v>
-      </c>
-      <c r="U19">
-        <v>1.925</v>
-      </c>
-      <c r="V19">
-        <v>1.875</v>
-      </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6786813</v>
+        <v>6786814</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="N20">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="O20">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R20">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z20">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2328,7 +2328,7 @@
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>3.6</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6786816</v>
+        <v>6786809</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L23">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="M23">
-        <v>9.5</v>
+        <v>2.9</v>
       </c>
       <c r="N23">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P23">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W23">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6786809</v>
+        <v>6786813</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,25 +2595,25 @@
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="L24">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N24">
         <v>2.3</v>
@@ -2622,46 +2622,46 @@
         <v>2.9</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X24">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA24">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2681,10 +2681,10 @@
         <v>45097.75</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K25">
         <v>2.1</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6786817</v>
+        <v>6786819</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,76 +2770,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M26">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N26">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="O26">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
+        <v>1.975</v>
+      </c>
+      <c r="V26">
         <v>1.825</v>
       </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6786824</v>
+        <v>6786817</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2862,73 +2862,73 @@
         <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
         <v>3</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27">
-        <v>2.1</v>
-      </c>
-      <c r="L27">
-        <v>2.9</v>
-      </c>
       <c r="M27">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N27">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P27">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U27">
+        <v>1.825</v>
+      </c>
+      <c r="V27">
+        <v>1.975</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
         <v>1.8</v>
       </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
-      <c r="W27">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6786823</v>
+        <v>6786818</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,73 +2948,73 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
         <v>35</v>
       </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
       <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
         <v>3</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="N28">
+        <v>8</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
         <v>1.333</v>
       </c>
-      <c r="O28">
-        <v>4.2</v>
-      </c>
-      <c r="P28">
-        <v>8</v>
-      </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
         <v>0.333</v>
       </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA28">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6786821</v>
+        <v>6786820</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
       </c>
       <c r="K29">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="L29">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="N29">
-        <v>1.6</v>
+        <v>15</v>
       </c>
       <c r="O29">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P29">
-        <v>5.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
+        <v>2.25</v>
+      </c>
+      <c r="U29">
+        <v>2.025</v>
+      </c>
+      <c r="V29">
         <v>1.775</v>
       </c>
-      <c r="S29">
-        <v>2.025</v>
-      </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.9</v>
-      </c>
       <c r="W29">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.875</v>
+      </c>
+      <c r="AB29">
+        <v>-0.5</v>
+      </c>
+      <c r="AC29">
         <v>0.3875</v>
-      </c>
-      <c r="AA29">
-        <v>-0.5</v>
-      </c>
-      <c r="AB29">
-        <v>0.45</v>
-      </c>
-      <c r="AC29">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6786820</v>
+        <v>6786821</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>49</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M30">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>1.6</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>1.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
+        <v>0.45</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AC30">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6786819</v>
+        <v>6786822</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
         <v>49</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>2.75</v>
       </c>
       <c r="M31">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N31">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P31">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6786818</v>
+        <v>6786823</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,73 +3304,73 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>49</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="N32">
+        <v>1.333</v>
+      </c>
+      <c r="O32">
+        <v>4.2</v>
+      </c>
+      <c r="P32">
         <v>8</v>
       </c>
-      <c r="O32">
-        <v>4</v>
-      </c>
-      <c r="P32">
-        <v>1.333</v>
-      </c>
       <c r="Q32">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6786822</v>
+        <v>6786824</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,58 +3393,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L33">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M33">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
+        <v>1.9</v>
+      </c>
+      <c r="T33">
+        <v>2.5</v>
+      </c>
+      <c r="U33">
         <v>1.8</v>
       </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
-      <c r="U33">
-        <v>1.85</v>
-      </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>1.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3453,13 +3453,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3482,7 +3482,7 @@
         <v>45163.72916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
         <v>31</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>2.15</v>
@@ -3571,10 +3571,10 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>1.833</v>
@@ -3749,10 +3749,10 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K37">
         <v>1.8</v>
@@ -3841,7 +3841,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3850,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K38">
         <v>4.5</v>
@@ -3927,10 +3927,10 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>1.75</v>
@@ -4016,10 +4016,10 @@
         <v>45168.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>1.285</v>
@@ -4105,10 +4105,10 @@
         <v>45169.72916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K41">
         <v>2.1</v>
@@ -4194,10 +4194,10 @@
         <v>45170.72916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>2.4</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>2.1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7112128</v>
+        <v>7112127</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4372,76 @@
         <v>45171.6875</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L44">
         <v>2.75</v>
       </c>
       <c r="M44">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O44">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y44">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7112127</v>
+        <v>7112128</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45171.6875</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
         <v>2.75</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N45">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O45">
+        <v>2.7</v>
+      </c>
+      <c r="P45">
         <v>2.75</v>
       </c>
-      <c r="P45">
-        <v>2.25</v>
-      </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>1.8</v>
+      </c>
+      <c r="V45">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>1.75</v>
       </c>
-      <c r="U45">
-        <v>1.75</v>
-      </c>
-      <c r="V45">
-        <v>2.05</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>1.75</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
       <c r="Z45">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,10 +4550,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s">
         <v>35</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7112131</v>
+        <v>7112130</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4642,73 +4642,73 @@
         <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N47">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P47">
         <v>4.5</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7112130</v>
+        <v>7112131</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M48">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O48">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
         <v>4.5</v>
       </c>
       <c r="Q48">
+        <v>-0.75</v>
+      </c>
+      <c r="R48">
+        <v>1.875</v>
+      </c>
+      <c r="S48">
+        <v>1.925</v>
+      </c>
+      <c r="T48">
+        <v>2.25</v>
+      </c>
+      <c r="U48">
+        <v>2.025</v>
+      </c>
+      <c r="V48">
+        <v>1.775</v>
+      </c>
+      <c r="W48">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X48">
+        <v>-1</v>
+      </c>
+      <c r="Y48">
+        <v>-1</v>
+      </c>
+      <c r="Z48">
+        <v>0.4375</v>
+      </c>
+      <c r="AA48">
         <v>-0.5</v>
       </c>
-      <c r="R48">
-        <v>1.8</v>
-      </c>
-      <c r="S48">
-        <v>2</v>
-      </c>
-      <c r="T48">
-        <v>1.75</v>
-      </c>
-      <c r="U48">
-        <v>1.825</v>
-      </c>
-      <c r="V48">
-        <v>1.975</v>
-      </c>
-      <c r="W48">
-        <v>-1</v>
-      </c>
-      <c r="X48">
-        <v>2.1</v>
-      </c>
-      <c r="Y48">
-        <v>-1</v>
-      </c>
-      <c r="Z48">
-        <v>-1</v>
-      </c>
-      <c r="AA48">
-        <v>1</v>
-      </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4817,10 +4817,10 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4829,7 +4829,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>5.5</v>
@@ -4906,7 +4906,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>1.833</v>
@@ -4995,10 +4995,10 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>2.375</v>
@@ -5173,10 +5173,10 @@
         <v>45186.63541666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5262,10 +5262,10 @@
         <v>45186.72916666666</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5354,7 +5354,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5363,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>2.875</v>
@@ -5440,7 +5440,7 @@
         <v>45189.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>1.222</v>
@@ -5529,10 +5529,10 @@
         <v>45190.66666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>1.571</v>
@@ -5618,7 +5618,7 @@
         <v>45192.63541666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K58">
         <v>2.25</v>
@@ -5707,7 +5707,7 @@
         <v>45192.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -5719,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2.4</v>
@@ -5796,7 +5796,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>30</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K60">
         <v>1.666</v>
@@ -5885,10 +5885,10 @@
         <v>45193.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>45194.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>2.25</v>
@@ -6063,10 +6063,10 @@
         <v>45194.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6075,7 +6075,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K63">
         <v>7</v>
@@ -6155,7 +6155,7 @@
         <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6241,10 +6241,10 @@
         <v>45196.66666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>1.7</v>
@@ -6330,10 +6330,10 @@
         <v>45199.5</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6419,10 +6419,10 @@
         <v>45200.5</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7263823</v>
+        <v>7263824</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
         <v>43</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N68">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P68">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X68">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7263824</v>
+        <v>7263823</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>48</v>
+      </c>
+      <c r="K69">
+        <v>2.2</v>
+      </c>
+      <c r="L69">
+        <v>2.875</v>
+      </c>
+      <c r="M69">
+        <v>3.2</v>
+      </c>
+      <c r="N69">
+        <v>1.909</v>
+      </c>
+      <c r="O69">
         <v>3</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>47</v>
-      </c>
-      <c r="K69">
-        <v>2.25</v>
-      </c>
-      <c r="L69">
-        <v>2.9</v>
-      </c>
-      <c r="M69">
-        <v>3.1</v>
-      </c>
-      <c r="N69">
-        <v>2</v>
-      </c>
-      <c r="O69">
-        <v>2.9</v>
-      </c>
       <c r="P69">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6689,7 +6689,7 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6775,7 +6775,7 @@
         <v>45203.59375</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>1.222</v>
@@ -6864,10 +6864,10 @@
         <v>45203.6875</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6956,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6965,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>2.6</v>
@@ -7042,10 +7042,10 @@
         <v>45205.6875</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K74">
         <v>2.45</v>
@@ -7134,7 +7134,7 @@
         <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K75">
         <v>4.5</v>
@@ -7220,10 +7220,10 @@
         <v>45206.59375</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7232,7 +7232,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K76">
         <v>2.875</v>
@@ -7309,10 +7309,10 @@
         <v>45206.6875</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K77">
         <v>4</v>
@@ -7398,10 +7398,10 @@
         <v>45207.5</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>3.5</v>
@@ -7487,7 +7487,7 @@
         <v>45207.59375</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
         <v>45</v>
@@ -7499,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K79">
         <v>1.5</v>
@@ -7579,7 +7579,7 @@
         <v>46</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7588,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K80">
         <v>3</v>
@@ -7665,7 +7665,7 @@
         <v>45207.6875</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>1.5</v>
@@ -7754,10 +7754,10 @@
         <v>45226.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>1.571</v>
@@ -7843,7 +7843,7 @@
         <v>45227.5</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -7932,10 +7932,10 @@
         <v>45227.59375</v>
       </c>
       <c r="F84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" t="s">
         <v>33</v>
-      </c>
-      <c r="G84" t="s">
-        <v>35</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K85">
         <v>6</v>
@@ -8110,10 +8110,10 @@
         <v>45228.5</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K86">
         <v>1.222</v>
@@ -8202,7 +8202,7 @@
         <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8288,10 +8288,10 @@
         <v>45228.6875</v>
       </c>
       <c r="F88" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" t="s">
         <v>38</v>
-      </c>
-      <c r="G88" t="s">
-        <v>44</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8377,10 +8377,10 @@
         <v>45233.6875</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8555,10 +8555,10 @@
         <v>45234.59375</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>45234.6875</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>45</v>
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>1.363</v>
@@ -8733,10 +8733,10 @@
         <v>45235.5</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8822,10 +8822,10 @@
         <v>45235.59375</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8911,10 +8911,10 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9000,7 +9000,7 @@
         <v>45240.5</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -9092,7 +9092,7 @@
         <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9178,10 +9178,10 @@
         <v>45241.5</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9267,10 +9267,10 @@
         <v>45241.59375</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9356,10 +9356,10 @@
         <v>45241.6875</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K100">
         <v>3.5</v>
@@ -9445,7 +9445,7 @@
         <v>45242.59375</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
@@ -9457,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K101">
         <v>2.4</v>
@@ -9534,10 +9534,10 @@
         <v>45242.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9626,7 +9626,7 @@
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9712,10 +9712,10 @@
         <v>45255.5</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>2.9</v>
@@ -9804,7 +9804,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K105">
         <v>3.1</v>
@@ -9890,10 +9890,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K106">
         <v>1.3</v>
@@ -9982,7 +9982,7 @@
         <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10068,7 +10068,7 @@
         <v>45256.5</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
@@ -10157,10 +10157,10 @@
         <v>45258.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K109">
         <v>2.1</v>
@@ -10246,10 +10246,10 @@
         <v>45266.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -10258,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K110">
         <v>1.25</v>
@@ -10335,10 +10335,10 @@
         <v>45267.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K111">
         <v>1.615</v>
@@ -10424,10 +10424,10 @@
         <v>45268.5</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>4.333</v>
@@ -10513,10 +10513,10 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
         <v>46</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10691,7 +10691,7 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
         <v>30</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K115">
         <v>2.625</v>
@@ -10780,10 +10780,10 @@
         <v>45270.5</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10792,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>2.1</v>
@@ -10869,7 +10869,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
         <v>45</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10961,7 +10961,7 @@
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K118">
         <v>4.75</v>
@@ -11050,7 +11050,7 @@
         <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>45276.5</v>
       </c>
       <c r="F120" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" t="s">
         <v>43</v>
-      </c>
-      <c r="G120" t="s">
-        <v>39</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11148,7 +11148,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>2.1</v>
@@ -11225,10 +11225,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11326,7 +11326,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>1.833</v>
@@ -11406,7 +11406,7 @@
         <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11415,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K123">
         <v>4</v>
@@ -11492,11 +11492,11 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F124" t="s">
+        <v>35</v>
+      </c>
+      <c r="G124" t="s">
         <v>36</v>
       </c>
-      <c r="G124" t="s">
-        <v>32</v>
-      </c>
       <c r="H124">
         <v>2</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K124">
         <v>1.4</v>
@@ -11670,7 +11670,7 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K126">
         <v>1.3</v>
@@ -11759,10 +11759,10 @@
         <v>45284.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11848,10 +11848,10 @@
         <v>45286.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11937,7 +11937,7 @@
         <v>45288.5</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
         <v>45</v>
@@ -12026,10 +12026,10 @@
         <v>45288.5</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>6</v>
@@ -12038,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K130">
         <v>1.333</v>
@@ -12115,10 +12115,10 @@
         <v>45288.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12296,7 +12296,7 @@
         <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K133">
         <v>1.8</v>
@@ -12382,10 +12382,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12394,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
         <v>2.875</v>
@@ -12471,10 +12471,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K135">
         <v>3.4</v>
@@ -12560,10 +12560,10 @@
         <v>45289.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12649,10 +12649,10 @@
         <v>45294.5</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12661,7 +12661,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K137">
         <v>2.6</v>
@@ -12738,10 +12738,10 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K138">
         <v>4.5</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7641574</v>
+        <v>7641575</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L139">
         <v>3</v>
       </c>
       <c r="M139">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N139">
         <v>1.95</v>
       </c>
       <c r="O139">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q139">
         <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
         <v>2</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X139">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7641575</v>
+        <v>7641574</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L140">
         <v>3</v>
       </c>
       <c r="M140">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N140">
         <v>1.95</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P140">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q140">
         <v>-0.5</v>
       </c>
       <c r="R140">
+        <v>1.925</v>
+      </c>
+      <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="S140">
-        <v>1.85</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
-      <c r="U140">
-        <v>2.025</v>
-      </c>
-      <c r="V140">
-        <v>1.775</v>
-      </c>
       <c r="W140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB140">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K141">
         <v>2.5</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7641577</v>
+        <v>7641558</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>49</v>
       </c>
       <c r="K142">
+        <v>1.444</v>
+      </c>
+      <c r="L142">
+        <v>3.75</v>
+      </c>
+      <c r="M142">
+        <v>6.5</v>
+      </c>
+      <c r="N142">
+        <v>1.444</v>
+      </c>
+      <c r="O142">
+        <v>4</v>
+      </c>
+      <c r="P142">
+        <v>5.75</v>
+      </c>
+      <c r="Q142">
+        <v>-1</v>
+      </c>
+      <c r="R142">
+        <v>1.8</v>
+      </c>
+      <c r="S142">
+        <v>2</v>
+      </c>
+      <c r="T142">
         <v>2.25</v>
       </c>
-      <c r="L142">
-        <v>3</v>
-      </c>
-      <c r="M142">
-        <v>3</v>
-      </c>
-      <c r="N142">
-        <v>2.3</v>
-      </c>
-      <c r="O142">
-        <v>2.9</v>
-      </c>
-      <c r="P142">
-        <v>2.9</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>2</v>
-      </c>
-      <c r="S142">
-        <v>1.8</v>
-      </c>
-      <c r="T142">
-        <v>2</v>
-      </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7641558</v>
+        <v>7641577</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>47</v>
       </c>
       <c r="K143">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P143">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
         <v>1.8</v>
       </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
         <v>0.8</v>
       </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
       <c r="AB143">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13272,7 +13272,7 @@
         <v>45295.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>31</v>
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K144">
         <v>1.571</v>
@@ -13361,10 +13361,10 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>1.285</v>
@@ -13450,10 +13450,10 @@
         <v>45297.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>2.2</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7641559</v>
+        <v>7641581</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,58 +13539,58 @@
         <v>45298.5</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L147">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M147">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="N147">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P147">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="Q147">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>4.25</v>
+        <v>1.1</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13599,13 +13599,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7641581</v>
+        <v>7641559</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,58 +13628,58 @@
         <v>45298.5</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L148">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M148">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="N148">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="O148">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P148">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>2</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>1.1</v>
+        <v>4.25</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,13 +13688,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13720,7 +13720,7 @@
         <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13806,10 +13806,10 @@
         <v>45298.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13895,7 +13895,7 @@
         <v>45299.5</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s">
         <v>45</v>
@@ -13907,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>2.2</v>
@@ -13984,10 +13984,10 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13996,7 +13996,7 @@
         <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K152">
         <v>2.8</v>
@@ -14073,10 +14073,10 @@
         <v>45302.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7781916</v>
+        <v>7781931</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,73 +14162,73 @@
         <v>45329.5</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>49</v>
       </c>
       <c r="K154">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L154">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M154">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N154">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O154">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P154">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154">
+        <v>2.075</v>
+      </c>
+      <c r="S154">
         <v>1.725</v>
       </c>
-      <c r="S154">
-        <v>2.075</v>
-      </c>
       <c r="T154">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U154">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA154">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14263,7 +14263,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K155">
         <v>2</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7781931</v>
+        <v>7781916</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,73 +14340,73 @@
         <v>45329.5</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
         <v>42</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J156" t="s">
         <v>47</v>
       </c>
       <c r="K156">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L156">
+        <v>3.1</v>
+      </c>
+      <c r="M156">
+        <v>3.4</v>
+      </c>
+      <c r="N156">
+        <v>2.4</v>
+      </c>
+      <c r="O156">
+        <v>3</v>
+      </c>
+      <c r="P156">
         <v>2.9</v>
       </c>
-      <c r="M156">
-        <v>2.2</v>
-      </c>
-      <c r="N156">
-        <v>2.9</v>
-      </c>
-      <c r="O156">
-        <v>2.75</v>
-      </c>
-      <c r="P156">
-        <v>2.45</v>
-      </c>
       <c r="Q156">
         <v>0</v>
       </c>
       <c r="R156">
+        <v>1.725</v>
+      </c>
+      <c r="S156">
         <v>2.075</v>
       </c>
-      <c r="S156">
-        <v>1.725</v>
-      </c>
       <c r="T156">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U156">
+        <v>1.8</v>
+      </c>
+      <c r="V156">
+        <v>2</v>
+      </c>
+      <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
         <v>1.9</v>
       </c>
-      <c r="V156">
-        <v>1.9</v>
-      </c>
-      <c r="W156">
-        <v>1.9</v>
-      </c>
-      <c r="X156">
-        <v>-1</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
       <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
         <v>1.075</v>
       </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
       <c r="AB156">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7781919</v>
+        <v>7781918</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,73 +14429,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K157">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L157">
         <v>3</v>
       </c>
       <c r="M157">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N157">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O157">
         <v>2.75</v>
       </c>
       <c r="P157">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
         <v>1.75</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y157">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AC157">
         <v>-0.5</v>
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7781918</v>
+        <v>7781919</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,73 +14518,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L158">
         <v>3</v>
       </c>
       <c r="M158">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N158">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
         <v>2.75</v>
       </c>
       <c r="P158">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
         <v>1.75</v>
       </c>
       <c r="U158">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB158">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AC158">
         <v>-0.5</v>
@@ -14607,7 +14607,7 @@
         <v>45330.5</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
         <v>45</v>
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K159">
         <v>1.2</v>
@@ -14696,10 +14696,10 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14708,7 +14708,7 @@
         <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K160">
         <v>4.333</v>
@@ -14785,10 +14785,10 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K161">
         <v>3.6</v>
@@ -14874,10 +14874,10 @@
         <v>45332.5</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K162">
         <v>1.95</v>
@@ -14963,7 +14963,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
         <v>31</v>
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K163">
         <v>1.95</v>
@@ -15052,10 +15052,10 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15064,7 +15064,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K164">
         <v>3</v>
@@ -15141,10 +15141,10 @@
         <v>45333.5</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G165" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K165">
         <v>4</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7781924</v>
+        <v>7781925</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45333.5</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K166">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="L166">
+        <v>3.75</v>
+      </c>
+      <c r="M166">
+        <v>4.2</v>
+      </c>
+      <c r="N166">
+        <v>2.2</v>
+      </c>
+      <c r="O166">
+        <v>3</v>
+      </c>
+      <c r="P166">
         <v>3.2</v>
       </c>
-      <c r="M166">
-        <v>2.375</v>
-      </c>
-      <c r="N166">
-        <v>2.5</v>
-      </c>
-      <c r="O166">
-        <v>2.875</v>
-      </c>
-      <c r="P166">
-        <v>2.9</v>
-      </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T166">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7781925</v>
+        <v>7781924</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45333.5</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N167">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O167">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P167">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S167">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X167">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA167">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7781935</v>
+        <v>7781926</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,58 +15408,58 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>1.285</v>
+        <v>1.85</v>
       </c>
       <c r="L168">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M168">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="N168">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P168">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.363</v>
+        <v>1</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15468,16 +15468,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7781926</v>
+        <v>7781935</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,58 +15497,58 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K169">
+        <v>1.285</v>
+      </c>
+      <c r="L169">
+        <v>5</v>
+      </c>
+      <c r="M169">
+        <v>10</v>
+      </c>
+      <c r="N169">
+        <v>1.363</v>
+      </c>
+      <c r="O169">
+        <v>4.2</v>
+      </c>
+      <c r="P169">
+        <v>8</v>
+      </c>
+      <c r="Q169">
+        <v>-1.25</v>
+      </c>
+      <c r="R169">
+        <v>1.95</v>
+      </c>
+      <c r="S169">
         <v>1.85</v>
       </c>
-      <c r="L169">
-        <v>3.4</v>
-      </c>
-      <c r="M169">
-        <v>3.8</v>
-      </c>
-      <c r="N169">
-        <v>2</v>
-      </c>
-      <c r="O169">
-        <v>3.1</v>
-      </c>
-      <c r="P169">
-        <v>3.75</v>
-      </c>
-      <c r="Q169">
-        <v>-0.5</v>
-      </c>
-      <c r="R169">
-        <v>1.975</v>
-      </c>
-      <c r="S169">
-        <v>1.825</v>
-      </c>
       <c r="T169">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>0.363</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15557,16 +15557,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15589,7 +15589,7 @@
         <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15675,10 +15675,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15767,7 +15767,7 @@
         <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K172">
         <v>4.333</v>
@@ -15853,7 +15853,7 @@
         <v>45336.5</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
         <v>30</v>
@@ -15942,10 +15942,10 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15954,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>1.444</v>
@@ -16031,10 +16031,10 @@
         <v>45336.66666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -16043,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K175">
         <v>4</v>
@@ -16120,10 +16120,10 @@
         <v>45337.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>45337.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
         <v>45</v>
@@ -16298,10 +16298,10 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16310,7 +16310,7 @@
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K178">
         <v>2.8</v>
@@ -16387,10 +16387,10 @@
         <v>45339.5</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K179">
         <v>1.833</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7812530</v>
+        <v>7812529</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,16 +16476,16 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F180" t="s">
+        <v>40</v>
+      </c>
+      <c r="G180" t="s">
         <v>38</v>
       </c>
-      <c r="G180" t="s">
-        <v>46</v>
-      </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>49</v>
@@ -16494,58 +16494,58 @@
         <v>1.95</v>
       </c>
       <c r="L180">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M180">
         <v>3.8</v>
       </c>
       <c r="N180">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O180">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7812529</v>
+        <v>7812530</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,16 +16565,16 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
         <v>47</v>
@@ -16583,58 +16583,58 @@
         <v>1.95</v>
       </c>
       <c r="L181">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M181">
         <v>3.8</v>
       </c>
       <c r="N181">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O181">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="P181">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC181">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16746,7 +16746,7 @@
         <v>45</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16755,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K183">
         <v>2.625</v>
@@ -16832,10 +16832,10 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H184">
         <v>5</v>
@@ -16844,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>1.25</v>
@@ -16924,7 +16924,7 @@
         <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K185">
         <v>1.95</v>
@@ -17010,10 +17010,10 @@
         <v>45342.5</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K186">
         <v>1.3</v>
@@ -17099,10 +17099,10 @@
         <v>45342.625</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17188,7 +17188,7 @@
         <v>45343.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
         <v>31</v>
@@ -17277,10 +17277,10 @@
         <v>45343.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K189">
         <v>3.4</v>
@@ -17366,7 +17366,7 @@
         <v>45344.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
         <v>30</v>
@@ -17378,7 +17378,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K190">
         <v>3</v>
@@ -17455,7 +17455,7 @@
         <v>45344.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G191" t="s">
         <v>45</v>
@@ -17544,10 +17544,10 @@
         <v>45346.5</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K192">
         <v>1.571</v>
@@ -17636,7 +17636,7 @@
         <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45346.66666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K194">
         <v>1.8</v>
@@ -17811,11 +17811,11 @@
         <v>45347.5</v>
       </c>
       <c r="F195" t="s">
+        <v>36</v>
+      </c>
+      <c r="G195" t="s">
         <v>32</v>
       </c>
-      <c r="G195" t="s">
-        <v>29</v>
-      </c>
       <c r="H195">
         <v>2</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K195">
         <v>1.909</v>
@@ -17900,7 +17900,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G196" t="s">
         <v>30</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>1.5</v>
@@ -17989,10 +17989,10 @@
         <v>45347.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18001,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K197">
         <v>1.727</v>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,16 @@
     <t>Morocco GNF 1</t>
   </si>
   <si>
+    <t>OC Safi</t>
+  </si>
+  <si>
+    <t>Union de Touarga</t>
+  </si>
+  <si>
     <t>Difaa El Jadida</t>
   </si>
   <si>
-    <t>Union de Touarga</t>
+    <t>HUSA Agadir</t>
   </si>
   <si>
     <t>MAT Tetouan</t>
@@ -115,16 +121,16 @@
     <t>SC Chabab Mohammedia</t>
   </si>
   <si>
+    <t>FAR Rabat</t>
+  </si>
+  <si>
     <t>Raja Casablanca</t>
   </si>
   <si>
-    <t>OC Safi</t>
+    <t>FUS Rabat</t>
   </si>
   <si>
-    <t>FAR Rabat</t>
-  </si>
-  <si>
-    <t>HUSA Agadir</t>
+    <t>Olympique Khouribga</t>
   </si>
   <si>
     <t>MAS Fes</t>
@@ -133,22 +139,16 @@
     <t>RSB Berkane</t>
   </si>
   <si>
+    <t>Ittihad Tanger</t>
+  </si>
+  <si>
     <t>Mouloudia Oujda</t>
   </si>
   <si>
     <t>WAC Casablanca</t>
   </si>
   <si>
-    <t>Olympique Khouribga</t>
-  </si>
-  <si>
-    <t>Ittihad Tanger</t>
-  </si>
-  <si>
     <t>JS Soualem</t>
-  </si>
-  <si>
-    <t>FUS Rabat</t>
   </si>
   <si>
     <t>Youssoufia Berrechid</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC197"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760261</v>
+        <v>6760259</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -649,40 +649,40 @@
         <v>47</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N2">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O2">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="P2">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -691,19 +691,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6760258</v>
+        <v>6760261</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,43 +815,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
+        <v>2.25</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>2.75</v>
-      </c>
       <c r="M4">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O4">
+        <v>2.55</v>
+      </c>
+      <c r="P4">
         <v>3.1</v>
       </c>
-      <c r="P4">
-        <v>3.5</v>
-      </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T4">
         <v>2</v>
@@ -869,19 +869,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.7749999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6757667</v>
+        <v>6728744</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5">
+        <v>4.5</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>2.8</v>
-      </c>
       <c r="M5">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N5">
+        <v>6.5</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>1.5</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>1.8</v>
       </c>
-      <c r="O5">
-        <v>2.875</v>
-      </c>
-      <c r="P5">
-        <v>4.5</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>2.5</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>0.8</v>
       </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.875</v>
-      </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6761305</v>
+        <v>6760258</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,70 +993,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>2.75</v>
       </c>
       <c r="M6">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T6">
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z6">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6760259</v>
+        <v>6757667</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,73 +1082,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M7">
+        <v>2.375</v>
+      </c>
+      <c r="N7">
+        <v>1.8</v>
+      </c>
+      <c r="O7">
         <v>2.875</v>
       </c>
-      <c r="N7">
-        <v>2.7</v>
-      </c>
-      <c r="O7">
-        <v>2.625</v>
-      </c>
       <c r="P7">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6728744</v>
+        <v>6761305</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,70 +1263,70 @@
         <v>40</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M9">
+        <v>2.875</v>
+      </c>
+      <c r="N9">
+        <v>1.666</v>
+      </c>
+      <c r="O9">
+        <v>3.4</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>-0.75</v>
+      </c>
+      <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>1.85</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
         <v>1.8</v>
       </c>
-      <c r="N9">
-        <v>6.5</v>
-      </c>
-      <c r="O9">
-        <v>3.5</v>
-      </c>
-      <c r="P9">
-        <v>1.5</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1.8</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9">
-        <v>1.85</v>
-      </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0.475</v>
+      </c>
+      <c r="AA9">
+        <v>-0.5</v>
+      </c>
+      <c r="AB9">
         <v>0.8</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6728808</v>
+        <v>6728809</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,73 +1349,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P10">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
         <v>1.9</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.9</v>
       </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
-        <v>1.825</v>
-      </c>
-      <c r="V10">
-        <v>1.975</v>
-      </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1423,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6728807</v>
+        <v>6728810</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1438,55 +1438,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>49</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M11">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N11">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P11">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q11">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1495,13 +1495,13 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6728746</v>
+        <v>6728808</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,73 +1527,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="N12">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="O12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P12">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
+        <v>1.9</v>
+      </c>
+      <c r="S12">
+        <v>1.9</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>1.825</v>
+      </c>
+      <c r="V12">
         <v>1.975</v>
       </c>
-      <c r="S12">
-        <v>1.825</v>
-      </c>
-      <c r="T12">
-        <v>2.25</v>
-      </c>
-      <c r="U12">
-        <v>1.975</v>
-      </c>
-      <c r="V12">
-        <v>1.825</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z12">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6728745</v>
+        <v>6728807</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,10 +1616,10 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1628,43 +1628,43 @@
         <v>49</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
+        <v>3.2</v>
+      </c>
+      <c r="M13">
         <v>3.6</v>
       </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
       <c r="N13">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1673,13 +1673,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6728810</v>
+        <v>6728806</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,7 +1708,7 @@
         <v>31</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1717,43 +1717,43 @@
         <v>49</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N14">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O14">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
         <v>2</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1762,16 +1762,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6728806</v>
+        <v>6728746</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N15">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6728811</v>
+        <v>6728745</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,70 +1883,70 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L16">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O16">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P16">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6728809</v>
+        <v>6728811</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,67 +1975,67 @@
         <v>32</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P17">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6786810</v>
+        <v>6786814</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,76 +2058,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
+        <v>6.5</v>
+      </c>
+      <c r="L18">
+        <v>3.8</v>
+      </c>
+      <c r="M18">
         <v>1.444</v>
       </c>
-      <c r="L18">
-        <v>3.6</v>
-      </c>
-      <c r="M18">
-        <v>7</v>
-      </c>
       <c r="N18">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="P18">
-        <v>6</v>
+        <v>1.285</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R18">
+        <v>1.825</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2.25</v>
+      </c>
+      <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
         <v>1.875</v>
       </c>
-      <c r="S18">
-        <v>1.925</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>2.05</v>
-      </c>
-      <c r="V18">
-        <v>1.75</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA18">
+        <v>-0.5</v>
+      </c>
+      <c r="AB18">
         <v>0.925</v>
       </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2147,10 +2147,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6786814</v>
+        <v>6786815</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,73 +2236,73 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="O20">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
-        <v>1.285</v>
+        <v>2.375</v>
       </c>
       <c r="Q20">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6786812</v>
+        <v>6786813</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L21">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N21">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q21">
         <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V21">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA21">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6786815</v>
+        <v>6786809</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,76 +2414,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N22">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O22">
         <v>2.9</v>
       </c>
       <c r="P22">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.775</v>
       </c>
-      <c r="V22">
-        <v>2.025</v>
-      </c>
       <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>1.9</v>
       </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6786809</v>
+        <v>6786810</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,10 +2503,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2518,61 +2518,61 @@
         <v>48</v>
       </c>
       <c r="K23">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L23">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N23">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O23">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6786813</v>
+        <v>6786812</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
+        <v>2.875</v>
+      </c>
+      <c r="M24">
+        <v>3.4</v>
+      </c>
+      <c r="N24">
+        <v>2.25</v>
+      </c>
+      <c r="O24">
         <v>3</v>
       </c>
-      <c r="M24">
-        <v>2.375</v>
-      </c>
-      <c r="N24">
-        <v>2.3</v>
-      </c>
-      <c r="O24">
-        <v>2.9</v>
-      </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
         <v>2</v>
       </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2681,10 +2681,10 @@
         <v>45097.75</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6786819</v>
+        <v>6786824</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,76 +2770,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L26">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M26">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N26">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="O26">
         <v>3.6</v>
       </c>
       <c r="P26">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,10 +2859,10 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6786820</v>
+        <v>6786821</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M29">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="N29">
-        <v>15</v>
+        <v>1.6</v>
       </c>
       <c r="O29">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>1.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q29">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
+        <v>0.45</v>
+      </c>
+      <c r="AC29">
         <v>-0.5</v>
-      </c>
-      <c r="AC29">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6786821</v>
+        <v>6786820</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,73 +3129,73 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="N30">
-        <v>1.6</v>
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>5.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
+        <v>1.925</v>
+      </c>
+      <c r="S30">
+        <v>1.875</v>
+      </c>
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
+        <v>2.025</v>
+      </c>
+      <c r="V30">
         <v>1.775</v>
       </c>
-      <c r="S30">
-        <v>2.025</v>
-      </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.9</v>
-      </c>
-      <c r="V30">
-        <v>1.9</v>
-      </c>
       <c r="W30">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
+        <v>0.875</v>
+      </c>
+      <c r="AB30">
+        <v>-0.5</v>
+      </c>
+      <c r="AC30">
         <v>0.3875</v>
-      </c>
-      <c r="AA30">
-        <v>-0.5</v>
-      </c>
-      <c r="AB30">
-        <v>0.45</v>
-      </c>
-      <c r="AC30">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3215,7 +3215,7 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6786823</v>
+        <v>6786819</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N32">
-        <v>1.333</v>
+        <v>5.75</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="Q32">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R32">
+        <v>1.925</v>
+      </c>
+      <c r="S32">
+        <v>1.875</v>
+      </c>
+      <c r="T32">
+        <v>2.75</v>
+      </c>
+      <c r="U32">
         <v>1.975</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.825</v>
       </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>2.025</v>
-      </c>
-      <c r="V32">
-        <v>1.775</v>
-      </c>
       <c r="W32">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB32">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6786824</v>
+        <v>6786823</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,58 +3393,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>49</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L33">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W33">
-        <v>0.5329999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3453,13 +3453,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3482,10 +3482,10 @@
         <v>45163.72916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3571,10 +3571,10 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3749,10 +3749,10 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3841,7 +3841,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3927,10 +3927,10 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4019,7 +4019,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4105,10 +4105,10 @@
         <v>45169.72916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>45170.72916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7112127</v>
+        <v>7112128</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4372,76 @@
         <v>45171.6875</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
         <v>2.75</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N44">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O44">
+        <v>2.7</v>
+      </c>
+      <c r="P44">
         <v>2.75</v>
       </c>
-      <c r="P44">
-        <v>2.25</v>
-      </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
+        <v>1.8</v>
+      </c>
+      <c r="V44">
+        <v>2</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
+        <v>-1</v>
+      </c>
+      <c r="Y44">
         <v>1.75</v>
       </c>
-      <c r="U44">
-        <v>1.75</v>
-      </c>
-      <c r="V44">
-        <v>2.05</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>1.75</v>
-      </c>
-      <c r="Y44">
-        <v>-1</v>
-      </c>
       <c r="Z44">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7112128</v>
+        <v>7112127</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45171.6875</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L45">
         <v>2.75</v>
       </c>
       <c r="M45">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O45">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y45">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA45">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4639,10 +4639,10 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4728,10 +4728,10 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4817,10 +4817,10 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4906,10 +4906,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5173,10 +5173,10 @@
         <v>45186.63541666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5262,10 +5262,10 @@
         <v>45186.72916666666</v>
       </c>
       <c r="F54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s">
         <v>42</v>
-      </c>
-      <c r="G54" t="s">
-        <v>39</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5354,7 +5354,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5529,10 +5529,10 @@
         <v>45190.66666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>45192.63541666666</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5707,10 +5707,10 @@
         <v>45192.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
         <v>30</v>
@@ -5885,10 +5885,10 @@
         <v>45193.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>45194.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>45194.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
         <v>35</v>
@@ -6155,7 +6155,7 @@
         <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6241,10 +6241,10 @@
         <v>45196.66666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6330,10 +6330,10 @@
         <v>45199.5</v>
       </c>
       <c r="F66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
         <v>34</v>
-      </c>
-      <c r="G66" t="s">
-        <v>32</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6419,10 +6419,10 @@
         <v>45200.5</v>
       </c>
       <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
         <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7263824</v>
+        <v>7263823</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K68">
+        <v>2.2</v>
+      </c>
+      <c r="L68">
+        <v>2.875</v>
+      </c>
+      <c r="M68">
+        <v>3.2</v>
+      </c>
+      <c r="N68">
+        <v>1.909</v>
+      </c>
+      <c r="O68">
         <v>3</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>49</v>
-      </c>
-      <c r="K68">
-        <v>2.25</v>
-      </c>
-      <c r="L68">
-        <v>2.9</v>
-      </c>
-      <c r="M68">
-        <v>3.1</v>
-      </c>
-      <c r="N68">
-        <v>2</v>
-      </c>
-      <c r="O68">
-        <v>2.9</v>
-      </c>
       <c r="P68">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7263823</v>
+        <v>7263824</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M69">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N69">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P69">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X69">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6689,7 +6689,7 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6775,7 +6775,7 @@
         <v>45203.59375</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6867,7 +6867,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6953,10 +6953,10 @@
         <v>45204.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7042,10 +7042,10 @@
         <v>45205.6875</v>
       </c>
       <c r="F74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" t="s">
         <v>32</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7220,10 +7220,10 @@
         <v>45206.59375</v>
       </c>
       <c r="F76" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" t="s">
         <v>39</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7309,10 +7309,10 @@
         <v>45206.6875</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7398,10 +7398,10 @@
         <v>45207.5</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7487,7 +7487,7 @@
         <v>45207.59375</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
         <v>45</v>
@@ -7579,7 +7579,7 @@
         <v>46</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7665,10 +7665,10 @@
         <v>45207.6875</v>
       </c>
       <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s">
         <v>33</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7754,10 +7754,10 @@
         <v>45226.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7843,7 +7843,7 @@
         <v>45227.5</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -7932,10 +7932,10 @@
         <v>45227.59375</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8113,7 +8113,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8199,10 +8199,10 @@
         <v>45228.59375</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -8288,10 +8288,10 @@
         <v>45228.6875</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8377,10 +8377,10 @@
         <v>45233.6875</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8469,7 +8469,7 @@
         <v>46</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8555,10 +8555,10 @@
         <v>45234.59375</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8733,10 +8733,10 @@
         <v>45235.5</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8822,10 +8822,10 @@
         <v>45235.59375</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8911,10 +8911,10 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9000,7 +9000,7 @@
         <v>45240.5</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9089,10 +9089,10 @@
         <v>45240.59375</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9178,10 +9178,10 @@
         <v>45241.5</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9267,10 +9267,10 @@
         <v>45241.59375</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9356,7 +9356,7 @@
         <v>45241.6875</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>35</v>
@@ -9445,7 +9445,7 @@
         <v>45242.59375</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
@@ -9534,10 +9534,10 @@
         <v>45242.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9626,7 +9626,7 @@
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9712,10 +9712,10 @@
         <v>45255.5</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9804,7 +9804,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9890,10 +9890,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9982,7 +9982,7 @@
         <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,10 +10068,10 @@
         <v>45256.5</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10160,7 +10160,7 @@
         <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10246,10 +10246,10 @@
         <v>45266.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -10335,10 +10335,10 @@
         <v>45267.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10424,7 +10424,7 @@
         <v>45268.5</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10513,10 +10513,10 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>46</v>
@@ -10691,7 +10691,7 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
         <v>30</v>
@@ -10780,10 +10780,10 @@
         <v>45270.5</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10869,7 +10869,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
         <v>45</v>
@@ -10961,7 +10961,7 @@
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11047,10 +11047,10 @@
         <v>45273.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>45276.5</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11225,10 +11225,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11406,7 +11406,7 @@
         <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11495,7 +11495,7 @@
         <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11584,7 +11584,7 @@
         <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11670,7 +11670,7 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -11759,10 +11759,10 @@
         <v>45284.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11848,10 +11848,10 @@
         <v>45286.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11937,7 +11937,7 @@
         <v>45288.5</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
         <v>45</v>
@@ -12026,10 +12026,10 @@
         <v>45288.5</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H130">
         <v>6</v>
@@ -12115,10 +12115,10 @@
         <v>45288.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12204,7 +12204,7 @@
         <v>45288.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12296,7 +12296,7 @@
         <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7627126</v>
+        <v>7627031</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12397,43 +12397,43 @@
         <v>49</v>
       </c>
       <c r="K134">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N134">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O134">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P134">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
         <v>1.75</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12442,13 +12442,13 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7627031</v>
+        <v>7627126</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,10 +12471,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12486,43 +12486,43 @@
         <v>49</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M135">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N135">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P135">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
         <v>1.75</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12531,13 +12531,13 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12560,7 +12560,7 @@
         <v>45289.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
         <v>35</v>
@@ -12649,10 +12649,10 @@
         <v>45294.5</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12738,10 +12738,10 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12827,10 +12827,10 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12916,7 +12916,7 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
         <v>46</v>
@@ -13008,7 +13008,7 @@
         <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7641558</v>
+        <v>7641577</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142" t="s">
+        <v>47</v>
+      </c>
+      <c r="K142">
+        <v>2.25</v>
+      </c>
+      <c r="L142">
         <v>3</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="J142" t="s">
-        <v>49</v>
-      </c>
-      <c r="K142">
-        <v>1.444</v>
-      </c>
-      <c r="L142">
-        <v>3.75</v>
-      </c>
       <c r="M142">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P142">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
         <v>1.8</v>
       </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U142">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
         <v>0.8</v>
       </c>
-      <c r="AA142">
-        <v>-1</v>
-      </c>
       <c r="AB142">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7641577</v>
+        <v>7641558</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
+        <v>1.444</v>
+      </c>
+      <c r="L143">
+        <v>3.75</v>
+      </c>
+      <c r="M143">
+        <v>6.5</v>
+      </c>
+      <c r="N143">
+        <v>1.444</v>
+      </c>
+      <c r="O143">
+        <v>4</v>
+      </c>
+      <c r="P143">
+        <v>5.75</v>
+      </c>
+      <c r="Q143">
+        <v>-1</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
+        <v>2</v>
+      </c>
+      <c r="T143">
         <v>2.25</v>
       </c>
-      <c r="L143">
-        <v>3</v>
-      </c>
-      <c r="M143">
-        <v>3</v>
-      </c>
-      <c r="N143">
-        <v>2.3</v>
-      </c>
-      <c r="O143">
-        <v>2.9</v>
-      </c>
-      <c r="P143">
-        <v>2.9</v>
-      </c>
-      <c r="Q143">
-        <v>-0.25</v>
-      </c>
-      <c r="R143">
-        <v>2</v>
-      </c>
-      <c r="S143">
-        <v>1.8</v>
-      </c>
-      <c r="T143">
-        <v>2</v>
-      </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13275,7 +13275,7 @@
         <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13361,10 +13361,10 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13450,10 +13450,10 @@
         <v>45297.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7641581</v>
+        <v>7641559</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,58 +13539,58 @@
         <v>45298.5</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>49</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L147">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M147">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="N147">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="O147">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
         <v>2</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>1.1</v>
+        <v>4.25</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13599,13 +13599,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7641559</v>
+        <v>7641581</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,58 +13628,58 @@
         <v>45298.5</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>49</v>
       </c>
       <c r="K148">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L148">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M148">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="N148">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O148">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P148">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
         <v>2</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>4.25</v>
+        <v>1.1</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,13 +13688,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13717,10 +13717,10 @@
         <v>45298.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13806,10 +13806,10 @@
         <v>45298.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13895,7 +13895,7 @@
         <v>45299.5</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
         <v>45</v>
@@ -13984,7 +13984,7 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
         <v>35</v>
@@ -14073,10 +14073,10 @@
         <v>45302.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7781931</v>
+        <v>7781917</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,73 +14162,73 @@
         <v>45329.5</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L154">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M154">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N154">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O154">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P154">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S154">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T154">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W154">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z154">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB154">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7781917</v>
+        <v>7781916</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,16 +14251,16 @@
         <v>45329.5</v>
       </c>
       <c r="F155" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
         <v>47</v>
@@ -14275,31 +14275,31 @@
         <v>3.4</v>
       </c>
       <c r="N155">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O155">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P155">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S155">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T155">
         <v>2</v>
       </c>
       <c r="U155">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V155">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W155">
         <v>-1</v>
@@ -14308,16 +14308,16 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.875</v>
+        <v>1.075</v>
       </c>
       <c r="AB155">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7781916</v>
+        <v>7781931</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,73 +14340,73 @@
         <v>45329.5</v>
       </c>
       <c r="F156" t="s">
+        <v>37</v>
+      </c>
+      <c r="G156" t="s">
         <v>43</v>
       </c>
-      <c r="G156" t="s">
-        <v>42</v>
-      </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L156">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M156">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N156">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O156">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P156">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q156">
         <v>0</v>
       </c>
       <c r="R156">
+        <v>2.075</v>
+      </c>
+      <c r="S156">
         <v>1.725</v>
       </c>
-      <c r="S156">
-        <v>2.075</v>
-      </c>
       <c r="T156">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA156">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14429,10 +14429,10 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14518,10 +14518,10 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14607,7 +14607,7 @@
         <v>45330.5</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
         <v>45</v>
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7781920</v>
+        <v>7781933</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160" t="s">
+        <v>49</v>
+      </c>
+      <c r="K160">
+        <v>3.6</v>
+      </c>
+      <c r="L160">
         <v>3</v>
       </c>
-      <c r="J160" t="s">
-        <v>47</v>
-      </c>
-      <c r="K160">
-        <v>4.333</v>
-      </c>
-      <c r="L160">
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>4.5</v>
+      </c>
+      <c r="O160">
+        <v>3.3</v>
+      </c>
+      <c r="P160">
+        <v>1.7</v>
+      </c>
+      <c r="Q160">
+        <v>0.75</v>
+      </c>
+      <c r="R160">
+        <v>1.875</v>
+      </c>
+      <c r="S160">
+        <v>1.925</v>
+      </c>
+      <c r="T160">
+        <v>2</v>
+      </c>
+      <c r="U160">
+        <v>1.75</v>
+      </c>
+      <c r="V160">
+        <v>2.05</v>
+      </c>
+      <c r="W160">
         <v>3.5</v>
       </c>
-      <c r="M160">
-        <v>1.666</v>
-      </c>
-      <c r="N160">
-        <v>7</v>
-      </c>
-      <c r="O160">
-        <v>4.2</v>
-      </c>
-      <c r="P160">
-        <v>1.363</v>
-      </c>
-      <c r="Q160">
-        <v>1.25</v>
-      </c>
-      <c r="R160">
-        <v>1.85</v>
-      </c>
-      <c r="S160">
-        <v>1.95</v>
-      </c>
-      <c r="T160">
-        <v>2.25</v>
-      </c>
-      <c r="U160">
-        <v>1.775</v>
-      </c>
-      <c r="V160">
-        <v>2.025</v>
-      </c>
-      <c r="W160">
-        <v>-1</v>
-      </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7781933</v>
+        <v>7781920</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,76 +14785,76 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L161">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M161">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N161">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O161">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="Q161">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R161">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V161">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC161">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,10 +14874,10 @@
         <v>45332.5</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7781923</v>
+        <v>7781922</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,73 +14963,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L163">
+        <v>2.875</v>
+      </c>
+      <c r="M163">
+        <v>2.45</v>
+      </c>
+      <c r="N163">
+        <v>2.7</v>
+      </c>
+      <c r="O163">
+        <v>2.5</v>
+      </c>
+      <c r="P163">
         <v>3</v>
       </c>
-      <c r="M163">
-        <v>4.333</v>
-      </c>
-      <c r="N163">
-        <v>2.05</v>
-      </c>
-      <c r="O163">
-        <v>3</v>
-      </c>
-      <c r="P163">
-        <v>3.8</v>
-      </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S163">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T163">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U163">
+        <v>2.025</v>
+      </c>
+      <c r="V163">
         <v>1.775</v>
       </c>
-      <c r="V163">
-        <v>2.025</v>
-      </c>
       <c r="W163">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z163">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB163">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7781922</v>
+        <v>7781923</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,73 +15052,73 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K164">
+        <v>1.95</v>
+      </c>
+      <c r="L164">
         <v>3</v>
       </c>
-      <c r="L164">
-        <v>2.875</v>
-      </c>
       <c r="M164">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N164">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O164">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P164">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S164">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U164">
+        <v>1.775</v>
+      </c>
+      <c r="V164">
         <v>2.025</v>
       </c>
-      <c r="V164">
-        <v>1.775</v>
-      </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA164">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7781934</v>
+        <v>7781924</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45333.5</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K165">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="L165">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N165">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P165">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="Q165">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15233,7 +15233,7 @@
         <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7781924</v>
+        <v>7781934</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45333.5</v>
       </c>
       <c r="F167" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K167">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L167">
+        <v>3.25</v>
+      </c>
+      <c r="M167">
+        <v>1.85</v>
+      </c>
+      <c r="N167">
+        <v>4.2</v>
+      </c>
+      <c r="O167">
         <v>3.2</v>
       </c>
-      <c r="M167">
-        <v>2.375</v>
-      </c>
-      <c r="N167">
-        <v>2.5</v>
-      </c>
-      <c r="O167">
-        <v>2.875</v>
-      </c>
       <c r="P167">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R167">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S167">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W167">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z167">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15411,7 +15411,7 @@
         <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15497,10 +15497,10 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>5</v>
@@ -15586,10 +15586,10 @@
         <v>45335.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15675,10 +15675,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7812522</v>
+        <v>7812521</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,76 +15764,76 @@
         <v>45336.5</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="L172">
         <v>3.5</v>
       </c>
       <c r="M172">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="N172">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O172">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P172">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="Q172">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R172">
+        <v>1.825</v>
+      </c>
+      <c r="S172">
         <v>1.975</v>
       </c>
-      <c r="S172">
-        <v>1.825</v>
-      </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
+        <v>1.85</v>
+      </c>
+      <c r="V172">
         <v>1.95</v>
       </c>
-      <c r="V172">
-        <v>1.85</v>
-      </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y172">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7812521</v>
+        <v>7812522</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45336.5</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="L173">
         <v>3.5</v>
       </c>
       <c r="M173">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="N173">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P173">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="Q173">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R173">
+        <v>1.975</v>
+      </c>
+      <c r="S173">
         <v>1.825</v>
       </c>
-      <c r="S173">
-        <v>1.975</v>
-      </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
+        <v>1.95</v>
+      </c>
+      <c r="V173">
         <v>1.85</v>
       </c>
-      <c r="V173">
-        <v>1.95</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA173">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15942,10 +15942,10 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16031,10 +16031,10 @@
         <v>45336.66666666666</v>
       </c>
       <c r="F175" t="s">
+        <v>44</v>
+      </c>
+      <c r="G175" t="s">
         <v>43</v>
-      </c>
-      <c r="G175" t="s">
-        <v>40</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -16120,10 +16120,10 @@
         <v>45337.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>45337.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
         <v>45</v>
@@ -16298,10 +16298,10 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16387,10 +16387,10 @@
         <v>45339.5</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7812529</v>
+        <v>7812530</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K180">
         <v>1.95</v>
       </c>
       <c r="L180">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M180">
         <v>3.8</v>
       </c>
       <c r="N180">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O180">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="P180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7812530</v>
+        <v>7812529</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G181" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K181">
         <v>1.95</v>
       </c>
       <c r="L181">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M181">
         <v>3.8</v>
       </c>
       <c r="N181">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O181">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P181">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U181">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V181">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16746,7 +16746,7 @@
         <v>45</v>
       </c>
       <c r="G183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H184">
         <v>5</v>
@@ -16921,10 +16921,10 @@
         <v>45340.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17010,10 +17010,10 @@
         <v>45342.5</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17099,10 +17099,10 @@
         <v>45342.625</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17188,10 +17188,10 @@
         <v>45343.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17277,10 +17277,10 @@
         <v>45343.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17366,7 +17366,7 @@
         <v>45344.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
         <v>30</v>
@@ -17455,7 +17455,7 @@
         <v>45344.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G191" t="s">
         <v>45</v>
@@ -17544,10 +17544,10 @@
         <v>45346.5</v>
       </c>
       <c r="F192" t="s">
+        <v>37</v>
+      </c>
+      <c r="G192" t="s">
         <v>44</v>
-      </c>
-      <c r="G192" t="s">
-        <v>43</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17633,10 +17633,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45346.66666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17811,10 +17811,10 @@
         <v>45347.5</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17989,10 +17989,10 @@
         <v>45347.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18059,6 +18059,480 @@
       </c>
       <c r="AC197">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>7881358</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45352.58333333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>34</v>
+      </c>
+      <c r="G198" t="s">
+        <v>37</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>47</v>
+      </c>
+      <c r="K198">
+        <v>3.6</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>5.25</v>
+      </c>
+      <c r="O198">
+        <v>2.9</v>
+      </c>
+      <c r="P198">
+        <v>1.8</v>
+      </c>
+      <c r="Q198">
+        <v>0.5</v>
+      </c>
+      <c r="R198">
+        <v>1.95</v>
+      </c>
+      <c r="S198">
+        <v>1.85</v>
+      </c>
+      <c r="T198">
+        <v>2</v>
+      </c>
+      <c r="U198">
+        <v>1.95</v>
+      </c>
+      <c r="V198">
+        <v>1.85</v>
+      </c>
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>0.8</v>
+      </c>
+      <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>7881359</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45352.66666666666</v>
+      </c>
+      <c r="F199" t="s">
+        <v>30</v>
+      </c>
+      <c r="G199" t="s">
+        <v>45</v>
+      </c>
+      <c r="H199">
+        <v>3</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>49</v>
+      </c>
+      <c r="K199">
+        <v>1.615</v>
+      </c>
+      <c r="L199">
+        <v>3.4</v>
+      </c>
+      <c r="M199">
+        <v>5</v>
+      </c>
+      <c r="N199">
+        <v>1.666</v>
+      </c>
+      <c r="O199">
+        <v>3.4</v>
+      </c>
+      <c r="P199">
+        <v>5</v>
+      </c>
+      <c r="Q199">
+        <v>-0.75</v>
+      </c>
+      <c r="R199">
+        <v>1.925</v>
+      </c>
+      <c r="S199">
+        <v>1.875</v>
+      </c>
+      <c r="T199">
+        <v>2</v>
+      </c>
+      <c r="U199">
+        <v>1.75</v>
+      </c>
+      <c r="V199">
+        <v>2.05</v>
+      </c>
+      <c r="W199">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
+        <v>0.4625</v>
+      </c>
+      <c r="AA199">
+        <v>-0.5</v>
+      </c>
+      <c r="AB199">
+        <v>0.75</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7881360</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45353.58333333334</v>
+      </c>
+      <c r="F200" t="s">
+        <v>41</v>
+      </c>
+      <c r="G200" t="s">
+        <v>35</v>
+      </c>
+      <c r="K200">
+        <v>5.5</v>
+      </c>
+      <c r="L200">
+        <v>3.6</v>
+      </c>
+      <c r="M200">
+        <v>1.533</v>
+      </c>
+      <c r="N200">
+        <v>6.5</v>
+      </c>
+      <c r="O200">
+        <v>3.6</v>
+      </c>
+      <c r="P200">
+        <v>1.45</v>
+      </c>
+      <c r="Q200">
+        <v>1</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>1.85</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
+        <v>1.95</v>
+      </c>
+      <c r="V200">
+        <v>1.85</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7881361</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45353.66666666666</v>
+      </c>
+      <c r="F201" t="s">
+        <v>46</v>
+      </c>
+      <c r="G201" t="s">
+        <v>32</v>
+      </c>
+      <c r="K201">
+        <v>2.3</v>
+      </c>
+      <c r="L201">
+        <v>2.75</v>
+      </c>
+      <c r="M201">
+        <v>3.1</v>
+      </c>
+      <c r="N201">
+        <v>2.25</v>
+      </c>
+      <c r="O201">
+        <v>3.1</v>
+      </c>
+      <c r="P201">
+        <v>2.875</v>
+      </c>
+      <c r="Q201">
+        <v>-0.25</v>
+      </c>
+      <c r="R201">
+        <v>2.025</v>
+      </c>
+      <c r="S201">
+        <v>1.775</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
+        <v>1.9</v>
+      </c>
+      <c r="V201">
+        <v>1.9</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>7881362</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45354.5</v>
+      </c>
+      <c r="F202" t="s">
+        <v>44</v>
+      </c>
+      <c r="G202" t="s">
+        <v>33</v>
+      </c>
+      <c r="K202">
+        <v>3.3</v>
+      </c>
+      <c r="L202">
+        <v>3</v>
+      </c>
+      <c r="M202">
+        <v>2.1</v>
+      </c>
+      <c r="N202">
+        <v>3.2</v>
+      </c>
+      <c r="O202">
+        <v>3</v>
+      </c>
+      <c r="P202">
+        <v>2.15</v>
+      </c>
+      <c r="Q202">
+        <v>0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.85</v>
+      </c>
+      <c r="S202">
+        <v>1.95</v>
+      </c>
+      <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
+        <v>1.9</v>
+      </c>
+      <c r="V202">
+        <v>1.9</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7881363</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45354.58333333334</v>
+      </c>
+      <c r="F203" t="s">
+        <v>36</v>
+      </c>
+      <c r="G203" t="s">
+        <v>29</v>
+      </c>
+      <c r="K203">
+        <v>1.571</v>
+      </c>
+      <c r="L203">
+        <v>3.4</v>
+      </c>
+      <c r="M203">
+        <v>5.5</v>
+      </c>
+      <c r="N203">
+        <v>1.533</v>
+      </c>
+      <c r="O203">
+        <v>3.4</v>
+      </c>
+      <c r="P203">
+        <v>6</v>
+      </c>
+      <c r="Q203">
+        <v>-1</v>
+      </c>
+      <c r="R203">
+        <v>2.025</v>
+      </c>
+      <c r="S203">
+        <v>1.775</v>
+      </c>
+      <c r="T203">
+        <v>2</v>
+      </c>
+      <c r="U203">
+        <v>1.8</v>
+      </c>
+      <c r="V203">
+        <v>2</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,52 +103,52 @@
     <t>Morocco GNF 1</t>
   </si>
   <si>
+    <t>HUSA Agadir</t>
+  </si>
+  <si>
+    <t>FAR Rabat</t>
+  </si>
+  <si>
+    <t>SC Chabab Mohammedia</t>
+  </si>
+  <si>
     <t>OC Safi</t>
   </si>
   <si>
     <t>Union de Touarga</t>
   </si>
   <si>
-    <t>Difaa El Jadida</t>
+    <t>Raja Casablanca</t>
   </si>
   <si>
-    <t>HUSA Agadir</t>
+    <t>Difaa El Jadida</t>
   </si>
   <si>
     <t>MAT Tetouan</t>
   </si>
   <si>
-    <t>SC Chabab Mohammedia</t>
+    <t>Mouloudia Oujda</t>
   </si>
   <si>
-    <t>FAR Rabat</t>
+    <t>Olympique Khouribga</t>
   </si>
   <si>
-    <t>Raja Casablanca</t>
+    <t>JS Soualem</t>
+  </si>
+  <si>
+    <t>WAC Casablanca</t>
+  </si>
+  <si>
+    <t>RSB Berkane</t>
   </si>
   <si>
     <t>FUS Rabat</t>
   </si>
   <si>
-    <t>Olympique Khouribga</t>
+    <t>Ittihad Tanger</t>
   </si>
   <si>
     <t>MAS Fes</t>
-  </si>
-  <si>
-    <t>RSB Berkane</t>
-  </si>
-  <si>
-    <t>Ittihad Tanger</t>
-  </si>
-  <si>
-    <t>Mouloudia Oujda</t>
-  </si>
-  <si>
-    <t>WAC Casablanca</t>
-  </si>
-  <si>
-    <t>JS Soualem</t>
   </si>
   <si>
     <t>Youssoufia Berrechid</t>
@@ -157,13 +157,13 @@
     <t>Renaissance Zemamra</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760259</v>
+        <v>6728744</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
+        <v>4.5</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>1.8</v>
+      </c>
+      <c r="N2">
+        <v>6.5</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>1.5</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1.8</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>1.85</v>
+      </c>
+      <c r="V2">
+        <v>1.95</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
         <v>2.5</v>
       </c>
-      <c r="L2">
-        <v>2.75</v>
-      </c>
-      <c r="M2">
-        <v>2.875</v>
-      </c>
-      <c r="N2">
-        <v>2.7</v>
-      </c>
-      <c r="O2">
-        <v>2.625</v>
-      </c>
-      <c r="P2">
-        <v>2.75</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1.9</v>
-      </c>
-      <c r="S2">
-        <v>1.9</v>
-      </c>
-      <c r="T2">
-        <v>1.75</v>
-      </c>
-      <c r="U2">
-        <v>1.925</v>
-      </c>
-      <c r="V2">
-        <v>1.875</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
       <c r="Y2">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760260</v>
+        <v>6756722</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O3">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X3">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6760261</v>
+        <v>6757667</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N4">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P4">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6728744</v>
+        <v>6760259</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M5">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="N5">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="P5">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6760258</v>
+        <v>6760260</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,10 +993,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1005,31 +1005,31 @@
         <v>47</v>
       </c>
       <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>2.75</v>
-      </c>
       <c r="M6">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
         <v>2</v>
@@ -1044,16 +1044,16 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>0.9750000000000001</v>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6757667</v>
+        <v>6761305</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,70 +1082,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L7">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M7">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N7">
+        <v>1.666</v>
+      </c>
+      <c r="O7">
+        <v>3.4</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>-0.75</v>
+      </c>
+      <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.85</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="O7">
-        <v>2.875</v>
-      </c>
-      <c r="P7">
-        <v>4.5</v>
-      </c>
-      <c r="Q7">
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>-1</v>
+      </c>
+      <c r="Z7">
+        <v>0.475</v>
+      </c>
+      <c r="AA7">
         <v>-0.5</v>
       </c>
-      <c r="R7">
-        <v>1.875</v>
-      </c>
-      <c r="S7">
-        <v>1.925</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>1.8</v>
-      </c>
-      <c r="W7">
+      <c r="AB7">
         <v>0.8</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
-      <c r="Z7">
-        <v>0.875</v>
-      </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6756722</v>
+        <v>6760261</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,73 +1171,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="O8">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="P8">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q8">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6761305</v>
+        <v>6760258</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,70 +1260,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>49</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>2.75</v>
       </c>
       <c r="M9">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T9">
         <v>2</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z9">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6728809</v>
+        <v>6728746</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1352,70 +1352,70 @@
         <v>34</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O10">
         <v>3.2</v>
       </c>
       <c r="P10">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T10">
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6728808</v>
+        <v>6728811</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,52 +1527,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="L12">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M12">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P12">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1581,19 +1581,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.6499999999999999</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6728807</v>
+        <v>6728745</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,55 +1616,55 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O13">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P13">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W13">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1673,13 +1673,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6728806</v>
+        <v>6728807</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,46 +1705,46 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O14">
         <v>3.5</v>
       </c>
       <c r="P14">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
         <v>1.875</v>
@@ -1753,7 +1753,7 @@
         <v>1.925</v>
       </c>
       <c r="W14">
-        <v>0.5</v>
+        <v>0.833</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1762,16 +1762,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6728746</v>
+        <v>6728809</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
       </c>
       <c r="K15">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O15">
         <v>3.2</v>
       </c>
       <c r="P15">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X15">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6728745</v>
+        <v>6728806</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,31 +1883,31 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N16">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O16">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
         <v>6.5</v>
@@ -1916,22 +1916,22 @@
         <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1940,16 +1940,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6728811</v>
+        <v>6728808</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1972,52 +1972,52 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="N17">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="O17">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P17">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2026,19 +2026,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.625</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6786814</v>
+        <v>6786810</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,76 +2058,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="L18">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>1.444</v>
+        <v>7</v>
       </c>
       <c r="N18">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="O18">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>1.285</v>
+        <v>6</v>
       </c>
       <c r="Q18">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y18">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2147,10 +2147,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>1.25</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6786815</v>
+        <v>6786813</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,58 +2236,58 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N20">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
         <v>2.9</v>
       </c>
       <c r="P20">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W20">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2296,16 +2296,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6786813</v>
+        <v>6786812</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
+        <v>2.875</v>
+      </c>
+      <c r="M21">
+        <v>3.4</v>
+      </c>
+      <c r="N21">
+        <v>2.25</v>
+      </c>
+      <c r="O21">
         <v>3</v>
       </c>
-      <c r="M21">
-        <v>2.375</v>
-      </c>
-      <c r="N21">
-        <v>2.3</v>
-      </c>
-      <c r="O21">
-        <v>2.9</v>
-      </c>
       <c r="P21">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q21">
         <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V21">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W21">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2414,10 +2414,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22">
         <v>2.3</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6786810</v>
+        <v>6786814</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
+        <v>6.5</v>
+      </c>
+      <c r="L23">
+        <v>3.8</v>
+      </c>
+      <c r="M23">
         <v>1.444</v>
       </c>
-      <c r="L23">
-        <v>3.6</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
       <c r="N23">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>1.285</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
+        <v>1.975</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>1.925</v>
+      </c>
+      <c r="V23">
         <v>1.875</v>
       </c>
-      <c r="S23">
-        <v>1.925</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>2.05</v>
-      </c>
-      <c r="V23">
-        <v>1.75</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA23">
+        <v>-0.5</v>
+      </c>
+      <c r="AB23">
         <v>0.925</v>
       </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6786812</v>
+        <v>6786815</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,7 +2598,7 @@
         <v>37</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,61 +2607,61 @@
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L24">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>2</v>
       </c>
       <c r="U24">
+        <v>1.775</v>
+      </c>
+      <c r="V24">
         <v>2.025</v>
       </c>
-      <c r="V24">
-        <v>1.775</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2681,10 +2681,10 @@
         <v>45097.75</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
         <v>2.1</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6786824</v>
+        <v>6786817</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,76 +2770,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26">
-        <v>2.1</v>
-      </c>
-      <c r="L26">
-        <v>2.9</v>
-      </c>
       <c r="M26">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N26">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P26">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U26">
+        <v>1.825</v>
+      </c>
+      <c r="V26">
+        <v>1.975</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
         <v>1.8</v>
       </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6786817</v>
+        <v>6786819</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,7 +2859,7 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -2868,67 +2868,67 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M27">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N27">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="O27">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
         <v>1.825</v>
       </c>
-      <c r="V27">
-        <v>1.975</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6786818</v>
+        <v>6786820</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,55 +2948,55 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P28">
-        <v>1.333</v>
+        <v>1.2</v>
       </c>
       <c r="Q28">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R28">
+        <v>1.925</v>
+      </c>
+      <c r="S28">
         <v>1.875</v>
-      </c>
-      <c r="S28">
-        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -3005,19 +3005,19 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.333</v>
+        <v>0.2</v>
       </c>
       <c r="Z28">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
+        <v>0.875</v>
+      </c>
+      <c r="AB28">
         <v>-0.5</v>
       </c>
-      <c r="AB28">
-        <v>0.95</v>
-      </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3037,10 +3037,10 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>2.5</v>
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6786820</v>
+        <v>6786818</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,55 +3126,55 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K30">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>3.8</v>
+      </c>
+      <c r="M30">
+        <v>1.363</v>
+      </c>
+      <c r="N30">
         <v>8</v>
       </c>
-      <c r="L30">
-        <v>3.4</v>
-      </c>
-      <c r="M30">
-        <v>1.444</v>
-      </c>
-      <c r="N30">
-        <v>15</v>
-      </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>1.2</v>
+        <v>1.333</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R30">
+        <v>1.875</v>
+      </c>
+      <c r="S30">
         <v>1.925</v>
-      </c>
-      <c r="S30">
-        <v>1.875</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3183,19 +3183,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.2</v>
+        <v>0.333</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC30">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6786822</v>
+        <v>6786823</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,58 +3215,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
+        <v>1.666</v>
+      </c>
+      <c r="L31">
+        <v>3.3</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>1.333</v>
+      </c>
+      <c r="O31">
+        <v>4.2</v>
+      </c>
+      <c r="P31">
+        <v>8</v>
+      </c>
+      <c r="Q31">
+        <v>-1.5</v>
+      </c>
+      <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
         <v>3</v>
       </c>
-      <c r="L31">
-        <v>2.75</v>
-      </c>
-      <c r="M31">
-        <v>2.4</v>
-      </c>
-      <c r="N31">
-        <v>2.25</v>
-      </c>
-      <c r="O31">
-        <v>2.9</v>
-      </c>
-      <c r="P31">
-        <v>3.1</v>
-      </c>
-      <c r="Q31">
-        <v>-0.25</v>
-      </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
-        <v>1.8</v>
-      </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>0.333</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3275,13 +3275,13 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6786819</v>
+        <v>6786824</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M32">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N32">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="O32">
         <v>3.6</v>
       </c>
       <c r="P32">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6786823</v>
+        <v>6786822</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,58 +3393,58 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33">
         <v>3</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33">
-        <v>1.666</v>
-      </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N33">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P33">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q33">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>0.333</v>
+        <v>1.25</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3453,13 +3453,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3482,10 +3482,10 @@
         <v>45163.72916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>2.15</v>
@@ -3571,11 +3571,11 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
         <v>29</v>
       </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
       <c r="H35">
         <v>1</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3660,7 +3660,7 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
         <v>1.833</v>
@@ -3749,10 +3749,10 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>1.8</v>
@@ -3841,7 +3841,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3850,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>4.5</v>
@@ -3927,10 +3927,10 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
         <v>1.75</v>
@@ -4016,10 +4016,10 @@
         <v>45168.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
         <v>1.285</v>
@@ -4105,10 +4105,10 @@
         <v>45169.72916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>2.1</v>
@@ -4194,10 +4194,10 @@
         <v>45170.72916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>2.4</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>2.1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7112128</v>
+        <v>7112127</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4372,76 @@
         <v>45171.6875</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L44">
         <v>2.75</v>
       </c>
       <c r="M44">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O44">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y44">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7112127</v>
+        <v>7112128</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45171.6875</v>
       </c>
       <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
         <v>33</v>
       </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
         <v>2.75</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N45">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O45">
+        <v>2.7</v>
+      </c>
+      <c r="P45">
         <v>2.75</v>
       </c>
-      <c r="P45">
-        <v>2.25</v>
-      </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>1.8</v>
+      </c>
+      <c r="V45">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>1.75</v>
       </c>
-      <c r="U45">
-        <v>1.75</v>
-      </c>
-      <c r="V45">
-        <v>2.05</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>1.75</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
       <c r="Z45">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,10 +4550,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4562,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K46">
         <v>2.4</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7112130</v>
+        <v>7112131</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>48</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O47">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
         <v>4.5</v>
       </c>
       <c r="Q47">
+        <v>-0.75</v>
+      </c>
+      <c r="R47">
+        <v>1.875</v>
+      </c>
+      <c r="S47">
+        <v>1.925</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>2.025</v>
+      </c>
+      <c r="V47">
+        <v>1.775</v>
+      </c>
+      <c r="W47">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
+        <v>-1</v>
+      </c>
+      <c r="Z47">
+        <v>0.4375</v>
+      </c>
+      <c r="AA47">
         <v>-0.5</v>
       </c>
-      <c r="R47">
-        <v>1.8</v>
-      </c>
-      <c r="S47">
-        <v>2</v>
-      </c>
-      <c r="T47">
-        <v>1.75</v>
-      </c>
-      <c r="U47">
-        <v>1.825</v>
-      </c>
-      <c r="V47">
-        <v>1.975</v>
-      </c>
-      <c r="W47">
-        <v>-1</v>
-      </c>
-      <c r="X47">
-        <v>2.1</v>
-      </c>
-      <c r="Y47">
-        <v>-1</v>
-      </c>
-      <c r="Z47">
-        <v>-1</v>
-      </c>
-      <c r="AA47">
-        <v>1</v>
-      </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7112131</v>
+        <v>7112130</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N48">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P48">
         <v>4.5</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4817,10 +4817,10 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4829,7 +4829,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K49">
         <v>5.5</v>
@@ -4906,10 +4906,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K50">
         <v>1.833</v>
@@ -4995,10 +4995,10 @@
         <v>45185.63541666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>2.3</v>
@@ -5087,7 +5087,7 @@
         <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>2.375</v>
@@ -5173,10 +5173,10 @@
         <v>45186.63541666666</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K53">
         <v>4</v>
@@ -5262,10 +5262,10 @@
         <v>45186.72916666666</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5274,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5351,10 +5351,10 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5363,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>2.875</v>
@@ -5440,7 +5440,7 @@
         <v>45189.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K56">
         <v>1.222</v>
@@ -5529,10 +5529,10 @@
         <v>45190.66666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>1.571</v>
@@ -5618,7 +5618,7 @@
         <v>45192.63541666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>2.25</v>
@@ -5707,10 +5707,10 @@
         <v>45192.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5719,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K59">
         <v>2.4</v>
@@ -5796,10 +5796,10 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>1.666</v>
@@ -5885,11 +5885,11 @@
         <v>45193.72916666666</v>
       </c>
       <c r="F61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" t="s">
         <v>40</v>
       </c>
-      <c r="G61" t="s">
-        <v>43</v>
-      </c>
       <c r="H61">
         <v>0</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K61">
         <v>2.7</v>
@@ -5974,10 +5974,10 @@
         <v>45194.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K62">
         <v>2.25</v>
@@ -6063,10 +6063,10 @@
         <v>45194.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6075,7 +6075,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>7</v>
@@ -6155,7 +6155,7 @@
         <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>3.2</v>
@@ -6241,10 +6241,10 @@
         <v>45196.66666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K65">
         <v>1.7</v>
@@ -6330,10 +6330,10 @@
         <v>45199.5</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K66">
         <v>1.8</v>
@@ -6419,10 +6419,10 @@
         <v>45200.5</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K67">
         <v>3.4</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7263823</v>
+        <v>7263824</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,13 +6508,13 @@
         <v>45200.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6523,61 +6523,61 @@
         <v>48</v>
       </c>
       <c r="K68">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N68">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P68">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X68">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7263824</v>
+        <v>7263823</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45200.59375</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>47</v>
+      </c>
+      <c r="K69">
+        <v>2.2</v>
+      </c>
+      <c r="L69">
+        <v>2.875</v>
+      </c>
+      <c r="M69">
+        <v>3.2</v>
+      </c>
+      <c r="N69">
+        <v>1.909</v>
+      </c>
+      <c r="O69">
         <v>3</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>49</v>
-      </c>
-      <c r="K69">
-        <v>2.25</v>
-      </c>
-      <c r="L69">
-        <v>2.9</v>
-      </c>
-      <c r="M69">
-        <v>3.1</v>
-      </c>
-      <c r="N69">
-        <v>2</v>
-      </c>
-      <c r="O69">
-        <v>2.9</v>
-      </c>
       <c r="P69">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,10 +6686,10 @@
         <v>45200.6875</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6698,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K70">
         <v>2.625</v>
@@ -6775,7 +6775,7 @@
         <v>45203.59375</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>1.222</v>
@@ -6864,10 +6864,10 @@
         <v>45203.6875</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K72">
         <v>1.75</v>
@@ -6953,10 +6953,10 @@
         <v>45204.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6965,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K73">
         <v>2.6</v>
@@ -7042,10 +7042,10 @@
         <v>45205.6875</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.45</v>
@@ -7131,11 +7131,11 @@
         <v>45206.5</v>
       </c>
       <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s">
         <v>30</v>
       </c>
-      <c r="G75" t="s">
-        <v>35</v>
-      </c>
       <c r="H75">
         <v>2</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
         <v>4.5</v>
@@ -7220,10 +7220,10 @@
         <v>45206.59375</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7232,7 +7232,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K76">
         <v>2.875</v>
@@ -7309,10 +7309,10 @@
         <v>45206.6875</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>4</v>
@@ -7398,10 +7398,10 @@
         <v>45207.5</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K78">
         <v>3.5</v>
@@ -7487,7 +7487,7 @@
         <v>45207.59375</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
         <v>45</v>
@@ -7499,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>1.5</v>
@@ -7579,7 +7579,7 @@
         <v>46</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7588,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>3</v>
@@ -7665,11 +7665,11 @@
         <v>45207.6875</v>
       </c>
       <c r="F81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" t="s">
         <v>36</v>
       </c>
-      <c r="G81" t="s">
-        <v>33</v>
-      </c>
       <c r="H81">
         <v>1</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>1.5</v>
@@ -7754,10 +7754,10 @@
         <v>45226.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>1.571</v>
@@ -7843,7 +7843,7 @@
         <v>45227.5</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -7855,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>2.375</v>
@@ -7932,10 +7932,10 @@
         <v>45227.59375</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>2.875</v>
@@ -8024,7 +8024,7 @@
         <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K85">
         <v>6</v>
@@ -8110,10 +8110,10 @@
         <v>45228.5</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>1.222</v>
@@ -8199,10 +8199,10 @@
         <v>45228.59375</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8288,10 +8288,10 @@
         <v>45228.6875</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>2.5</v>
@@ -8377,10 +8377,10 @@
         <v>45233.6875</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8389,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>2.4</v>
@@ -8469,7 +8469,7 @@
         <v>46</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>2.3</v>
@@ -8555,10 +8555,10 @@
         <v>45234.59375</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
         <v>1.363</v>
@@ -8644,7 +8644,7 @@
         <v>45234.6875</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>45</v>
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K92">
         <v>1.363</v>
@@ -8733,10 +8733,10 @@
         <v>45235.5</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8745,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K93">
         <v>3.1</v>
@@ -8822,10 +8822,10 @@
         <v>45235.59375</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8834,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94">
         <v>3.4</v>
@@ -8911,10 +8911,10 @@
         <v>45236.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9000,10 +9000,10 @@
         <v>45240.5</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -9089,10 +9089,10 @@
         <v>45240.59375</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9101,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>1.75</v>
@@ -9178,10 +9178,10 @@
         <v>45241.5</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98">
         <v>2.2</v>
@@ -9267,10 +9267,10 @@
         <v>45241.59375</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>4.333</v>
@@ -9356,10 +9356,10 @@
         <v>45241.6875</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>3.5</v>
@@ -9445,7 +9445,7 @@
         <v>45242.59375</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
@@ -9457,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>2.4</v>
@@ -9534,10 +9534,10 @@
         <v>45242.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9546,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>2.6</v>
@@ -9623,10 +9623,10 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>2.9</v>
@@ -9712,10 +9712,10 @@
         <v>45255.5</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104">
         <v>2.9</v>
@@ -9804,7 +9804,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>3.1</v>
@@ -9890,10 +9890,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K106">
         <v>1.3</v>
@@ -9982,7 +9982,7 @@
         <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10068,10 +10068,10 @@
         <v>45256.5</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10080,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -10157,10 +10157,10 @@
         <v>45258.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K109">
         <v>2.1</v>
@@ -10246,10 +10246,10 @@
         <v>45266.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -10258,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K110">
         <v>1.25</v>
@@ -10335,10 +10335,10 @@
         <v>45267.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
         <v>1.615</v>
@@ -10424,10 +10424,10 @@
         <v>45268.5</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>4.333</v>
@@ -10513,10 +10513,10 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>1.571</v>
@@ -10602,7 +10602,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
         <v>46</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10691,10 +10691,10 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K115">
         <v>2.625</v>
@@ -10780,10 +10780,10 @@
         <v>45270.5</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10792,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K116">
         <v>2.1</v>
@@ -10869,7 +10869,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
         <v>45</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10958,10 +10958,10 @@
         <v>45272.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>4.75</v>
@@ -11047,10 +11047,10 @@
         <v>45273.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K119">
         <v>2.75</v>
@@ -11136,10 +11136,10 @@
         <v>45276.5</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11148,7 +11148,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>2.1</v>
@@ -11225,10 +11225,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11237,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.2</v>
@@ -11314,10 +11314,10 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11326,7 +11326,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K122">
         <v>1.833</v>
@@ -11406,7 +11406,7 @@
         <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11415,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>4</v>
@@ -11492,10 +11492,10 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11504,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
         <v>1.4</v>
@@ -11584,7 +11584,7 @@
         <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K125">
         <v>3.3</v>
@@ -11670,7 +11670,7 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K126">
         <v>1.3</v>
@@ -11759,10 +11759,10 @@
         <v>45284.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11771,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>2.55</v>
@@ -11848,10 +11848,10 @@
         <v>45286.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11860,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K128">
         <v>5</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7627121</v>
+        <v>7627122</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,13 +11937,13 @@
         <v>45288.5</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -11952,61 +11952,61 @@
         <v>48</v>
       </c>
       <c r="K129">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M129">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X129">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7627122</v>
+        <v>7627121</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45288.5</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>47</v>
+      </c>
+      <c r="K130">
+        <v>1.5</v>
+      </c>
+      <c r="L130">
+        <v>3.5</v>
+      </c>
+      <c r="M130">
         <v>6</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130" t="s">
-        <v>49</v>
-      </c>
-      <c r="K130">
-        <v>1.333</v>
-      </c>
-      <c r="L130">
-        <v>4.2</v>
-      </c>
-      <c r="M130">
+      <c r="N130">
+        <v>1.444</v>
+      </c>
+      <c r="O130">
+        <v>3.6</v>
+      </c>
+      <c r="P130">
         <v>8</v>
       </c>
-      <c r="N130">
-        <v>1.363</v>
-      </c>
-      <c r="O130">
-        <v>3.75</v>
-      </c>
-      <c r="P130">
-        <v>9</v>
-      </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12115,10 +12115,10 @@
         <v>45288.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12127,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K131">
         <v>3.2</v>
@@ -12204,11 +12204,11 @@
         <v>45288.66666666666</v>
       </c>
       <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
         <v>33</v>
       </c>
-      <c r="G132" t="s">
-        <v>30</v>
-      </c>
       <c r="H132">
         <v>1</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K132">
         <v>2.05</v>
@@ -12296,7 +12296,7 @@
         <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>1.8</v>
@@ -12382,10 +12382,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12394,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
         <v>3.4</v>
@@ -12471,10 +12471,10 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K135">
         <v>2.875</v>
@@ -12560,10 +12560,10 @@
         <v>45289.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12572,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>5.25</v>
@@ -12649,10 +12649,10 @@
         <v>45294.5</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12661,7 +12661,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>2.6</v>
@@ -12738,11 +12738,11 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F138" t="s">
+        <v>37</v>
+      </c>
+      <c r="G138" t="s">
         <v>42</v>
       </c>
-      <c r="G138" t="s">
-        <v>37</v>
-      </c>
       <c r="H138">
         <v>2</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>4.5</v>
@@ -12827,10 +12827,10 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12839,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>2.2</v>
@@ -12916,7 +12916,7 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G140" t="s">
         <v>46</v>
@@ -12928,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140">
         <v>2.45</v>
@@ -13005,10 +13005,10 @@
         <v>45295.5</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
         <v>2.5</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7641577</v>
+        <v>7641558</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
+        <v>1.444</v>
+      </c>
+      <c r="L142">
+        <v>3.75</v>
+      </c>
+      <c r="M142">
+        <v>6.5</v>
+      </c>
+      <c r="N142">
+        <v>1.444</v>
+      </c>
+      <c r="O142">
+        <v>4</v>
+      </c>
+      <c r="P142">
+        <v>5.75</v>
+      </c>
+      <c r="Q142">
+        <v>-1</v>
+      </c>
+      <c r="R142">
+        <v>1.8</v>
+      </c>
+      <c r="S142">
+        <v>2</v>
+      </c>
+      <c r="T142">
         <v>2.25</v>
       </c>
-      <c r="L142">
-        <v>3</v>
-      </c>
-      <c r="M142">
-        <v>3</v>
-      </c>
-      <c r="N142">
-        <v>2.3</v>
-      </c>
-      <c r="O142">
-        <v>2.9</v>
-      </c>
-      <c r="P142">
-        <v>2.9</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>2</v>
-      </c>
-      <c r="S142">
-        <v>1.8</v>
-      </c>
-      <c r="T142">
-        <v>2</v>
-      </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7641558</v>
+        <v>7641577</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45295.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>49</v>
       </c>
       <c r="K143">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P143">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
         <v>1.8</v>
       </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
         <v>0.8</v>
       </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
       <c r="AB143">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13272,10 +13272,10 @@
         <v>45295.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
         <v>1.571</v>
@@ -13361,10 +13361,10 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>1.285</v>
@@ -13450,10 +13450,10 @@
         <v>45297.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>2.2</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13551,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K147">
         <v>3.5</v>
@@ -13628,10 +13628,10 @@
         <v>45298.5</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13640,7 +13640,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
         <v>2.5</v>
@@ -13717,10 +13717,10 @@
         <v>45298.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K149">
         <v>3.2</v>
@@ -13806,10 +13806,10 @@
         <v>45298.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13818,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K150">
         <v>2.15</v>
@@ -13895,7 +13895,7 @@
         <v>45299.5</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
         <v>45</v>
@@ -13907,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K151">
         <v>2.2</v>
@@ -13984,10 +13984,10 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13996,7 +13996,7 @@
         <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>2.8</v>
@@ -14073,10 +14073,10 @@
         <v>45302.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K153">
         <v>1.533</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7781917</v>
+        <v>7781916</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,19 +14162,19 @@
         <v>45329.5</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K154">
         <v>2</v>
@@ -14186,31 +14186,31 @@
         <v>3.4</v>
       </c>
       <c r="N154">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O154">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P154">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S154">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T154">
         <v>2</v>
       </c>
       <c r="U154">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -14219,16 +14219,16 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.875</v>
+        <v>1.075</v>
       </c>
       <c r="AB154">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7781916</v>
+        <v>7781917</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,19 +14251,19 @@
         <v>45329.5</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G155" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K155">
         <v>2</v>
@@ -14275,31 +14275,31 @@
         <v>3.4</v>
       </c>
       <c r="N155">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O155">
+        <v>3.1</v>
+      </c>
+      <c r="P155">
         <v>3</v>
       </c>
-      <c r="P155">
-        <v>2.9</v>
-      </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S155">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T155">
         <v>2</v>
       </c>
       <c r="U155">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V155">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W155">
         <v>-1</v>
@@ -14308,16 +14308,16 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>1.075</v>
+        <v>0.875</v>
       </c>
       <c r="AB155">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14340,10 +14340,10 @@
         <v>45329.5</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14352,7 +14352,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K156">
         <v>3.2</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7781918</v>
+        <v>7781919</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,73 +14429,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K157">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L157">
         <v>3</v>
       </c>
       <c r="M157">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N157">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O157">
         <v>2.75</v>
       </c>
       <c r="P157">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
         <v>1.75</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB157">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AC157">
         <v>-0.5</v>
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7781919</v>
+        <v>7781918</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,73 +14518,73 @@
         <v>45329.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>47</v>
       </c>
       <c r="K158">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L158">
         <v>3</v>
       </c>
       <c r="M158">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O158">
         <v>2.75</v>
       </c>
       <c r="P158">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
         <v>1.75</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AC158">
         <v>-0.5</v>
@@ -14607,7 +14607,7 @@
         <v>45330.5</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
         <v>45</v>
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K159">
         <v>1.2</v>
@@ -14696,10 +14696,10 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K160">
         <v>3.6</v>
@@ -14785,10 +14785,10 @@
         <v>45330.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14797,7 +14797,7 @@
         <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K161">
         <v>4.333</v>
@@ -14874,10 +14874,10 @@
         <v>45332.5</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>1.95</v>
@@ -14963,10 +14963,10 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14975,7 +14975,7 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K163">
         <v>3</v>
@@ -15052,10 +15052,10 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15064,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K164">
         <v>1.95</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7781924</v>
+        <v>7781934</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45333.5</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>49</v>
       </c>
       <c r="K165">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L165">
+        <v>3.25</v>
+      </c>
+      <c r="M165">
+        <v>1.85</v>
+      </c>
+      <c r="N165">
+        <v>4.2</v>
+      </c>
+      <c r="O165">
         <v>3.2</v>
       </c>
-      <c r="M165">
-        <v>2.375</v>
-      </c>
-      <c r="N165">
-        <v>2.5</v>
-      </c>
-      <c r="O165">
-        <v>2.875</v>
-      </c>
       <c r="P165">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R165">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z165">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7781925</v>
+        <v>7781924</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45333.5</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N166">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O166">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P166">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S166">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X166">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA166">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7781934</v>
+        <v>7781925</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,13 +15319,13 @@
         <v>45333.5</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -15334,61 +15334,61 @@
         <v>47</v>
       </c>
       <c r="K167">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N167">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O167">
+        <v>3</v>
+      </c>
+      <c r="P167">
         <v>3.2</v>
       </c>
-      <c r="P167">
-        <v>1.833</v>
-      </c>
       <c r="Q167">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T167">
         <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y167">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC167">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15408,10 +15408,10 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>1.85</v>
@@ -15497,10 +15497,10 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>5</v>
@@ -15509,7 +15509,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>1.285</v>
@@ -15586,10 +15586,10 @@
         <v>45335.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15598,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K170">
         <v>2.2</v>
@@ -15675,10 +15675,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>2.1</v>
@@ -15764,10 +15764,10 @@
         <v>45336.5</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15776,7 +15776,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K172">
         <v>1.615</v>
@@ -15856,7 +15856,7 @@
         <v>46</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>4.333</v>
@@ -15942,10 +15942,10 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15954,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K174">
         <v>1.444</v>
@@ -16031,10 +16031,10 @@
         <v>45336.66666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -16043,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K175">
         <v>4</v>
@@ -16120,10 +16120,10 @@
         <v>45337.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16132,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K176">
         <v>2.1</v>
@@ -16209,7 +16209,7 @@
         <v>45337.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
         <v>45</v>
@@ -16221,7 +16221,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K177">
         <v>1.8</v>
@@ -16298,10 +16298,10 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16310,7 +16310,7 @@
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K178">
         <v>2.8</v>
@@ -16387,10 +16387,10 @@
         <v>45339.5</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>1.833</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7812530</v>
+        <v>7812529</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K180">
         <v>1.95</v>
       </c>
       <c r="L180">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M180">
         <v>3.8</v>
       </c>
       <c r="N180">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O180">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7812529</v>
+        <v>7812530</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,16 +16565,16 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
         <v>49</v>
@@ -16583,58 +16583,58 @@
         <v>1.95</v>
       </c>
       <c r="L181">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M181">
         <v>3.8</v>
       </c>
       <c r="N181">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O181">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="P181">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC181">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,10 +16654,10 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
         <v>4.5</v>
@@ -16746,7 +16746,7 @@
         <v>45</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16755,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K183">
         <v>2.625</v>
@@ -16832,10 +16832,10 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H184">
         <v>5</v>
@@ -16844,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
         <v>1.25</v>
@@ -16921,10 +16921,10 @@
         <v>45340.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K185">
         <v>1.95</v>
@@ -17010,10 +17010,10 @@
         <v>45342.5</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K186">
         <v>1.3</v>
@@ -17099,11 +17099,11 @@
         <v>45342.625</v>
       </c>
       <c r="F187" t="s">
+        <v>39</v>
+      </c>
+      <c r="G187" t="s">
         <v>44</v>
       </c>
-      <c r="G187" t="s">
-        <v>39</v>
-      </c>
       <c r="H187">
         <v>1</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K187">
         <v>2.55</v>
@@ -17188,10 +17188,10 @@
         <v>45343.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K188">
         <v>1.75</v>
@@ -17277,10 +17277,10 @@
         <v>45343.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K189">
         <v>3.4</v>
@@ -17366,10 +17366,10 @@
         <v>45344.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17378,7 +17378,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>3</v>
@@ -17455,7 +17455,7 @@
         <v>45344.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
         <v>45</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K191">
         <v>1.833</v>
@@ -17544,10 +17544,10 @@
         <v>45346.5</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>1.571</v>
@@ -17633,10 +17633,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17645,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K193">
         <v>2.5</v>
@@ -17722,7 +17722,7 @@
         <v>45346.66666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K194">
         <v>1.8</v>
@@ -17811,10 +17811,10 @@
         <v>45347.5</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K195">
         <v>1.909</v>
@@ -17900,10 +17900,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>1.5</v>
@@ -17989,10 +17989,10 @@
         <v>45347.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18001,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K197">
         <v>1.727</v>
@@ -18078,10 +18078,10 @@
         <v>45352.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18090,7 +18090,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K198">
         <v>3.6</v>
@@ -18167,7 +18167,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18179,7 +18179,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K199">
         <v>1.615</v>
@@ -18256,10 +18256,19 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200" t="s">
+        <v>49</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18271,46 +18280,52 @@
         <v>1.533</v>
       </c>
       <c r="N200">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="Q200">
         <v>1</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T200">
         <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="Z200">
         <v>0</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB200">
+        <v>1</v>
+      </c>
+      <c r="AC200">
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18348,16 @@
         <v>46</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="H201">
+        <v>3</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201" t="s">
+        <v>48</v>
       </c>
       <c r="K201">
         <v>2.3</v>
@@ -18345,46 +18369,52 @@
         <v>3.1</v>
       </c>
       <c r="N201">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O201">
         <v>3.1</v>
       </c>
       <c r="P201">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q201">
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S201">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W201">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB201">
+        <v>1</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18404,10 +18434,10 @@
         <v>45354.5</v>
       </c>
       <c r="F202" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K202">
         <v>3.3</v>
@@ -18419,13 +18449,13 @@
         <v>2.1</v>
       </c>
       <c r="N202">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O202">
         <v>3</v>
       </c>
       <c r="P202">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q202">
         <v>0.25</v>
@@ -18440,10 +18470,10 @@
         <v>2</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18478,10 +18508,10 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K203">
         <v>1.571</v>
@@ -18505,19 +18535,19 @@
         <v>-1</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T203">
         <v>2</v>
       </c>
       <c r="U203">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W203">
         <v>0</v>

--- a/Morocco GNF 1/Morocco GNF 1.xlsx
+++ b/Morocco GNF 1/Morocco GNF 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,37 +103,46 @@
     <t>Morocco GNF 1</t>
   </si>
   <si>
+    <t>Difaa El Jadida</t>
+  </si>
+  <si>
     <t>HUSA Agadir</t>
+  </si>
+  <si>
+    <t>MAT Tetouan</t>
+  </si>
+  <si>
+    <t>OC Safi</t>
   </si>
   <si>
     <t>FAR Rabat</t>
   </si>
   <si>
-    <t>SC Chabab Mohammedia</t>
+    <t>Raja Casablanca</t>
   </si>
   <si>
-    <t>OC Safi</t>
+    <t>SC Chabab Mohammedia</t>
   </si>
   <si>
     <t>Union de Touarga</t>
   </si>
   <si>
-    <t>Raja Casablanca</t>
+    <t>JS Soualem</t>
   </si>
   <si>
-    <t>Difaa El Jadida</t>
+    <t>Ittihad Tanger</t>
   </si>
   <si>
-    <t>MAT Tetouan</t>
+    <t>Olympique Khouribga</t>
   </si>
   <si>
     <t>Mouloudia Oujda</t>
   </si>
   <si>
-    <t>Olympique Khouribga</t>
+    <t>FUS Rabat</t>
   </si>
   <si>
-    <t>JS Soualem</t>
+    <t>MAS Fes</t>
   </si>
   <si>
     <t>WAC Casablanca</t>
@@ -142,28 +151,19 @@
     <t>RSB Berkane</t>
   </si>
   <si>
-    <t>FUS Rabat</t>
-  </si>
-  <si>
-    <t>Ittihad Tanger</t>
-  </si>
-  <si>
-    <t>MAS Fes</t>
-  </si>
-  <si>
     <t>Youssoufia Berrechid</t>
   </si>
   <si>
     <t>Renaissance Zemamra</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6728744</v>
+        <v>6760261</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,67 +643,67 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="P2">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T2">
         <v>2</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6756722</v>
+        <v>6728744</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -738,61 +738,61 @@
         <v>48</v>
       </c>
       <c r="K3">
+        <v>4.5</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>1.8</v>
+      </c>
+      <c r="N3">
+        <v>6.5</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
         <v>1.5</v>
       </c>
-      <c r="L3">
-        <v>3.2</v>
-      </c>
-      <c r="M3">
-        <v>7.5</v>
-      </c>
-      <c r="N3">
-        <v>1.285</v>
-      </c>
-      <c r="O3">
-        <v>4.2</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R3">
+        <v>1.8</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1.85</v>
+      </c>
+      <c r="V3">
         <v>1.95</v>
       </c>
-      <c r="S3">
-        <v>1.85</v>
-      </c>
-      <c r="T3">
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
         <v>2.5</v>
       </c>
-      <c r="U3">
-        <v>1.875</v>
-      </c>
-      <c r="V3">
-        <v>1.925</v>
-      </c>
-      <c r="W3">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6757667</v>
+        <v>6760258</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,70 +815,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M4">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q4">
         <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>2.5</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6760260</v>
+        <v>6756722</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,73 +993,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O6">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P6">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X6">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>2.5</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6760261</v>
+        <v>6757667</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,73 +1171,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
       </c>
       <c r="K8">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N8">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
         <v>2</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6760258</v>
+        <v>6760260</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,43 +1260,43 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="L9">
-        <v>2.75</v>
-      </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P9">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T9">
         <v>2</v>
@@ -1311,16 +1311,16 @@
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>0.9750000000000001</v>
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6728746</v>
+        <v>6728811</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,73 +1349,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L10">
+        <v>2.8</v>
+      </c>
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="M10">
-        <v>2.6</v>
-      </c>
       <c r="N10">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P10">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z10">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1423,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6728810</v>
+        <v>6728806</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1438,55 +1438,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L11">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N11">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
         <v>2</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1495,16 +1495,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6728811</v>
+        <v>6728810</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,70 +1527,70 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
       </c>
       <c r="K12">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O12">
         <v>2.9</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6728745</v>
+        <v>6728746</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,73 +1616,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N13">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6728807</v>
+        <v>6728809</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1714,22 +1714,22 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
+        <v>1.615</v>
+      </c>
+      <c r="L14">
+        <v>3.4</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
         <v>1.909</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>3.2</v>
-      </c>
-      <c r="M14">
-        <v>3.6</v>
-      </c>
-      <c r="N14">
-        <v>1.833</v>
-      </c>
-      <c r="O14">
-        <v>3.5</v>
       </c>
       <c r="P14">
         <v>3.5</v>
@@ -1738,22 +1738,22 @@
         <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
         <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>0.833</v>
+        <v>0.909</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1762,13 +1762,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6728809</v>
+        <v>6728808</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L15">
+        <v>3.25</v>
+      </c>
+      <c r="M15">
+        <v>1.7</v>
+      </c>
+      <c r="N15">
+        <v>4.75</v>
+      </c>
+      <c r="O15">
         <v>3.4</v>
       </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-      <c r="N15">
-        <v>1.909</v>
-      </c>
-      <c r="O15">
-        <v>3.2</v>
-      </c>
       <c r="P15">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q15">
+        <v>0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>1.825</v>
+      </c>
+      <c r="V15">
+        <v>1.975</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z15">
         <v>-0.5</v>
       </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>1.8</v>
-      </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.9</v>
-      </c>
-      <c r="V15">
-        <v>1.9</v>
-      </c>
-      <c r="W15">
-        <v>0.909</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6728806</v>
+        <v>6728745</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,31 +1883,31 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P16">
         <v>6.5</v>
@@ -1916,22 +1916,22 @@
         <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1940,16 +1940,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6728808</v>
+        <v>6728807</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1972,10 +1972,10 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1984,61 +1984,61 @@
         <v>49</v>
       </c>
       <c r="K17">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="L17">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6786810</v>
+        <v>6786814</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,76 +2058,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
       <c r="K18">
+        <v>6.5</v>
+      </c>
+      <c r="L18">
+        <v>3.8</v>
+      </c>
+      <c r="M18">
         <v>1.444</v>
       </c>
-      <c r="L18">
-        <v>3.6</v>
-      </c>
-      <c r="M18">
-        <v>7</v>
-      </c>
       <c r="N18">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="P18">
-        <v>6</v>
+        <v>1.285</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R18">
+        <v>1.825</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2.25</v>
+      </c>
+      <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
         <v>1.875</v>
       </c>
-      <c r="S18">
-        <v>1.925</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>2.05</v>
-      </c>
-      <c r="V18">
-        <v>1.75</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA18">
+        <v>-0.5</v>
+      </c>
+      <c r="AB18">
         <v>0.925</v>
       </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2147,10 +2147,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>1.25</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6786813</v>
+        <v>6786815</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,58 +2236,58 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
       <c r="M20">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O20">
         <v>2.9</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2296,16 +2296,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC20">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2325,10 +2325,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>2.1</v>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6786809</v>
+        <v>6786810</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,10 +2414,10 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2426,64 +2426,64 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L22">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N22">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O22">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P22">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S22">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6786814</v>
+        <v>6786813</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
       </c>
       <c r="K23">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="L23">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="N23">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P23">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V23">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6786815</v>
+        <v>6786809</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>45097.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N24">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
         <v>2.9</v>
       </c>
       <c r="P24">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
+        <v>2.025</v>
+      </c>
+      <c r="V24">
         <v>1.775</v>
       </c>
-      <c r="V24">
-        <v>2.025</v>
-      </c>
       <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
         <v>1.9</v>
       </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2681,10 +2681,10 @@
         <v>45097.75</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
         <v>2.1</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6786817</v>
+        <v>6786820</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,73 +2773,73 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>3.75</v>
+        <v>1.444</v>
       </c>
       <c r="N26">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="O26">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>2.875</v>
+        <v>1.2</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
+        <v>1.925</v>
+      </c>
+      <c r="S26">
+        <v>1.875</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
+        <v>2.025</v>
+      </c>
+      <c r="V26">
         <v>1.775</v>
       </c>
-      <c r="S26">
-        <v>2.025</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>1.825</v>
-      </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6786819</v>
+        <v>6786823</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
         <v>49</v>
       </c>
       <c r="K27">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="M27">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6786820</v>
+        <v>6786822</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45100.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>49</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L28">
-      